--- a/FastEHC Template.xlsx
+++ b/FastEHC Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://checkmarx-my.sharepoint.com/personal/ryan_wakeham_checkmarx_com/Documents/Documents/Document Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CxTools\fastEHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{D8D37CFB-1870-4314-9832-29AF03ABB73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E86F23F-1659-4F6F-A280-18A69F0781B5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791636C8-EDC2-4E4C-A4D1-E37EC7356976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21072" yWindow="120" windowWidth="24984" windowHeight="18336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -833,24 +833,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="26" formatCode="h:mm:ss"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -1447,6 +1429,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border outline="0">
@@ -15590,26 +15590,26 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{86FDDA0B-647C-480D-9F30-2FC7D1703224}" name="scansbyweeks" displayName="scansbyweeks" ref="BO3:CE115" totalsRowShown="0" headerRowDxfId="21" dataDxfId="0" headerRowBorderDxfId="20" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{86FDDA0B-647C-480D-9F30-2FC7D1703224}" name="scansbyweeks" displayName="scansbyweeks" ref="BO3:CE115" totalsRowShown="0" headerRowDxfId="21" dataDxfId="19" headerRowBorderDxfId="20" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <autoFilter ref="BO3:CE115" xr:uid="{86FDDA0B-647C-480D-9F30-2FC7D1703224}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{E5B5B606-9D25-4361-A412-856D30FB085D}" name="Week" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{1FF7A2FA-BD57-4B7D-B75A-198FFD16971A}" name="Scans" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{2833355E-21D6-4B94-AE79-E74B4DB37BCB}" name="No Scans" dataDxfId="15"/>
-    <tableColumn id="4" xr3:uid="{D4CB33E1-66EC-4F86-88F8-B0BFD1A538F4}" name="Full Scans" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{839C0D62-99A4-4857-9834-B2F902FB577D}" name="Incremental Scans" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{CC3A8E8E-9EF7-4FA2-A2CB-B3B40C3096B8}" name="Sum LOC" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{3454BAF2-E123-446B-9193-7F01C6AE89CA}" name="Max LOC" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{37C6AD9C-9F9A-4A37-9F1E-92488CEBEA73}" name="Sum Failed LOC" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{1E0A9DE8-B993-48F7-8EC8-DFE8AD9E4FA1}" name="Max Failed LOC" dataDxfId="9"/>
-    <tableColumn id="10" xr3:uid="{0E54A093-FCDD-4DCE-99B0-DF6DD0E445D5}" name="AVG Total Scan Time" dataDxfId="8"/>
-    <tableColumn id="11" xr3:uid="{033A752B-47AD-43A9-8954-F1C0EEDBE11E}" name="Max Total Scan Time" dataDxfId="7"/>
-    <tableColumn id="12" xr3:uid="{97E06F72-3624-4E91-9197-85ABA79F2AD0}" name="Avg Source Pulling Time" dataDxfId="6"/>
-    <tableColumn id="13" xr3:uid="{7A180333-2185-4433-ABFA-44A60BE8802C}" name="Max Source Pulling Time" dataDxfId="5"/>
-    <tableColumn id="14" xr3:uid="{61184CF4-E39C-4C1A-B8A5-32FA95E287B5}" name="Avg Queue Time" dataDxfId="4"/>
-    <tableColumn id="15" xr3:uid="{16DA6AA1-F911-4238-97F9-06CB3C61C7E3}" name="Max Queue Time" dataDxfId="3"/>
-    <tableColumn id="16" xr3:uid="{9C0E6420-858E-4362-A044-322048C29C84}" name="Avg Engine Time" dataDxfId="2"/>
-    <tableColumn id="17" xr3:uid="{0C68D116-8F53-4013-AAD3-D754B88A6475}" name="Max Engine Time" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{E5B5B606-9D25-4361-A412-856D30FB085D}" name="Week" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{1FF7A2FA-BD57-4B7D-B75A-198FFD16971A}" name="Scans" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{2833355E-21D6-4B94-AE79-E74B4DB37BCB}" name="No Scans" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D4CB33E1-66EC-4F86-88F8-B0BFD1A538F4}" name="Full Scans" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{839C0D62-99A4-4857-9834-B2F902FB577D}" name="Incremental Scans" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{CC3A8E8E-9EF7-4FA2-A2CB-B3B40C3096B8}" name="Sum LOC" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{3454BAF2-E123-446B-9193-7F01C6AE89CA}" name="Max LOC" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{37C6AD9C-9F9A-4A37-9F1E-92488CEBEA73}" name="Sum Failed LOC" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{1E0A9DE8-B993-48F7-8EC8-DFE8AD9E4FA1}" name="Max Failed LOC" dataDxfId="8"/>
+    <tableColumn id="10" xr3:uid="{0E54A093-FCDD-4DCE-99B0-DF6DD0E445D5}" name="AVG Total Scan Time" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{033A752B-47AD-43A9-8954-F1C0EEDBE11E}" name="Max Total Scan Time" dataDxfId="6"/>
+    <tableColumn id="12" xr3:uid="{97E06F72-3624-4E91-9197-85ABA79F2AD0}" name="Avg Source Pulling Time" dataDxfId="5"/>
+    <tableColumn id="13" xr3:uid="{7A180333-2185-4433-ABFA-44A60BE8802C}" name="Max Source Pulling Time" dataDxfId="4"/>
+    <tableColumn id="14" xr3:uid="{61184CF4-E39C-4C1A-B8A5-32FA95E287B5}" name="Avg Queue Time" dataDxfId="3"/>
+    <tableColumn id="15" xr3:uid="{16DA6AA1-F911-4238-97F9-06CB3C61C7E3}" name="Max Queue Time" dataDxfId="2"/>
+    <tableColumn id="16" xr3:uid="{9C0E6420-858E-4362-A044-322048C29C84}" name="Avg Engine Time" dataDxfId="1"/>
+    <tableColumn id="17" xr3:uid="{0C68D116-8F53-4013-AAD3-D754B88A6475}" name="Max Engine Time" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15945,31 +15945,29 @@
   </sheetPr>
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="36" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="8" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="8"/>
+    <col min="11" max="12" width="12.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="8" customWidth="1"/>
+    <col min="15" max="16" width="12.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:16" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
@@ -15991,8 +15989,8 @@
       <c r="O2" s="43"/>
       <c r="P2" s="44"/>
     </row>
-    <row r="3" spans="2:16" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -16027,7 +16025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
@@ -16066,7 +16064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
@@ -16105,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -16144,7 +16142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
@@ -16183,7 +16181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
@@ -16222,7 +16220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>34</v>
       </c>
@@ -16253,7 +16251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>37</v>
       </c>
@@ -16286,7 +16284,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>40</v>
       </c>
@@ -16331,7 +16329,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>43</v>
       </c>
@@ -16378,7 +16376,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>46</v>
       </c>
@@ -16425,7 +16423,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
         <v>49</v>
       </c>
@@ -16472,7 +16470,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
         <v>52</v>
       </c>
@@ -16519,7 +16517,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
         <v>55</v>
       </c>
@@ -16566,7 +16564,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
         <v>58</v>
       </c>
@@ -16610,7 +16608,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F19" s="9" t="s">
         <v>61</v>
       </c>
@@ -16646,7 +16644,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>0</v>
       </c>
@@ -16680,7 +16678,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" s="9" t="s">
         <v>64</v>
       </c>
@@ -16725,7 +16723,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
         <v>67</v>
       </c>
@@ -16773,7 +16771,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="s">
         <v>69</v>
       </c>
@@ -16821,7 +16819,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F24" s="9" t="s">
         <v>71</v>
       </c>
@@ -16858,7 +16856,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>72</v>
       </c>
@@ -16904,7 +16902,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>74</v>
       </c>
@@ -16952,9 +16950,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C27" s="13">
         <f>Data!K5</f>
@@ -16977,7 +16975,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="9" t="s">
         <v>77</v>
       </c>
@@ -17011,9 +17009,9 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="13">
         <f>Data!K7</f>
@@ -17047,7 +17045,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F30" s="9" t="s">
         <v>81</v>
       </c>
@@ -17072,7 +17070,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F31" s="9" t="s">
         <v>82</v>
       </c>
@@ -17097,7 +17095,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F32" s="9" t="s">
         <v>83</v>
       </c>
@@ -17122,7 +17120,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F33" s="9" t="s">
         <v>84</v>
       </c>
@@ -17147,7 +17145,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F34" s="9" t="s">
         <v>85</v>
       </c>
@@ -17172,7 +17170,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35" s="9" t="s">
         <v>86</v>
       </c>
@@ -17197,7 +17195,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" s="9" t="s">
         <v>87</v>
       </c>
@@ -17222,7 +17220,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" s="9" t="s">
         <v>88</v>
       </c>
@@ -17235,7 +17233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" s="9" t="s">
         <v>89</v>
       </c>
@@ -17248,7 +17246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" s="9" t="s">
         <v>90</v>
       </c>
@@ -17261,7 +17259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" s="9" t="s">
         <v>91</v>
       </c>
@@ -17293,22 +17291,22 @@
   </sheetPr>
   <dimension ref="B1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="8" customWidth="1"/>
-    <col min="5" max="8" width="12.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="3" max="4" width="10.7109375" style="8" customWidth="1"/>
+    <col min="5" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:8" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>92</v>
       </c>
@@ -17319,7 +17317,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="44"/>
     </row>
-    <row r="4" spans="2:8" s="15" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" s="15" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
@@ -17342,7 +17340,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <f>Data!AK4</f>
         <v>0</v>
@@ -17372,7 +17370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <f>Data!AK5</f>
         <v>0</v>
@@ -17402,7 +17400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <f>Data!AK6</f>
         <v>0</v>
@@ -17432,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <f>Data!AK7</f>
         <v>0</v>
@@ -17462,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <f>Data!AK8</f>
         <v>0</v>
@@ -17492,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <f>Data!AK9</f>
         <v>0</v>
@@ -17522,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <f>Data!AK10</f>
         <v>0</v>
@@ -17552,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <f>Data!AK11</f>
         <v>0</v>
@@ -17582,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <f>Data!AK12</f>
         <v>0</v>
@@ -17612,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <f>Data!AK13</f>
         <v>0</v>
@@ -17642,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <f>Data!AK14</f>
         <v>0</v>
@@ -17672,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <f>Data!AK15</f>
         <v>0</v>
@@ -17702,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(C5:C16)</f>
         <v>0</v>
@@ -17728,19 +17726,19 @@
       <selection activeCell="X143" sqref="X143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
-    <col min="2" max="9" width="13.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="8" customWidth="1"/>
-    <col min="11" max="18" width="13.33203125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="1.6640625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
+    <col min="2" max="9" width="13.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="8" customWidth="1"/>
+    <col min="11" max="18" width="13.28515625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:18" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="42" t="s">
         <v>98</v>
       </c>
@@ -17761,8 +17759,8 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="44"/>
     </row>
-    <row r="3" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:18" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:18" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:18" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="45" t="s">
         <v>99</v>
       </c>
@@ -17783,30 +17781,30 @@
       <c r="Q4" s="46"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="45" t="s">
         <v>100</v>
       </c>
@@ -17827,30 +17825,30 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="47"/>
     </row>
-    <row r="29" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="45" t="s">
         <v>101</v>
       </c>
@@ -17871,30 +17869,30 @@
       <c r="Q52" s="46"/>
       <c r="R52" s="47"/>
     </row>
-    <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="45" t="s">
         <v>141</v>
       </c>
@@ -17915,11 +17913,11 @@
       <c r="Q76" s="46"/>
       <c r="R76" s="47"/>
     </row>
-    <row r="77" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B100" s="45" t="s">
         <v>142</v>
       </c>
@@ -17942,7 +17940,7 @@
       <c r="Q100" s="46"/>
       <c r="R100" s="47"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B124" s="45" t="s">
         <v>103</v>
       </c>
@@ -17992,75 +17990,75 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.6640625" customWidth="1"/>
-    <col min="22" max="22" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="1.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
-    <col min="26" max="27" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.6640625" customWidth="1"/>
-    <col min="29" max="29" width="22.77734375" style="1" customWidth="1"/>
-    <col min="30" max="31" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="1.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="22.77734375" style="1" customWidth="1"/>
-    <col min="34" max="35" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="1.6640625" customWidth="1"/>
-    <col min="37" max="37" width="10.6640625" style="1" customWidth="1"/>
-    <col min="38" max="43" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="1.6640625" style="1" customWidth="1"/>
-    <col min="45" max="46" width="10.6640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5546875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="1.6640625" style="1" customWidth="1"/>
-    <col min="49" max="52" width="10.6640625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.77734375" style="1" customWidth="1"/>
-    <col min="54" max="55" width="10.6640625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="13.88671875" style="1" customWidth="1"/>
-    <col min="57" max="57" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" customWidth="1"/>
+    <col min="22" max="22" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="1" customWidth="1"/>
+    <col min="26" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" style="1" customWidth="1"/>
+    <col min="30" max="31" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="1.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="1.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="1" customWidth="1"/>
+    <col min="38" max="43" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="1.7109375" style="1" customWidth="1"/>
+    <col min="45" max="46" width="10.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5703125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="1.7109375" style="1" customWidth="1"/>
+    <col min="49" max="52" width="10.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.7109375" style="1" customWidth="1"/>
+    <col min="54" max="55" width="10.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="13.85546875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5703125" style="1" customWidth="1"/>
     <col min="58" max="58" width="17" style="1" customWidth="1"/>
-    <col min="59" max="59" width="16.88671875" style="1" customWidth="1"/>
-    <col min="60" max="60" width="19.44140625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="19.77734375" style="1" customWidth="1"/>
-    <col min="62" max="62" width="14.109375" style="1" customWidth="1"/>
-    <col min="63" max="63" width="14.44140625" style="1" customWidth="1"/>
-    <col min="64" max="64" width="14.21875" style="1" customWidth="1"/>
-    <col min="65" max="65" width="14.5546875" style="1" customWidth="1"/>
-    <col min="66" max="66" width="1.6640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.6640625" style="1" customWidth="1"/>
-    <col min="68" max="70" width="10.6640625" style="1"/>
-    <col min="71" max="71" width="15.77734375" style="1" customWidth="1"/>
-    <col min="72" max="73" width="10.6640625" style="1"/>
-    <col min="74" max="74" width="13.88671875" style="1" customWidth="1"/>
-    <col min="75" max="75" width="13.5546875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="16.85546875" style="1" customWidth="1"/>
+    <col min="60" max="60" width="19.42578125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="19.7109375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="14.140625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="14.42578125" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.28515625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5703125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="1.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" style="1" customWidth="1"/>
+    <col min="68" max="70" width="10.7109375" style="1"/>
+    <col min="71" max="71" width="15.7109375" style="1" customWidth="1"/>
+    <col min="72" max="73" width="10.7109375" style="1"/>
+    <col min="74" max="74" width="13.85546875" style="1" customWidth="1"/>
+    <col min="75" max="75" width="13.5703125" style="1" customWidth="1"/>
     <col min="76" max="76" width="17" style="1" customWidth="1"/>
-    <col min="77" max="77" width="16.88671875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="19.44140625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="19.77734375" style="1" customWidth="1"/>
-    <col min="80" max="80" width="14.109375" style="1" customWidth="1"/>
-    <col min="81" max="81" width="14.44140625" style="1" customWidth="1"/>
-    <col min="82" max="82" width="14.21875" style="1" customWidth="1"/>
-    <col min="83" max="83" width="14.5546875" style="1" customWidth="1"/>
-    <col min="84" max="16384" width="10.6640625" style="1"/>
+    <col min="77" max="77" width="16.85546875" style="1" customWidth="1"/>
+    <col min="78" max="78" width="19.42578125" style="1" customWidth="1"/>
+    <col min="79" max="79" width="19.7109375" style="1" customWidth="1"/>
+    <col min="80" max="80" width="14.140625" style="1" customWidth="1"/>
+    <col min="81" max="81" width="14.42578125" style="1" customWidth="1"/>
+    <col min="82" max="82" width="14.28515625" style="1" customWidth="1"/>
+    <col min="83" max="83" width="14.5703125" style="1" customWidth="1"/>
+    <col min="84" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:83" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:83" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B2" s="49" t="s">
         <v>105</v>
       </c>
@@ -18158,7 +18156,7 @@
       <c r="CD2" s="43"/>
       <c r="CE2" s="43"/>
     </row>
-    <row r="3" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>118</v>
       </c>
@@ -18370,7 +18368,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -18442,7 +18440,7 @@
       <c r="CD4" s="4"/>
       <c r="CE4" s="34"/>
     </row>
-    <row r="5" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -18514,7 +18512,7 @@
       <c r="CD5" s="4"/>
       <c r="CE5" s="34"/>
     </row>
-    <row r="6" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="38"/>
       <c r="D6" s="2"/>
@@ -18586,7 +18584,7 @@
       <c r="CD6" s="4"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="38"/>
       <c r="D7" s="2"/>
@@ -18655,7 +18653,7 @@
       <c r="CD7" s="4"/>
       <c r="CE7" s="34"/>
     </row>
-    <row r="8" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="38"/>
       <c r="D8" s="2"/>
@@ -18721,7 +18719,7 @@
       <c r="CD8" s="4"/>
       <c r="CE8" s="34"/>
     </row>
-    <row r="9" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="38"/>
       <c r="D9" s="37"/>
@@ -18784,7 +18782,7 @@
       <c r="CD9" s="4"/>
       <c r="CE9" s="34"/>
     </row>
-    <row r="10" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="38"/>
       <c r="D10" s="37"/>
@@ -18845,7 +18843,7 @@
       <c r="CD10" s="4"/>
       <c r="CE10" s="34"/>
     </row>
-    <row r="11" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="38"/>
       <c r="D11" s="37"/>
@@ -18903,7 +18901,7 @@
       <c r="CD11" s="4"/>
       <c r="CE11" s="34"/>
     </row>
-    <row r="12" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="38"/>
       <c r="D12" s="25"/>
@@ -18961,7 +18959,7 @@
       <c r="CD12" s="4"/>
       <c r="CE12" s="34"/>
     </row>
-    <row r="13" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="38"/>
       <c r="D13" s="37"/>
@@ -19019,7 +19017,7 @@
       <c r="CD13" s="4"/>
       <c r="CE13" s="34"/>
     </row>
-    <row r="14" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="38"/>
       <c r="D14" s="37"/>
@@ -19077,7 +19075,7 @@
       <c r="CD14" s="4"/>
       <c r="CE14" s="34"/>
     </row>
-    <row r="15" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="38"/>
       <c r="D15" s="37"/>
@@ -19135,7 +19133,7 @@
       <c r="CD15" s="4"/>
       <c r="CE15" s="34"/>
     </row>
-    <row r="16" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="38"/>
       <c r="D16" s="37"/>
@@ -19186,7 +19184,7 @@
       <c r="CD16" s="4"/>
       <c r="CE16" s="34"/>
     </row>
-    <row r="17" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="38"/>
       <c r="D17" s="2"/>
@@ -19237,7 +19235,7 @@
       <c r="CD17" s="35"/>
       <c r="CE17" s="36"/>
     </row>
-    <row r="18" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R18" s="20"/>
       <c r="S18" s="25"/>
       <c r="T18" s="39"/>
@@ -19285,7 +19283,7 @@
       <c r="CD18" s="4"/>
       <c r="CE18" s="34"/>
     </row>
-    <row r="19" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R19" s="20"/>
       <c r="S19" s="25"/>
       <c r="T19" s="39"/>
@@ -19333,7 +19331,7 @@
       <c r="CD19" s="4"/>
       <c r="CE19" s="34"/>
     </row>
-    <row r="20" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R20" s="20"/>
       <c r="S20" s="25"/>
       <c r="T20" s="39"/>
@@ -19381,7 +19379,7 @@
       <c r="CD20" s="4"/>
       <c r="CE20" s="34"/>
     </row>
-    <row r="21" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R21" s="20"/>
       <c r="S21" s="25"/>
       <c r="T21" s="39"/>
@@ -19429,7 +19427,7 @@
       <c r="CD21" s="4"/>
       <c r="CE21" s="34"/>
     </row>
-    <row r="22" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R22" s="20"/>
       <c r="S22" s="25"/>
       <c r="T22" s="39"/>
@@ -19477,7 +19475,7 @@
       <c r="CD22" s="4"/>
       <c r="CE22" s="34"/>
     </row>
-    <row r="23" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R23" s="20"/>
       <c r="S23" s="25"/>
       <c r="T23" s="39"/>
@@ -19525,7 +19523,7 @@
       <c r="CD23" s="4"/>
       <c r="CE23" s="34"/>
     </row>
-    <row r="24" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R24" s="20"/>
       <c r="S24" s="25"/>
       <c r="T24" s="39"/>
@@ -19573,7 +19571,7 @@
       <c r="CD24" s="4"/>
       <c r="CE24" s="34"/>
     </row>
-    <row r="25" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R25" s="20"/>
       <c r="S25" s="25"/>
       <c r="T25" s="39"/>
@@ -19621,7 +19619,7 @@
       <c r="CD25" s="4"/>
       <c r="CE25" s="34"/>
     </row>
-    <row r="26" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R26" s="20"/>
       <c r="S26" s="25"/>
       <c r="T26" s="39"/>
@@ -19669,7 +19667,7 @@
       <c r="CD26" s="4"/>
       <c r="CE26" s="34"/>
     </row>
-    <row r="27" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R27" s="20"/>
       <c r="S27" s="25"/>
       <c r="T27" s="39"/>
@@ -19717,7 +19715,7 @@
       <c r="CD27" s="4"/>
       <c r="CE27" s="34"/>
     </row>
-    <row r="28" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R28" s="24"/>
       <c r="S28" s="26"/>
       <c r="T28" s="40"/>
@@ -19765,7 +19763,7 @@
       <c r="CD28" s="4"/>
       <c r="CE28" s="34"/>
     </row>
-    <row r="29" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC29" s="20"/>
       <c r="AD29" s="38"/>
       <c r="AE29" s="27"/>
@@ -19810,7 +19808,7 @@
       <c r="CD29" s="4"/>
       <c r="CE29" s="34"/>
     </row>
-    <row r="30" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC30" s="20"/>
       <c r="AD30" s="38"/>
       <c r="AE30" s="27"/>
@@ -19855,7 +19853,7 @@
       <c r="CD30" s="4"/>
       <c r="CE30" s="34"/>
     </row>
-    <row r="31" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC31" s="20"/>
       <c r="AD31" s="38"/>
       <c r="AE31" s="27"/>
@@ -19900,7 +19898,7 @@
       <c r="CD31" s="4"/>
       <c r="CE31" s="34"/>
     </row>
-    <row r="32" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC32" s="20"/>
       <c r="AD32" s="38"/>
       <c r="AE32" s="27"/>
@@ -19945,7 +19943,7 @@
       <c r="CD32" s="4"/>
       <c r="CE32" s="34"/>
     </row>
-    <row r="33" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="33" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC33" s="20"/>
       <c r="AD33" s="38"/>
       <c r="AE33" s="27"/>
@@ -19990,7 +19988,7 @@
       <c r="CD33" s="4"/>
       <c r="CE33" s="34"/>
     </row>
-    <row r="34" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="34" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC34" s="20"/>
       <c r="AD34" s="38"/>
       <c r="AE34" s="27"/>
@@ -20035,7 +20033,7 @@
       <c r="CD34" s="4"/>
       <c r="CE34" s="34"/>
     </row>
-    <row r="35" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="35" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC35" s="20"/>
       <c r="AD35" s="38"/>
       <c r="AE35" s="27"/>
@@ -20080,7 +20078,7 @@
       <c r="CD35" s="4"/>
       <c r="CE35" s="34"/>
     </row>
-    <row r="36" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="36" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC36" s="20"/>
       <c r="AD36" s="38"/>
       <c r="AE36" s="27"/>
@@ -20125,7 +20123,7 @@
       <c r="CD36" s="4"/>
       <c r="CE36" s="34"/>
     </row>
-    <row r="37" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="37" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC37" s="20"/>
       <c r="AD37" s="38"/>
       <c r="AE37" s="27"/>
@@ -20170,7 +20168,7 @@
       <c r="CD37" s="4"/>
       <c r="CE37" s="34"/>
     </row>
-    <row r="38" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="38" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC38" s="20"/>
       <c r="AD38" s="38"/>
       <c r="AE38" s="27"/>
@@ -20215,7 +20213,7 @@
       <c r="CD38" s="4"/>
       <c r="CE38" s="34"/>
     </row>
-    <row r="39" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="39" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC39" s="20"/>
       <c r="AD39" s="38"/>
       <c r="AE39" s="27"/>
@@ -20260,7 +20258,7 @@
       <c r="CD39" s="4"/>
       <c r="CE39" s="34"/>
     </row>
-    <row r="40" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="40" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC40" s="20"/>
       <c r="AD40" s="38"/>
       <c r="AE40" s="27"/>
@@ -20305,7 +20303,7 @@
       <c r="CD40" s="4"/>
       <c r="CE40" s="34"/>
     </row>
-    <row r="41" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="41" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC41" s="20"/>
       <c r="AD41" s="38"/>
       <c r="AE41" s="27"/>
@@ -20350,7 +20348,7 @@
       <c r="CD41" s="4"/>
       <c r="CE41" s="34"/>
     </row>
-    <row r="42" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="42" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC42" s="20"/>
       <c r="AD42" s="38"/>
       <c r="AE42" s="27"/>
@@ -20395,7 +20393,7 @@
       <c r="CD42" s="4"/>
       <c r="CE42" s="34"/>
     </row>
-    <row r="43" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="43" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC43" s="20"/>
       <c r="AD43" s="38"/>
       <c r="AE43" s="27"/>
@@ -20440,7 +20438,7 @@
       <c r="CD43" s="4"/>
       <c r="CE43" s="34"/>
     </row>
-    <row r="44" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="44" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC44" s="20"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="27"/>
@@ -20485,7 +20483,7 @@
       <c r="CD44" s="4"/>
       <c r="CE44" s="34"/>
     </row>
-    <row r="45" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="45" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC45" s="20"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="27"/>
@@ -20530,7 +20528,7 @@
       <c r="CD45" s="4"/>
       <c r="CE45" s="34"/>
     </row>
-    <row r="46" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="46" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC46" s="20"/>
       <c r="AD46" s="38"/>
       <c r="AE46" s="27"/>
@@ -20575,7 +20573,7 @@
       <c r="CD46" s="4"/>
       <c r="CE46" s="34"/>
     </row>
-    <row r="47" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="47" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC47" s="20"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="27"/>
@@ -20620,7 +20618,7 @@
       <c r="CD47" s="4"/>
       <c r="CE47" s="34"/>
     </row>
-    <row r="48" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="48" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC48" s="20"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="27"/>
@@ -20665,7 +20663,7 @@
       <c r="CD48" s="4"/>
       <c r="CE48" s="34"/>
     </row>
-    <row r="49" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="49" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC49" s="20"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="27"/>
@@ -20710,7 +20708,7 @@
       <c r="CD49" s="4"/>
       <c r="CE49" s="34"/>
     </row>
-    <row r="50" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="50" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC50" s="24"/>
       <c r="AD50" s="41"/>
       <c r="AE50" s="28"/>
@@ -20755,7 +20753,7 @@
       <c r="CD50" s="4"/>
       <c r="CE50" s="34"/>
     </row>
-    <row r="51" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="51" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS51" s="29"/>
       <c r="AT51" s="18"/>
       <c r="AU51" s="30"/>
@@ -20794,7 +20792,7 @@
       <c r="CD51" s="4"/>
       <c r="CE51" s="34"/>
     </row>
-    <row r="52" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="52" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS52" s="29"/>
       <c r="AT52" s="18"/>
       <c r="AU52" s="30"/>
@@ -20833,7 +20831,7 @@
       <c r="CD52" s="4"/>
       <c r="CE52" s="34"/>
     </row>
-    <row r="53" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="53" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS53" s="29"/>
       <c r="AT53" s="18"/>
       <c r="AU53" s="30"/>
@@ -20872,7 +20870,7 @@
       <c r="CD53" s="4"/>
       <c r="CE53" s="34"/>
     </row>
-    <row r="54" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="54" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS54" s="29"/>
       <c r="AT54" s="18"/>
       <c r="AU54" s="30"/>
@@ -20911,7 +20909,7 @@
       <c r="CD54" s="4"/>
       <c r="CE54" s="34"/>
     </row>
-    <row r="55" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="55" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS55" s="29"/>
       <c r="AT55" s="18"/>
       <c r="AU55" s="30"/>
@@ -20950,7 +20948,7 @@
       <c r="CD55" s="4"/>
       <c r="CE55" s="34"/>
     </row>
-    <row r="56" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="56" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS56" s="29"/>
       <c r="AT56" s="18"/>
       <c r="AU56" s="30"/>
@@ -20989,7 +20987,7 @@
       <c r="CD56" s="4"/>
       <c r="CE56" s="34"/>
     </row>
-    <row r="57" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="57" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS57" s="29"/>
       <c r="AT57" s="18"/>
       <c r="AU57" s="30"/>
@@ -21028,7 +21026,7 @@
       <c r="CD57" s="4"/>
       <c r="CE57" s="34"/>
     </row>
-    <row r="58" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="58" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS58" s="29"/>
       <c r="AT58" s="18"/>
       <c r="AU58" s="30"/>
@@ -21067,7 +21065,7 @@
       <c r="CD58" s="4"/>
       <c r="CE58" s="34"/>
     </row>
-    <row r="59" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="59" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS59" s="29"/>
       <c r="AT59" s="18"/>
       <c r="AU59" s="30"/>
@@ -21106,7 +21104,7 @@
       <c r="CD59" s="4"/>
       <c r="CE59" s="34"/>
     </row>
-    <row r="60" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="60" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS60" s="29"/>
       <c r="AT60" s="18"/>
       <c r="AU60" s="30"/>
@@ -21145,7 +21143,7 @@
       <c r="CD60" s="4"/>
       <c r="CE60" s="34"/>
     </row>
-    <row r="61" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="61" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS61" s="29"/>
       <c r="AT61" s="18"/>
       <c r="AU61" s="30"/>
@@ -21184,7 +21182,7 @@
       <c r="CD61" s="4"/>
       <c r="CE61" s="34"/>
     </row>
-    <row r="62" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="62" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS62" s="29"/>
       <c r="AT62" s="18"/>
       <c r="AU62" s="30"/>
@@ -21223,7 +21221,7 @@
       <c r="CD62" s="4"/>
       <c r="CE62" s="34"/>
     </row>
-    <row r="63" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="63" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS63" s="29"/>
       <c r="AT63" s="18"/>
       <c r="AU63" s="30"/>
@@ -21262,7 +21260,7 @@
       <c r="CD63" s="4"/>
       <c r="CE63" s="34"/>
     </row>
-    <row r="64" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="64" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS64" s="29"/>
       <c r="AT64" s="18"/>
       <c r="AU64" s="30"/>
@@ -21301,7 +21299,7 @@
       <c r="CD64" s="4"/>
       <c r="CE64" s="34"/>
     </row>
-    <row r="65" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="65" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS65" s="29"/>
       <c r="AT65" s="18"/>
       <c r="AU65" s="30"/>
@@ -21340,7 +21338,7 @@
       <c r="CD65" s="4"/>
       <c r="CE65" s="34"/>
     </row>
-    <row r="66" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="66" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS66" s="29"/>
       <c r="AT66" s="18"/>
       <c r="AU66" s="30"/>
@@ -21379,7 +21377,7 @@
       <c r="CD66" s="4"/>
       <c r="CE66" s="34"/>
     </row>
-    <row r="67" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="67" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS67" s="29"/>
       <c r="AT67" s="18"/>
       <c r="AU67" s="30"/>
@@ -21418,7 +21416,7 @@
       <c r="CD67" s="4"/>
       <c r="CE67" s="34"/>
     </row>
-    <row r="68" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="68" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS68" s="29"/>
       <c r="AT68" s="18"/>
       <c r="AU68" s="30"/>
@@ -21457,7 +21455,7 @@
       <c r="CD68" s="4"/>
       <c r="CE68" s="34"/>
     </row>
-    <row r="69" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="69" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS69" s="29"/>
       <c r="AT69" s="18"/>
       <c r="AU69" s="30"/>
@@ -21496,7 +21494,7 @@
       <c r="CD69" s="4"/>
       <c r="CE69" s="34"/>
     </row>
-    <row r="70" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="70" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS70" s="29"/>
       <c r="AT70" s="18"/>
       <c r="AU70" s="30"/>
@@ -21535,7 +21533,7 @@
       <c r="CD70" s="4"/>
       <c r="CE70" s="34"/>
     </row>
-    <row r="71" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="71" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS71" s="29"/>
       <c r="AT71" s="18"/>
       <c r="AU71" s="30"/>
@@ -21574,7 +21572,7 @@
       <c r="CD71" s="4"/>
       <c r="CE71" s="34"/>
     </row>
-    <row r="72" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="72" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS72" s="29"/>
       <c r="AT72" s="18"/>
       <c r="AU72" s="30"/>
@@ -21613,7 +21611,7 @@
       <c r="CD72" s="4"/>
       <c r="CE72" s="34"/>
     </row>
-    <row r="73" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="73" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS73" s="29"/>
       <c r="AT73" s="18"/>
       <c r="AU73" s="30"/>
@@ -21652,7 +21650,7 @@
       <c r="CD73" s="4"/>
       <c r="CE73" s="34"/>
     </row>
-    <row r="74" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="74" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS74" s="29"/>
       <c r="AT74" s="18"/>
       <c r="AU74" s="30"/>
@@ -21691,7 +21689,7 @@
       <c r="CD74" s="4"/>
       <c r="CE74" s="34"/>
     </row>
-    <row r="75" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="75" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS75" s="29"/>
       <c r="AT75" s="18"/>
       <c r="AU75" s="30"/>
@@ -21730,7 +21728,7 @@
       <c r="CD75" s="4"/>
       <c r="CE75" s="34"/>
     </row>
-    <row r="76" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="76" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS76" s="29"/>
       <c r="AT76" s="18"/>
       <c r="AU76" s="30"/>
@@ -21769,7 +21767,7 @@
       <c r="CD76" s="4"/>
       <c r="CE76" s="34"/>
     </row>
-    <row r="77" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="77" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS77" s="29"/>
       <c r="AT77" s="18"/>
       <c r="AU77" s="30"/>
@@ -21808,7 +21806,7 @@
       <c r="CD77" s="4"/>
       <c r="CE77" s="34"/>
     </row>
-    <row r="78" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="78" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS78" s="29"/>
       <c r="AT78" s="18"/>
       <c r="AU78" s="30"/>
@@ -21847,7 +21845,7 @@
       <c r="CD78" s="4"/>
       <c r="CE78" s="34"/>
     </row>
-    <row r="79" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="79" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS79" s="29"/>
       <c r="AT79" s="18"/>
       <c r="AU79" s="30"/>
@@ -21886,7 +21884,7 @@
       <c r="CD79" s="4"/>
       <c r="CE79" s="34"/>
     </row>
-    <row r="80" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="80" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS80" s="29"/>
       <c r="AT80" s="18"/>
       <c r="AU80" s="30"/>
@@ -21925,7 +21923,7 @@
       <c r="CD80" s="4"/>
       <c r="CE80" s="34"/>
     </row>
-    <row r="81" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="81" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS81" s="29"/>
       <c r="AT81" s="18"/>
       <c r="AU81" s="30"/>
@@ -21964,7 +21962,7 @@
       <c r="CD81" s="4"/>
       <c r="CE81" s="34"/>
     </row>
-    <row r="82" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="82" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS82" s="29"/>
       <c r="AT82" s="18"/>
       <c r="AU82" s="30"/>
@@ -22003,7 +22001,7 @@
       <c r="CD82" s="4"/>
       <c r="CE82" s="34"/>
     </row>
-    <row r="83" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="83" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS83" s="29"/>
       <c r="AT83" s="18"/>
       <c r="AU83" s="30"/>
@@ -22042,7 +22040,7 @@
       <c r="CD83" s="4"/>
       <c r="CE83" s="34"/>
     </row>
-    <row r="84" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="84" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS84" s="29"/>
       <c r="AT84" s="18"/>
       <c r="AU84" s="30"/>
@@ -22081,7 +22079,7 @@
       <c r="CD84" s="4"/>
       <c r="CE84" s="34"/>
     </row>
-    <row r="85" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="85" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS85" s="29"/>
       <c r="AT85" s="18"/>
       <c r="AU85" s="30"/>
@@ -22120,7 +22118,7 @@
       <c r="CD85" s="4"/>
       <c r="CE85" s="34"/>
     </row>
-    <row r="86" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="86" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS86" s="29"/>
       <c r="AT86" s="18"/>
       <c r="AU86" s="30"/>
@@ -22159,7 +22157,7 @@
       <c r="CD86" s="4"/>
       <c r="CE86" s="34"/>
     </row>
-    <row r="87" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="87" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS87" s="29"/>
       <c r="AT87" s="18"/>
       <c r="AU87" s="30"/>
@@ -22198,7 +22196,7 @@
       <c r="CD87" s="4"/>
       <c r="CE87" s="34"/>
     </row>
-    <row r="88" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="88" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS88" s="29"/>
       <c r="AT88" s="18"/>
       <c r="AU88" s="30"/>
@@ -22237,7 +22235,7 @@
       <c r="CD88" s="4"/>
       <c r="CE88" s="34"/>
     </row>
-    <row r="89" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="89" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS89" s="29"/>
       <c r="AT89" s="18"/>
       <c r="AU89" s="30"/>
@@ -22276,7 +22274,7 @@
       <c r="CD89" s="4"/>
       <c r="CE89" s="34"/>
     </row>
-    <row r="90" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="90" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS90" s="29"/>
       <c r="AT90" s="18"/>
       <c r="AU90" s="30"/>
@@ -22315,7 +22313,7 @@
       <c r="CD90" s="4"/>
       <c r="CE90" s="34"/>
     </row>
-    <row r="91" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="91" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS91" s="29"/>
       <c r="AT91" s="18"/>
       <c r="AU91" s="30"/>
@@ -22354,7 +22352,7 @@
       <c r="CD91" s="4"/>
       <c r="CE91" s="34"/>
     </row>
-    <row r="92" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="92" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS92" s="29"/>
       <c r="AT92" s="18"/>
       <c r="AU92" s="30"/>
@@ -22393,7 +22391,7 @@
       <c r="CD92" s="4"/>
       <c r="CE92" s="34"/>
     </row>
-    <row r="93" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="93" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS93" s="29"/>
       <c r="AT93" s="18"/>
       <c r="AU93" s="30"/>
@@ -22432,7 +22430,7 @@
       <c r="CD93" s="4"/>
       <c r="CE93" s="34"/>
     </row>
-    <row r="94" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="94" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS94" s="29"/>
       <c r="AT94" s="18"/>
       <c r="AU94" s="30"/>
@@ -22471,7 +22469,7 @@
       <c r="CD94" s="4"/>
       <c r="CE94" s="34"/>
     </row>
-    <row r="95" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="95" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS95" s="29"/>
       <c r="AT95" s="18"/>
       <c r="AU95" s="30"/>
@@ -22510,7 +22508,7 @@
       <c r="CD95" s="4"/>
       <c r="CE95" s="34"/>
     </row>
-    <row r="96" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="96" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS96" s="29"/>
       <c r="AT96" s="18"/>
       <c r="AU96" s="30"/>
@@ -22549,7 +22547,7 @@
       <c r="CD96" s="4"/>
       <c r="CE96" s="34"/>
     </row>
-    <row r="97" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="97" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS97" s="29"/>
       <c r="AT97" s="18"/>
       <c r="AU97" s="30"/>
@@ -22588,7 +22586,7 @@
       <c r="CD97" s="4"/>
       <c r="CE97" s="34"/>
     </row>
-    <row r="98" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="98" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS98" s="29"/>
       <c r="AT98" s="18"/>
       <c r="AU98" s="30"/>
@@ -22627,7 +22625,7 @@
       <c r="CD98" s="4"/>
       <c r="CE98" s="34"/>
     </row>
-    <row r="99" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="99" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS99" s="29"/>
       <c r="AT99" s="18"/>
       <c r="AU99" s="30"/>
@@ -22666,7 +22664,7 @@
       <c r="CD99" s="4"/>
       <c r="CE99" s="34"/>
     </row>
-    <row r="100" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="100" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS100" s="29"/>
       <c r="AT100" s="18"/>
       <c r="AU100" s="30"/>
@@ -22705,7 +22703,7 @@
       <c r="CD100" s="4"/>
       <c r="CE100" s="34"/>
     </row>
-    <row r="101" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="101" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS101" s="29"/>
       <c r="AT101" s="18"/>
       <c r="AU101" s="30"/>
@@ -22744,7 +22742,7 @@
       <c r="CD101" s="4"/>
       <c r="CE101" s="34"/>
     </row>
-    <row r="102" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="102" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS102" s="29"/>
       <c r="AT102" s="18"/>
       <c r="AU102" s="30"/>
@@ -22783,7 +22781,7 @@
       <c r="CD102" s="4"/>
       <c r="CE102" s="34"/>
     </row>
-    <row r="103" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="103" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS103" s="29"/>
       <c r="AT103" s="18"/>
       <c r="AU103" s="30"/>
@@ -22822,7 +22820,7 @@
       <c r="CD103" s="4"/>
       <c r="CE103" s="34"/>
     </row>
-    <row r="104" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="104" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS104" s="29"/>
       <c r="AT104" s="18"/>
       <c r="AU104" s="30"/>
@@ -22861,7 +22859,7 @@
       <c r="CD104" s="4"/>
       <c r="CE104" s="34"/>
     </row>
-    <row r="105" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="105" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS105" s="29"/>
       <c r="AT105" s="18"/>
       <c r="AU105" s="30"/>
@@ -22900,7 +22898,7 @@
       <c r="CD105" s="4"/>
       <c r="CE105" s="34"/>
     </row>
-    <row r="106" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="106" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS106" s="31"/>
       <c r="AT106" s="32"/>
       <c r="AU106" s="33"/>
@@ -22939,7 +22937,7 @@
       <c r="CD106" s="4"/>
       <c r="CE106" s="34"/>
     </row>
-    <row r="107" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="107" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS107" s="29"/>
       <c r="AT107" s="18"/>
       <c r="AU107" s="30"/>
@@ -22978,7 +22976,7 @@
       <c r="CD107" s="4"/>
       <c r="CE107" s="34"/>
     </row>
-    <row r="108" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="108" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS108" s="29"/>
       <c r="AT108" s="18"/>
       <c r="AU108" s="30"/>
@@ -23017,7 +23015,7 @@
       <c r="CD108" s="4"/>
       <c r="CE108" s="34"/>
     </row>
-    <row r="109" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="109" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS109" s="29"/>
       <c r="AT109" s="18"/>
       <c r="AU109" s="30"/>
@@ -23056,7 +23054,7 @@
       <c r="CD109" s="4"/>
       <c r="CE109" s="34"/>
     </row>
-    <row r="110" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="110" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS110" s="29"/>
       <c r="AT110" s="18"/>
       <c r="AU110" s="30"/>
@@ -23095,7 +23093,7 @@
       <c r="CD110" s="4"/>
       <c r="CE110" s="34"/>
     </row>
-    <row r="111" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="111" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS111" s="29"/>
       <c r="AT111" s="18"/>
       <c r="AU111" s="30"/>
@@ -23134,7 +23132,7 @@
       <c r="CD111" s="4"/>
       <c r="CE111" s="34"/>
     </row>
-    <row r="112" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="112" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS112" s="29"/>
       <c r="AT112" s="18"/>
       <c r="AU112" s="30"/>
@@ -23173,7 +23171,7 @@
       <c r="CD112" s="4"/>
       <c r="CE112" s="34"/>
     </row>
-    <row r="113" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="113" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS113" s="29"/>
       <c r="AT113" s="18"/>
       <c r="AU113" s="30"/>
@@ -23212,7 +23210,7 @@
       <c r="CD113" s="4"/>
       <c r="CE113" s="34"/>
     </row>
-    <row r="114" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="114" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS114" s="29"/>
       <c r="AT114" s="18"/>
       <c r="AU114" s="30"/>
@@ -23251,7 +23249,7 @@
       <c r="CD114" s="4"/>
       <c r="CE114" s="34"/>
     </row>
-    <row r="115" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="115" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS115" s="29"/>
       <c r="AT115" s="18"/>
       <c r="AU115" s="30"/>
@@ -23290,7 +23288,7 @@
       <c r="CD115" s="35"/>
       <c r="CE115" s="36"/>
     </row>
-    <row r="116" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="116" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS116" s="29"/>
       <c r="AT116" s="18"/>
       <c r="AU116" s="30"/>
@@ -23312,7 +23310,7 @@
       <c r="BL116" s="4"/>
       <c r="BM116" s="34"/>
     </row>
-    <row r="117" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="117" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS117" s="29"/>
       <c r="AT117" s="18"/>
       <c r="AU117" s="30"/>
@@ -23334,7 +23332,7 @@
       <c r="BL117" s="4"/>
       <c r="BM117" s="34"/>
     </row>
-    <row r="118" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="118" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS118" s="29"/>
       <c r="AT118" s="18"/>
       <c r="AU118" s="30"/>
@@ -23356,7 +23354,7 @@
       <c r="BL118" s="4"/>
       <c r="BM118" s="34"/>
     </row>
-    <row r="119" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="119" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS119" s="29"/>
       <c r="AT119" s="18"/>
       <c r="AU119" s="30"/>
@@ -23378,7 +23376,7 @@
       <c r="BL119" s="4"/>
       <c r="BM119" s="34"/>
     </row>
-    <row r="120" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="120" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS120" s="29"/>
       <c r="AT120" s="18"/>
       <c r="AU120" s="30"/>
@@ -23400,7 +23398,7 @@
       <c r="BL120" s="4"/>
       <c r="BM120" s="34"/>
     </row>
-    <row r="121" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="121" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS121" s="29"/>
       <c r="AT121" s="18"/>
       <c r="AU121" s="30"/>
@@ -23422,7 +23420,7 @@
       <c r="BL121" s="4"/>
       <c r="BM121" s="34"/>
     </row>
-    <row r="122" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="122" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS122" s="29"/>
       <c r="AT122" s="18"/>
       <c r="AU122" s="30"/>
@@ -23444,7 +23442,7 @@
       <c r="BL122" s="4"/>
       <c r="BM122" s="34"/>
     </row>
-    <row r="123" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="123" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS123" s="29"/>
       <c r="AT123" s="18"/>
       <c r="AU123" s="30"/>
@@ -23466,7 +23464,7 @@
       <c r="BL123" s="4"/>
       <c r="BM123" s="34"/>
     </row>
-    <row r="124" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="124" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS124" s="29"/>
       <c r="AT124" s="18"/>
       <c r="AU124" s="30"/>
@@ -23488,7 +23486,7 @@
       <c r="BL124" s="4"/>
       <c r="BM124" s="34"/>
     </row>
-    <row r="125" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="125" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS125" s="29"/>
       <c r="AT125" s="18"/>
       <c r="AU125" s="30"/>
@@ -23510,7 +23508,7 @@
       <c r="BL125" s="4"/>
       <c r="BM125" s="34"/>
     </row>
-    <row r="126" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="126" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS126" s="29"/>
       <c r="AT126" s="18"/>
       <c r="AU126" s="30"/>
@@ -23532,7 +23530,7 @@
       <c r="BL126" s="4"/>
       <c r="BM126" s="34"/>
     </row>
-    <row r="127" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="127" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS127" s="29"/>
       <c r="AT127" s="18"/>
       <c r="AU127" s="30"/>
@@ -23554,7 +23552,7 @@
       <c r="BL127" s="4"/>
       <c r="BM127" s="34"/>
     </row>
-    <row r="128" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="128" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS128" s="29"/>
       <c r="AT128" s="18"/>
       <c r="AU128" s="30"/>
@@ -23576,7 +23574,7 @@
       <c r="BL128" s="4"/>
       <c r="BM128" s="34"/>
     </row>
-    <row r="129" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="129" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS129" s="29"/>
       <c r="AT129" s="18"/>
       <c r="AU129" s="30"/>
@@ -23598,7 +23596,7 @@
       <c r="BL129" s="4"/>
       <c r="BM129" s="34"/>
     </row>
-    <row r="130" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="130" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS130" s="29"/>
       <c r="AT130" s="18"/>
       <c r="AU130" s="30"/>
@@ -23620,7 +23618,7 @@
       <c r="BL130" s="4"/>
       <c r="BM130" s="34"/>
     </row>
-    <row r="131" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="131" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS131" s="29"/>
       <c r="AT131" s="18"/>
       <c r="AU131" s="30"/>
@@ -23642,7 +23640,7 @@
       <c r="BL131" s="4"/>
       <c r="BM131" s="34"/>
     </row>
-    <row r="132" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="132" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS132" s="29"/>
       <c r="AT132" s="18"/>
       <c r="AU132" s="30"/>
@@ -23664,7 +23662,7 @@
       <c r="BL132" s="4"/>
       <c r="BM132" s="34"/>
     </row>
-    <row r="133" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="133" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS133" s="29"/>
       <c r="AT133" s="18"/>
       <c r="AU133" s="30"/>
@@ -23686,7 +23684,7 @@
       <c r="BL133" s="4"/>
       <c r="BM133" s="34"/>
     </row>
-    <row r="134" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="134" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS134" s="29"/>
       <c r="AT134" s="18"/>
       <c r="AU134" s="30"/>
@@ -23708,7 +23706,7 @@
       <c r="BL134" s="4"/>
       <c r="BM134" s="34"/>
     </row>
-    <row r="135" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="135" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS135" s="29"/>
       <c r="AT135" s="18"/>
       <c r="AU135" s="30"/>
@@ -23730,7 +23728,7 @@
       <c r="BL135" s="4"/>
       <c r="BM135" s="34"/>
     </row>
-    <row r="136" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="136" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS136" s="29"/>
       <c r="AT136" s="18"/>
       <c r="AU136" s="30"/>
@@ -23752,7 +23750,7 @@
       <c r="BL136" s="4"/>
       <c r="BM136" s="34"/>
     </row>
-    <row r="137" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="137" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS137" s="29"/>
       <c r="AT137" s="18"/>
       <c r="AU137" s="30"/>
@@ -23774,7 +23772,7 @@
       <c r="BL137" s="4"/>
       <c r="BM137" s="34"/>
     </row>
-    <row r="138" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="138" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS138" s="29"/>
       <c r="AT138" s="18"/>
       <c r="AU138" s="30"/>
@@ -23796,7 +23794,7 @@
       <c r="BL138" s="4"/>
       <c r="BM138" s="34"/>
     </row>
-    <row r="139" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="139" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS139" s="29"/>
       <c r="AT139" s="18"/>
       <c r="AU139" s="30"/>
@@ -23818,7 +23816,7 @@
       <c r="BL139" s="4"/>
       <c r="BM139" s="34"/>
     </row>
-    <row r="140" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="140" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS140" s="29"/>
       <c r="AT140" s="18"/>
       <c r="AU140" s="30"/>
@@ -23840,7 +23838,7 @@
       <c r="BL140" s="4"/>
       <c r="BM140" s="34"/>
     </row>
-    <row r="141" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="141" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS141" s="29"/>
       <c r="AT141" s="18"/>
       <c r="AU141" s="30"/>
@@ -23862,7 +23860,7 @@
       <c r="BL141" s="4"/>
       <c r="BM141" s="34"/>
     </row>
-    <row r="142" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="142" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS142" s="29"/>
       <c r="AT142" s="18"/>
       <c r="AU142" s="30"/>
@@ -23884,7 +23882,7 @@
       <c r="BL142" s="4"/>
       <c r="BM142" s="34"/>
     </row>
-    <row r="143" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="143" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS143" s="29"/>
       <c r="AT143" s="18"/>
       <c r="AU143" s="30"/>
@@ -23906,7 +23904,7 @@
       <c r="BL143" s="4"/>
       <c r="BM143" s="34"/>
     </row>
-    <row r="144" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="144" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS144" s="29"/>
       <c r="AT144" s="18"/>
       <c r="AU144" s="30"/>
@@ -23928,7 +23926,7 @@
       <c r="BL144" s="4"/>
       <c r="BM144" s="34"/>
     </row>
-    <row r="145" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="145" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS145" s="29"/>
       <c r="AT145" s="18"/>
       <c r="AU145" s="30"/>
@@ -23950,7 +23948,7 @@
       <c r="BL145" s="4"/>
       <c r="BM145" s="34"/>
     </row>
-    <row r="146" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="146" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS146" s="29"/>
       <c r="AT146" s="18"/>
       <c r="AU146" s="30"/>
@@ -23972,7 +23970,7 @@
       <c r="BL146" s="4"/>
       <c r="BM146" s="34"/>
     </row>
-    <row r="147" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="147" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS147" s="29"/>
       <c r="AT147" s="18"/>
       <c r="AU147" s="30"/>
@@ -23994,7 +23992,7 @@
       <c r="BL147" s="4"/>
       <c r="BM147" s="34"/>
     </row>
-    <row r="148" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="148" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS148" s="29"/>
       <c r="AT148" s="18"/>
       <c r="AU148" s="30"/>
@@ -24016,7 +24014,7 @@
       <c r="BL148" s="4"/>
       <c r="BM148" s="34"/>
     </row>
-    <row r="149" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="149" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS149" s="29"/>
       <c r="AT149" s="18"/>
       <c r="AU149" s="30"/>
@@ -24038,7 +24036,7 @@
       <c r="BL149" s="4"/>
       <c r="BM149" s="34"/>
     </row>
-    <row r="150" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="150" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS150" s="29"/>
       <c r="AT150" s="18"/>
       <c r="AU150" s="30"/>
@@ -24060,7 +24058,7 @@
       <c r="BL150" s="4"/>
       <c r="BM150" s="34"/>
     </row>
-    <row r="151" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="151" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS151" s="29"/>
       <c r="AT151" s="18"/>
       <c r="AU151" s="30"/>
@@ -24082,7 +24080,7 @@
       <c r="BL151" s="4"/>
       <c r="BM151" s="34"/>
     </row>
-    <row r="152" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="152" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS152" s="29"/>
       <c r="AT152" s="18"/>
       <c r="AU152" s="30"/>
@@ -24104,7 +24102,7 @@
       <c r="BL152" s="4"/>
       <c r="BM152" s="34"/>
     </row>
-    <row r="153" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="153" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS153" s="29"/>
       <c r="AT153" s="18"/>
       <c r="AU153" s="30"/>
@@ -24126,7 +24124,7 @@
       <c r="BL153" s="4"/>
       <c r="BM153" s="34"/>
     </row>
-    <row r="154" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="154" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS154" s="29"/>
       <c r="AT154" s="18"/>
       <c r="AU154" s="30"/>
@@ -24148,7 +24146,7 @@
       <c r="BL154" s="4"/>
       <c r="BM154" s="34"/>
     </row>
-    <row r="155" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="155" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS155" s="29"/>
       <c r="AT155" s="18"/>
       <c r="AU155" s="30"/>
@@ -24170,7 +24168,7 @@
       <c r="BL155" s="4"/>
       <c r="BM155" s="34"/>
     </row>
-    <row r="156" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="156" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS156" s="29"/>
       <c r="AT156" s="18"/>
       <c r="AU156" s="30"/>
@@ -24192,7 +24190,7 @@
       <c r="BL156" s="4"/>
       <c r="BM156" s="34"/>
     </row>
-    <row r="157" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="157" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS157" s="29"/>
       <c r="AT157" s="18"/>
       <c r="AU157" s="30"/>
@@ -24214,7 +24212,7 @@
       <c r="BL157" s="4"/>
       <c r="BM157" s="34"/>
     </row>
-    <row r="158" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="158" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS158" s="29"/>
       <c r="AT158" s="18"/>
       <c r="AU158" s="30"/>
@@ -24236,7 +24234,7 @@
       <c r="BL158" s="4"/>
       <c r="BM158" s="34"/>
     </row>
-    <row r="159" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="159" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS159" s="29"/>
       <c r="AT159" s="18"/>
       <c r="AU159" s="30"/>
@@ -24258,7 +24256,7 @@
       <c r="BL159" s="4"/>
       <c r="BM159" s="34"/>
     </row>
-    <row r="160" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="160" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS160" s="29"/>
       <c r="AT160" s="18"/>
       <c r="AU160" s="30"/>
@@ -24280,7 +24278,7 @@
       <c r="BL160" s="4"/>
       <c r="BM160" s="34"/>
     </row>
-    <row r="161" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="161" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS161" s="29"/>
       <c r="AT161" s="18"/>
       <c r="AU161" s="30"/>
@@ -24302,7 +24300,7 @@
       <c r="BL161" s="4"/>
       <c r="BM161" s="34"/>
     </row>
-    <row r="162" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="162" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS162" s="29"/>
       <c r="AT162" s="18"/>
       <c r="AU162" s="30"/>
@@ -24324,7 +24322,7 @@
       <c r="BL162" s="4"/>
       <c r="BM162" s="34"/>
     </row>
-    <row r="163" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="163" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS163" s="29"/>
       <c r="AT163" s="18"/>
       <c r="AU163" s="30"/>
@@ -24346,7 +24344,7 @@
       <c r="BL163" s="4"/>
       <c r="BM163" s="34"/>
     </row>
-    <row r="164" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="164" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS164" s="29"/>
       <c r="AT164" s="18"/>
       <c r="AU164" s="30"/>
@@ -24368,7 +24366,7 @@
       <c r="BL164" s="4"/>
       <c r="BM164" s="34"/>
     </row>
-    <row r="165" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="165" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS165" s="29"/>
       <c r="AT165" s="18"/>
       <c r="AU165" s="30"/>
@@ -24390,7 +24388,7 @@
       <c r="BL165" s="4"/>
       <c r="BM165" s="34"/>
     </row>
-    <row r="166" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="166" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS166" s="29"/>
       <c r="AT166" s="18"/>
       <c r="AU166" s="30"/>
@@ -24412,7 +24410,7 @@
       <c r="BL166" s="4"/>
       <c r="BM166" s="34"/>
     </row>
-    <row r="167" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="167" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS167" s="29"/>
       <c r="AT167" s="18"/>
       <c r="AU167" s="30"/>
@@ -24434,7 +24432,7 @@
       <c r="BL167" s="4"/>
       <c r="BM167" s="34"/>
     </row>
-    <row r="168" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="168" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS168" s="29"/>
       <c r="AT168" s="18"/>
       <c r="AU168" s="30"/>
@@ -24456,7 +24454,7 @@
       <c r="BL168" s="4"/>
       <c r="BM168" s="34"/>
     </row>
-    <row r="169" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="169" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS169" s="29"/>
       <c r="AT169" s="18"/>
       <c r="AU169" s="30"/>
@@ -24478,7 +24476,7 @@
       <c r="BL169" s="4"/>
       <c r="BM169" s="34"/>
     </row>
-    <row r="170" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="170" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS170" s="29"/>
       <c r="AT170" s="18"/>
       <c r="AU170" s="30"/>
@@ -24500,7 +24498,7 @@
       <c r="BL170" s="4"/>
       <c r="BM170" s="34"/>
     </row>
-    <row r="171" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="171" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS171" s="29"/>
       <c r="AT171" s="18"/>
       <c r="AU171" s="30"/>
@@ -24522,7 +24520,7 @@
       <c r="BL171" s="4"/>
       <c r="BM171" s="34"/>
     </row>
-    <row r="172" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="172" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS172" s="29"/>
       <c r="AT172" s="18"/>
       <c r="AU172" s="30"/>
@@ -24544,7 +24542,7 @@
       <c r="BL172" s="4"/>
       <c r="BM172" s="34"/>
     </row>
-    <row r="173" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="173" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS173" s="29"/>
       <c r="AT173" s="18"/>
       <c r="AU173" s="30"/>
@@ -24566,7 +24564,7 @@
       <c r="BL173" s="4"/>
       <c r="BM173" s="34"/>
     </row>
-    <row r="174" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="174" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS174" s="29"/>
       <c r="AT174" s="18"/>
       <c r="AU174" s="30"/>
@@ -24588,7 +24586,7 @@
       <c r="BL174" s="4"/>
       <c r="BM174" s="34"/>
     </row>
-    <row r="175" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="175" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS175" s="29"/>
       <c r="AT175" s="18"/>
       <c r="AU175" s="30"/>
@@ -24610,7 +24608,7 @@
       <c r="BL175" s="4"/>
       <c r="BM175" s="34"/>
     </row>
-    <row r="176" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="176" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS176" s="29"/>
       <c r="AT176" s="18"/>
       <c r="AU176" s="30"/>
@@ -24632,7 +24630,7 @@
       <c r="BL176" s="4"/>
       <c r="BM176" s="34"/>
     </row>
-    <row r="177" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="177" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS177" s="29"/>
       <c r="AT177" s="18"/>
       <c r="AU177" s="30"/>
@@ -24654,7 +24652,7 @@
       <c r="BL177" s="4"/>
       <c r="BM177" s="34"/>
     </row>
-    <row r="178" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="178" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS178" s="29"/>
       <c r="AT178" s="18"/>
       <c r="AU178" s="30"/>
@@ -24676,7 +24674,7 @@
       <c r="BL178" s="4"/>
       <c r="BM178" s="34"/>
     </row>
-    <row r="179" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="179" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS179" s="29"/>
       <c r="AT179" s="18"/>
       <c r="AU179" s="30"/>
@@ -24698,7 +24696,7 @@
       <c r="BL179" s="4"/>
       <c r="BM179" s="34"/>
     </row>
-    <row r="180" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="180" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS180" s="29"/>
       <c r="AT180" s="18"/>
       <c r="AU180" s="30"/>
@@ -24720,7 +24718,7 @@
       <c r="BL180" s="4"/>
       <c r="BM180" s="34"/>
     </row>
-    <row r="181" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="181" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS181" s="29"/>
       <c r="AT181" s="18"/>
       <c r="AU181" s="30"/>
@@ -24742,7 +24740,7 @@
       <c r="BL181" s="4"/>
       <c r="BM181" s="34"/>
     </row>
-    <row r="182" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="182" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS182" s="29"/>
       <c r="AT182" s="18"/>
       <c r="AU182" s="30"/>
@@ -24764,7 +24762,7 @@
       <c r="BL182" s="4"/>
       <c r="BM182" s="34"/>
     </row>
-    <row r="183" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="183" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS183" s="29"/>
       <c r="AT183" s="18"/>
       <c r="AU183" s="30"/>
@@ -24786,7 +24784,7 @@
       <c r="BL183" s="4"/>
       <c r="BM183" s="34"/>
     </row>
-    <row r="184" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="184" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS184" s="29"/>
       <c r="AT184" s="18"/>
       <c r="AU184" s="30"/>
@@ -24808,7 +24806,7 @@
       <c r="BL184" s="4"/>
       <c r="BM184" s="34"/>
     </row>
-    <row r="185" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="185" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS185" s="29"/>
       <c r="AT185" s="18"/>
       <c r="AU185" s="30"/>
@@ -24830,7 +24828,7 @@
       <c r="BL185" s="4"/>
       <c r="BM185" s="34"/>
     </row>
-    <row r="186" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="186" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS186" s="29"/>
       <c r="AT186" s="18"/>
       <c r="AU186" s="30"/>
@@ -24852,7 +24850,7 @@
       <c r="BL186" s="4"/>
       <c r="BM186" s="34"/>
     </row>
-    <row r="187" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="187" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS187" s="29"/>
       <c r="AT187" s="18"/>
       <c r="AU187" s="30"/>
@@ -24874,7 +24872,7 @@
       <c r="BL187" s="4"/>
       <c r="BM187" s="34"/>
     </row>
-    <row r="188" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="188" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS188" s="29"/>
       <c r="AT188" s="18"/>
       <c r="AU188" s="30"/>
@@ -24896,7 +24894,7 @@
       <c r="BL188" s="4"/>
       <c r="BM188" s="34"/>
     </row>
-    <row r="189" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="189" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS189" s="29"/>
       <c r="AT189" s="18"/>
       <c r="AU189" s="30"/>
@@ -24918,7 +24916,7 @@
       <c r="BL189" s="4"/>
       <c r="BM189" s="34"/>
     </row>
-    <row r="190" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="190" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS190" s="29"/>
       <c r="AT190" s="18"/>
       <c r="AU190" s="30"/>
@@ -24940,7 +24938,7 @@
       <c r="BL190" s="4"/>
       <c r="BM190" s="34"/>
     </row>
-    <row r="191" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="191" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS191" s="29"/>
       <c r="AT191" s="18"/>
       <c r="AU191" s="30"/>
@@ -24962,7 +24960,7 @@
       <c r="BL191" s="4"/>
       <c r="BM191" s="34"/>
     </row>
-    <row r="192" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="192" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS192" s="29"/>
       <c r="AT192" s="18"/>
       <c r="AU192" s="30"/>
@@ -24984,7 +24982,7 @@
       <c r="BL192" s="4"/>
       <c r="BM192" s="34"/>
     </row>
-    <row r="193" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="193" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS193" s="29"/>
       <c r="AT193" s="18"/>
       <c r="AU193" s="30"/>
@@ -25006,7 +25004,7 @@
       <c r="BL193" s="4"/>
       <c r="BM193" s="34"/>
     </row>
-    <row r="194" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="194" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS194" s="29"/>
       <c r="AT194" s="18"/>
       <c r="AU194" s="30"/>
@@ -25028,7 +25026,7 @@
       <c r="BL194" s="4"/>
       <c r="BM194" s="34"/>
     </row>
-    <row r="195" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="195" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS195" s="29"/>
       <c r="AT195" s="18"/>
       <c r="AU195" s="30"/>
@@ -25050,7 +25048,7 @@
       <c r="BL195" s="4"/>
       <c r="BM195" s="34"/>
     </row>
-    <row r="196" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="196" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS196" s="29"/>
       <c r="AT196" s="18"/>
       <c r="AU196" s="30"/>
@@ -25072,7 +25070,7 @@
       <c r="BL196" s="4"/>
       <c r="BM196" s="34"/>
     </row>
-    <row r="197" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="197" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS197" s="29"/>
       <c r="AT197" s="18"/>
       <c r="AU197" s="30"/>
@@ -25094,7 +25092,7 @@
       <c r="BL197" s="4"/>
       <c r="BM197" s="34"/>
     </row>
-    <row r="198" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="198" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS198" s="29"/>
       <c r="AT198" s="18"/>
       <c r="AU198" s="30"/>
@@ -25116,7 +25114,7 @@
       <c r="BL198" s="4"/>
       <c r="BM198" s="34"/>
     </row>
-    <row r="199" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="199" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS199" s="29"/>
       <c r="AT199" s="18"/>
       <c r="AU199" s="30"/>
@@ -25138,7 +25136,7 @@
       <c r="BL199" s="4"/>
       <c r="BM199" s="34"/>
     </row>
-    <row r="200" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="200" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS200" s="29"/>
       <c r="AT200" s="18"/>
       <c r="AU200" s="30"/>
@@ -25160,7 +25158,7 @@
       <c r="BL200" s="4"/>
       <c r="BM200" s="34"/>
     </row>
-    <row r="201" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="201" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS201" s="29"/>
       <c r="AT201" s="18"/>
       <c r="AU201" s="30"/>
@@ -25182,7 +25180,7 @@
       <c r="BL201" s="4"/>
       <c r="BM201" s="34"/>
     </row>
-    <row r="202" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="202" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS202" s="29"/>
       <c r="AT202" s="18"/>
       <c r="AU202" s="30"/>
@@ -25204,7 +25202,7 @@
       <c r="BL202" s="4"/>
       <c r="BM202" s="34"/>
     </row>
-    <row r="203" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="203" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS203" s="29"/>
       <c r="AT203" s="18"/>
       <c r="AU203" s="30"/>
@@ -25226,7 +25224,7 @@
       <c r="BL203" s="4"/>
       <c r="BM203" s="34"/>
     </row>
-    <row r="204" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="204" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS204" s="29"/>
       <c r="AT204" s="18"/>
       <c r="AU204" s="30"/>
@@ -25248,7 +25246,7 @@
       <c r="BL204" s="4"/>
       <c r="BM204" s="34"/>
     </row>
-    <row r="205" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="205" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS205" s="29"/>
       <c r="AT205" s="18"/>
       <c r="AU205" s="30"/>
@@ -25270,7 +25268,7 @@
       <c r="BL205" s="4"/>
       <c r="BM205" s="34"/>
     </row>
-    <row r="206" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="206" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS206" s="29"/>
       <c r="AT206" s="18"/>
       <c r="AU206" s="30"/>
@@ -25292,7 +25290,7 @@
       <c r="BL206" s="4"/>
       <c r="BM206" s="34"/>
     </row>
-    <row r="207" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="207" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS207" s="29"/>
       <c r="AT207" s="18"/>
       <c r="AU207" s="30"/>
@@ -25314,7 +25312,7 @@
       <c r="BL207" s="4"/>
       <c r="BM207" s="34"/>
     </row>
-    <row r="208" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="208" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS208" s="29"/>
       <c r="AT208" s="18"/>
       <c r="AU208" s="30"/>
@@ -25336,7 +25334,7 @@
       <c r="BL208" s="4"/>
       <c r="BM208" s="34"/>
     </row>
-    <row r="209" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="209" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS209" s="29"/>
       <c r="AT209" s="18"/>
       <c r="AU209" s="30"/>
@@ -25358,7 +25356,7 @@
       <c r="BL209" s="4"/>
       <c r="BM209" s="34"/>
     </row>
-    <row r="210" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="210" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS210" s="29"/>
       <c r="AT210" s="18"/>
       <c r="AU210" s="30"/>
@@ -25380,7 +25378,7 @@
       <c r="BL210" s="4"/>
       <c r="BM210" s="34"/>
     </row>
-    <row r="211" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="211" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS211" s="29"/>
       <c r="AT211" s="18"/>
       <c r="AU211" s="30"/>
@@ -25402,7 +25400,7 @@
       <c r="BL211" s="4"/>
       <c r="BM211" s="34"/>
     </row>
-    <row r="212" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="212" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS212" s="29"/>
       <c r="AT212" s="18"/>
       <c r="AU212" s="30"/>
@@ -25424,7 +25422,7 @@
       <c r="BL212" s="4"/>
       <c r="BM212" s="34"/>
     </row>
-    <row r="213" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="213" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS213" s="29"/>
       <c r="AT213" s="18"/>
       <c r="AU213" s="30"/>
@@ -25446,7 +25444,7 @@
       <c r="BL213" s="4"/>
       <c r="BM213" s="34"/>
     </row>
-    <row r="214" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="214" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS214" s="29"/>
       <c r="AT214" s="18"/>
       <c r="AU214" s="30"/>
@@ -25468,7 +25466,7 @@
       <c r="BL214" s="4"/>
       <c r="BM214" s="34"/>
     </row>
-    <row r="215" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="215" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS215" s="29"/>
       <c r="AT215" s="18"/>
       <c r="AU215" s="30"/>
@@ -25490,7 +25488,7 @@
       <c r="BL215" s="4"/>
       <c r="BM215" s="34"/>
     </row>
-    <row r="216" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="216" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS216" s="29"/>
       <c r="AT216" s="18"/>
       <c r="AU216" s="30"/>
@@ -25512,7 +25510,7 @@
       <c r="BL216" s="4"/>
       <c r="BM216" s="34"/>
     </row>
-    <row r="217" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="217" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS217" s="29"/>
       <c r="AT217" s="18"/>
       <c r="AU217" s="30"/>
@@ -25534,7 +25532,7 @@
       <c r="BL217" s="4"/>
       <c r="BM217" s="34"/>
     </row>
-    <row r="218" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="218" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS218" s="29"/>
       <c r="AT218" s="18"/>
       <c r="AU218" s="30"/>
@@ -25556,7 +25554,7 @@
       <c r="BL218" s="4"/>
       <c r="BM218" s="34"/>
     </row>
-    <row r="219" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="219" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS219" s="29"/>
       <c r="AT219" s="18"/>
       <c r="AU219" s="30"/>
@@ -25578,7 +25576,7 @@
       <c r="BL219" s="4"/>
       <c r="BM219" s="34"/>
     </row>
-    <row r="220" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="220" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS220" s="29"/>
       <c r="AT220" s="18"/>
       <c r="AU220" s="30"/>
@@ -25600,7 +25598,7 @@
       <c r="BL220" s="4"/>
       <c r="BM220" s="34"/>
     </row>
-    <row r="221" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="221" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS221" s="29"/>
       <c r="AT221" s="18"/>
       <c r="AU221" s="30"/>
@@ -25622,7 +25620,7 @@
       <c r="BL221" s="4"/>
       <c r="BM221" s="34"/>
     </row>
-    <row r="222" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="222" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS222" s="29"/>
       <c r="AT222" s="18"/>
       <c r="AU222" s="30"/>
@@ -25644,7 +25642,7 @@
       <c r="BL222" s="4"/>
       <c r="BM222" s="34"/>
     </row>
-    <row r="223" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="223" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS223" s="29"/>
       <c r="AT223" s="18"/>
       <c r="AU223" s="30"/>
@@ -25666,7 +25664,7 @@
       <c r="BL223" s="4"/>
       <c r="BM223" s="34"/>
     </row>
-    <row r="224" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="224" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS224" s="29"/>
       <c r="AT224" s="18"/>
       <c r="AU224" s="30"/>
@@ -25688,7 +25686,7 @@
       <c r="BL224" s="4"/>
       <c r="BM224" s="34"/>
     </row>
-    <row r="225" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="225" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS225" s="29"/>
       <c r="AT225" s="18"/>
       <c r="AU225" s="30"/>
@@ -25710,7 +25708,7 @@
       <c r="BL225" s="4"/>
       <c r="BM225" s="34"/>
     </row>
-    <row r="226" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="226" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS226" s="29"/>
       <c r="AT226" s="18"/>
       <c r="AU226" s="30"/>
@@ -25732,7 +25730,7 @@
       <c r="BL226" s="4"/>
       <c r="BM226" s="34"/>
     </row>
-    <row r="227" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="227" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS227" s="29"/>
       <c r="AT227" s="18"/>
       <c r="AU227" s="30"/>
@@ -25754,7 +25752,7 @@
       <c r="BL227" s="4"/>
       <c r="BM227" s="34"/>
     </row>
-    <row r="228" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="228" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS228" s="29"/>
       <c r="AT228" s="18"/>
       <c r="AU228" s="30"/>
@@ -25776,7 +25774,7 @@
       <c r="BL228" s="4"/>
       <c r="BM228" s="34"/>
     </row>
-    <row r="229" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="229" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS229" s="29"/>
       <c r="AT229" s="18"/>
       <c r="AU229" s="30"/>
@@ -25798,7 +25796,7 @@
       <c r="BL229" s="4"/>
       <c r="BM229" s="34"/>
     </row>
-    <row r="230" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="230" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS230" s="29"/>
       <c r="AT230" s="18"/>
       <c r="AU230" s="30"/>
@@ -25820,7 +25818,7 @@
       <c r="BL230" s="4"/>
       <c r="BM230" s="34"/>
     </row>
-    <row r="231" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="231" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS231" s="29"/>
       <c r="AT231" s="18"/>
       <c r="AU231" s="30"/>
@@ -25842,7 +25840,7 @@
       <c r="BL231" s="4"/>
       <c r="BM231" s="34"/>
     </row>
-    <row r="232" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="232" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS232" s="29"/>
       <c r="AT232" s="18"/>
       <c r="AU232" s="30"/>
@@ -25864,7 +25862,7 @@
       <c r="BL232" s="4"/>
       <c r="BM232" s="34"/>
     </row>
-    <row r="233" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="233" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS233" s="29"/>
       <c r="AT233" s="18"/>
       <c r="AU233" s="30"/>
@@ -25886,7 +25884,7 @@
       <c r="BL233" s="4"/>
       <c r="BM233" s="34"/>
     </row>
-    <row r="234" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="234" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS234" s="29"/>
       <c r="AT234" s="18"/>
       <c r="AU234" s="30"/>
@@ -25908,7 +25906,7 @@
       <c r="BL234" s="4"/>
       <c r="BM234" s="34"/>
     </row>
-    <row r="235" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="235" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS235" s="29"/>
       <c r="AT235" s="18"/>
       <c r="AU235" s="30"/>
@@ -25930,7 +25928,7 @@
       <c r="BL235" s="4"/>
       <c r="BM235" s="34"/>
     </row>
-    <row r="236" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="236" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS236" s="29"/>
       <c r="AT236" s="18"/>
       <c r="AU236" s="30"/>
@@ -25952,7 +25950,7 @@
       <c r="BL236" s="4"/>
       <c r="BM236" s="34"/>
     </row>
-    <row r="237" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="237" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS237" s="29"/>
       <c r="AT237" s="18"/>
       <c r="AU237" s="30"/>
@@ -25974,7 +25972,7 @@
       <c r="BL237" s="4"/>
       <c r="BM237" s="34"/>
     </row>
-    <row r="238" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="238" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS238" s="29"/>
       <c r="AT238" s="18"/>
       <c r="AU238" s="30"/>
@@ -25996,7 +25994,7 @@
       <c r="BL238" s="4"/>
       <c r="BM238" s="34"/>
     </row>
-    <row r="239" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="239" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS239" s="29"/>
       <c r="AT239" s="18"/>
       <c r="AU239" s="30"/>
@@ -26018,7 +26016,7 @@
       <c r="BL239" s="4"/>
       <c r="BM239" s="34"/>
     </row>
-    <row r="240" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="240" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS240" s="29"/>
       <c r="AT240" s="18"/>
       <c r="AU240" s="30"/>
@@ -26040,7 +26038,7 @@
       <c r="BL240" s="4"/>
       <c r="BM240" s="34"/>
     </row>
-    <row r="241" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="241" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS241" s="29"/>
       <c r="AT241" s="18"/>
       <c r="AU241" s="30"/>
@@ -26062,7 +26060,7 @@
       <c r="BL241" s="4"/>
       <c r="BM241" s="34"/>
     </row>
-    <row r="242" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="242" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS242" s="29"/>
       <c r="AT242" s="18"/>
       <c r="AU242" s="30"/>
@@ -26084,7 +26082,7 @@
       <c r="BL242" s="4"/>
       <c r="BM242" s="34"/>
     </row>
-    <row r="243" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="243" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS243" s="29"/>
       <c r="AT243" s="18"/>
       <c r="AU243" s="30"/>
@@ -26106,7 +26104,7 @@
       <c r="BL243" s="4"/>
       <c r="BM243" s="34"/>
     </row>
-    <row r="244" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="244" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS244" s="29"/>
       <c r="AT244" s="18"/>
       <c r="AU244" s="30"/>
@@ -26128,7 +26126,7 @@
       <c r="BL244" s="4"/>
       <c r="BM244" s="34"/>
     </row>
-    <row r="245" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="245" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS245" s="29"/>
       <c r="AT245" s="18"/>
       <c r="AU245" s="30"/>
@@ -26150,7 +26148,7 @@
       <c r="BL245" s="4"/>
       <c r="BM245" s="34"/>
     </row>
-    <row r="246" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="246" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS246" s="29"/>
       <c r="AT246" s="18"/>
       <c r="AU246" s="30"/>
@@ -26172,7 +26170,7 @@
       <c r="BL246" s="4"/>
       <c r="BM246" s="34"/>
     </row>
-    <row r="247" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="247" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS247" s="29"/>
       <c r="AT247" s="18"/>
       <c r="AU247" s="30"/>
@@ -26194,7 +26192,7 @@
       <c r="BL247" s="4"/>
       <c r="BM247" s="34"/>
     </row>
-    <row r="248" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="248" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS248" s="29"/>
       <c r="AT248" s="18"/>
       <c r="AU248" s="30"/>
@@ -26216,7 +26214,7 @@
       <c r="BL248" s="4"/>
       <c r="BM248" s="34"/>
     </row>
-    <row r="249" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="249" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS249" s="29"/>
       <c r="AT249" s="18"/>
       <c r="AU249" s="30"/>
@@ -26238,7 +26236,7 @@
       <c r="BL249" s="4"/>
       <c r="BM249" s="34"/>
     </row>
-    <row r="250" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="250" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS250" s="29"/>
       <c r="AT250" s="18"/>
       <c r="AU250" s="30"/>
@@ -26260,7 +26258,7 @@
       <c r="BL250" s="4"/>
       <c r="BM250" s="34"/>
     </row>
-    <row r="251" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="251" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS251" s="29"/>
       <c r="AT251" s="18"/>
       <c r="AU251" s="30"/>
@@ -26282,7 +26280,7 @@
       <c r="BL251" s="4"/>
       <c r="BM251" s="34"/>
     </row>
-    <row r="252" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="252" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS252" s="29"/>
       <c r="AT252" s="18"/>
       <c r="AU252" s="30"/>
@@ -26304,7 +26302,7 @@
       <c r="BL252" s="4"/>
       <c r="BM252" s="34"/>
     </row>
-    <row r="253" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="253" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS253" s="29"/>
       <c r="AT253" s="18"/>
       <c r="AU253" s="30"/>
@@ -26326,7 +26324,7 @@
       <c r="BL253" s="4"/>
       <c r="BM253" s="34"/>
     </row>
-    <row r="254" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="254" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS254" s="29"/>
       <c r="AT254" s="18"/>
       <c r="AU254" s="30"/>
@@ -26348,7 +26346,7 @@
       <c r="BL254" s="4"/>
       <c r="BM254" s="34"/>
     </row>
-    <row r="255" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="255" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS255" s="29"/>
       <c r="AT255" s="18"/>
       <c r="AU255" s="30"/>
@@ -26370,7 +26368,7 @@
       <c r="BL255" s="4"/>
       <c r="BM255" s="34"/>
     </row>
-    <row r="256" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="256" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS256" s="29"/>
       <c r="AT256" s="18"/>
       <c r="AU256" s="30"/>
@@ -26392,7 +26390,7 @@
       <c r="BL256" s="4"/>
       <c r="BM256" s="34"/>
     </row>
-    <row r="257" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="257" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS257" s="29"/>
       <c r="AT257" s="18"/>
       <c r="AU257" s="30"/>
@@ -26414,7 +26412,7 @@
       <c r="BL257" s="4"/>
       <c r="BM257" s="34"/>
     </row>
-    <row r="258" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="258" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS258" s="29"/>
       <c r="AT258" s="18"/>
       <c r="AU258" s="30"/>
@@ -26436,7 +26434,7 @@
       <c r="BL258" s="4"/>
       <c r="BM258" s="34"/>
     </row>
-    <row r="259" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="259" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS259" s="29"/>
       <c r="AT259" s="18"/>
       <c r="AU259" s="30"/>
@@ -26458,7 +26456,7 @@
       <c r="BL259" s="4"/>
       <c r="BM259" s="34"/>
     </row>
-    <row r="260" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="260" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS260" s="29"/>
       <c r="AT260" s="18"/>
       <c r="AU260" s="30"/>
@@ -26480,7 +26478,7 @@
       <c r="BL260" s="4"/>
       <c r="BM260" s="34"/>
     </row>
-    <row r="261" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="261" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS261" s="29"/>
       <c r="AT261" s="18"/>
       <c r="AU261" s="30"/>
@@ -26502,7 +26500,7 @@
       <c r="BL261" s="4"/>
       <c r="BM261" s="34"/>
     </row>
-    <row r="262" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="262" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS262" s="29"/>
       <c r="AT262" s="18"/>
       <c r="AU262" s="30"/>
@@ -26524,7 +26522,7 @@
       <c r="BL262" s="4"/>
       <c r="BM262" s="34"/>
     </row>
-    <row r="263" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="263" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS263" s="29"/>
       <c r="AT263" s="18"/>
       <c r="AU263" s="30"/>
@@ -26546,7 +26544,7 @@
       <c r="BL263" s="4"/>
       <c r="BM263" s="34"/>
     </row>
-    <row r="264" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="264" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS264" s="29"/>
       <c r="AT264" s="18"/>
       <c r="AU264" s="30"/>
@@ -26568,7 +26566,7 @@
       <c r="BL264" s="4"/>
       <c r="BM264" s="34"/>
     </row>
-    <row r="265" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="265" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS265" s="29"/>
       <c r="AT265" s="18"/>
       <c r="AU265" s="30"/>
@@ -26590,7 +26588,7 @@
       <c r="BL265" s="4"/>
       <c r="BM265" s="34"/>
     </row>
-    <row r="266" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="266" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS266" s="29"/>
       <c r="AT266" s="18"/>
       <c r="AU266" s="30"/>
@@ -26612,7 +26610,7 @@
       <c r="BL266" s="4"/>
       <c r="BM266" s="34"/>
     </row>
-    <row r="267" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="267" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS267" s="29"/>
       <c r="AT267" s="18"/>
       <c r="AU267" s="30"/>
@@ -26634,7 +26632,7 @@
       <c r="BL267" s="4"/>
       <c r="BM267" s="34"/>
     </row>
-    <row r="268" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="268" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS268" s="29"/>
       <c r="AT268" s="18"/>
       <c r="AU268" s="30"/>
@@ -26656,7 +26654,7 @@
       <c r="BL268" s="4"/>
       <c r="BM268" s="34"/>
     </row>
-    <row r="269" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="269" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS269" s="29"/>
       <c r="AT269" s="18"/>
       <c r="AU269" s="30"/>
@@ -26678,7 +26676,7 @@
       <c r="BL269" s="4"/>
       <c r="BM269" s="34"/>
     </row>
-    <row r="270" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="270" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS270" s="29"/>
       <c r="AT270" s="18"/>
       <c r="AU270" s="30"/>
@@ -26700,7 +26698,7 @@
       <c r="BL270" s="4"/>
       <c r="BM270" s="34"/>
     </row>
-    <row r="271" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="271" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS271" s="29"/>
       <c r="AT271" s="18"/>
       <c r="AU271" s="30"/>
@@ -26722,7 +26720,7 @@
       <c r="BL271" s="4"/>
       <c r="BM271" s="34"/>
     </row>
-    <row r="272" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="272" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS272" s="29"/>
       <c r="AT272" s="18"/>
       <c r="AU272" s="30"/>
@@ -26744,7 +26742,7 @@
       <c r="BL272" s="4"/>
       <c r="BM272" s="34"/>
     </row>
-    <row r="273" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="273" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS273" s="29"/>
       <c r="AT273" s="18"/>
       <c r="AU273" s="30"/>
@@ -26766,7 +26764,7 @@
       <c r="BL273" s="4"/>
       <c r="BM273" s="34"/>
     </row>
-    <row r="274" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="274" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS274" s="29"/>
       <c r="AT274" s="18"/>
       <c r="AU274" s="30"/>
@@ -26788,7 +26786,7 @@
       <c r="BL274" s="4"/>
       <c r="BM274" s="34"/>
     </row>
-    <row r="275" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="275" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS275" s="29"/>
       <c r="AT275" s="18"/>
       <c r="AU275" s="30"/>
@@ -26810,7 +26808,7 @@
       <c r="BL275" s="4"/>
       <c r="BM275" s="34"/>
     </row>
-    <row r="276" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="276" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS276" s="29"/>
       <c r="AT276" s="18"/>
       <c r="AU276" s="30"/>
@@ -26832,7 +26830,7 @@
       <c r="BL276" s="4"/>
       <c r="BM276" s="34"/>
     </row>
-    <row r="277" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="277" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS277" s="29"/>
       <c r="AT277" s="18"/>
       <c r="AU277" s="30"/>
@@ -26854,7 +26852,7 @@
       <c r="BL277" s="4"/>
       <c r="BM277" s="34"/>
     </row>
-    <row r="278" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="278" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS278" s="29"/>
       <c r="AT278" s="18"/>
       <c r="AU278" s="30"/>
@@ -26876,7 +26874,7 @@
       <c r="BL278" s="4"/>
       <c r="BM278" s="34"/>
     </row>
-    <row r="279" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="279" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS279" s="29"/>
       <c r="AT279" s="18"/>
       <c r="AU279" s="30"/>
@@ -26898,7 +26896,7 @@
       <c r="BL279" s="4"/>
       <c r="BM279" s="34"/>
     </row>
-    <row r="280" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="280" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS280" s="29"/>
       <c r="AT280" s="18"/>
       <c r="AU280" s="30"/>
@@ -26920,7 +26918,7 @@
       <c r="BL280" s="4"/>
       <c r="BM280" s="34"/>
     </row>
-    <row r="281" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="281" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS281" s="29"/>
       <c r="AT281" s="18"/>
       <c r="AU281" s="30"/>
@@ -26942,7 +26940,7 @@
       <c r="BL281" s="4"/>
       <c r="BM281" s="34"/>
     </row>
-    <row r="282" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="282" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS282" s="29"/>
       <c r="AT282" s="18"/>
       <c r="AU282" s="30"/>
@@ -26964,7 +26962,7 @@
       <c r="BL282" s="4"/>
       <c r="BM282" s="34"/>
     </row>
-    <row r="283" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="283" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS283" s="29"/>
       <c r="AT283" s="18"/>
       <c r="AU283" s="30"/>
@@ -26986,7 +26984,7 @@
       <c r="BL283" s="4"/>
       <c r="BM283" s="34"/>
     </row>
-    <row r="284" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="284" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS284" s="29"/>
       <c r="AT284" s="18"/>
       <c r="AU284" s="30"/>
@@ -27008,7 +27006,7 @@
       <c r="BL284" s="4"/>
       <c r="BM284" s="34"/>
     </row>
-    <row r="285" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="285" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS285" s="29"/>
       <c r="AT285" s="18"/>
       <c r="AU285" s="30"/>
@@ -27030,7 +27028,7 @@
       <c r="BL285" s="4"/>
       <c r="BM285" s="34"/>
     </row>
-    <row r="286" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="286" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS286" s="29"/>
       <c r="AT286" s="18"/>
       <c r="AU286" s="30"/>
@@ -27052,7 +27050,7 @@
       <c r="BL286" s="4"/>
       <c r="BM286" s="34"/>
     </row>
-    <row r="287" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="287" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS287" s="29"/>
       <c r="AT287" s="18"/>
       <c r="AU287" s="30"/>
@@ -27074,7 +27072,7 @@
       <c r="BL287" s="4"/>
       <c r="BM287" s="34"/>
     </row>
-    <row r="288" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="288" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS288" s="29"/>
       <c r="AT288" s="18"/>
       <c r="AU288" s="30"/>
@@ -27096,7 +27094,7 @@
       <c r="BL288" s="4"/>
       <c r="BM288" s="34"/>
     </row>
-    <row r="289" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="289" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS289" s="29"/>
       <c r="AT289" s="18"/>
       <c r="AU289" s="30"/>
@@ -27118,7 +27116,7 @@
       <c r="BL289" s="4"/>
       <c r="BM289" s="34"/>
     </row>
-    <row r="290" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="290" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS290" s="29"/>
       <c r="AT290" s="18"/>
       <c r="AU290" s="30"/>
@@ -27140,7 +27138,7 @@
       <c r="BL290" s="4"/>
       <c r="BM290" s="34"/>
     </row>
-    <row r="291" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="291" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS291" s="29"/>
       <c r="AT291" s="18"/>
       <c r="AU291" s="30"/>
@@ -27162,7 +27160,7 @@
       <c r="BL291" s="4"/>
       <c r="BM291" s="34"/>
     </row>
-    <row r="292" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="292" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS292" s="29"/>
       <c r="AT292" s="18"/>
       <c r="AU292" s="30"/>
@@ -27184,7 +27182,7 @@
       <c r="BL292" s="4"/>
       <c r="BM292" s="34"/>
     </row>
-    <row r="293" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="293" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS293" s="29"/>
       <c r="AT293" s="18"/>
       <c r="AU293" s="30"/>
@@ -27206,7 +27204,7 @@
       <c r="BL293" s="4"/>
       <c r="BM293" s="34"/>
     </row>
-    <row r="294" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="294" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS294" s="29"/>
       <c r="AT294" s="18"/>
       <c r="AU294" s="30"/>
@@ -27228,7 +27226,7 @@
       <c r="BL294" s="4"/>
       <c r="BM294" s="34"/>
     </row>
-    <row r="295" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="295" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS295" s="29"/>
       <c r="AT295" s="18"/>
       <c r="AU295" s="30"/>
@@ -27250,7 +27248,7 @@
       <c r="BL295" s="4"/>
       <c r="BM295" s="34"/>
     </row>
-    <row r="296" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="296" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS296" s="29"/>
       <c r="AT296" s="18"/>
       <c r="AU296" s="30"/>
@@ -27272,7 +27270,7 @@
       <c r="BL296" s="4"/>
       <c r="BM296" s="34"/>
     </row>
-    <row r="297" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="297" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS297" s="29"/>
       <c r="AT297" s="18"/>
       <c r="AU297" s="30"/>
@@ -27294,7 +27292,7 @@
       <c r="BL297" s="4"/>
       <c r="BM297" s="34"/>
     </row>
-    <row r="298" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="298" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS298" s="29"/>
       <c r="AT298" s="18"/>
       <c r="AU298" s="30"/>
@@ -27316,7 +27314,7 @@
       <c r="BL298" s="4"/>
       <c r="BM298" s="34"/>
     </row>
-    <row r="299" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="299" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS299" s="29"/>
       <c r="AT299" s="18"/>
       <c r="AU299" s="30"/>
@@ -27338,7 +27336,7 @@
       <c r="BL299" s="4"/>
       <c r="BM299" s="34"/>
     </row>
-    <row r="300" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="300" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS300" s="29"/>
       <c r="AT300" s="18"/>
       <c r="AU300" s="30"/>
@@ -27360,7 +27358,7 @@
       <c r="BL300" s="4"/>
       <c r="BM300" s="34"/>
     </row>
-    <row r="301" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="301" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS301" s="29"/>
       <c r="AT301" s="18"/>
       <c r="AU301" s="30"/>
@@ -27382,7 +27380,7 @@
       <c r="BL301" s="4"/>
       <c r="BM301" s="34"/>
     </row>
-    <row r="302" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="302" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS302" s="29"/>
       <c r="AT302" s="18"/>
       <c r="AU302" s="30"/>
@@ -27404,7 +27402,7 @@
       <c r="BL302" s="4"/>
       <c r="BM302" s="34"/>
     </row>
-    <row r="303" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="303" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS303" s="29"/>
       <c r="AT303" s="18"/>
       <c r="AU303" s="30"/>
@@ -27426,7 +27424,7 @@
       <c r="BL303" s="4"/>
       <c r="BM303" s="34"/>
     </row>
-    <row r="304" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="304" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS304" s="29"/>
       <c r="AT304" s="18"/>
       <c r="AU304" s="30"/>
@@ -27448,7 +27446,7 @@
       <c r="BL304" s="4"/>
       <c r="BM304" s="34"/>
     </row>
-    <row r="305" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="305" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS305" s="29"/>
       <c r="AT305" s="18"/>
       <c r="AU305" s="30"/>
@@ -27470,7 +27468,7 @@
       <c r="BL305" s="4"/>
       <c r="BM305" s="34"/>
     </row>
-    <row r="306" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="306" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS306" s="29"/>
       <c r="AT306" s="18"/>
       <c r="AU306" s="30"/>
@@ -27492,7 +27490,7 @@
       <c r="BL306" s="4"/>
       <c r="BM306" s="34"/>
     </row>
-    <row r="307" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="307" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS307" s="29"/>
       <c r="AT307" s="18"/>
       <c r="AU307" s="30"/>
@@ -27514,7 +27512,7 @@
       <c r="BL307" s="4"/>
       <c r="BM307" s="34"/>
     </row>
-    <row r="308" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="308" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS308" s="29"/>
       <c r="AT308" s="18"/>
       <c r="AU308" s="30"/>
@@ -27536,7 +27534,7 @@
       <c r="BL308" s="4"/>
       <c r="BM308" s="34"/>
     </row>
-    <row r="309" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="309" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS309" s="29"/>
       <c r="AT309" s="18"/>
       <c r="AU309" s="30"/>
@@ -27558,7 +27556,7 @@
       <c r="BL309" s="4"/>
       <c r="BM309" s="34"/>
     </row>
-    <row r="310" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="310" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS310" s="29"/>
       <c r="AT310" s="18"/>
       <c r="AU310" s="30"/>
@@ -27580,7 +27578,7 @@
       <c r="BL310" s="4"/>
       <c r="BM310" s="34"/>
     </row>
-    <row r="311" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="311" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS311" s="29"/>
       <c r="AT311" s="18"/>
       <c r="AU311" s="30"/>
@@ -27602,7 +27600,7 @@
       <c r="BL311" s="4"/>
       <c r="BM311" s="34"/>
     </row>
-    <row r="312" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="312" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS312" s="29"/>
       <c r="AT312" s="18"/>
       <c r="AU312" s="30"/>
@@ -27624,7 +27622,7 @@
       <c r="BL312" s="4"/>
       <c r="BM312" s="34"/>
     </row>
-    <row r="313" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="313" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS313" s="29"/>
       <c r="AT313" s="18"/>
       <c r="AU313" s="30"/>
@@ -27646,7 +27644,7 @@
       <c r="BL313" s="4"/>
       <c r="BM313" s="34"/>
     </row>
-    <row r="314" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="314" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS314" s="29"/>
       <c r="AT314" s="18"/>
       <c r="AU314" s="30"/>
@@ -27668,7 +27666,7 @@
       <c r="BL314" s="4"/>
       <c r="BM314" s="34"/>
     </row>
-    <row r="315" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="315" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS315" s="29"/>
       <c r="AT315" s="18"/>
       <c r="AU315" s="30"/>
@@ -27690,7 +27688,7 @@
       <c r="BL315" s="4"/>
       <c r="BM315" s="34"/>
     </row>
-    <row r="316" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="316" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS316" s="29"/>
       <c r="AT316" s="18"/>
       <c r="AU316" s="30"/>
@@ -27712,7 +27710,7 @@
       <c r="BL316" s="4"/>
       <c r="BM316" s="34"/>
     </row>
-    <row r="317" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="317" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS317" s="29"/>
       <c r="AT317" s="18"/>
       <c r="AU317" s="30"/>
@@ -27734,7 +27732,7 @@
       <c r="BL317" s="4"/>
       <c r="BM317" s="34"/>
     </row>
-    <row r="318" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="318" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS318" s="29"/>
       <c r="AT318" s="18"/>
       <c r="AU318" s="30"/>
@@ -27756,7 +27754,7 @@
       <c r="BL318" s="4"/>
       <c r="BM318" s="34"/>
     </row>
-    <row r="319" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="319" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS319" s="29"/>
       <c r="AT319" s="18"/>
       <c r="AU319" s="30"/>
@@ -27778,7 +27776,7 @@
       <c r="BL319" s="4"/>
       <c r="BM319" s="34"/>
     </row>
-    <row r="320" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="320" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS320" s="29"/>
       <c r="AT320" s="18"/>
       <c r="AU320" s="30"/>
@@ -27800,7 +27798,7 @@
       <c r="BL320" s="4"/>
       <c r="BM320" s="34"/>
     </row>
-    <row r="321" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="321" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS321" s="29"/>
       <c r="AT321" s="18"/>
       <c r="AU321" s="30"/>
@@ -27822,7 +27820,7 @@
       <c r="BL321" s="4"/>
       <c r="BM321" s="34"/>
     </row>
-    <row r="322" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="322" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS322" s="29"/>
       <c r="AT322" s="18"/>
       <c r="AU322" s="30"/>
@@ -27844,7 +27842,7 @@
       <c r="BL322" s="4"/>
       <c r="BM322" s="34"/>
     </row>
-    <row r="323" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="323" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS323" s="29"/>
       <c r="AT323" s="18"/>
       <c r="AU323" s="30"/>
@@ -27866,7 +27864,7 @@
       <c r="BL323" s="4"/>
       <c r="BM323" s="34"/>
     </row>
-    <row r="324" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="324" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS324" s="29"/>
       <c r="AT324" s="18"/>
       <c r="AU324" s="30"/>
@@ -27888,7 +27886,7 @@
       <c r="BL324" s="4"/>
       <c r="BM324" s="34"/>
     </row>
-    <row r="325" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="325" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS325" s="29"/>
       <c r="AT325" s="18"/>
       <c r="AU325" s="30"/>
@@ -27910,7 +27908,7 @@
       <c r="BL325" s="4"/>
       <c r="BM325" s="34"/>
     </row>
-    <row r="326" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="326" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS326" s="29"/>
       <c r="AT326" s="18"/>
       <c r="AU326" s="30"/>
@@ -27932,7 +27930,7 @@
       <c r="BL326" s="4"/>
       <c r="BM326" s="34"/>
     </row>
-    <row r="327" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="327" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS327" s="29"/>
       <c r="AT327" s="18"/>
       <c r="AU327" s="30"/>
@@ -27954,7 +27952,7 @@
       <c r="BL327" s="4"/>
       <c r="BM327" s="34"/>
     </row>
-    <row r="328" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="328" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS328" s="29"/>
       <c r="AT328" s="18"/>
       <c r="AU328" s="30"/>
@@ -27976,7 +27974,7 @@
       <c r="BL328" s="4"/>
       <c r="BM328" s="34"/>
     </row>
-    <row r="329" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="329" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS329" s="29"/>
       <c r="AT329" s="18"/>
       <c r="AU329" s="30"/>
@@ -27998,7 +27996,7 @@
       <c r="BL329" s="4"/>
       <c r="BM329" s="34"/>
     </row>
-    <row r="330" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="330" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS330" s="29"/>
       <c r="AT330" s="18"/>
       <c r="AU330" s="30"/>
@@ -28020,7 +28018,7 @@
       <c r="BL330" s="4"/>
       <c r="BM330" s="34"/>
     </row>
-    <row r="331" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="331" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS331" s="29"/>
       <c r="AT331" s="18"/>
       <c r="AU331" s="30"/>
@@ -28042,7 +28040,7 @@
       <c r="BL331" s="4"/>
       <c r="BM331" s="34"/>
     </row>
-    <row r="332" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="332" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS332" s="29"/>
       <c r="AT332" s="18"/>
       <c r="AU332" s="30"/>
@@ -28064,7 +28062,7 @@
       <c r="BL332" s="4"/>
       <c r="BM332" s="34"/>
     </row>
-    <row r="333" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="333" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS333" s="29"/>
       <c r="AT333" s="18"/>
       <c r="AU333" s="30"/>
@@ -28086,7 +28084,7 @@
       <c r="BL333" s="4"/>
       <c r="BM333" s="34"/>
     </row>
-    <row r="334" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="334" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS334" s="29"/>
       <c r="AT334" s="18"/>
       <c r="AU334" s="30"/>
@@ -28108,7 +28106,7 @@
       <c r="BL334" s="4"/>
       <c r="BM334" s="34"/>
     </row>
-    <row r="335" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="335" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS335" s="29"/>
       <c r="AT335" s="18"/>
       <c r="AU335" s="30"/>
@@ -28130,7 +28128,7 @@
       <c r="BL335" s="4"/>
       <c r="BM335" s="34"/>
     </row>
-    <row r="336" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="336" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS336" s="29"/>
       <c r="AT336" s="18"/>
       <c r="AU336" s="30"/>
@@ -28152,7 +28150,7 @@
       <c r="BL336" s="4"/>
       <c r="BM336" s="34"/>
     </row>
-    <row r="337" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="337" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS337" s="29"/>
       <c r="AT337" s="18"/>
       <c r="AU337" s="30"/>
@@ -28174,7 +28172,7 @@
       <c r="BL337" s="4"/>
       <c r="BM337" s="34"/>
     </row>
-    <row r="338" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="338" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS338" s="29"/>
       <c r="AT338" s="18"/>
       <c r="AU338" s="30"/>
@@ -28196,7 +28194,7 @@
       <c r="BL338" s="4"/>
       <c r="BM338" s="34"/>
     </row>
-    <row r="339" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="339" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS339" s="29"/>
       <c r="AT339" s="18"/>
       <c r="AU339" s="30"/>
@@ -28218,7 +28216,7 @@
       <c r="BL339" s="4"/>
       <c r="BM339" s="34"/>
     </row>
-    <row r="340" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="340" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS340" s="29"/>
       <c r="AT340" s="18"/>
       <c r="AU340" s="30"/>
@@ -28240,7 +28238,7 @@
       <c r="BL340" s="4"/>
       <c r="BM340" s="34"/>
     </row>
-    <row r="341" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="341" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS341" s="29"/>
       <c r="AT341" s="18"/>
       <c r="AU341" s="30"/>
@@ -28262,7 +28260,7 @@
       <c r="BL341" s="4"/>
       <c r="BM341" s="34"/>
     </row>
-    <row r="342" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="342" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS342" s="29"/>
       <c r="AT342" s="18"/>
       <c r="AU342" s="30"/>
@@ -28284,7 +28282,7 @@
       <c r="BL342" s="4"/>
       <c r="BM342" s="34"/>
     </row>
-    <row r="343" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="343" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS343" s="29"/>
       <c r="AT343" s="18"/>
       <c r="AU343" s="30"/>
@@ -28306,7 +28304,7 @@
       <c r="BL343" s="4"/>
       <c r="BM343" s="34"/>
     </row>
-    <row r="344" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="344" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS344" s="29"/>
       <c r="AT344" s="18"/>
       <c r="AU344" s="30"/>
@@ -28328,7 +28326,7 @@
       <c r="BL344" s="4"/>
       <c r="BM344" s="34"/>
     </row>
-    <row r="345" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="345" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS345" s="29"/>
       <c r="AT345" s="18"/>
       <c r="AU345" s="30"/>
@@ -28350,7 +28348,7 @@
       <c r="BL345" s="4"/>
       <c r="BM345" s="34"/>
     </row>
-    <row r="346" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="346" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS346" s="29"/>
       <c r="AT346" s="18"/>
       <c r="AU346" s="30"/>
@@ -28372,7 +28370,7 @@
       <c r="BL346" s="4"/>
       <c r="BM346" s="34"/>
     </row>
-    <row r="347" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="347" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS347" s="29"/>
       <c r="AT347" s="18"/>
       <c r="AU347" s="30"/>
@@ -28394,7 +28392,7 @@
       <c r="BL347" s="4"/>
       <c r="BM347" s="34"/>
     </row>
-    <row r="348" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="348" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS348" s="29"/>
       <c r="AT348" s="18"/>
       <c r="AU348" s="30"/>
@@ -28416,7 +28414,7 @@
       <c r="BL348" s="4"/>
       <c r="BM348" s="34"/>
     </row>
-    <row r="349" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="349" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS349" s="29"/>
       <c r="AT349" s="18"/>
       <c r="AU349" s="30"/>
@@ -28438,7 +28436,7 @@
       <c r="BL349" s="4"/>
       <c r="BM349" s="34"/>
     </row>
-    <row r="350" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="350" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS350" s="29"/>
       <c r="AT350" s="18"/>
       <c r="AU350" s="30"/>
@@ -28460,7 +28458,7 @@
       <c r="BL350" s="4"/>
       <c r="BM350" s="34"/>
     </row>
-    <row r="351" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="351" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS351" s="29"/>
       <c r="AT351" s="18"/>
       <c r="AU351" s="30"/>
@@ -28482,7 +28480,7 @@
       <c r="BL351" s="4"/>
       <c r="BM351" s="34"/>
     </row>
-    <row r="352" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="352" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS352" s="29"/>
       <c r="AT352" s="18"/>
       <c r="AU352" s="30"/>
@@ -28504,7 +28502,7 @@
       <c r="BL352" s="4"/>
       <c r="BM352" s="34"/>
     </row>
-    <row r="353" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="353" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS353" s="29"/>
       <c r="AT353" s="18"/>
       <c r="AU353" s="30"/>
@@ -28526,7 +28524,7 @@
       <c r="BL353" s="4"/>
       <c r="BM353" s="34"/>
     </row>
-    <row r="354" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="354" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS354" s="29"/>
       <c r="AT354" s="18"/>
       <c r="AU354" s="30"/>
@@ -28548,7 +28546,7 @@
       <c r="BL354" s="4"/>
       <c r="BM354" s="34"/>
     </row>
-    <row r="355" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="355" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS355" s="29"/>
       <c r="AT355" s="18"/>
       <c r="AU355" s="30"/>
@@ -28570,7 +28568,7 @@
       <c r="BL355" s="4"/>
       <c r="BM355" s="34"/>
     </row>
-    <row r="356" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="356" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS356" s="29"/>
       <c r="AT356" s="18"/>
       <c r="AU356" s="30"/>
@@ -28592,7 +28590,7 @@
       <c r="BL356" s="4"/>
       <c r="BM356" s="34"/>
     </row>
-    <row r="357" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="357" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS357" s="29"/>
       <c r="AT357" s="18"/>
       <c r="AU357" s="30"/>
@@ -28614,7 +28612,7 @@
       <c r="BL357" s="4"/>
       <c r="BM357" s="34"/>
     </row>
-    <row r="358" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="358" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS358" s="29"/>
       <c r="AT358" s="18"/>
       <c r="AU358" s="30"/>
@@ -28636,7 +28634,7 @@
       <c r="BL358" s="4"/>
       <c r="BM358" s="34"/>
     </row>
-    <row r="359" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="359" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS359" s="29"/>
       <c r="AT359" s="18"/>
       <c r="AU359" s="30"/>
@@ -28658,7 +28656,7 @@
       <c r="BL359" s="4"/>
       <c r="BM359" s="34"/>
     </row>
-    <row r="360" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="360" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS360" s="29"/>
       <c r="AT360" s="18"/>
       <c r="AU360" s="30"/>
@@ -28680,7 +28678,7 @@
       <c r="BL360" s="4"/>
       <c r="BM360" s="34"/>
     </row>
-    <row r="361" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="361" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS361" s="29"/>
       <c r="AT361" s="18"/>
       <c r="AU361" s="30"/>
@@ -28702,7 +28700,7 @@
       <c r="BL361" s="4"/>
       <c r="BM361" s="34"/>
     </row>
-    <row r="362" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="362" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS362" s="29"/>
       <c r="AT362" s="18"/>
       <c r="AU362" s="30"/>
@@ -28724,7 +28722,7 @@
       <c r="BL362" s="4"/>
       <c r="BM362" s="34"/>
     </row>
-    <row r="363" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="363" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS363" s="29"/>
       <c r="AT363" s="18"/>
       <c r="AU363" s="30"/>
@@ -28746,7 +28744,7 @@
       <c r="BL363" s="4"/>
       <c r="BM363" s="34"/>
     </row>
-    <row r="364" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="364" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS364" s="29"/>
       <c r="AT364" s="18"/>
       <c r="AU364" s="30"/>
@@ -28768,7 +28766,7 @@
       <c r="BL364" s="4"/>
       <c r="BM364" s="34"/>
     </row>
-    <row r="365" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="365" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS365" s="29"/>
       <c r="AT365" s="18"/>
       <c r="AU365" s="30"/>
@@ -28790,7 +28788,7 @@
       <c r="BL365" s="4"/>
       <c r="BM365" s="34"/>
     </row>
-    <row r="366" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="366" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS366" s="29"/>
       <c r="AT366" s="18"/>
       <c r="AU366" s="30"/>
@@ -28812,7 +28810,7 @@
       <c r="BL366" s="4"/>
       <c r="BM366" s="34"/>
     </row>
-    <row r="367" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="367" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS367" s="29"/>
       <c r="AT367" s="18"/>
       <c r="AU367" s="30"/>
@@ -28834,7 +28832,7 @@
       <c r="BL367" s="4"/>
       <c r="BM367" s="34"/>
     </row>
-    <row r="368" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="368" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS368" s="29"/>
       <c r="AT368" s="18"/>
       <c r="AU368" s="30"/>
@@ -28856,7 +28854,7 @@
       <c r="BL368" s="4"/>
       <c r="BM368" s="34"/>
     </row>
-    <row r="369" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="369" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS369" s="29"/>
       <c r="AT369" s="18"/>
       <c r="AU369" s="30"/>
@@ -28878,7 +28876,7 @@
       <c r="BL369" s="4"/>
       <c r="BM369" s="34"/>
     </row>
-    <row r="370" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="370" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS370" s="29"/>
       <c r="AT370" s="18"/>
       <c r="AU370" s="30"/>
@@ -28900,7 +28898,7 @@
       <c r="BL370" s="4"/>
       <c r="BM370" s="34"/>
     </row>
-    <row r="371" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="371" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS371" s="29"/>
       <c r="AT371" s="18"/>
       <c r="AU371" s="30"/>
@@ -28922,7 +28920,7 @@
       <c r="BL371" s="4"/>
       <c r="BM371" s="34"/>
     </row>
-    <row r="372" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="372" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS372" s="29"/>
       <c r="AT372" s="18"/>
       <c r="AU372" s="30"/>
@@ -28944,7 +28942,7 @@
       <c r="BL372" s="4"/>
       <c r="BM372" s="34"/>
     </row>
-    <row r="373" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="373" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS373" s="29"/>
       <c r="AT373" s="18"/>
       <c r="AU373" s="30"/>
@@ -28966,7 +28964,7 @@
       <c r="BL373" s="4"/>
       <c r="BM373" s="34"/>
     </row>
-    <row r="374" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="374" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS374" s="29"/>
       <c r="AT374" s="18"/>
       <c r="AU374" s="30"/>
@@ -28988,7 +28986,7 @@
       <c r="BL374" s="4"/>
       <c r="BM374" s="34"/>
     </row>
-    <row r="375" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="375" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS375" s="29"/>
       <c r="AT375" s="18"/>
       <c r="AU375" s="30"/>
@@ -29010,7 +29008,7 @@
       <c r="BL375" s="4"/>
       <c r="BM375" s="34"/>
     </row>
-    <row r="376" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="376" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS376" s="29"/>
       <c r="AT376" s="18"/>
       <c r="AU376" s="30"/>
@@ -29032,7 +29030,7 @@
       <c r="BL376" s="4"/>
       <c r="BM376" s="34"/>
     </row>
-    <row r="377" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="377" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS377" s="29"/>
       <c r="AT377" s="18"/>
       <c r="AU377" s="30"/>
@@ -29054,7 +29052,7 @@
       <c r="BL377" s="4"/>
       <c r="BM377" s="34"/>
     </row>
-    <row r="378" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="378" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS378" s="29"/>
       <c r="AT378" s="18"/>
       <c r="AU378" s="30"/>
@@ -29076,7 +29074,7 @@
       <c r="BL378" s="4"/>
       <c r="BM378" s="34"/>
     </row>
-    <row r="379" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="379" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS379" s="29"/>
       <c r="AT379" s="18"/>
       <c r="AU379" s="30"/>
@@ -29098,7 +29096,7 @@
       <c r="BL379" s="4"/>
       <c r="BM379" s="34"/>
     </row>
-    <row r="380" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="380" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS380" s="29"/>
       <c r="AT380" s="18"/>
       <c r="AU380" s="30"/>
@@ -29120,7 +29118,7 @@
       <c r="BL380" s="4"/>
       <c r="BM380" s="34"/>
     </row>
-    <row r="381" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="381" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS381" s="29"/>
       <c r="AT381" s="18"/>
       <c r="AU381" s="30"/>
@@ -29142,7 +29140,7 @@
       <c r="BL381" s="4"/>
       <c r="BM381" s="34"/>
     </row>
-    <row r="382" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="382" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS382" s="29"/>
       <c r="AT382" s="18"/>
       <c r="AU382" s="30"/>
@@ -29164,7 +29162,7 @@
       <c r="BL382" s="4"/>
       <c r="BM382" s="34"/>
     </row>
-    <row r="383" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="383" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS383" s="29"/>
       <c r="AT383" s="18"/>
       <c r="AU383" s="30"/>
@@ -29186,7 +29184,7 @@
       <c r="BL383" s="4"/>
       <c r="BM383" s="34"/>
     </row>
-    <row r="384" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="384" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS384" s="29"/>
       <c r="AT384" s="18"/>
       <c r="AU384" s="30"/>
@@ -29208,7 +29206,7 @@
       <c r="BL384" s="4"/>
       <c r="BM384" s="34"/>
     </row>
-    <row r="385" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="385" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS385" s="29"/>
       <c r="AT385" s="18"/>
       <c r="AU385" s="30"/>
@@ -29230,7 +29228,7 @@
       <c r="BL385" s="4"/>
       <c r="BM385" s="34"/>
     </row>
-    <row r="386" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="386" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS386" s="29"/>
       <c r="AT386" s="18"/>
       <c r="AU386" s="30"/>
@@ -29252,7 +29250,7 @@
       <c r="BL386" s="4"/>
       <c r="BM386" s="34"/>
     </row>
-    <row r="387" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="387" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS387" s="29"/>
       <c r="AT387" s="18"/>
       <c r="AU387" s="30"/>
@@ -29274,7 +29272,7 @@
       <c r="BL387" s="4"/>
       <c r="BM387" s="34"/>
     </row>
-    <row r="388" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="388" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS388" s="29"/>
       <c r="AT388" s="18"/>
       <c r="AU388" s="30"/>
@@ -29296,7 +29294,7 @@
       <c r="BL388" s="4"/>
       <c r="BM388" s="34"/>
     </row>
-    <row r="389" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="389" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS389" s="29"/>
       <c r="AT389" s="18"/>
       <c r="AU389" s="30"/>
@@ -29318,7 +29316,7 @@
       <c r="BL389" s="4"/>
       <c r="BM389" s="34"/>
     </row>
-    <row r="390" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="390" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS390" s="29"/>
       <c r="AT390" s="18"/>
       <c r="AU390" s="30"/>
@@ -29340,7 +29338,7 @@
       <c r="BL390" s="4"/>
       <c r="BM390" s="34"/>
     </row>
-    <row r="391" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="391" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS391" s="29"/>
       <c r="AT391" s="18"/>
       <c r="AU391" s="30"/>
@@ -29362,7 +29360,7 @@
       <c r="BL391" s="4"/>
       <c r="BM391" s="34"/>
     </row>
-    <row r="392" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="392" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS392" s="29"/>
       <c r="AT392" s="18"/>
       <c r="AU392" s="30"/>
@@ -29384,7 +29382,7 @@
       <c r="BL392" s="4"/>
       <c r="BM392" s="34"/>
     </row>
-    <row r="393" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="393" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS393" s="29"/>
       <c r="AT393" s="18"/>
       <c r="AU393" s="30"/>
@@ -29406,7 +29404,7 @@
       <c r="BL393" s="4"/>
       <c r="BM393" s="34"/>
     </row>
-    <row r="394" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="394" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS394" s="29"/>
       <c r="AT394" s="18"/>
       <c r="AU394" s="30"/>
@@ -29428,7 +29426,7 @@
       <c r="BL394" s="4"/>
       <c r="BM394" s="34"/>
     </row>
-    <row r="395" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="395" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS395" s="29"/>
       <c r="AT395" s="18"/>
       <c r="AU395" s="30"/>
@@ -29450,7 +29448,7 @@
       <c r="BL395" s="4"/>
       <c r="BM395" s="34"/>
     </row>
-    <row r="396" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="396" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS396" s="29"/>
       <c r="AT396" s="18"/>
       <c r="AU396" s="30"/>
@@ -29472,7 +29470,7 @@
       <c r="BL396" s="4"/>
       <c r="BM396" s="34"/>
     </row>
-    <row r="397" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="397" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS397" s="29"/>
       <c r="AT397" s="18"/>
       <c r="AU397" s="30"/>
@@ -29494,7 +29492,7 @@
       <c r="BL397" s="4"/>
       <c r="BM397" s="34"/>
     </row>
-    <row r="398" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="398" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS398" s="29"/>
       <c r="AT398" s="18"/>
       <c r="AU398" s="30"/>
@@ -29516,7 +29514,7 @@
       <c r="BL398" s="4"/>
       <c r="BM398" s="34"/>
     </row>
-    <row r="399" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="399" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS399" s="29"/>
       <c r="AT399" s="18"/>
       <c r="AU399" s="30"/>
@@ -29538,7 +29536,7 @@
       <c r="BL399" s="4"/>
       <c r="BM399" s="34"/>
     </row>
-    <row r="400" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="400" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS400" s="29"/>
       <c r="AT400" s="18"/>
       <c r="AU400" s="30"/>
@@ -29560,7 +29558,7 @@
       <c r="BL400" s="4"/>
       <c r="BM400" s="34"/>
     </row>
-    <row r="401" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="401" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS401" s="29"/>
       <c r="AT401" s="18"/>
       <c r="AU401" s="30"/>
@@ -29582,7 +29580,7 @@
       <c r="BL401" s="4"/>
       <c r="BM401" s="34"/>
     </row>
-    <row r="402" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="402" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS402" s="29"/>
       <c r="AT402" s="18"/>
       <c r="AU402" s="30"/>
@@ -29604,7 +29602,7 @@
       <c r="BL402" s="4"/>
       <c r="BM402" s="34"/>
     </row>
-    <row r="403" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="403" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS403" s="29"/>
       <c r="AT403" s="18"/>
       <c r="AU403" s="30"/>
@@ -29626,7 +29624,7 @@
       <c r="BL403" s="4"/>
       <c r="BM403" s="34"/>
     </row>
-    <row r="404" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="404" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS404" s="29"/>
       <c r="AT404" s="18"/>
       <c r="AU404" s="30"/>
@@ -29648,7 +29646,7 @@
       <c r="BL404" s="4"/>
       <c r="BM404" s="34"/>
     </row>
-    <row r="405" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="405" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS405" s="29"/>
       <c r="AT405" s="18"/>
       <c r="AU405" s="30"/>
@@ -29670,7 +29668,7 @@
       <c r="BL405" s="4"/>
       <c r="BM405" s="34"/>
     </row>
-    <row r="406" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="406" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS406" s="29"/>
       <c r="AT406" s="18"/>
       <c r="AU406" s="30"/>
@@ -29692,7 +29690,7 @@
       <c r="BL406" s="4"/>
       <c r="BM406" s="34"/>
     </row>
-    <row r="407" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="407" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS407" s="29"/>
       <c r="AT407" s="18"/>
       <c r="AU407" s="30"/>
@@ -29714,7 +29712,7 @@
       <c r="BL407" s="4"/>
       <c r="BM407" s="34"/>
     </row>
-    <row r="408" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="408" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS408" s="29"/>
       <c r="AT408" s="18"/>
       <c r="AU408" s="30"/>
@@ -29736,7 +29734,7 @@
       <c r="BL408" s="4"/>
       <c r="BM408" s="34"/>
     </row>
-    <row r="409" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="409" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS409" s="29"/>
       <c r="AT409" s="18"/>
       <c r="AU409" s="30"/>
@@ -29758,7 +29756,7 @@
       <c r="BL409" s="4"/>
       <c r="BM409" s="34"/>
     </row>
-    <row r="410" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="410" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS410" s="29"/>
       <c r="AT410" s="18"/>
       <c r="AU410" s="30"/>
@@ -29780,7 +29778,7 @@
       <c r="BL410" s="4"/>
       <c r="BM410" s="34"/>
     </row>
-    <row r="411" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="411" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS411" s="29"/>
       <c r="AT411" s="18"/>
       <c r="AU411" s="30"/>
@@ -29802,7 +29800,7 @@
       <c r="BL411" s="4"/>
       <c r="BM411" s="34"/>
     </row>
-    <row r="412" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="412" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS412" s="29"/>
       <c r="AT412" s="18"/>
       <c r="AU412" s="30"/>
@@ -29824,7 +29822,7 @@
       <c r="BL412" s="4"/>
       <c r="BM412" s="34"/>
     </row>
-    <row r="413" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="413" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS413" s="29"/>
       <c r="AT413" s="18"/>
       <c r="AU413" s="30"/>
@@ -29846,7 +29844,7 @@
       <c r="BL413" s="4"/>
       <c r="BM413" s="34"/>
     </row>
-    <row r="414" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="414" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS414" s="29"/>
       <c r="AT414" s="18"/>
       <c r="AU414" s="30"/>
@@ -29868,7 +29866,7 @@
       <c r="BL414" s="4"/>
       <c r="BM414" s="34"/>
     </row>
-    <row r="415" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="415" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS415" s="29"/>
       <c r="AT415" s="18"/>
       <c r="AU415" s="30"/>
@@ -29890,7 +29888,7 @@
       <c r="BL415" s="4"/>
       <c r="BM415" s="34"/>
     </row>
-    <row r="416" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="416" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS416" s="29"/>
       <c r="AT416" s="18"/>
       <c r="AU416" s="30"/>
@@ -29912,7 +29910,7 @@
       <c r="BL416" s="4"/>
       <c r="BM416" s="34"/>
     </row>
-    <row r="417" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="417" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS417" s="29"/>
       <c r="AT417" s="18"/>
       <c r="AU417" s="30"/>
@@ -29934,7 +29932,7 @@
       <c r="BL417" s="4"/>
       <c r="BM417" s="34"/>
     </row>
-    <row r="418" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="418" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS418" s="29"/>
       <c r="AT418" s="18"/>
       <c r="AU418" s="30"/>
@@ -29956,7 +29954,7 @@
       <c r="BL418" s="4"/>
       <c r="BM418" s="34"/>
     </row>
-    <row r="419" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="419" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS419" s="29"/>
       <c r="AT419" s="18"/>
       <c r="AU419" s="30"/>
@@ -29978,7 +29976,7 @@
       <c r="BL419" s="4"/>
       <c r="BM419" s="34"/>
     </row>
-    <row r="420" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="420" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS420" s="29"/>
       <c r="AT420" s="18"/>
       <c r="AU420" s="30"/>
@@ -30000,7 +29998,7 @@
       <c r="BL420" s="4"/>
       <c r="BM420" s="34"/>
     </row>
-    <row r="421" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="421" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS421" s="29"/>
       <c r="AT421" s="18"/>
       <c r="AU421" s="30"/>
@@ -30022,7 +30020,7 @@
       <c r="BL421" s="4"/>
       <c r="BM421" s="34"/>
     </row>
-    <row r="422" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="422" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS422" s="29"/>
       <c r="AT422" s="18"/>
       <c r="AU422" s="30"/>
@@ -30044,7 +30042,7 @@
       <c r="BL422" s="4"/>
       <c r="BM422" s="34"/>
     </row>
-    <row r="423" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="423" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS423" s="29"/>
       <c r="AT423" s="18"/>
       <c r="AU423" s="30"/>
@@ -30066,7 +30064,7 @@
       <c r="BL423" s="4"/>
       <c r="BM423" s="34"/>
     </row>
-    <row r="424" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="424" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS424" s="29"/>
       <c r="AT424" s="18"/>
       <c r="AU424" s="30"/>
@@ -30088,7 +30086,7 @@
       <c r="BL424" s="4"/>
       <c r="BM424" s="34"/>
     </row>
-    <row r="425" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="425" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS425" s="29"/>
       <c r="AT425" s="18"/>
       <c r="AU425" s="30"/>
@@ -30110,7 +30108,7 @@
       <c r="BL425" s="4"/>
       <c r="BM425" s="34"/>
     </row>
-    <row r="426" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="426" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS426" s="29"/>
       <c r="AT426" s="18"/>
       <c r="AU426" s="30"/>
@@ -30132,7 +30130,7 @@
       <c r="BL426" s="4"/>
       <c r="BM426" s="34"/>
     </row>
-    <row r="427" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="427" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS427" s="29"/>
       <c r="AT427" s="18"/>
       <c r="AU427" s="30"/>
@@ -30154,7 +30152,7 @@
       <c r="BL427" s="4"/>
       <c r="BM427" s="34"/>
     </row>
-    <row r="428" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="428" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS428" s="29"/>
       <c r="AT428" s="18"/>
       <c r="AU428" s="30"/>
@@ -30176,7 +30174,7 @@
       <c r="BL428" s="4"/>
       <c r="BM428" s="34"/>
     </row>
-    <row r="429" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="429" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS429" s="29"/>
       <c r="AT429" s="18"/>
       <c r="AU429" s="30"/>
@@ -30198,7 +30196,7 @@
       <c r="BL429" s="4"/>
       <c r="BM429" s="34"/>
     </row>
-    <row r="430" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="430" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS430" s="29"/>
       <c r="AT430" s="18"/>
       <c r="AU430" s="30"/>
@@ -30220,7 +30218,7 @@
       <c r="BL430" s="4"/>
       <c r="BM430" s="34"/>
     </row>
-    <row r="431" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="431" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS431" s="29"/>
       <c r="AT431" s="18"/>
       <c r="AU431" s="30"/>
@@ -30242,7 +30240,7 @@
       <c r="BL431" s="4"/>
       <c r="BM431" s="34"/>
     </row>
-    <row r="432" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="432" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS432" s="29"/>
       <c r="AT432" s="18"/>
       <c r="AU432" s="30"/>
@@ -30264,7 +30262,7 @@
       <c r="BL432" s="4"/>
       <c r="BM432" s="34"/>
     </row>
-    <row r="433" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="433" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS433" s="29"/>
       <c r="AT433" s="18"/>
       <c r="AU433" s="30"/>
@@ -30286,7 +30284,7 @@
       <c r="BL433" s="4"/>
       <c r="BM433" s="34"/>
     </row>
-    <row r="434" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="434" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS434" s="29"/>
       <c r="AT434" s="18"/>
       <c r="AU434" s="30"/>
@@ -30308,7 +30306,7 @@
       <c r="BL434" s="4"/>
       <c r="BM434" s="34"/>
     </row>
-    <row r="435" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="435" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS435" s="29"/>
       <c r="AT435" s="18"/>
       <c r="AU435" s="30"/>
@@ -30330,7 +30328,7 @@
       <c r="BL435" s="4"/>
       <c r="BM435" s="34"/>
     </row>
-    <row r="436" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="436" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS436" s="29"/>
       <c r="AT436" s="18"/>
       <c r="AU436" s="30"/>
@@ -30352,7 +30350,7 @@
       <c r="BL436" s="4"/>
       <c r="BM436" s="34"/>
     </row>
-    <row r="437" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="437" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS437" s="29"/>
       <c r="AT437" s="18"/>
       <c r="AU437" s="30"/>
@@ -30374,7 +30372,7 @@
       <c r="BL437" s="4"/>
       <c r="BM437" s="34"/>
     </row>
-    <row r="438" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="438" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS438" s="29"/>
       <c r="AT438" s="18"/>
       <c r="AU438" s="30"/>
@@ -30396,7 +30394,7 @@
       <c r="BL438" s="4"/>
       <c r="BM438" s="34"/>
     </row>
-    <row r="439" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="439" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS439" s="29"/>
       <c r="AT439" s="18"/>
       <c r="AU439" s="30"/>
@@ -30418,7 +30416,7 @@
       <c r="BL439" s="4"/>
       <c r="BM439" s="34"/>
     </row>
-    <row r="440" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="440" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS440" s="29"/>
       <c r="AT440" s="18"/>
       <c r="AU440" s="30"/>
@@ -30440,7 +30438,7 @@
       <c r="BL440" s="4"/>
       <c r="BM440" s="34"/>
     </row>
-    <row r="441" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="441" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS441" s="29"/>
       <c r="AT441" s="18"/>
       <c r="AU441" s="30"/>
@@ -30462,7 +30460,7 @@
       <c r="BL441" s="4"/>
       <c r="BM441" s="34"/>
     </row>
-    <row r="442" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="442" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS442" s="29"/>
       <c r="AT442" s="18"/>
       <c r="AU442" s="30"/>
@@ -30484,7 +30482,7 @@
       <c r="BL442" s="4"/>
       <c r="BM442" s="34"/>
     </row>
-    <row r="443" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="443" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS443" s="29"/>
       <c r="AT443" s="18"/>
       <c r="AU443" s="30"/>
@@ -30506,7 +30504,7 @@
       <c r="BL443" s="4"/>
       <c r="BM443" s="34"/>
     </row>
-    <row r="444" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="444" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS444" s="29"/>
       <c r="AT444" s="18"/>
       <c r="AU444" s="30"/>
@@ -30528,7 +30526,7 @@
       <c r="BL444" s="4"/>
       <c r="BM444" s="34"/>
     </row>
-    <row r="445" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="445" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS445" s="29"/>
       <c r="AT445" s="18"/>
       <c r="AU445" s="30"/>
@@ -30550,7 +30548,7 @@
       <c r="BL445" s="4"/>
       <c r="BM445" s="34"/>
     </row>
-    <row r="446" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="446" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS446" s="29"/>
       <c r="AT446" s="18"/>
       <c r="AU446" s="30"/>
@@ -30572,7 +30570,7 @@
       <c r="BL446" s="4"/>
       <c r="BM446" s="34"/>
     </row>
-    <row r="447" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="447" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS447" s="29"/>
       <c r="AT447" s="18"/>
       <c r="AU447" s="30"/>
@@ -30594,7 +30592,7 @@
       <c r="BL447" s="4"/>
       <c r="BM447" s="34"/>
     </row>
-    <row r="448" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="448" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS448" s="29"/>
       <c r="AT448" s="18"/>
       <c r="AU448" s="30"/>
@@ -30616,7 +30614,7 @@
       <c r="BL448" s="4"/>
       <c r="BM448" s="34"/>
     </row>
-    <row r="449" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="449" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS449" s="29"/>
       <c r="AT449" s="18"/>
       <c r="AU449" s="30"/>
@@ -30638,7 +30636,7 @@
       <c r="BL449" s="4"/>
       <c r="BM449" s="34"/>
     </row>
-    <row r="450" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="450" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS450" s="29"/>
       <c r="AT450" s="18"/>
       <c r="AU450" s="30"/>
@@ -30660,7 +30658,7 @@
       <c r="BL450" s="4"/>
       <c r="BM450" s="34"/>
     </row>
-    <row r="451" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="451" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS451" s="29"/>
       <c r="AT451" s="18"/>
       <c r="AU451" s="30"/>
@@ -30682,7 +30680,7 @@
       <c r="BL451" s="4"/>
       <c r="BM451" s="34"/>
     </row>
-    <row r="452" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="452" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS452" s="29"/>
       <c r="AT452" s="18"/>
       <c r="AU452" s="30"/>
@@ -30704,7 +30702,7 @@
       <c r="BL452" s="4"/>
       <c r="BM452" s="34"/>
     </row>
-    <row r="453" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="453" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS453" s="29"/>
       <c r="AT453" s="18"/>
       <c r="AU453" s="30"/>
@@ -30726,7 +30724,7 @@
       <c r="BL453" s="4"/>
       <c r="BM453" s="34"/>
     </row>
-    <row r="454" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="454" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS454" s="29"/>
       <c r="AT454" s="18"/>
       <c r="AU454" s="30"/>
@@ -30748,7 +30746,7 @@
       <c r="BL454" s="4"/>
       <c r="BM454" s="34"/>
     </row>
-    <row r="455" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="455" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS455" s="29"/>
       <c r="AT455" s="18"/>
       <c r="AU455" s="30"/>
@@ -30770,7 +30768,7 @@
       <c r="BL455" s="4"/>
       <c r="BM455" s="34"/>
     </row>
-    <row r="456" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="456" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS456" s="29"/>
       <c r="AT456" s="18"/>
       <c r="AU456" s="30"/>
@@ -30792,7 +30790,7 @@
       <c r="BL456" s="4"/>
       <c r="BM456" s="34"/>
     </row>
-    <row r="457" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="457" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS457" s="29"/>
       <c r="AT457" s="18"/>
       <c r="AU457" s="30"/>
@@ -30814,7 +30812,7 @@
       <c r="BL457" s="4"/>
       <c r="BM457" s="34"/>
     </row>
-    <row r="458" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="458" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS458" s="29"/>
       <c r="AT458" s="18"/>
       <c r="AU458" s="30"/>
@@ -30836,7 +30834,7 @@
       <c r="BL458" s="4"/>
       <c r="BM458" s="34"/>
     </row>
-    <row r="459" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="459" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS459" s="29"/>
       <c r="AT459" s="18"/>
       <c r="AU459" s="30"/>
@@ -30858,7 +30856,7 @@
       <c r="BL459" s="4"/>
       <c r="BM459" s="34"/>
     </row>
-    <row r="460" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="460" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS460" s="29"/>
       <c r="AT460" s="18"/>
       <c r="AU460" s="30"/>
@@ -30880,7 +30878,7 @@
       <c r="BL460" s="4"/>
       <c r="BM460" s="34"/>
     </row>
-    <row r="461" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="461" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS461" s="29"/>
       <c r="AT461" s="18"/>
       <c r="AU461" s="30"/>
@@ -30902,7 +30900,7 @@
       <c r="BL461" s="4"/>
       <c r="BM461" s="34"/>
     </row>
-    <row r="462" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="462" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS462" s="29"/>
       <c r="AT462" s="18"/>
       <c r="AU462" s="30"/>
@@ -30924,7 +30922,7 @@
       <c r="BL462" s="4"/>
       <c r="BM462" s="34"/>
     </row>
-    <row r="463" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="463" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS463" s="29"/>
       <c r="AT463" s="18"/>
       <c r="AU463" s="30"/>
@@ -30946,7 +30944,7 @@
       <c r="BL463" s="4"/>
       <c r="BM463" s="34"/>
     </row>
-    <row r="464" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="464" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS464" s="29"/>
       <c r="AT464" s="18"/>
       <c r="AU464" s="30"/>
@@ -30968,7 +30966,7 @@
       <c r="BL464" s="4"/>
       <c r="BM464" s="34"/>
     </row>
-    <row r="465" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="465" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS465" s="29"/>
       <c r="AT465" s="18"/>
       <c r="AU465" s="30"/>
@@ -30990,7 +30988,7 @@
       <c r="BL465" s="4"/>
       <c r="BM465" s="34"/>
     </row>
-    <row r="466" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="466" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS466" s="29"/>
       <c r="AT466" s="18"/>
       <c r="AU466" s="30"/>
@@ -31012,7 +31010,7 @@
       <c r="BL466" s="4"/>
       <c r="BM466" s="34"/>
     </row>
-    <row r="467" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="467" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS467" s="29"/>
       <c r="AT467" s="18"/>
       <c r="AU467" s="30"/>
@@ -31034,7 +31032,7 @@
       <c r="BL467" s="4"/>
       <c r="BM467" s="34"/>
     </row>
-    <row r="468" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="468" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS468" s="29"/>
       <c r="AT468" s="18"/>
       <c r="AU468" s="30"/>
@@ -31056,7 +31054,7 @@
       <c r="BL468" s="4"/>
       <c r="BM468" s="34"/>
     </row>
-    <row r="469" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="469" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS469" s="29"/>
       <c r="AT469" s="18"/>
       <c r="AU469" s="30"/>
@@ -31078,7 +31076,7 @@
       <c r="BL469" s="4"/>
       <c r="BM469" s="34"/>
     </row>
-    <row r="470" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="470" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS470" s="29"/>
       <c r="AT470" s="18"/>
       <c r="AU470" s="30"/>
@@ -31100,7 +31098,7 @@
       <c r="BL470" s="4"/>
       <c r="BM470" s="34"/>
     </row>
-    <row r="471" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="471" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS471" s="29"/>
       <c r="AT471" s="18"/>
       <c r="AU471" s="30"/>
@@ -31122,7 +31120,7 @@
       <c r="BL471" s="4"/>
       <c r="BM471" s="34"/>
     </row>
-    <row r="472" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="472" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS472" s="29"/>
       <c r="AT472" s="18"/>
       <c r="AU472" s="30"/>
@@ -31144,7 +31142,7 @@
       <c r="BL472" s="4"/>
       <c r="BM472" s="34"/>
     </row>
-    <row r="473" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="473" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS473" s="29"/>
       <c r="AT473" s="18"/>
       <c r="AU473" s="30"/>
@@ -31166,7 +31164,7 @@
       <c r="BL473" s="4"/>
       <c r="BM473" s="34"/>
     </row>
-    <row r="474" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="474" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS474" s="29"/>
       <c r="AT474" s="18"/>
       <c r="AU474" s="30"/>
@@ -31188,7 +31186,7 @@
       <c r="BL474" s="4"/>
       <c r="BM474" s="34"/>
     </row>
-    <row r="475" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="475" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS475" s="29"/>
       <c r="AT475" s="18"/>
       <c r="AU475" s="30"/>
@@ -31210,7 +31208,7 @@
       <c r="BL475" s="4"/>
       <c r="BM475" s="34"/>
     </row>
-    <row r="476" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="476" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS476" s="29"/>
       <c r="AT476" s="18"/>
       <c r="AU476" s="30"/>
@@ -31232,7 +31230,7 @@
       <c r="BL476" s="4"/>
       <c r="BM476" s="34"/>
     </row>
-    <row r="477" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="477" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS477" s="29"/>
       <c r="AT477" s="18"/>
       <c r="AU477" s="30"/>
@@ -31254,7 +31252,7 @@
       <c r="BL477" s="4"/>
       <c r="BM477" s="34"/>
     </row>
-    <row r="478" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="478" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS478" s="29"/>
       <c r="AT478" s="18"/>
       <c r="AU478" s="30"/>
@@ -31276,7 +31274,7 @@
       <c r="BL478" s="4"/>
       <c r="BM478" s="34"/>
     </row>
-    <row r="479" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="479" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS479" s="29"/>
       <c r="AT479" s="18"/>
       <c r="AU479" s="30"/>
@@ -31298,7 +31296,7 @@
       <c r="BL479" s="4"/>
       <c r="BM479" s="34"/>
     </row>
-    <row r="480" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="480" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS480" s="29"/>
       <c r="AT480" s="18"/>
       <c r="AU480" s="30"/>
@@ -31320,7 +31318,7 @@
       <c r="BL480" s="4"/>
       <c r="BM480" s="34"/>
     </row>
-    <row r="481" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="481" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS481" s="29"/>
       <c r="AT481" s="18"/>
       <c r="AU481" s="30"/>
@@ -31342,7 +31340,7 @@
       <c r="BL481" s="4"/>
       <c r="BM481" s="34"/>
     </row>
-    <row r="482" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="482" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS482" s="29"/>
       <c r="AT482" s="18"/>
       <c r="AU482" s="30"/>
@@ -31364,7 +31362,7 @@
       <c r="BL482" s="4"/>
       <c r="BM482" s="34"/>
     </row>
-    <row r="483" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="483" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS483" s="29"/>
       <c r="AT483" s="18"/>
       <c r="AU483" s="30"/>
@@ -31386,7 +31384,7 @@
       <c r="BL483" s="4"/>
       <c r="BM483" s="34"/>
     </row>
-    <row r="484" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="484" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS484" s="29"/>
       <c r="AT484" s="18"/>
       <c r="AU484" s="30"/>
@@ -31408,7 +31406,7 @@
       <c r="BL484" s="4"/>
       <c r="BM484" s="34"/>
     </row>
-    <row r="485" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="485" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS485" s="29"/>
       <c r="AT485" s="18"/>
       <c r="AU485" s="30"/>
@@ -31430,7 +31428,7 @@
       <c r="BL485" s="4"/>
       <c r="BM485" s="34"/>
     </row>
-    <row r="486" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="486" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS486" s="29"/>
       <c r="AT486" s="18"/>
       <c r="AU486" s="30"/>
@@ -31452,7 +31450,7 @@
       <c r="BL486" s="4"/>
       <c r="BM486" s="34"/>
     </row>
-    <row r="487" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="487" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS487" s="29"/>
       <c r="AT487" s="18"/>
       <c r="AU487" s="30"/>
@@ -31474,7 +31472,7 @@
       <c r="BL487" s="4"/>
       <c r="BM487" s="34"/>
     </row>
-    <row r="488" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="488" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS488" s="29"/>
       <c r="AT488" s="18"/>
       <c r="AU488" s="30"/>
@@ -31496,7 +31494,7 @@
       <c r="BL488" s="4"/>
       <c r="BM488" s="34"/>
     </row>
-    <row r="489" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="489" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS489" s="29"/>
       <c r="AT489" s="18"/>
       <c r="AU489" s="30"/>
@@ -31518,7 +31516,7 @@
       <c r="BL489" s="4"/>
       <c r="BM489" s="34"/>
     </row>
-    <row r="490" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="490" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS490" s="29"/>
       <c r="AT490" s="18"/>
       <c r="AU490" s="30"/>
@@ -31540,7 +31538,7 @@
       <c r="BL490" s="4"/>
       <c r="BM490" s="34"/>
     </row>
-    <row r="491" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="491" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS491" s="29"/>
       <c r="AT491" s="18"/>
       <c r="AU491" s="30"/>
@@ -31562,7 +31560,7 @@
       <c r="BL491" s="4"/>
       <c r="BM491" s="34"/>
     </row>
-    <row r="492" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="492" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS492" s="29"/>
       <c r="AT492" s="18"/>
       <c r="AU492" s="30"/>
@@ -31584,7 +31582,7 @@
       <c r="BL492" s="4"/>
       <c r="BM492" s="34"/>
     </row>
-    <row r="493" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="493" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS493" s="29"/>
       <c r="AT493" s="18"/>
       <c r="AU493" s="30"/>
@@ -31606,7 +31604,7 @@
       <c r="BL493" s="4"/>
       <c r="BM493" s="34"/>
     </row>
-    <row r="494" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="494" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS494" s="29"/>
       <c r="AT494" s="18"/>
       <c r="AU494" s="30"/>
@@ -31628,7 +31626,7 @@
       <c r="BL494" s="4"/>
       <c r="BM494" s="34"/>
     </row>
-    <row r="495" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="495" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS495" s="29"/>
       <c r="AT495" s="18"/>
       <c r="AU495" s="30"/>
@@ -31650,7 +31648,7 @@
       <c r="BL495" s="4"/>
       <c r="BM495" s="34"/>
     </row>
-    <row r="496" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="496" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS496" s="29"/>
       <c r="AT496" s="18"/>
       <c r="AU496" s="30"/>
@@ -31672,7 +31670,7 @@
       <c r="BL496" s="4"/>
       <c r="BM496" s="34"/>
     </row>
-    <row r="497" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="497" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS497" s="29"/>
       <c r="AT497" s="18"/>
       <c r="AU497" s="30"/>
@@ -31694,7 +31692,7 @@
       <c r="BL497" s="4"/>
       <c r="BM497" s="34"/>
     </row>
-    <row r="498" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="498" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS498" s="29"/>
       <c r="AT498" s="18"/>
       <c r="AU498" s="30"/>
@@ -31716,7 +31714,7 @@
       <c r="BL498" s="4"/>
       <c r="BM498" s="34"/>
     </row>
-    <row r="499" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="499" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS499" s="29"/>
       <c r="AT499" s="18"/>
       <c r="AU499" s="30"/>
@@ -31738,7 +31736,7 @@
       <c r="BL499" s="4"/>
       <c r="BM499" s="34"/>
     </row>
-    <row r="500" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="500" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS500" s="29"/>
       <c r="AT500" s="18"/>
       <c r="AU500" s="30"/>
@@ -31760,7 +31758,7 @@
       <c r="BL500" s="4"/>
       <c r="BM500" s="34"/>
     </row>
-    <row r="501" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="501" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS501" s="29"/>
       <c r="AT501" s="18"/>
       <c r="AU501" s="30"/>
@@ -31782,7 +31780,7 @@
       <c r="BL501" s="4"/>
       <c r="BM501" s="34"/>
     </row>
-    <row r="502" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="502" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS502" s="29"/>
       <c r="AT502" s="18"/>
       <c r="AU502" s="30"/>
@@ -31804,7 +31802,7 @@
       <c r="BL502" s="4"/>
       <c r="BM502" s="34"/>
     </row>
-    <row r="503" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="503" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS503" s="29"/>
       <c r="AT503" s="18"/>
       <c r="AU503" s="30"/>
@@ -31826,7 +31824,7 @@
       <c r="BL503" s="4"/>
       <c r="BM503" s="34"/>
     </row>
-    <row r="504" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="504" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS504" s="29"/>
       <c r="AT504" s="18"/>
       <c r="AU504" s="30"/>
@@ -31848,7 +31846,7 @@
       <c r="BL504" s="4"/>
       <c r="BM504" s="34"/>
     </row>
-    <row r="505" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="505" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS505" s="29"/>
       <c r="AT505" s="18"/>
       <c r="AU505" s="30"/>
@@ -31870,7 +31868,7 @@
       <c r="BL505" s="4"/>
       <c r="BM505" s="34"/>
     </row>
-    <row r="506" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="506" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS506" s="29"/>
       <c r="AT506" s="18"/>
       <c r="AU506" s="30"/>
@@ -31892,7 +31890,7 @@
       <c r="BL506" s="4"/>
       <c r="BM506" s="34"/>
     </row>
-    <row r="507" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="507" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS507" s="29"/>
       <c r="AT507" s="18"/>
       <c r="AU507" s="30"/>
@@ -31914,7 +31912,7 @@
       <c r="BL507" s="4"/>
       <c r="BM507" s="34"/>
     </row>
-    <row r="508" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="508" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS508" s="29"/>
       <c r="AT508" s="18"/>
       <c r="AU508" s="30"/>
@@ -31936,7 +31934,7 @@
       <c r="BL508" s="4"/>
       <c r="BM508" s="34"/>
     </row>
-    <row r="509" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="509" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS509" s="29"/>
       <c r="AT509" s="18"/>
       <c r="AU509" s="30"/>
@@ -31958,7 +31956,7 @@
       <c r="BL509" s="4"/>
       <c r="BM509" s="34"/>
     </row>
-    <row r="510" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="510" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS510" s="29"/>
       <c r="AT510" s="18"/>
       <c r="AU510" s="30"/>
@@ -31980,7 +31978,7 @@
       <c r="BL510" s="4"/>
       <c r="BM510" s="34"/>
     </row>
-    <row r="511" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="511" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS511" s="29"/>
       <c r="AT511" s="18"/>
       <c r="AU511" s="30"/>
@@ -32002,7 +32000,7 @@
       <c r="BL511" s="4"/>
       <c r="BM511" s="34"/>
     </row>
-    <row r="512" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="512" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS512" s="29"/>
       <c r="AT512" s="18"/>
       <c r="AU512" s="30"/>
@@ -32024,7 +32022,7 @@
       <c r="BL512" s="4"/>
       <c r="BM512" s="34"/>
     </row>
-    <row r="513" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="513" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS513" s="29"/>
       <c r="AT513" s="18"/>
       <c r="AU513" s="30"/>
@@ -32046,7 +32044,7 @@
       <c r="BL513" s="4"/>
       <c r="BM513" s="34"/>
     </row>
-    <row r="514" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="514" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS514" s="29"/>
       <c r="AT514" s="18"/>
       <c r="AU514" s="30"/>
@@ -32068,7 +32066,7 @@
       <c r="BL514" s="4"/>
       <c r="BM514" s="34"/>
     </row>
-    <row r="515" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="515" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS515" s="29"/>
       <c r="AT515" s="18"/>
       <c r="AU515" s="30"/>
@@ -32090,7 +32088,7 @@
       <c r="BL515" s="4"/>
       <c r="BM515" s="34"/>
     </row>
-    <row r="516" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="516" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS516" s="29"/>
       <c r="AT516" s="18"/>
       <c r="AU516" s="30"/>
@@ -32112,7 +32110,7 @@
       <c r="BL516" s="4"/>
       <c r="BM516" s="34"/>
     </row>
-    <row r="517" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="517" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS517" s="29"/>
       <c r="AT517" s="18"/>
       <c r="AU517" s="30"/>
@@ -32134,7 +32132,7 @@
       <c r="BL517" s="4"/>
       <c r="BM517" s="34"/>
     </row>
-    <row r="518" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="518" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS518" s="29"/>
       <c r="AT518" s="18"/>
       <c r="AU518" s="30"/>
@@ -32156,7 +32154,7 @@
       <c r="BL518" s="4"/>
       <c r="BM518" s="34"/>
     </row>
-    <row r="519" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="519" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS519" s="29"/>
       <c r="AT519" s="18"/>
       <c r="AU519" s="30"/>
@@ -32178,7 +32176,7 @@
       <c r="BL519" s="4"/>
       <c r="BM519" s="34"/>
     </row>
-    <row r="520" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="520" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS520" s="29"/>
       <c r="AT520" s="18"/>
       <c r="AU520" s="30"/>
@@ -32200,7 +32198,7 @@
       <c r="BL520" s="4"/>
       <c r="BM520" s="34"/>
     </row>
-    <row r="521" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="521" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS521" s="29"/>
       <c r="AT521" s="18"/>
       <c r="AU521" s="30"/>
@@ -32222,7 +32220,7 @@
       <c r="BL521" s="4"/>
       <c r="BM521" s="34"/>
     </row>
-    <row r="522" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="522" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS522" s="29"/>
       <c r="AT522" s="18"/>
       <c r="AU522" s="30"/>
@@ -32244,7 +32242,7 @@
       <c r="BL522" s="4"/>
       <c r="BM522" s="34"/>
     </row>
-    <row r="523" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="523" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS523" s="29"/>
       <c r="AT523" s="18"/>
       <c r="AU523" s="30"/>
@@ -32266,7 +32264,7 @@
       <c r="BL523" s="4"/>
       <c r="BM523" s="34"/>
     </row>
-    <row r="524" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="524" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS524" s="29"/>
       <c r="AT524" s="18"/>
       <c r="AU524" s="30"/>
@@ -32288,7 +32286,7 @@
       <c r="BL524" s="4"/>
       <c r="BM524" s="34"/>
     </row>
-    <row r="525" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="525" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS525" s="29"/>
       <c r="AT525" s="18"/>
       <c r="AU525" s="30"/>
@@ -32310,7 +32308,7 @@
       <c r="BL525" s="4"/>
       <c r="BM525" s="34"/>
     </row>
-    <row r="526" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="526" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS526" s="29"/>
       <c r="AT526" s="18"/>
       <c r="AU526" s="30"/>
@@ -32332,7 +32330,7 @@
       <c r="BL526" s="4"/>
       <c r="BM526" s="34"/>
     </row>
-    <row r="527" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="527" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS527" s="29"/>
       <c r="AT527" s="18"/>
       <c r="AU527" s="30"/>
@@ -32354,7 +32352,7 @@
       <c r="BL527" s="4"/>
       <c r="BM527" s="34"/>
     </row>
-    <row r="528" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="528" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS528" s="29"/>
       <c r="AT528" s="18"/>
       <c r="AU528" s="30"/>
@@ -32376,7 +32374,7 @@
       <c r="BL528" s="4"/>
       <c r="BM528" s="34"/>
     </row>
-    <row r="529" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="529" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS529" s="29"/>
       <c r="AT529" s="18"/>
       <c r="AU529" s="30"/>
@@ -32398,7 +32396,7 @@
       <c r="BL529" s="4"/>
       <c r="BM529" s="34"/>
     </row>
-    <row r="530" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="530" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS530" s="29"/>
       <c r="AT530" s="18"/>
       <c r="AU530" s="30"/>
@@ -32420,7 +32418,7 @@
       <c r="BL530" s="4"/>
       <c r="BM530" s="34"/>
     </row>
-    <row r="531" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="531" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS531" s="29"/>
       <c r="AT531" s="18"/>
       <c r="AU531" s="30"/>
@@ -32442,7 +32440,7 @@
       <c r="BL531" s="4"/>
       <c r="BM531" s="34"/>
     </row>
-    <row r="532" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="532" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS532" s="29"/>
       <c r="AT532" s="18"/>
       <c r="AU532" s="30"/>
@@ -32464,7 +32462,7 @@
       <c r="BL532" s="4"/>
       <c r="BM532" s="34"/>
     </row>
-    <row r="533" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="533" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS533" s="29"/>
       <c r="AT533" s="18"/>
       <c r="AU533" s="30"/>
@@ -32486,7 +32484,7 @@
       <c r="BL533" s="4"/>
       <c r="BM533" s="34"/>
     </row>
-    <row r="534" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="534" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS534" s="29"/>
       <c r="AT534" s="18"/>
       <c r="AU534" s="30"/>
@@ -32508,7 +32506,7 @@
       <c r="BL534" s="4"/>
       <c r="BM534" s="34"/>
     </row>
-    <row r="535" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="535" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS535" s="29"/>
       <c r="AT535" s="18"/>
       <c r="AU535" s="30"/>
@@ -32530,7 +32528,7 @@
       <c r="BL535" s="4"/>
       <c r="BM535" s="34"/>
     </row>
-    <row r="536" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="536" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS536" s="29"/>
       <c r="AT536" s="18"/>
       <c r="AU536" s="30"/>
@@ -32552,7 +32550,7 @@
       <c r="BL536" s="4"/>
       <c r="BM536" s="34"/>
     </row>
-    <row r="537" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="537" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS537" s="29"/>
       <c r="AT537" s="18"/>
       <c r="AU537" s="30"/>
@@ -32574,7 +32572,7 @@
       <c r="BL537" s="4"/>
       <c r="BM537" s="34"/>
     </row>
-    <row r="538" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="538" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS538" s="29"/>
       <c r="AT538" s="18"/>
       <c r="AU538" s="30"/>
@@ -32596,7 +32594,7 @@
       <c r="BL538" s="4"/>
       <c r="BM538" s="34"/>
     </row>
-    <row r="539" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="539" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS539" s="29"/>
       <c r="AT539" s="18"/>
       <c r="AU539" s="30"/>
@@ -32618,7 +32616,7 @@
       <c r="BL539" s="4"/>
       <c r="BM539" s="34"/>
     </row>
-    <row r="540" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="540" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS540" s="29"/>
       <c r="AT540" s="18"/>
       <c r="AU540" s="30"/>
@@ -32640,7 +32638,7 @@
       <c r="BL540" s="4"/>
       <c r="BM540" s="34"/>
     </row>
-    <row r="541" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="541" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS541" s="29"/>
       <c r="AT541" s="18"/>
       <c r="AU541" s="30"/>
@@ -32662,7 +32660,7 @@
       <c r="BL541" s="4"/>
       <c r="BM541" s="34"/>
     </row>
-    <row r="542" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="542" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS542" s="29"/>
       <c r="AT542" s="18"/>
       <c r="AU542" s="30"/>
@@ -32684,7 +32682,7 @@
       <c r="BL542" s="4"/>
       <c r="BM542" s="34"/>
     </row>
-    <row r="543" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="543" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS543" s="29"/>
       <c r="AT543" s="18"/>
       <c r="AU543" s="30"/>
@@ -32706,7 +32704,7 @@
       <c r="BL543" s="4"/>
       <c r="BM543" s="34"/>
     </row>
-    <row r="544" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="544" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS544" s="29"/>
       <c r="AT544" s="18"/>
       <c r="AU544" s="30"/>
@@ -32728,7 +32726,7 @@
       <c r="BL544" s="4"/>
       <c r="BM544" s="34"/>
     </row>
-    <row r="545" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="545" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS545" s="29"/>
       <c r="AT545" s="18"/>
       <c r="AU545" s="30"/>
@@ -32750,7 +32748,7 @@
       <c r="BL545" s="4"/>
       <c r="BM545" s="34"/>
     </row>
-    <row r="546" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="546" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS546" s="29"/>
       <c r="AT546" s="18"/>
       <c r="AU546" s="30"/>
@@ -32772,7 +32770,7 @@
       <c r="BL546" s="4"/>
       <c r="BM546" s="34"/>
     </row>
-    <row r="547" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="547" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS547" s="29"/>
       <c r="AT547" s="18"/>
       <c r="AU547" s="30"/>
@@ -32794,7 +32792,7 @@
       <c r="BL547" s="4"/>
       <c r="BM547" s="34"/>
     </row>
-    <row r="548" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="548" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS548" s="29"/>
       <c r="AT548" s="18"/>
       <c r="AU548" s="30"/>
@@ -32816,7 +32814,7 @@
       <c r="BL548" s="4"/>
       <c r="BM548" s="34"/>
     </row>
-    <row r="549" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="549" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS549" s="29"/>
       <c r="AT549" s="18"/>
       <c r="AU549" s="30"/>
@@ -32838,7 +32836,7 @@
       <c r="BL549" s="4"/>
       <c r="BM549" s="34"/>
     </row>
-    <row r="550" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="550" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS550" s="29"/>
       <c r="AT550" s="18"/>
       <c r="AU550" s="30"/>
@@ -32860,7 +32858,7 @@
       <c r="BL550" s="4"/>
       <c r="BM550" s="34"/>
     </row>
-    <row r="551" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="551" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS551" s="29"/>
       <c r="AT551" s="18"/>
       <c r="AU551" s="30"/>
@@ -32882,7 +32880,7 @@
       <c r="BL551" s="4"/>
       <c r="BM551" s="34"/>
     </row>
-    <row r="552" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="552" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS552" s="29"/>
       <c r="AT552" s="18"/>
       <c r="AU552" s="30"/>
@@ -32904,7 +32902,7 @@
       <c r="BL552" s="4"/>
       <c r="BM552" s="34"/>
     </row>
-    <row r="553" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="553" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS553" s="29"/>
       <c r="AT553" s="18"/>
       <c r="AU553" s="30"/>
@@ -32926,7 +32924,7 @@
       <c r="BL553" s="4"/>
       <c r="BM553" s="34"/>
     </row>
-    <row r="554" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="554" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS554" s="29"/>
       <c r="AT554" s="18"/>
       <c r="AU554" s="30"/>
@@ -32948,7 +32946,7 @@
       <c r="BL554" s="4"/>
       <c r="BM554" s="34"/>
     </row>
-    <row r="555" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="555" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS555" s="29"/>
       <c r="AT555" s="18"/>
       <c r="AU555" s="30"/>
@@ -32970,7 +32968,7 @@
       <c r="BL555" s="4"/>
       <c r="BM555" s="34"/>
     </row>
-    <row r="556" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="556" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS556" s="29"/>
       <c r="AT556" s="18"/>
       <c r="AU556" s="30"/>
@@ -32992,7 +32990,7 @@
       <c r="BL556" s="4"/>
       <c r="BM556" s="34"/>
     </row>
-    <row r="557" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="557" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS557" s="29"/>
       <c r="AT557" s="18"/>
       <c r="AU557" s="30"/>
@@ -33014,7 +33012,7 @@
       <c r="BL557" s="4"/>
       <c r="BM557" s="34"/>
     </row>
-    <row r="558" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="558" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS558" s="29"/>
       <c r="AT558" s="18"/>
       <c r="AU558" s="30"/>
@@ -33036,7 +33034,7 @@
       <c r="BL558" s="4"/>
       <c r="BM558" s="34"/>
     </row>
-    <row r="559" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="559" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS559" s="29"/>
       <c r="AT559" s="18"/>
       <c r="AU559" s="30"/>
@@ -33058,7 +33056,7 @@
       <c r="BL559" s="4"/>
       <c r="BM559" s="34"/>
     </row>
-    <row r="560" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="560" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS560" s="29"/>
       <c r="AT560" s="18"/>
       <c r="AU560" s="30"/>
@@ -33080,7 +33078,7 @@
       <c r="BL560" s="4"/>
       <c r="BM560" s="34"/>
     </row>
-    <row r="561" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="561" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS561" s="29"/>
       <c r="AT561" s="18"/>
       <c r="AU561" s="30"/>
@@ -33102,7 +33100,7 @@
       <c r="BL561" s="4"/>
       <c r="BM561" s="34"/>
     </row>
-    <row r="562" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="562" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS562" s="29"/>
       <c r="AT562" s="18"/>
       <c r="AU562" s="30"/>
@@ -33124,7 +33122,7 @@
       <c r="BL562" s="4"/>
       <c r="BM562" s="34"/>
     </row>
-    <row r="563" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="563" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS563" s="29"/>
       <c r="AT563" s="18"/>
       <c r="AU563" s="30"/>
@@ -33146,7 +33144,7 @@
       <c r="BL563" s="4"/>
       <c r="BM563" s="34"/>
     </row>
-    <row r="564" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="564" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS564" s="29"/>
       <c r="AT564" s="18"/>
       <c r="AU564" s="30"/>
@@ -33168,7 +33166,7 @@
       <c r="BL564" s="4"/>
       <c r="BM564" s="34"/>
     </row>
-    <row r="565" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="565" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS565" s="29"/>
       <c r="AT565" s="18"/>
       <c r="AU565" s="30"/>
@@ -33190,7 +33188,7 @@
       <c r="BL565" s="4"/>
       <c r="BM565" s="34"/>
     </row>
-    <row r="566" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="566" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS566" s="29"/>
       <c r="AT566" s="18"/>
       <c r="AU566" s="30"/>
@@ -33212,7 +33210,7 @@
       <c r="BL566" s="4"/>
       <c r="BM566" s="34"/>
     </row>
-    <row r="567" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="567" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS567" s="29"/>
       <c r="AT567" s="18"/>
       <c r="AU567" s="30"/>
@@ -33234,7 +33232,7 @@
       <c r="BL567" s="4"/>
       <c r="BM567" s="34"/>
     </row>
-    <row r="568" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="568" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS568" s="29"/>
       <c r="AT568" s="18"/>
       <c r="AU568" s="30"/>
@@ -33256,7 +33254,7 @@
       <c r="BL568" s="4"/>
       <c r="BM568" s="34"/>
     </row>
-    <row r="569" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="569" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS569" s="29"/>
       <c r="AT569" s="18"/>
       <c r="AU569" s="30"/>
@@ -33278,7 +33276,7 @@
       <c r="BL569" s="4"/>
       <c r="BM569" s="34"/>
     </row>
-    <row r="570" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="570" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS570" s="29"/>
       <c r="AT570" s="18"/>
       <c r="AU570" s="30"/>
@@ -33300,7 +33298,7 @@
       <c r="BL570" s="4"/>
       <c r="BM570" s="34"/>
     </row>
-    <row r="571" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="571" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS571" s="29"/>
       <c r="AT571" s="18"/>
       <c r="AU571" s="30"/>
@@ -33322,7 +33320,7 @@
       <c r="BL571" s="4"/>
       <c r="BM571" s="34"/>
     </row>
-    <row r="572" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="572" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS572" s="29"/>
       <c r="AT572" s="18"/>
       <c r="AU572" s="30"/>
@@ -33344,7 +33342,7 @@
       <c r="BL572" s="4"/>
       <c r="BM572" s="34"/>
     </row>
-    <row r="573" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="573" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS573" s="29"/>
       <c r="AT573" s="18"/>
       <c r="AU573" s="30"/>
@@ -33366,7 +33364,7 @@
       <c r="BL573" s="4"/>
       <c r="BM573" s="34"/>
     </row>
-    <row r="574" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="574" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS574" s="29"/>
       <c r="AT574" s="18"/>
       <c r="AU574" s="30"/>
@@ -33388,7 +33386,7 @@
       <c r="BL574" s="4"/>
       <c r="BM574" s="34"/>
     </row>
-    <row r="575" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="575" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS575" s="29"/>
       <c r="AT575" s="18"/>
       <c r="AU575" s="30"/>
@@ -33410,7 +33408,7 @@
       <c r="BL575" s="4"/>
       <c r="BM575" s="34"/>
     </row>
-    <row r="576" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="576" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS576" s="29"/>
       <c r="AT576" s="18"/>
       <c r="AU576" s="30"/>
@@ -33432,7 +33430,7 @@
       <c r="BL576" s="4"/>
       <c r="BM576" s="34"/>
     </row>
-    <row r="577" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="577" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS577" s="29"/>
       <c r="AT577" s="18"/>
       <c r="AU577" s="30"/>
@@ -33454,7 +33452,7 @@
       <c r="BL577" s="4"/>
       <c r="BM577" s="34"/>
     </row>
-    <row r="578" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="578" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS578" s="29"/>
       <c r="AT578" s="18"/>
       <c r="AU578" s="30"/>
@@ -33476,7 +33474,7 @@
       <c r="BL578" s="4"/>
       <c r="BM578" s="34"/>
     </row>
-    <row r="579" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="579" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS579" s="29"/>
       <c r="AT579" s="18"/>
       <c r="AU579" s="30"/>
@@ -33498,7 +33496,7 @@
       <c r="BL579" s="4"/>
       <c r="BM579" s="34"/>
     </row>
-    <row r="580" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="580" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS580" s="29"/>
       <c r="AT580" s="18"/>
       <c r="AU580" s="30"/>
@@ -33520,7 +33518,7 @@
       <c r="BL580" s="4"/>
       <c r="BM580" s="34"/>
     </row>
-    <row r="581" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="581" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS581" s="29"/>
       <c r="AT581" s="18"/>
       <c r="AU581" s="30"/>
@@ -33542,7 +33540,7 @@
       <c r="BL581" s="4"/>
       <c r="BM581" s="34"/>
     </row>
-    <row r="582" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="582" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS582" s="29"/>
       <c r="AT582" s="18"/>
       <c r="AU582" s="30"/>
@@ -33564,7 +33562,7 @@
       <c r="BL582" s="4"/>
       <c r="BM582" s="34"/>
     </row>
-    <row r="583" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="583" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS583" s="29"/>
       <c r="AT583" s="18"/>
       <c r="AU583" s="30"/>
@@ -33586,7 +33584,7 @@
       <c r="BL583" s="4"/>
       <c r="BM583" s="34"/>
     </row>
-    <row r="584" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="584" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS584" s="29"/>
       <c r="AT584" s="18"/>
       <c r="AU584" s="30"/>
@@ -33608,7 +33606,7 @@
       <c r="BL584" s="4"/>
       <c r="BM584" s="34"/>
     </row>
-    <row r="585" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="585" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS585" s="29"/>
       <c r="AT585" s="18"/>
       <c r="AU585" s="30"/>
@@ -33630,7 +33628,7 @@
       <c r="BL585" s="4"/>
       <c r="BM585" s="34"/>
     </row>
-    <row r="586" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="586" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS586" s="29"/>
       <c r="AT586" s="18"/>
       <c r="AU586" s="30"/>
@@ -33652,7 +33650,7 @@
       <c r="BL586" s="4"/>
       <c r="BM586" s="34"/>
     </row>
-    <row r="587" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="587" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS587" s="29"/>
       <c r="AT587" s="18"/>
       <c r="AU587" s="30"/>
@@ -33674,7 +33672,7 @@
       <c r="BL587" s="4"/>
       <c r="BM587" s="34"/>
     </row>
-    <row r="588" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="588" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS588" s="29"/>
       <c r="AT588" s="18"/>
       <c r="AU588" s="30"/>
@@ -33696,7 +33694,7 @@
       <c r="BL588" s="4"/>
       <c r="BM588" s="34"/>
     </row>
-    <row r="589" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="589" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS589" s="29"/>
       <c r="AT589" s="18"/>
       <c r="AU589" s="30"/>
@@ -33718,7 +33716,7 @@
       <c r="BL589" s="4"/>
       <c r="BM589" s="34"/>
     </row>
-    <row r="590" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="590" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS590" s="29"/>
       <c r="AT590" s="18"/>
       <c r="AU590" s="30"/>
@@ -33740,7 +33738,7 @@
       <c r="BL590" s="4"/>
       <c r="BM590" s="34"/>
     </row>
-    <row r="591" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="591" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS591" s="29"/>
       <c r="AT591" s="18"/>
       <c r="AU591" s="30"/>
@@ -33762,7 +33760,7 @@
       <c r="BL591" s="4"/>
       <c r="BM591" s="34"/>
     </row>
-    <row r="592" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="592" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS592" s="29"/>
       <c r="AT592" s="18"/>
       <c r="AU592" s="30"/>
@@ -33784,7 +33782,7 @@
       <c r="BL592" s="4"/>
       <c r="BM592" s="34"/>
     </row>
-    <row r="593" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="593" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS593" s="29"/>
       <c r="AT593" s="18"/>
       <c r="AU593" s="30"/>
@@ -33806,7 +33804,7 @@
       <c r="BL593" s="4"/>
       <c r="BM593" s="34"/>
     </row>
-    <row r="594" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="594" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS594" s="29"/>
       <c r="AT594" s="18"/>
       <c r="AU594" s="30"/>
@@ -33828,7 +33826,7 @@
       <c r="BL594" s="4"/>
       <c r="BM594" s="34"/>
     </row>
-    <row r="595" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="595" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS595" s="29"/>
       <c r="AT595" s="18"/>
       <c r="AU595" s="30"/>
@@ -33850,7 +33848,7 @@
       <c r="BL595" s="4"/>
       <c r="BM595" s="34"/>
     </row>
-    <row r="596" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="596" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS596" s="29"/>
       <c r="AT596" s="18"/>
       <c r="AU596" s="30"/>
@@ -33872,7 +33870,7 @@
       <c r="BL596" s="4"/>
       <c r="BM596" s="34"/>
     </row>
-    <row r="597" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="597" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS597" s="29"/>
       <c r="AT597" s="18"/>
       <c r="AU597" s="30"/>
@@ -33894,7 +33892,7 @@
       <c r="BL597" s="4"/>
       <c r="BM597" s="34"/>
     </row>
-    <row r="598" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="598" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS598" s="29"/>
       <c r="AT598" s="18"/>
       <c r="AU598" s="30"/>
@@ -33916,7 +33914,7 @@
       <c r="BL598" s="4"/>
       <c r="BM598" s="34"/>
     </row>
-    <row r="599" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="599" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS599" s="29"/>
       <c r="AT599" s="18"/>
       <c r="AU599" s="30"/>
@@ -33938,7 +33936,7 @@
       <c r="BL599" s="4"/>
       <c r="BM599" s="34"/>
     </row>
-    <row r="600" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="600" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS600" s="29"/>
       <c r="AT600" s="18"/>
       <c r="AU600" s="30"/>
@@ -33960,7 +33958,7 @@
       <c r="BL600" s="4"/>
       <c r="BM600" s="34"/>
     </row>
-    <row r="601" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="601" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS601" s="29"/>
       <c r="AT601" s="18"/>
       <c r="AU601" s="30"/>
@@ -33982,7 +33980,7 @@
       <c r="BL601" s="4"/>
       <c r="BM601" s="34"/>
     </row>
-    <row r="602" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="602" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS602" s="29"/>
       <c r="AT602" s="18"/>
       <c r="AU602" s="30"/>
@@ -34004,7 +34002,7 @@
       <c r="BL602" s="4"/>
       <c r="BM602" s="34"/>
     </row>
-    <row r="603" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="603" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS603" s="29"/>
       <c r="AT603" s="18"/>
       <c r="AU603" s="30"/>
@@ -34026,7 +34024,7 @@
       <c r="BL603" s="4"/>
       <c r="BM603" s="34"/>
     </row>
-    <row r="604" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="604" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS604" s="29"/>
       <c r="AT604" s="18"/>
       <c r="AU604" s="30"/>
@@ -34048,7 +34046,7 @@
       <c r="BL604" s="4"/>
       <c r="BM604" s="34"/>
     </row>
-    <row r="605" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="605" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS605" s="29"/>
       <c r="AT605" s="18"/>
       <c r="AU605" s="30"/>
@@ -34070,7 +34068,7 @@
       <c r="BL605" s="4"/>
       <c r="BM605" s="34"/>
     </row>
-    <row r="606" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="606" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS606" s="29"/>
       <c r="AT606" s="18"/>
       <c r="AU606" s="30"/>
@@ -34092,7 +34090,7 @@
       <c r="BL606" s="4"/>
       <c r="BM606" s="34"/>
     </row>
-    <row r="607" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="607" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS607" s="29"/>
       <c r="AT607" s="18"/>
       <c r="AU607" s="30"/>
@@ -34114,7 +34112,7 @@
       <c r="BL607" s="4"/>
       <c r="BM607" s="34"/>
     </row>
-    <row r="608" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="608" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS608" s="29"/>
       <c r="AT608" s="18"/>
       <c r="AU608" s="30"/>
@@ -34136,7 +34134,7 @@
       <c r="BL608" s="4"/>
       <c r="BM608" s="34"/>
     </row>
-    <row r="609" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="609" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS609" s="29"/>
       <c r="AT609" s="18"/>
       <c r="AU609" s="30"/>
@@ -34158,7 +34156,7 @@
       <c r="BL609" s="4"/>
       <c r="BM609" s="34"/>
     </row>
-    <row r="610" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="610" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS610" s="29"/>
       <c r="AT610" s="18"/>
       <c r="AU610" s="30"/>
@@ -34180,7 +34178,7 @@
       <c r="BL610" s="4"/>
       <c r="BM610" s="34"/>
     </row>
-    <row r="611" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="611" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS611" s="29"/>
       <c r="AT611" s="18"/>
       <c r="AU611" s="30"/>
@@ -34202,7 +34200,7 @@
       <c r="BL611" s="4"/>
       <c r="BM611" s="34"/>
     </row>
-    <row r="612" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="612" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS612" s="29"/>
       <c r="AT612" s="18"/>
       <c r="AU612" s="30"/>
@@ -34224,7 +34222,7 @@
       <c r="BL612" s="4"/>
       <c r="BM612" s="34"/>
     </row>
-    <row r="613" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="613" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS613" s="29"/>
       <c r="AT613" s="18"/>
       <c r="AU613" s="30"/>
@@ -34246,7 +34244,7 @@
       <c r="BL613" s="4"/>
       <c r="BM613" s="34"/>
     </row>
-    <row r="614" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="614" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS614" s="29"/>
       <c r="AT614" s="18"/>
       <c r="AU614" s="30"/>
@@ -34268,7 +34266,7 @@
       <c r="BL614" s="4"/>
       <c r="BM614" s="34"/>
     </row>
-    <row r="615" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="615" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS615" s="29"/>
       <c r="AT615" s="18"/>
       <c r="AU615" s="30"/>
@@ -34290,7 +34288,7 @@
       <c r="BL615" s="4"/>
       <c r="BM615" s="34"/>
     </row>
-    <row r="616" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="616" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS616" s="29"/>
       <c r="AT616" s="18"/>
       <c r="AU616" s="30"/>
@@ -34312,7 +34310,7 @@
       <c r="BL616" s="4"/>
       <c r="BM616" s="34"/>
     </row>
-    <row r="617" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="617" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS617" s="29"/>
       <c r="AT617" s="18"/>
       <c r="AU617" s="30"/>
@@ -34334,7 +34332,7 @@
       <c r="BL617" s="4"/>
       <c r="BM617" s="34"/>
     </row>
-    <row r="618" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="618" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS618" s="29"/>
       <c r="AT618" s="18"/>
       <c r="AU618" s="30"/>
@@ -34356,7 +34354,7 @@
       <c r="BL618" s="4"/>
       <c r="BM618" s="34"/>
     </row>
-    <row r="619" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="619" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS619" s="29"/>
       <c r="AT619" s="18"/>
       <c r="AU619" s="30"/>
@@ -34378,7 +34376,7 @@
       <c r="BL619" s="4"/>
       <c r="BM619" s="34"/>
     </row>
-    <row r="620" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="620" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS620" s="29"/>
       <c r="AT620" s="18"/>
       <c r="AU620" s="30"/>
@@ -34400,7 +34398,7 @@
       <c r="BL620" s="4"/>
       <c r="BM620" s="34"/>
     </row>
-    <row r="621" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="621" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS621" s="29"/>
       <c r="AT621" s="18"/>
       <c r="AU621" s="30"/>
@@ -34422,7 +34420,7 @@
       <c r="BL621" s="4"/>
       <c r="BM621" s="34"/>
     </row>
-    <row r="622" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="622" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS622" s="29"/>
       <c r="AT622" s="18"/>
       <c r="AU622" s="30"/>
@@ -34444,7 +34442,7 @@
       <c r="BL622" s="4"/>
       <c r="BM622" s="34"/>
     </row>
-    <row r="623" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="623" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS623" s="29"/>
       <c r="AT623" s="18"/>
       <c r="AU623" s="30"/>
@@ -34466,7 +34464,7 @@
       <c r="BL623" s="4"/>
       <c r="BM623" s="34"/>
     </row>
-    <row r="624" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="624" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS624" s="29"/>
       <c r="AT624" s="18"/>
       <c r="AU624" s="30"/>
@@ -34488,7 +34486,7 @@
       <c r="BL624" s="4"/>
       <c r="BM624" s="34"/>
     </row>
-    <row r="625" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="625" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS625" s="29"/>
       <c r="AT625" s="18"/>
       <c r="AU625" s="30"/>
@@ -34510,7 +34508,7 @@
       <c r="BL625" s="4"/>
       <c r="BM625" s="34"/>
     </row>
-    <row r="626" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="626" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS626" s="29"/>
       <c r="AT626" s="18"/>
       <c r="AU626" s="30"/>
@@ -34532,7 +34530,7 @@
       <c r="BL626" s="4"/>
       <c r="BM626" s="34"/>
     </row>
-    <row r="627" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="627" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS627" s="29"/>
       <c r="AT627" s="18"/>
       <c r="AU627" s="30"/>
@@ -34554,7 +34552,7 @@
       <c r="BL627" s="4"/>
       <c r="BM627" s="34"/>
     </row>
-    <row r="628" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="628" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS628" s="29"/>
       <c r="AT628" s="18"/>
       <c r="AU628" s="30"/>
@@ -34576,7 +34574,7 @@
       <c r="BL628" s="4"/>
       <c r="BM628" s="34"/>
     </row>
-    <row r="629" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="629" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS629" s="29"/>
       <c r="AT629" s="18"/>
       <c r="AU629" s="30"/>
@@ -34598,7 +34596,7 @@
       <c r="BL629" s="4"/>
       <c r="BM629" s="34"/>
     </row>
-    <row r="630" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="630" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS630" s="29"/>
       <c r="AT630" s="18"/>
       <c r="AU630" s="30"/>
@@ -34620,7 +34618,7 @@
       <c r="BL630" s="4"/>
       <c r="BM630" s="34"/>
     </row>
-    <row r="631" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="631" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS631" s="29"/>
       <c r="AT631" s="18"/>
       <c r="AU631" s="30"/>
@@ -34642,7 +34640,7 @@
       <c r="BL631" s="4"/>
       <c r="BM631" s="34"/>
     </row>
-    <row r="632" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="632" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS632" s="29"/>
       <c r="AT632" s="18"/>
       <c r="AU632" s="30"/>
@@ -34664,7 +34662,7 @@
       <c r="BL632" s="4"/>
       <c r="BM632" s="34"/>
     </row>
-    <row r="633" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="633" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS633" s="29"/>
       <c r="AT633" s="18"/>
       <c r="AU633" s="30"/>
@@ -34686,7 +34684,7 @@
       <c r="BL633" s="4"/>
       <c r="BM633" s="34"/>
     </row>
-    <row r="634" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="634" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS634" s="29"/>
       <c r="AT634" s="18"/>
       <c r="AU634" s="30"/>
@@ -34708,7 +34706,7 @@
       <c r="BL634" s="4"/>
       <c r="BM634" s="34"/>
     </row>
-    <row r="635" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="635" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS635" s="29"/>
       <c r="AT635" s="18"/>
       <c r="AU635" s="30"/>
@@ -34730,7 +34728,7 @@
       <c r="BL635" s="4"/>
       <c r="BM635" s="34"/>
     </row>
-    <row r="636" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="636" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS636" s="29"/>
       <c r="AT636" s="18"/>
       <c r="AU636" s="30"/>
@@ -34752,7 +34750,7 @@
       <c r="BL636" s="4"/>
       <c r="BM636" s="34"/>
     </row>
-    <row r="637" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="637" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS637" s="29"/>
       <c r="AT637" s="18"/>
       <c r="AU637" s="30"/>
@@ -34774,7 +34772,7 @@
       <c r="BL637" s="4"/>
       <c r="BM637" s="34"/>
     </row>
-    <row r="638" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="638" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS638" s="29"/>
       <c r="AT638" s="18"/>
       <c r="AU638" s="30"/>
@@ -34796,7 +34794,7 @@
       <c r="BL638" s="4"/>
       <c r="BM638" s="34"/>
     </row>
-    <row r="639" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="639" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS639" s="29"/>
       <c r="AT639" s="18"/>
       <c r="AU639" s="30"/>
@@ -34818,7 +34816,7 @@
       <c r="BL639" s="4"/>
       <c r="BM639" s="34"/>
     </row>
-    <row r="640" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="640" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS640" s="29"/>
       <c r="AT640" s="18"/>
       <c r="AU640" s="30"/>
@@ -34840,7 +34838,7 @@
       <c r="BL640" s="4"/>
       <c r="BM640" s="34"/>
     </row>
-    <row r="641" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="641" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS641" s="29"/>
       <c r="AT641" s="18"/>
       <c r="AU641" s="30"/>
@@ -34862,7 +34860,7 @@
       <c r="BL641" s="4"/>
       <c r="BM641" s="34"/>
     </row>
-    <row r="642" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="642" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS642" s="29"/>
       <c r="AT642" s="18"/>
       <c r="AU642" s="30"/>
@@ -34884,7 +34882,7 @@
       <c r="BL642" s="4"/>
       <c r="BM642" s="34"/>
     </row>
-    <row r="643" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="643" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS643" s="29"/>
       <c r="AT643" s="18"/>
       <c r="AU643" s="30"/>
@@ -34906,7 +34904,7 @@
       <c r="BL643" s="4"/>
       <c r="BM643" s="34"/>
     </row>
-    <row r="644" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="644" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS644" s="29"/>
       <c r="AT644" s="18"/>
       <c r="AU644" s="30"/>
@@ -34928,7 +34926,7 @@
       <c r="BL644" s="4"/>
       <c r="BM644" s="34"/>
     </row>
-    <row r="645" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="645" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS645" s="29"/>
       <c r="AT645" s="18"/>
       <c r="AU645" s="30"/>
@@ -34950,7 +34948,7 @@
       <c r="BL645" s="4"/>
       <c r="BM645" s="34"/>
     </row>
-    <row r="646" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="646" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS646" s="29"/>
       <c r="AT646" s="18"/>
       <c r="AU646" s="30"/>
@@ -34972,7 +34970,7 @@
       <c r="BL646" s="4"/>
       <c r="BM646" s="34"/>
     </row>
-    <row r="647" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="647" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS647" s="29"/>
       <c r="AT647" s="18"/>
       <c r="AU647" s="30"/>
@@ -34994,7 +34992,7 @@
       <c r="BL647" s="4"/>
       <c r="BM647" s="34"/>
     </row>
-    <row r="648" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="648" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS648" s="29"/>
       <c r="AT648" s="18"/>
       <c r="AU648" s="30"/>
@@ -35016,7 +35014,7 @@
       <c r="BL648" s="4"/>
       <c r="BM648" s="34"/>
     </row>
-    <row r="649" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="649" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS649" s="29"/>
       <c r="AT649" s="18"/>
       <c r="AU649" s="30"/>
@@ -35038,7 +35036,7 @@
       <c r="BL649" s="4"/>
       <c r="BM649" s="34"/>
     </row>
-    <row r="650" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="650" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS650" s="29"/>
       <c r="AT650" s="18"/>
       <c r="AU650" s="30"/>
@@ -35060,7 +35058,7 @@
       <c r="BL650" s="4"/>
       <c r="BM650" s="34"/>
     </row>
-    <row r="651" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="651" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS651" s="29"/>
       <c r="AT651" s="18"/>
       <c r="AU651" s="30"/>
@@ -35082,7 +35080,7 @@
       <c r="BL651" s="4"/>
       <c r="BM651" s="34"/>
     </row>
-    <row r="652" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="652" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS652" s="29"/>
       <c r="AT652" s="18"/>
       <c r="AU652" s="30"/>
@@ -35104,7 +35102,7 @@
       <c r="BL652" s="4"/>
       <c r="BM652" s="34"/>
     </row>
-    <row r="653" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="653" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS653" s="29"/>
       <c r="AT653" s="18"/>
       <c r="AU653" s="30"/>
@@ -35126,7 +35124,7 @@
       <c r="BL653" s="4"/>
       <c r="BM653" s="34"/>
     </row>
-    <row r="654" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="654" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS654" s="29"/>
       <c r="AT654" s="18"/>
       <c r="AU654" s="30"/>
@@ -35148,7 +35146,7 @@
       <c r="BL654" s="4"/>
       <c r="BM654" s="34"/>
     </row>
-    <row r="655" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="655" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS655" s="29"/>
       <c r="AT655" s="18"/>
       <c r="AU655" s="30"/>
@@ -35170,7 +35168,7 @@
       <c r="BL655" s="4"/>
       <c r="BM655" s="34"/>
     </row>
-    <row r="656" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="656" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS656" s="29"/>
       <c r="AT656" s="18"/>
       <c r="AU656" s="30"/>
@@ -35192,7 +35190,7 @@
       <c r="BL656" s="4"/>
       <c r="BM656" s="34"/>
     </row>
-    <row r="657" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="657" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS657" s="29"/>
       <c r="AT657" s="18"/>
       <c r="AU657" s="30"/>
@@ -35214,7 +35212,7 @@
       <c r="BL657" s="4"/>
       <c r="BM657" s="34"/>
     </row>
-    <row r="658" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="658" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS658" s="29"/>
       <c r="AT658" s="18"/>
       <c r="AU658" s="30"/>
@@ -35236,7 +35234,7 @@
       <c r="BL658" s="4"/>
       <c r="BM658" s="34"/>
     </row>
-    <row r="659" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="659" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS659" s="29"/>
       <c r="AT659" s="18"/>
       <c r="AU659" s="30"/>
@@ -35258,7 +35256,7 @@
       <c r="BL659" s="4"/>
       <c r="BM659" s="34"/>
     </row>
-    <row r="660" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="660" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS660" s="29"/>
       <c r="AT660" s="18"/>
       <c r="AU660" s="30"/>
@@ -35280,7 +35278,7 @@
       <c r="BL660" s="4"/>
       <c r="BM660" s="34"/>
     </row>
-    <row r="661" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="661" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS661" s="29"/>
       <c r="AT661" s="18"/>
       <c r="AU661" s="30"/>
@@ -35302,7 +35300,7 @@
       <c r="BL661" s="4"/>
       <c r="BM661" s="34"/>
     </row>
-    <row r="662" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="662" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS662" s="29"/>
       <c r="AT662" s="18"/>
       <c r="AU662" s="30"/>
@@ -35324,7 +35322,7 @@
       <c r="BL662" s="4"/>
       <c r="BM662" s="34"/>
     </row>
-    <row r="663" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="663" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS663" s="29"/>
       <c r="AT663" s="18"/>
       <c r="AU663" s="30"/>
@@ -35346,7 +35344,7 @@
       <c r="BL663" s="4"/>
       <c r="BM663" s="34"/>
     </row>
-    <row r="664" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="664" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS664" s="29"/>
       <c r="AT664" s="18"/>
       <c r="AU664" s="30"/>
@@ -35368,7 +35366,7 @@
       <c r="BL664" s="4"/>
       <c r="BM664" s="34"/>
     </row>
-    <row r="665" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="665" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS665" s="29"/>
       <c r="AT665" s="18"/>
       <c r="AU665" s="30"/>
@@ -35390,7 +35388,7 @@
       <c r="BL665" s="4"/>
       <c r="BM665" s="34"/>
     </row>
-    <row r="666" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="666" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS666" s="29"/>
       <c r="AT666" s="18"/>
       <c r="AU666" s="30"/>
@@ -35412,7 +35410,7 @@
       <c r="BL666" s="4"/>
       <c r="BM666" s="34"/>
     </row>
-    <row r="667" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="667" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS667" s="29"/>
       <c r="AT667" s="18"/>
       <c r="AU667" s="30"/>
@@ -35434,7 +35432,7 @@
       <c r="BL667" s="4"/>
       <c r="BM667" s="34"/>
     </row>
-    <row r="668" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="668" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS668" s="29"/>
       <c r="AT668" s="18"/>
       <c r="AU668" s="30"/>
@@ -35456,7 +35454,7 @@
       <c r="BL668" s="4"/>
       <c r="BM668" s="34"/>
     </row>
-    <row r="669" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="669" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS669" s="29"/>
       <c r="AT669" s="18"/>
       <c r="AU669" s="30"/>
@@ -35478,7 +35476,7 @@
       <c r="BL669" s="4"/>
       <c r="BM669" s="34"/>
     </row>
-    <row r="670" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="670" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS670" s="29"/>
       <c r="AT670" s="18"/>
       <c r="AU670" s="30"/>
@@ -35500,7 +35498,7 @@
       <c r="BL670" s="4"/>
       <c r="BM670" s="34"/>
     </row>
-    <row r="671" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="671" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS671" s="29"/>
       <c r="AT671" s="18"/>
       <c r="AU671" s="30"/>
@@ -35522,7 +35520,7 @@
       <c r="BL671" s="4"/>
       <c r="BM671" s="34"/>
     </row>
-    <row r="672" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="672" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS672" s="29"/>
       <c r="AT672" s="18"/>
       <c r="AU672" s="30"/>
@@ -35544,7 +35542,7 @@
       <c r="BL672" s="4"/>
       <c r="BM672" s="34"/>
     </row>
-    <row r="673" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="673" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS673" s="29"/>
       <c r="AT673" s="18"/>
       <c r="AU673" s="30"/>
@@ -35566,7 +35564,7 @@
       <c r="BL673" s="4"/>
       <c r="BM673" s="34"/>
     </row>
-    <row r="674" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="674" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS674" s="29"/>
       <c r="AT674" s="18"/>
       <c r="AU674" s="30"/>
@@ -35588,7 +35586,7 @@
       <c r="BL674" s="4"/>
       <c r="BM674" s="34"/>
     </row>
-    <row r="675" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="675" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS675" s="29"/>
       <c r="AT675" s="18"/>
       <c r="AU675" s="30"/>
@@ -35610,7 +35608,7 @@
       <c r="BL675" s="4"/>
       <c r="BM675" s="34"/>
     </row>
-    <row r="676" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="676" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS676" s="29"/>
       <c r="AT676" s="18"/>
       <c r="AU676" s="30"/>
@@ -35632,7 +35630,7 @@
       <c r="BL676" s="4"/>
       <c r="BM676" s="34"/>
     </row>
-    <row r="677" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="677" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS677" s="29"/>
       <c r="AT677" s="18"/>
       <c r="AU677" s="30"/>
@@ -35654,7 +35652,7 @@
       <c r="BL677" s="4"/>
       <c r="BM677" s="34"/>
     </row>
-    <row r="678" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="678" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS678" s="29"/>
       <c r="AT678" s="18"/>
       <c r="AU678" s="30"/>
@@ -35676,7 +35674,7 @@
       <c r="BL678" s="4"/>
       <c r="BM678" s="34"/>
     </row>
-    <row r="679" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="679" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS679" s="29"/>
       <c r="AT679" s="18"/>
       <c r="AU679" s="30"/>
@@ -35698,7 +35696,7 @@
       <c r="BL679" s="4"/>
       <c r="BM679" s="34"/>
     </row>
-    <row r="680" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="680" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS680" s="29"/>
       <c r="AT680" s="18"/>
       <c r="AU680" s="30"/>
@@ -35720,7 +35718,7 @@
       <c r="BL680" s="4"/>
       <c r="BM680" s="34"/>
     </row>
-    <row r="681" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="681" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS681" s="29"/>
       <c r="AT681" s="18"/>
       <c r="AU681" s="30"/>
@@ -35742,7 +35740,7 @@
       <c r="BL681" s="4"/>
       <c r="BM681" s="34"/>
     </row>
-    <row r="682" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="682" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS682" s="29"/>
       <c r="AT682" s="18"/>
       <c r="AU682" s="30"/>
@@ -35764,7 +35762,7 @@
       <c r="BL682" s="4"/>
       <c r="BM682" s="34"/>
     </row>
-    <row r="683" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="683" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS683" s="29"/>
       <c r="AT683" s="18"/>
       <c r="AU683" s="30"/>
@@ -35786,7 +35784,7 @@
       <c r="BL683" s="4"/>
       <c r="BM683" s="34"/>
     </row>
-    <row r="684" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="684" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS684" s="29"/>
       <c r="AT684" s="18"/>
       <c r="AU684" s="30"/>
@@ -35808,7 +35806,7 @@
       <c r="BL684" s="4"/>
       <c r="BM684" s="34"/>
     </row>
-    <row r="685" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="685" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS685" s="29"/>
       <c r="AT685" s="18"/>
       <c r="AU685" s="30"/>
@@ -35830,7 +35828,7 @@
       <c r="BL685" s="4"/>
       <c r="BM685" s="34"/>
     </row>
-    <row r="686" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="686" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS686" s="29"/>
       <c r="AT686" s="18"/>
       <c r="AU686" s="30"/>
@@ -35852,7 +35850,7 @@
       <c r="BL686" s="4"/>
       <c r="BM686" s="34"/>
     </row>
-    <row r="687" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="687" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS687" s="29"/>
       <c r="AT687" s="18"/>
       <c r="AU687" s="30"/>
@@ -35874,7 +35872,7 @@
       <c r="BL687" s="4"/>
       <c r="BM687" s="34"/>
     </row>
-    <row r="688" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="688" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS688" s="29"/>
       <c r="AT688" s="18"/>
       <c r="AU688" s="30"/>
@@ -35896,7 +35894,7 @@
       <c r="BL688" s="4"/>
       <c r="BM688" s="34"/>
     </row>
-    <row r="689" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="689" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS689" s="29"/>
       <c r="AT689" s="18"/>
       <c r="AU689" s="30"/>
@@ -35918,7 +35916,7 @@
       <c r="BL689" s="4"/>
       <c r="BM689" s="34"/>
     </row>
-    <row r="690" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="690" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS690" s="29"/>
       <c r="AT690" s="18"/>
       <c r="AU690" s="30"/>
@@ -35940,7 +35938,7 @@
       <c r="BL690" s="4"/>
       <c r="BM690" s="34"/>
     </row>
-    <row r="691" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="691" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS691" s="29"/>
       <c r="AT691" s="18"/>
       <c r="AU691" s="30"/>
@@ -35962,7 +35960,7 @@
       <c r="BL691" s="4"/>
       <c r="BM691" s="34"/>
     </row>
-    <row r="692" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="692" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS692" s="29"/>
       <c r="AT692" s="18"/>
       <c r="AU692" s="30"/>
@@ -35984,7 +35982,7 @@
       <c r="BL692" s="4"/>
       <c r="BM692" s="34"/>
     </row>
-    <row r="693" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="693" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS693" s="29"/>
       <c r="AT693" s="18"/>
       <c r="AU693" s="30"/>
@@ -36006,7 +36004,7 @@
       <c r="BL693" s="4"/>
       <c r="BM693" s="34"/>
     </row>
-    <row r="694" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="694" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS694" s="29"/>
       <c r="AT694" s="18"/>
       <c r="AU694" s="30"/>
@@ -36028,7 +36026,7 @@
       <c r="BL694" s="4"/>
       <c r="BM694" s="34"/>
     </row>
-    <row r="695" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="695" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS695" s="29"/>
       <c r="AT695" s="18"/>
       <c r="AU695" s="30"/>
@@ -36050,7 +36048,7 @@
       <c r="BL695" s="4"/>
       <c r="BM695" s="34"/>
     </row>
-    <row r="696" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="696" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS696" s="29"/>
       <c r="AT696" s="18"/>
       <c r="AU696" s="30"/>
@@ -36072,7 +36070,7 @@
       <c r="BL696" s="4"/>
       <c r="BM696" s="34"/>
     </row>
-    <row r="697" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="697" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS697" s="29"/>
       <c r="AT697" s="18"/>
       <c r="AU697" s="30"/>
@@ -36094,7 +36092,7 @@
       <c r="BL697" s="4"/>
       <c r="BM697" s="34"/>
     </row>
-    <row r="698" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="698" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS698" s="29"/>
       <c r="AT698" s="18"/>
       <c r="AU698" s="30"/>
@@ -36116,7 +36114,7 @@
       <c r="BL698" s="4"/>
       <c r="BM698" s="34"/>
     </row>
-    <row r="699" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="699" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS699" s="29"/>
       <c r="AT699" s="18"/>
       <c r="AU699" s="30"/>
@@ -36138,7 +36136,7 @@
       <c r="BL699" s="4"/>
       <c r="BM699" s="34"/>
     </row>
-    <row r="700" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="700" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS700" s="29"/>
       <c r="AT700" s="18"/>
       <c r="AU700" s="30"/>
@@ -36160,7 +36158,7 @@
       <c r="BL700" s="4"/>
       <c r="BM700" s="34"/>
     </row>
-    <row r="701" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="701" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS701" s="29"/>
       <c r="AT701" s="18"/>
       <c r="AU701" s="30"/>
@@ -36182,7 +36180,7 @@
       <c r="BL701" s="4"/>
       <c r="BM701" s="34"/>
     </row>
-    <row r="702" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="702" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS702" s="29"/>
       <c r="AT702" s="18"/>
       <c r="AU702" s="30"/>
@@ -36204,7 +36202,7 @@
       <c r="BL702" s="4"/>
       <c r="BM702" s="34"/>
     </row>
-    <row r="703" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="703" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS703" s="29"/>
       <c r="AT703" s="18"/>
       <c r="AU703" s="30"/>
@@ -36226,7 +36224,7 @@
       <c r="BL703" s="4"/>
       <c r="BM703" s="34"/>
     </row>
-    <row r="704" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="704" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS704" s="29"/>
       <c r="AT704" s="18"/>
       <c r="AU704" s="30"/>
@@ -36248,7 +36246,7 @@
       <c r="BL704" s="4"/>
       <c r="BM704" s="34"/>
     </row>
-    <row r="705" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="705" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS705" s="29"/>
       <c r="AT705" s="18"/>
       <c r="AU705" s="30"/>
@@ -36270,7 +36268,7 @@
       <c r="BL705" s="4"/>
       <c r="BM705" s="34"/>
     </row>
-    <row r="706" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="706" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS706" s="29"/>
       <c r="AT706" s="18"/>
       <c r="AU706" s="30"/>
@@ -36292,7 +36290,7 @@
       <c r="BL706" s="4"/>
       <c r="BM706" s="34"/>
     </row>
-    <row r="707" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="707" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS707" s="29"/>
       <c r="AT707" s="18"/>
       <c r="AU707" s="30"/>
@@ -36314,7 +36312,7 @@
       <c r="BL707" s="4"/>
       <c r="BM707" s="34"/>
     </row>
-    <row r="708" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="708" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS708" s="29"/>
       <c r="AT708" s="18"/>
       <c r="AU708" s="30"/>
@@ -36336,7 +36334,7 @@
       <c r="BL708" s="4"/>
       <c r="BM708" s="34"/>
     </row>
-    <row r="709" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="709" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS709" s="29"/>
       <c r="AT709" s="18"/>
       <c r="AU709" s="30"/>
@@ -36358,7 +36356,7 @@
       <c r="BL709" s="4"/>
       <c r="BM709" s="34"/>
     </row>
-    <row r="710" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="710" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS710" s="29"/>
       <c r="AT710" s="18"/>
       <c r="AU710" s="30"/>
@@ -36380,7 +36378,7 @@
       <c r="BL710" s="4"/>
       <c r="BM710" s="34"/>
     </row>
-    <row r="711" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="711" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS711" s="29"/>
       <c r="AT711" s="18"/>
       <c r="AU711" s="30"/>
@@ -36402,7 +36400,7 @@
       <c r="BL711" s="4"/>
       <c r="BM711" s="34"/>
     </row>
-    <row r="712" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="712" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS712" s="29"/>
       <c r="AT712" s="18"/>
       <c r="AU712" s="30"/>
@@ -36424,7 +36422,7 @@
       <c r="BL712" s="4"/>
       <c r="BM712" s="34"/>
     </row>
-    <row r="713" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="713" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS713" s="29"/>
       <c r="AT713" s="18"/>
       <c r="AU713" s="30"/>
@@ -36446,7 +36444,7 @@
       <c r="BL713" s="4"/>
       <c r="BM713" s="34"/>
     </row>
-    <row r="714" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="714" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS714" s="29"/>
       <c r="AT714" s="18"/>
       <c r="AU714" s="30"/>
@@ -36468,7 +36466,7 @@
       <c r="BL714" s="4"/>
       <c r="BM714" s="34"/>
     </row>
-    <row r="715" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="715" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS715" s="29"/>
       <c r="AT715" s="18"/>
       <c r="AU715" s="30"/>
@@ -36490,7 +36488,7 @@
       <c r="BL715" s="4"/>
       <c r="BM715" s="34"/>
     </row>
-    <row r="716" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="716" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS716" s="29"/>
       <c r="AT716" s="18"/>
       <c r="AU716" s="30"/>
@@ -36512,7 +36510,7 @@
       <c r="BL716" s="4"/>
       <c r="BM716" s="34"/>
     </row>
-    <row r="717" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="717" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS717" s="29"/>
       <c r="AT717" s="18"/>
       <c r="AU717" s="30"/>
@@ -36534,7 +36532,7 @@
       <c r="BL717" s="4"/>
       <c r="BM717" s="34"/>
     </row>
-    <row r="718" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="718" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS718" s="29"/>
       <c r="AT718" s="18"/>
       <c r="AU718" s="30"/>
@@ -36556,7 +36554,7 @@
       <c r="BL718" s="4"/>
       <c r="BM718" s="34"/>
     </row>
-    <row r="719" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="719" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS719" s="29"/>
       <c r="AT719" s="18"/>
       <c r="AU719" s="30"/>
@@ -36578,7 +36576,7 @@
       <c r="BL719" s="4"/>
       <c r="BM719" s="34"/>
     </row>
-    <row r="720" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="720" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS720" s="29"/>
       <c r="AT720" s="18"/>
       <c r="AU720" s="30"/>
@@ -36600,7 +36598,7 @@
       <c r="BL720" s="4"/>
       <c r="BM720" s="34"/>
     </row>
-    <row r="721" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="721" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS721" s="29"/>
       <c r="AT721" s="18"/>
       <c r="AU721" s="30"/>
@@ -36622,7 +36620,7 @@
       <c r="BL721" s="4"/>
       <c r="BM721" s="34"/>
     </row>
-    <row r="722" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="722" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS722" s="29"/>
       <c r="AT722" s="18"/>
       <c r="AU722" s="30"/>
@@ -36644,7 +36642,7 @@
       <c r="BL722" s="4"/>
       <c r="BM722" s="34"/>
     </row>
-    <row r="723" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="723" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS723" s="29"/>
       <c r="AT723" s="18"/>
       <c r="AU723" s="30"/>
@@ -36666,7 +36664,7 @@
       <c r="BL723" s="4"/>
       <c r="BM723" s="34"/>
     </row>
-    <row r="724" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="724" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS724" s="29"/>
       <c r="AT724" s="18"/>
       <c r="AU724" s="30"/>
@@ -36688,7 +36686,7 @@
       <c r="BL724" s="4"/>
       <c r="BM724" s="34"/>
     </row>
-    <row r="725" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="725" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS725" s="29"/>
       <c r="AT725" s="18"/>
       <c r="AU725" s="30"/>
@@ -36710,7 +36708,7 @@
       <c r="BL725" s="4"/>
       <c r="BM725" s="34"/>
     </row>
-    <row r="726" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="726" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS726" s="29"/>
       <c r="AT726" s="18"/>
       <c r="AU726" s="30"/>
@@ -36732,7 +36730,7 @@
       <c r="BL726" s="4"/>
       <c r="BM726" s="34"/>
     </row>
-    <row r="727" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="727" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS727" s="29"/>
       <c r="AT727" s="18"/>
       <c r="AU727" s="30"/>
@@ -36754,7 +36752,7 @@
       <c r="BL727" s="4"/>
       <c r="BM727" s="34"/>
     </row>
-    <row r="728" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="728" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS728" s="29"/>
       <c r="AT728" s="18"/>
       <c r="AU728" s="30"/>
@@ -36776,7 +36774,7 @@
       <c r="BL728" s="4"/>
       <c r="BM728" s="34"/>
     </row>
-    <row r="729" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="729" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS729" s="29"/>
       <c r="AT729" s="18"/>
       <c r="AU729" s="30"/>
@@ -36798,7 +36796,7 @@
       <c r="BL729" s="4"/>
       <c r="BM729" s="34"/>
     </row>
-    <row r="730" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="730" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS730" s="29"/>
       <c r="AT730" s="18"/>
       <c r="AU730" s="30"/>
@@ -36820,7 +36818,7 @@
       <c r="BL730" s="4"/>
       <c r="BM730" s="34"/>
     </row>
-    <row r="731" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="731" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS731" s="29"/>
       <c r="AT731" s="18"/>
       <c r="AU731" s="30"/>
@@ -36842,7 +36840,7 @@
       <c r="BL731" s="4"/>
       <c r="BM731" s="34"/>
     </row>
-    <row r="732" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="732" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS732" s="29"/>
       <c r="AT732" s="18"/>
       <c r="AU732" s="30"/>
@@ -36864,7 +36862,7 @@
       <c r="BL732" s="4"/>
       <c r="BM732" s="34"/>
     </row>
-    <row r="733" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="733" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS733" s="29"/>
       <c r="AT733" s="18"/>
       <c r="AU733" s="30"/>
@@ -36886,7 +36884,7 @@
       <c r="BL733" s="4"/>
       <c r="BM733" s="34"/>
     </row>
-    <row r="734" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="734" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS734" s="29"/>
       <c r="AT734" s="18"/>
       <c r="AU734" s="30"/>
@@ -36908,7 +36906,7 @@
       <c r="BL734" s="4"/>
       <c r="BM734" s="34"/>
     </row>
-    <row r="735" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="735" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS735" s="29"/>
       <c r="AT735" s="18"/>
       <c r="AU735" s="30"/>
@@ -36930,7 +36928,7 @@
       <c r="BL735" s="4"/>
       <c r="BM735" s="34"/>
     </row>
-    <row r="736" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="736" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS736" s="29"/>
       <c r="AT736" s="18"/>
       <c r="AU736" s="30"/>
@@ -36952,7 +36950,7 @@
       <c r="BL736" s="4"/>
       <c r="BM736" s="34"/>
     </row>
-    <row r="737" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="737" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS737" s="29"/>
       <c r="AT737" s="18"/>
       <c r="AU737" s="30"/>
@@ -36974,7 +36972,7 @@
       <c r="BL737" s="4"/>
       <c r="BM737" s="34"/>
     </row>
-    <row r="738" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="738" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS738" s="29"/>
       <c r="AT738" s="18"/>
       <c r="AU738" s="30"/>
@@ -36996,7 +36994,7 @@
       <c r="BL738" s="4"/>
       <c r="BM738" s="34"/>
     </row>
-    <row r="739" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="739" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS739" s="29"/>
       <c r="AT739" s="18"/>
       <c r="AU739" s="30"/>
@@ -37018,7 +37016,7 @@
       <c r="BL739" s="4"/>
       <c r="BM739" s="34"/>
     </row>
-    <row r="740" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="740" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS740" s="29"/>
       <c r="AT740" s="18"/>
       <c r="AU740" s="30"/>
@@ -37040,7 +37038,7 @@
       <c r="BL740" s="4"/>
       <c r="BM740" s="34"/>
     </row>
-    <row r="741" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="741" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS741" s="29"/>
       <c r="AT741" s="18"/>
       <c r="AU741" s="30"/>
@@ -37062,7 +37060,7 @@
       <c r="BL741" s="4"/>
       <c r="BM741" s="34"/>
     </row>
-    <row r="742" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="742" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS742" s="29"/>
       <c r="AT742" s="18"/>
       <c r="AU742" s="30"/>
@@ -37084,7 +37082,7 @@
       <c r="BL742" s="4"/>
       <c r="BM742" s="34"/>
     </row>
-    <row r="743" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="743" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS743" s="29"/>
       <c r="AT743" s="18"/>
       <c r="AU743" s="30"/>
@@ -37106,7 +37104,7 @@
       <c r="BL743" s="4"/>
       <c r="BM743" s="34"/>
     </row>
-    <row r="744" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="744" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS744" s="29"/>
       <c r="AT744" s="18"/>
       <c r="AU744" s="30"/>
@@ -37128,7 +37126,7 @@
       <c r="BL744" s="4"/>
       <c r="BM744" s="34"/>
     </row>
-    <row r="745" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="745" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS745" s="29"/>
       <c r="AT745" s="18"/>
       <c r="AU745" s="30"/>
@@ -37150,7 +37148,7 @@
       <c r="BL745" s="4"/>
       <c r="BM745" s="34"/>
     </row>
-    <row r="746" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="746" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS746" s="29"/>
       <c r="AT746" s="18"/>
       <c r="AU746" s="30"/>
@@ -37172,7 +37170,7 @@
       <c r="BL746" s="4"/>
       <c r="BM746" s="34"/>
     </row>
-    <row r="747" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="747" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS747" s="29"/>
       <c r="AT747" s="18"/>
       <c r="AU747" s="30"/>
@@ -37194,7 +37192,7 @@
       <c r="BL747" s="4"/>
       <c r="BM747" s="34"/>
     </row>
-    <row r="748" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="748" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS748" s="29"/>
       <c r="AT748" s="18"/>
       <c r="AU748" s="30"/>
@@ -37216,7 +37214,7 @@
       <c r="BL748" s="4"/>
       <c r="BM748" s="34"/>
     </row>
-    <row r="749" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="749" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS749" s="29"/>
       <c r="AT749" s="18"/>
       <c r="AU749" s="30"/>
@@ -37238,7 +37236,7 @@
       <c r="BL749" s="4"/>
       <c r="BM749" s="34"/>
     </row>
-    <row r="750" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="750" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS750" s="29"/>
       <c r="AT750" s="18"/>
       <c r="AU750" s="30"/>
@@ -37260,7 +37258,7 @@
       <c r="BL750" s="4"/>
       <c r="BM750" s="34"/>
     </row>
-    <row r="751" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="751" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS751" s="29"/>
       <c r="AT751" s="18"/>
       <c r="AU751" s="30"/>
@@ -37282,7 +37280,7 @@
       <c r="BL751" s="4"/>
       <c r="BM751" s="34"/>
     </row>
-    <row r="752" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="752" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS752" s="29"/>
       <c r="AT752" s="18"/>
       <c r="AU752" s="30"/>
@@ -37304,7 +37302,7 @@
       <c r="BL752" s="4"/>
       <c r="BM752" s="34"/>
     </row>
-    <row r="753" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="753" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS753" s="29"/>
       <c r="AT753" s="18"/>
       <c r="AU753" s="30"/>
@@ -37326,7 +37324,7 @@
       <c r="BL753" s="4"/>
       <c r="BM753" s="34"/>
     </row>
-    <row r="754" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="754" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS754" s="29"/>
       <c r="AT754" s="18"/>
       <c r="AU754" s="30"/>
@@ -37348,7 +37346,7 @@
       <c r="BL754" s="4"/>
       <c r="BM754" s="34"/>
     </row>
-    <row r="755" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="755" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS755" s="29"/>
       <c r="AT755" s="18"/>
       <c r="AU755" s="30"/>
@@ -37370,7 +37368,7 @@
       <c r="BL755" s="4"/>
       <c r="BM755" s="34"/>
     </row>
-    <row r="756" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="756" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS756" s="29"/>
       <c r="AT756" s="18"/>
       <c r="AU756" s="30"/>
@@ -37392,7 +37390,7 @@
       <c r="BL756" s="4"/>
       <c r="BM756" s="34"/>
     </row>
-    <row r="757" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="757" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS757" s="29"/>
       <c r="AT757" s="18"/>
       <c r="AU757" s="30"/>
@@ -37414,7 +37412,7 @@
       <c r="BL757" s="4"/>
       <c r="BM757" s="34"/>
     </row>
-    <row r="758" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="758" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS758" s="29"/>
       <c r="AT758" s="18"/>
       <c r="AU758" s="30"/>
@@ -37436,7 +37434,7 @@
       <c r="BL758" s="4"/>
       <c r="BM758" s="34"/>
     </row>
-    <row r="759" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="759" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS759" s="29"/>
       <c r="AT759" s="18"/>
       <c r="AU759" s="30"/>
@@ -37458,7 +37456,7 @@
       <c r="BL759" s="4"/>
       <c r="BM759" s="34"/>
     </row>
-    <row r="760" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="760" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS760" s="29"/>
       <c r="AT760" s="18"/>
       <c r="AU760" s="30"/>
@@ -37480,7 +37478,7 @@
       <c r="BL760" s="4"/>
       <c r="BM760" s="34"/>
     </row>
-    <row r="761" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="761" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS761" s="29"/>
       <c r="AT761" s="18"/>
       <c r="AU761" s="30"/>
@@ -37502,7 +37500,7 @@
       <c r="BL761" s="4"/>
       <c r="BM761" s="34"/>
     </row>
-    <row r="762" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="762" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS762" s="29"/>
       <c r="AT762" s="18"/>
       <c r="AU762" s="30"/>
@@ -37524,7 +37522,7 @@
       <c r="BL762" s="4"/>
       <c r="BM762" s="34"/>
     </row>
-    <row r="763" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="763" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS763" s="29"/>
       <c r="AT763" s="18"/>
       <c r="AU763" s="30"/>
@@ -37546,7 +37544,7 @@
       <c r="BL763" s="4"/>
       <c r="BM763" s="34"/>
     </row>
-    <row r="764" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="764" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS764" s="29"/>
       <c r="AT764" s="18"/>
       <c r="AU764" s="30"/>
@@ -37568,7 +37566,7 @@
       <c r="BL764" s="4"/>
       <c r="BM764" s="34"/>
     </row>
-    <row r="765" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="765" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS765" s="29"/>
       <c r="AT765" s="18"/>
       <c r="AU765" s="30"/>
@@ -37590,7 +37588,7 @@
       <c r="BL765" s="4"/>
       <c r="BM765" s="34"/>
     </row>
-    <row r="766" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="766" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS766" s="29"/>
       <c r="AT766" s="18"/>
       <c r="AU766" s="30"/>
@@ -37612,7 +37610,7 @@
       <c r="BL766" s="4"/>
       <c r="BM766" s="34"/>
     </row>
-    <row r="767" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="767" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS767" s="29"/>
       <c r="AT767" s="18"/>
       <c r="AU767" s="30"/>
@@ -37634,7 +37632,7 @@
       <c r="BL767" s="4"/>
       <c r="BM767" s="34"/>
     </row>
-    <row r="768" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="768" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS768" s="29"/>
       <c r="AT768" s="18"/>
       <c r="AU768" s="30"/>
@@ -37656,7 +37654,7 @@
       <c r="BL768" s="4"/>
       <c r="BM768" s="34"/>
     </row>
-    <row r="769" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="769" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS769" s="29"/>
       <c r="AT769" s="18"/>
       <c r="AU769" s="30"/>
@@ -37678,7 +37676,7 @@
       <c r="BL769" s="4"/>
       <c r="BM769" s="34"/>
     </row>
-    <row r="770" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="770" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS770" s="29"/>
       <c r="AT770" s="18"/>
       <c r="AU770" s="30"/>
@@ -37700,7 +37698,7 @@
       <c r="BL770" s="4"/>
       <c r="BM770" s="34"/>
     </row>
-    <row r="771" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="771" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS771" s="29"/>
       <c r="AT771" s="18"/>
       <c r="AU771" s="30"/>
@@ -37722,7 +37720,7 @@
       <c r="BL771" s="4"/>
       <c r="BM771" s="34"/>
     </row>
-    <row r="772" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="772" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS772" s="29"/>
       <c r="AT772" s="18"/>
       <c r="AU772" s="30"/>
@@ -37744,7 +37742,7 @@
       <c r="BL772" s="4"/>
       <c r="BM772" s="34"/>
     </row>
-    <row r="773" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="773" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS773" s="29"/>
       <c r="AT773" s="18"/>
       <c r="AU773" s="30"/>
@@ -37766,7 +37764,7 @@
       <c r="BL773" s="4"/>
       <c r="BM773" s="34"/>
     </row>
-    <row r="774" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="774" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS774" s="29"/>
       <c r="AT774" s="18"/>
       <c r="AU774" s="30"/>
@@ -37788,7 +37786,7 @@
       <c r="BL774" s="4"/>
       <c r="BM774" s="34"/>
     </row>
-    <row r="775" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="775" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS775" s="29"/>
       <c r="AT775" s="18"/>
       <c r="AU775" s="30"/>
@@ -37810,7 +37808,7 @@
       <c r="BL775" s="4"/>
       <c r="BM775" s="34"/>
     </row>
-    <row r="776" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="776" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS776" s="29"/>
       <c r="AT776" s="18"/>
       <c r="AU776" s="30"/>
@@ -37832,7 +37830,7 @@
       <c r="BL776" s="4"/>
       <c r="BM776" s="34"/>
     </row>
-    <row r="777" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="777" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS777" s="29"/>
       <c r="AT777" s="18"/>
       <c r="AU777" s="30"/>
@@ -37854,7 +37852,7 @@
       <c r="BL777" s="4"/>
       <c r="BM777" s="34"/>
     </row>
-    <row r="778" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="778" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS778" s="29"/>
       <c r="AT778" s="18"/>
       <c r="AU778" s="30"/>
@@ -37876,7 +37874,7 @@
       <c r="BL778" s="4"/>
       <c r="BM778" s="34"/>
     </row>
-    <row r="779" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="779" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS779" s="29"/>
       <c r="AT779" s="18"/>
       <c r="AU779" s="30"/>
@@ -37898,7 +37896,7 @@
       <c r="BL779" s="4"/>
       <c r="BM779" s="34"/>
     </row>
-    <row r="780" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="780" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS780" s="29"/>
       <c r="AT780" s="18"/>
       <c r="AU780" s="30"/>
@@ -37920,7 +37918,7 @@
       <c r="BL780" s="4"/>
       <c r="BM780" s="34"/>
     </row>
-    <row r="781" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="781" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS781" s="29"/>
       <c r="AT781" s="18"/>
       <c r="AU781" s="30"/>
@@ -37942,7 +37940,7 @@
       <c r="BL781" s="4"/>
       <c r="BM781" s="34"/>
     </row>
-    <row r="782" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="782" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS782" s="29"/>
       <c r="AT782" s="18"/>
       <c r="AU782" s="30"/>
@@ -37964,7 +37962,7 @@
       <c r="BL782" s="4"/>
       <c r="BM782" s="34"/>
     </row>
-    <row r="783" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="783" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS783" s="29"/>
       <c r="AT783" s="18"/>
       <c r="AU783" s="30"/>
@@ -37986,7 +37984,7 @@
       <c r="BL783" s="4"/>
       <c r="BM783" s="34"/>
     </row>
-    <row r="784" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="784" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS784" s="29"/>
       <c r="AT784" s="18"/>
       <c r="AU784" s="30"/>
@@ -38008,7 +38006,7 @@
       <c r="BL784" s="4"/>
       <c r="BM784" s="34"/>
     </row>
-    <row r="785" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="785" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS785" s="29"/>
       <c r="AT785" s="18"/>
       <c r="AU785" s="30"/>
@@ -38030,7 +38028,7 @@
       <c r="BL785" s="4"/>
       <c r="BM785" s="34"/>
     </row>
-    <row r="786" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="786" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS786" s="29"/>
       <c r="AT786" s="18"/>
       <c r="AU786" s="30"/>
@@ -38052,7 +38050,7 @@
       <c r="BL786" s="4"/>
       <c r="BM786" s="34"/>
     </row>
-    <row r="787" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="787" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS787" s="29"/>
       <c r="AT787" s="18"/>
       <c r="AU787" s="30"/>
@@ -38074,7 +38072,7 @@
       <c r="BL787" s="4"/>
       <c r="BM787" s="34"/>
     </row>
-    <row r="788" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="788" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS788" s="29"/>
       <c r="AT788" s="18"/>
       <c r="AU788" s="30"/>
@@ -38096,7 +38094,7 @@
       <c r="BL788" s="4"/>
       <c r="BM788" s="34"/>
     </row>
-    <row r="789" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="789" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS789" s="29"/>
       <c r="AT789" s="18"/>
       <c r="AU789" s="30"/>
@@ -38118,7 +38116,7 @@
       <c r="BL789" s="4"/>
       <c r="BM789" s="34"/>
     </row>
-    <row r="790" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="790" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS790" s="29"/>
       <c r="AT790" s="18"/>
       <c r="AU790" s="30"/>
@@ -38140,7 +38138,7 @@
       <c r="BL790" s="4"/>
       <c r="BM790" s="34"/>
     </row>
-    <row r="791" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="791" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS791" s="29"/>
       <c r="AT791" s="18"/>
       <c r="AU791" s="30"/>
@@ -38162,7 +38160,7 @@
       <c r="BL791" s="4"/>
       <c r="BM791" s="34"/>
     </row>
-    <row r="792" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="792" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS792" s="29"/>
       <c r="AT792" s="18"/>
       <c r="AU792" s="30"/>
@@ -38184,7 +38182,7 @@
       <c r="BL792" s="4"/>
       <c r="BM792" s="34"/>
     </row>
-    <row r="793" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="793" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS793" s="29"/>
       <c r="AT793" s="18"/>
       <c r="AU793" s="30"/>
@@ -38206,7 +38204,7 @@
       <c r="BL793" s="4"/>
       <c r="BM793" s="34"/>
     </row>
-    <row r="794" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="794" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS794" s="29"/>
       <c r="AT794" s="18"/>
       <c r="AU794" s="30"/>
@@ -38228,7 +38226,7 @@
       <c r="BL794" s="4"/>
       <c r="BM794" s="34"/>
     </row>
-    <row r="795" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="795" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS795" s="29"/>
       <c r="AT795" s="18"/>
       <c r="AU795" s="30"/>
@@ -38250,7 +38248,7 @@
       <c r="BL795" s="4"/>
       <c r="BM795" s="34"/>
     </row>
-    <row r="796" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="796" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS796" s="29"/>
       <c r="AT796" s="18"/>
       <c r="AU796" s="30"/>
@@ -38272,7 +38270,7 @@
       <c r="BL796" s="4"/>
       <c r="BM796" s="34"/>
     </row>
-    <row r="797" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="797" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS797" s="29"/>
       <c r="AT797" s="18"/>
       <c r="AU797" s="30"/>
@@ -38294,7 +38292,7 @@
       <c r="BL797" s="4"/>
       <c r="BM797" s="34"/>
     </row>
-    <row r="798" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="798" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS798" s="29"/>
       <c r="AT798" s="18"/>
       <c r="AU798" s="30"/>
@@ -38316,7 +38314,7 @@
       <c r="BL798" s="4"/>
       <c r="BM798" s="34"/>
     </row>
-    <row r="799" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="799" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS799" s="29"/>
       <c r="AT799" s="18"/>
       <c r="AU799" s="30"/>
@@ -38338,7 +38336,7 @@
       <c r="BL799" s="4"/>
       <c r="BM799" s="34"/>
     </row>
-    <row r="800" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="800" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS800" s="31"/>
       <c r="AT800" s="32"/>
       <c r="AU800" s="33"/>

--- a/FastEHC Template.xlsx
+++ b/FastEHC Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CxTools\fastEHC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RyanW\IDE Sources\fastEHC-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791636C8-EDC2-4E4C-A4D1-E37EC7356976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A69E9-4B75-46F7-AC86-202FE4AA93D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18672" yWindow="120" windowWidth="27384" windowHeight="18336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
   <si>
     <t>Scan Metrics</t>
   </si>
@@ -494,6 +494,12 @@
   </si>
   <si>
     <t>Scan Size Analysis</t>
+  </si>
+  <si>
+    <t>Scans Completed</t>
+  </si>
+  <si>
+    <t>Scans Failed</t>
   </si>
 </sst>
 </file>
@@ -15947,27 +15953,27 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="36" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" style="8" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" style="8" customWidth="1"/>
-    <col min="14" max="14" width="22.7109375" style="8" customWidth="1"/>
-    <col min="15" max="16" width="12.7109375" style="8" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" style="8" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="8"/>
+    <col min="11" max="12" width="12.6640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" style="8" customWidth="1"/>
+    <col min="14" max="14" width="22.6640625" style="8" customWidth="1"/>
+    <col min="15" max="16" width="12.6640625" style="8" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" style="8" customWidth="1"/>
+    <col min="18" max="18" width="8.88671875" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
@@ -15989,8 +15995,8 @@
       <c r="O2" s="43"/>
       <c r="P2" s="44"/>
     </row>
-    <row r="3" spans="2:16" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -16025,7 +16031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
@@ -16064,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
@@ -16103,7 +16109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -16142,7 +16148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
@@ -16181,7 +16187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
@@ -16220,17 +16226,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="9" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="C10" s="11">
         <f>Data!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="12">
-        <f>Data!D9</f>
-        <v>0</v>
+      <c r="D10" s="12" t="e">
+        <f>C10/C9</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>35</v>
@@ -16251,17 +16257,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="C11" s="11">
         <f>Data!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12">
-        <f>Data!D10</f>
-        <v>0</v>
+      <c r="D11" s="12" t="e">
+        <f>C11/C9</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>38</v>
@@ -16284,9 +16290,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C12" s="11">
         <f>Data!C11</f>
@@ -16329,9 +16335,9 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C13" s="11">
         <f>Data!C12</f>
@@ -16376,9 +16382,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C14" s="11">
         <f>Data!C13</f>
@@ -16423,9 +16429,9 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C15" s="11">
         <f>Data!C14</f>
@@ -16470,9 +16476,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C16" s="11">
         <f>Data!C15</f>
@@ -16517,9 +16523,9 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C17" s="11">
         <f>Data!C16</f>
@@ -16564,15 +16570,18 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C18" s="11">
         <f>Data!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19"/>
+      <c r="D18" s="12">
+        <f>Data!D17</f>
+        <v>0</v>
+      </c>
       <c r="F18" s="9" t="s">
         <v>59</v>
       </c>
@@ -16608,7 +16617,18 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="11">
+        <f>Data!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="12">
+        <f>Data!D18</f>
+        <v>0</v>
+      </c>
       <c r="F19" s="9" t="s">
         <v>61</v>
       </c>
@@ -16644,16 +16664,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="7" t="s">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="11">
+        <f>Data!C19</f>
         <v>0</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="D20" s="19"/>
       <c r="F20" s="9" t="s">
         <v>63</v>
       </c>
@@ -16678,18 +16697,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="11">
-        <f>Data!G4</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="11">
-        <f>Data!H4</f>
-        <v>0</v>
-      </c>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F21" s="9" t="s">
         <v>65</v>
       </c>
@@ -16723,17 +16731,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="11">
-        <f>Data!G5</f>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D22" s="11">
-        <f>Data!H5</f>
-        <v>0</v>
+      <c r="C22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>68</v>
@@ -16771,16 +16777,16 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C23" s="11">
-        <f>Data!G6</f>
+        <f>Data!G4</f>
         <v>0</v>
       </c>
       <c r="D23" s="11">
-        <f>Data!H6</f>
+        <f>Data!H4</f>
         <v>0</v>
       </c>
       <c r="F23" s="9" t="s">
@@ -16819,7 +16825,18 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="11">
+        <f>Data!G5</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="11">
+        <f>Data!H5</f>
+        <v>0</v>
+      </c>
       <c r="F24" s="9" t="s">
         <v>71</v>
       </c>
@@ -16856,15 +16873,17 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>13</v>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="11">
+        <f>Data!G6</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="11">
+        <f>Data!H6</f>
+        <v>0</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>73</v>
@@ -16902,18 +16921,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="13">
-        <f>Data!K4</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="13">
-        <f>Data!L4</f>
-        <v>0</v>
-      </c>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F26" s="9" t="s">
         <v>75</v>
       </c>
@@ -16950,17 +16958,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="13">
-        <f>Data!K5</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="13">
-        <f>Data!L5</f>
-        <v>0</v>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="J27" s="9" t="str">
         <f>IF(ISBLANK(Data!AC9),"",Data!AC9)</f>
@@ -16975,16 +16981,16 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="13">
-        <f>Data!K6</f>
+        <f>Data!K4</f>
         <v>0</v>
       </c>
       <c r="D28" s="13">
-        <f>Data!L6</f>
+        <f>Data!L4</f>
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
@@ -17009,16 +17015,16 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C29" s="13">
-        <f>Data!K7</f>
+        <f>Data!K5</f>
         <v>0</v>
       </c>
       <c r="D29" s="13">
-        <f>Data!L7</f>
+        <f>Data!L5</f>
         <v>0</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -17045,7 +17051,18 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="13">
+        <f>Data!K6</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <f>Data!L6</f>
+        <v>0</v>
+      </c>
       <c r="F30" s="9" t="s">
         <v>81</v>
       </c>
@@ -17070,7 +17087,18 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="13">
+        <f>Data!K7</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <f>Data!L7</f>
+        <v>0</v>
+      </c>
       <c r="F31" s="9" t="s">
         <v>82</v>
       </c>
@@ -17095,7 +17123,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="F32" s="9" t="s">
         <v>83</v>
       </c>
@@ -17120,7 +17148,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F33" s="9" t="s">
         <v>84</v>
       </c>
@@ -17145,7 +17173,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F34" s="9" t="s">
         <v>85</v>
       </c>
@@ -17170,7 +17198,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F35" s="9" t="s">
         <v>86</v>
       </c>
@@ -17195,7 +17223,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F36" s="9" t="s">
         <v>87</v>
       </c>
@@ -17220,7 +17248,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F37" s="9" t="s">
         <v>88</v>
       </c>
@@ -17233,7 +17261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F38" s="9" t="s">
         <v>89</v>
       </c>
@@ -17246,7 +17274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F39" s="9" t="s">
         <v>90</v>
       </c>
@@ -17259,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F40" s="9" t="s">
         <v>91</v>
       </c>
@@ -17295,18 +17323,18 @@
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="8" customWidth="1"/>
-    <col min="5" max="8" width="12.7109375" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="8"/>
+    <col min="3" max="4" width="10.6640625" style="8" customWidth="1"/>
+    <col min="5" max="8" width="12.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="42" t="s">
         <v>92</v>
       </c>
@@ -17317,7 +17345,7 @@
       <c r="G2" s="43"/>
       <c r="H2" s="44"/>
     </row>
-    <row r="4" spans="2:8" s="15" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" s="15" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
@@ -17340,7 +17368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
         <f>Data!AK4</f>
         <v>0</v>
@@ -17370,7 +17398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <f>Data!AK5</f>
         <v>0</v>
@@ -17400,7 +17428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <f>Data!AK6</f>
         <v>0</v>
@@ -17430,7 +17458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <f>Data!AK7</f>
         <v>0</v>
@@ -17460,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <f>Data!AK8</f>
         <v>0</v>
@@ -17490,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <f>Data!AK9</f>
         <v>0</v>
@@ -17520,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="9">
         <f>Data!AK10</f>
         <v>0</v>
@@ -17550,7 +17578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="9">
         <f>Data!AK11</f>
         <v>0</v>
@@ -17580,7 +17608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="9">
         <f>Data!AK12</f>
         <v>0</v>
@@ -17610,7 +17638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="9">
         <f>Data!AK13</f>
         <v>0</v>
@@ -17640,7 +17668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="9">
         <f>Data!AK14</f>
         <v>0</v>
@@ -17670,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="9">
         <f>Data!AK15</f>
         <v>0</v>
@@ -17700,13 +17728,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="11">
         <f>SUM(C5:C16)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="B2:H2"/>
   </mergeCells>
@@ -17726,19 +17755,19 @@
       <selection activeCell="X143" sqref="X143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
-    <col min="2" max="9" width="13.28515625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="8" customWidth="1"/>
-    <col min="11" max="18" width="13.28515625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="1.7109375" style="8" customWidth="1"/>
-    <col min="20" max="20" width="8.85546875" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
+    <col min="2" max="9" width="13.33203125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="8" customWidth="1"/>
+    <col min="11" max="18" width="13.33203125" style="8" customWidth="1"/>
+    <col min="19" max="19" width="1.6640625" style="8" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="42" t="s">
         <v>98</v>
       </c>
@@ -17759,8 +17788,8 @@
       <c r="Q2" s="43"/>
       <c r="R2" s="44"/>
     </row>
-    <row r="3" spans="2:18" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:18" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:18" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
         <v>99</v>
       </c>
@@ -17781,30 +17810,30 @@
       <c r="Q4" s="46"/>
       <c r="R4" s="47"/>
     </row>
-    <row r="5" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B28" s="45" t="s">
         <v>100</v>
       </c>
@@ -17825,30 +17854,30 @@
       <c r="Q28" s="46"/>
       <c r="R28" s="47"/>
     </row>
-    <row r="29" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B52" s="45" t="s">
         <v>101</v>
       </c>
@@ -17869,30 +17898,30 @@
       <c r="Q52" s="46"/>
       <c r="R52" s="47"/>
     </row>
-    <row r="53" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B76" s="45" t="s">
         <v>141</v>
       </c>
@@ -17913,11 +17942,11 @@
       <c r="Q76" s="46"/>
       <c r="R76" s="47"/>
     </row>
-    <row r="77" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B100" s="45" t="s">
         <v>142</v>
       </c>
@@ -17940,7 +17969,7 @@
       <c r="Q100" s="46"/>
       <c r="R100" s="47"/>
     </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B124" s="45" t="s">
         <v>103</v>
       </c>
@@ -17964,6 +17993,7 @@
       <c r="R124" s="47"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="9">
     <mergeCell ref="B100:I100"/>
     <mergeCell ref="K100:R100"/>
@@ -17988,77 +18018,79 @@
   </sheetPr>
   <dimension ref="B1:CE800"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.7109375" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
-    <col min="19" max="20" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" customWidth="1"/>
-    <col min="22" max="22" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.7109375" style="1" customWidth="1"/>
-    <col min="24" max="24" width="1.7109375" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" style="1" customWidth="1"/>
-    <col min="26" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.7109375" customWidth="1"/>
-    <col min="29" max="29" width="22.7109375" style="1" customWidth="1"/>
-    <col min="30" max="31" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="1.7109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="22.7109375" style="1" customWidth="1"/>
-    <col min="34" max="35" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="1.7109375" customWidth="1"/>
-    <col min="37" max="37" width="10.7109375" style="1" customWidth="1"/>
-    <col min="38" max="43" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="1.7109375" style="1" customWidth="1"/>
-    <col min="45" max="46" width="10.7109375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5703125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="1.7109375" style="1" customWidth="1"/>
-    <col min="49" max="52" width="10.7109375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.7109375" style="1" customWidth="1"/>
-    <col min="54" max="55" width="10.7109375" style="1" customWidth="1"/>
-    <col min="56" max="56" width="13.85546875" style="1" customWidth="1"/>
-    <col min="57" max="57" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6640625" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.6640625" customWidth="1"/>
+    <col min="22" max="22" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="1.6640625" customWidth="1"/>
+    <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
+    <col min="26" max="27" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.6640625" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" style="1" customWidth="1"/>
+    <col min="30" max="31" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="1.6640625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" style="1" customWidth="1"/>
+    <col min="34" max="35" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="1.6640625" customWidth="1"/>
+    <col min="37" max="37" width="10.6640625" style="1" customWidth="1"/>
+    <col min="38" max="43" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="1.6640625" style="1" customWidth="1"/>
+    <col min="45" max="46" width="10.6640625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5546875" style="1" customWidth="1"/>
+    <col min="48" max="48" width="1.6640625" style="1" customWidth="1"/>
+    <col min="49" max="52" width="10.6640625" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.6640625" style="1" customWidth="1"/>
+    <col min="54" max="55" width="10.6640625" style="1" customWidth="1"/>
+    <col min="56" max="56" width="13.88671875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5546875" style="1" customWidth="1"/>
     <col min="58" max="58" width="17" style="1" customWidth="1"/>
-    <col min="59" max="59" width="16.85546875" style="1" customWidth="1"/>
-    <col min="60" max="60" width="19.42578125" style="1" customWidth="1"/>
-    <col min="61" max="61" width="19.7109375" style="1" customWidth="1"/>
-    <col min="62" max="62" width="14.140625" style="1" customWidth="1"/>
-    <col min="63" max="63" width="14.42578125" style="1" customWidth="1"/>
-    <col min="64" max="64" width="14.28515625" style="1" customWidth="1"/>
-    <col min="65" max="65" width="14.5703125" style="1" customWidth="1"/>
-    <col min="66" max="66" width="1.7109375" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.7109375" style="1" customWidth="1"/>
-    <col min="68" max="70" width="10.7109375" style="1"/>
-    <col min="71" max="71" width="15.7109375" style="1" customWidth="1"/>
-    <col min="72" max="73" width="10.7109375" style="1"/>
-    <col min="74" max="74" width="13.85546875" style="1" customWidth="1"/>
-    <col min="75" max="75" width="13.5703125" style="1" customWidth="1"/>
+    <col min="59" max="59" width="16.88671875" style="1" customWidth="1"/>
+    <col min="60" max="60" width="19.44140625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="19.6640625" style="1" customWidth="1"/>
+    <col min="62" max="62" width="14.109375" style="1" customWidth="1"/>
+    <col min="63" max="63" width="14.44140625" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.33203125" style="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5546875" style="1" customWidth="1"/>
+    <col min="66" max="66" width="1.6640625" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.6640625" style="1" customWidth="1"/>
+    <col min="68" max="70" width="10.6640625" style="1"/>
+    <col min="71" max="71" width="15.6640625" style="1" customWidth="1"/>
+    <col min="72" max="73" width="10.6640625" style="1"/>
+    <col min="74" max="74" width="13.88671875" style="1" customWidth="1"/>
+    <col min="75" max="75" width="13.5546875" style="1" customWidth="1"/>
     <col min="76" max="76" width="17" style="1" customWidth="1"/>
-    <col min="77" max="77" width="16.85546875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="19.42578125" style="1" customWidth="1"/>
-    <col min="79" max="79" width="19.7109375" style="1" customWidth="1"/>
-    <col min="80" max="80" width="14.140625" style="1" customWidth="1"/>
-    <col min="81" max="81" width="14.42578125" style="1" customWidth="1"/>
-    <col min="82" max="82" width="14.28515625" style="1" customWidth="1"/>
-    <col min="83" max="83" width="14.5703125" style="1" customWidth="1"/>
-    <col min="84" max="16384" width="10.7109375" style="1"/>
+    <col min="77" max="77" width="16.88671875" style="1" customWidth="1"/>
+    <col min="78" max="78" width="19.44140625" style="1" customWidth="1"/>
+    <col min="79" max="79" width="19.6640625" style="1" customWidth="1"/>
+    <col min="80" max="80" width="14.109375" style="1" customWidth="1"/>
+    <col min="81" max="81" width="14.44140625" style="1" customWidth="1"/>
+    <col min="82" max="82" width="14.33203125" style="1" customWidth="1"/>
+    <col min="83" max="83" width="14.5546875" style="1" customWidth="1"/>
+    <col min="84" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:83" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:83" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B2" s="49" t="s">
         <v>105</v>
       </c>
@@ -18156,7 +18188,7 @@
       <c r="CD2" s="43"/>
       <c r="CE2" s="43"/>
     </row>
-    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>118</v>
       </c>
@@ -18368,7 +18400,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -18440,7 +18472,7 @@
       <c r="CD4" s="4"/>
       <c r="CE4" s="34"/>
     </row>
-    <row r="5" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -18512,7 +18544,7 @@
       <c r="CD5" s="4"/>
       <c r="CE5" s="34"/>
     </row>
-    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="38"/>
       <c r="D6" s="2"/>
@@ -18584,7 +18616,7 @@
       <c r="CD6" s="4"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="38"/>
       <c r="D7" s="2"/>
@@ -18653,7 +18685,7 @@
       <c r="CD7" s="4"/>
       <c r="CE7" s="34"/>
     </row>
-    <row r="8" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
       <c r="C8" s="38"/>
       <c r="D8" s="2"/>
@@ -18719,7 +18751,7 @@
       <c r="CD8" s="4"/>
       <c r="CE8" s="34"/>
     </row>
-    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
       <c r="C9" s="38"/>
       <c r="D9" s="37"/>
@@ -18782,7 +18814,7 @@
       <c r="CD9" s="4"/>
       <c r="CE9" s="34"/>
     </row>
-    <row r="10" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="38"/>
       <c r="D10" s="37"/>
@@ -18843,7 +18875,7 @@
       <c r="CD10" s="4"/>
       <c r="CE10" s="34"/>
     </row>
-    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
       <c r="C11" s="38"/>
       <c r="D11" s="37"/>
@@ -18901,7 +18933,7 @@
       <c r="CD11" s="4"/>
       <c r="CE11" s="34"/>
     </row>
-    <row r="12" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
       <c r="C12" s="38"/>
       <c r="D12" s="25"/>
@@ -18959,7 +18991,7 @@
       <c r="CD12" s="4"/>
       <c r="CE12" s="34"/>
     </row>
-    <row r="13" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
       <c r="C13" s="38"/>
       <c r="D13" s="37"/>
@@ -19017,7 +19049,7 @@
       <c r="CD13" s="4"/>
       <c r="CE13" s="34"/>
     </row>
-    <row r="14" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="38"/>
       <c r="D14" s="37"/>
@@ -19075,7 +19107,7 @@
       <c r="CD14" s="4"/>
       <c r="CE14" s="34"/>
     </row>
-    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
       <c r="C15" s="38"/>
       <c r="D15" s="37"/>
@@ -19133,7 +19165,7 @@
       <c r="CD15" s="4"/>
       <c r="CE15" s="34"/>
     </row>
-    <row r="16" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
       <c r="C16" s="38"/>
       <c r="D16" s="37"/>
@@ -19184,7 +19216,7 @@
       <c r="CD16" s="4"/>
       <c r="CE16" s="34"/>
     </row>
-    <row r="17" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:83" x14ac:dyDescent="0.3">
       <c r="B17" s="2"/>
       <c r="C17" s="38"/>
       <c r="D17" s="2"/>
@@ -19235,7 +19267,10 @@
       <c r="CD17" s="35"/>
       <c r="CE17" s="36"/>
     </row>
-    <row r="18" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="2"/>
       <c r="R18" s="20"/>
       <c r="S18" s="25"/>
       <c r="T18" s="39"/>
@@ -19283,7 +19318,10 @@
       <c r="CD18" s="4"/>
       <c r="CE18" s="34"/>
     </row>
-    <row r="19" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="2"/>
       <c r="R19" s="20"/>
       <c r="S19" s="25"/>
       <c r="T19" s="39"/>
@@ -19331,7 +19369,7 @@
       <c r="CD19" s="4"/>
       <c r="CE19" s="34"/>
     </row>
-    <row r="20" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R20" s="20"/>
       <c r="S20" s="25"/>
       <c r="T20" s="39"/>
@@ -19379,7 +19417,7 @@
       <c r="CD20" s="4"/>
       <c r="CE20" s="34"/>
     </row>
-    <row r="21" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R21" s="20"/>
       <c r="S21" s="25"/>
       <c r="T21" s="39"/>
@@ -19427,7 +19465,7 @@
       <c r="CD21" s="4"/>
       <c r="CE21" s="34"/>
     </row>
-    <row r="22" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R22" s="20"/>
       <c r="S22" s="25"/>
       <c r="T22" s="39"/>
@@ -19475,7 +19513,7 @@
       <c r="CD22" s="4"/>
       <c r="CE22" s="34"/>
     </row>
-    <row r="23" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R23" s="20"/>
       <c r="S23" s="25"/>
       <c r="T23" s="39"/>
@@ -19523,7 +19561,7 @@
       <c r="CD23" s="4"/>
       <c r="CE23" s="34"/>
     </row>
-    <row r="24" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R24" s="20"/>
       <c r="S24" s="25"/>
       <c r="T24" s="39"/>
@@ -19571,7 +19609,7 @@
       <c r="CD24" s="4"/>
       <c r="CE24" s="34"/>
     </row>
-    <row r="25" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R25" s="20"/>
       <c r="S25" s="25"/>
       <c r="T25" s="39"/>
@@ -19619,7 +19657,7 @@
       <c r="CD25" s="4"/>
       <c r="CE25" s="34"/>
     </row>
-    <row r="26" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R26" s="20"/>
       <c r="S26" s="25"/>
       <c r="T26" s="39"/>
@@ -19667,7 +19705,7 @@
       <c r="CD26" s="4"/>
       <c r="CE26" s="34"/>
     </row>
-    <row r="27" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R27" s="20"/>
       <c r="S27" s="25"/>
       <c r="T27" s="39"/>
@@ -19715,7 +19753,7 @@
       <c r="CD27" s="4"/>
       <c r="CE27" s="34"/>
     </row>
-    <row r="28" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:83" x14ac:dyDescent="0.3">
       <c r="R28" s="24"/>
       <c r="S28" s="26"/>
       <c r="T28" s="40"/>
@@ -19763,7 +19801,7 @@
       <c r="CD28" s="4"/>
       <c r="CE28" s="34"/>
     </row>
-    <row r="29" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:83" x14ac:dyDescent="0.3">
       <c r="AC29" s="20"/>
       <c r="AD29" s="38"/>
       <c r="AE29" s="27"/>
@@ -19808,7 +19846,7 @@
       <c r="CD29" s="4"/>
       <c r="CE29" s="34"/>
     </row>
-    <row r="30" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:83" x14ac:dyDescent="0.3">
       <c r="AC30" s="20"/>
       <c r="AD30" s="38"/>
       <c r="AE30" s="27"/>
@@ -19853,7 +19891,7 @@
       <c r="CD30" s="4"/>
       <c r="CE30" s="34"/>
     </row>
-    <row r="31" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:83" x14ac:dyDescent="0.3">
       <c r="AC31" s="20"/>
       <c r="AD31" s="38"/>
       <c r="AE31" s="27"/>
@@ -19898,7 +19936,7 @@
       <c r="CD31" s="4"/>
       <c r="CE31" s="34"/>
     </row>
-    <row r="32" spans="2:83" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:83" x14ac:dyDescent="0.3">
       <c r="AC32" s="20"/>
       <c r="AD32" s="38"/>
       <c r="AE32" s="27"/>
@@ -19943,7 +19981,7 @@
       <c r="CD32" s="4"/>
       <c r="CE32" s="34"/>
     </row>
-    <row r="33" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="33" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC33" s="20"/>
       <c r="AD33" s="38"/>
       <c r="AE33" s="27"/>
@@ -19988,7 +20026,7 @@
       <c r="CD33" s="4"/>
       <c r="CE33" s="34"/>
     </row>
-    <row r="34" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="34" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC34" s="20"/>
       <c r="AD34" s="38"/>
       <c r="AE34" s="27"/>
@@ -20033,7 +20071,7 @@
       <c r="CD34" s="4"/>
       <c r="CE34" s="34"/>
     </row>
-    <row r="35" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="35" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC35" s="20"/>
       <c r="AD35" s="38"/>
       <c r="AE35" s="27"/>
@@ -20078,7 +20116,7 @@
       <c r="CD35" s="4"/>
       <c r="CE35" s="34"/>
     </row>
-    <row r="36" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="36" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC36" s="20"/>
       <c r="AD36" s="38"/>
       <c r="AE36" s="27"/>
@@ -20123,7 +20161,7 @@
       <c r="CD36" s="4"/>
       <c r="CE36" s="34"/>
     </row>
-    <row r="37" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="37" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC37" s="20"/>
       <c r="AD37" s="38"/>
       <c r="AE37" s="27"/>
@@ -20168,7 +20206,7 @@
       <c r="CD37" s="4"/>
       <c r="CE37" s="34"/>
     </row>
-    <row r="38" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="38" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC38" s="20"/>
       <c r="AD38" s="38"/>
       <c r="AE38" s="27"/>
@@ -20213,7 +20251,7 @@
       <c r="CD38" s="4"/>
       <c r="CE38" s="34"/>
     </row>
-    <row r="39" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="39" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC39" s="20"/>
       <c r="AD39" s="38"/>
       <c r="AE39" s="27"/>
@@ -20258,7 +20296,7 @@
       <c r="CD39" s="4"/>
       <c r="CE39" s="34"/>
     </row>
-    <row r="40" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="40" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC40" s="20"/>
       <c r="AD40" s="38"/>
       <c r="AE40" s="27"/>
@@ -20303,7 +20341,7 @@
       <c r="CD40" s="4"/>
       <c r="CE40" s="34"/>
     </row>
-    <row r="41" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="41" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC41" s="20"/>
       <c r="AD41" s="38"/>
       <c r="AE41" s="27"/>
@@ -20348,7 +20386,7 @@
       <c r="CD41" s="4"/>
       <c r="CE41" s="34"/>
     </row>
-    <row r="42" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="42" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC42" s="20"/>
       <c r="AD42" s="38"/>
       <c r="AE42" s="27"/>
@@ -20393,7 +20431,7 @@
       <c r="CD42" s="4"/>
       <c r="CE42" s="34"/>
     </row>
-    <row r="43" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="43" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC43" s="20"/>
       <c r="AD43" s="38"/>
       <c r="AE43" s="27"/>
@@ -20438,7 +20476,7 @@
       <c r="CD43" s="4"/>
       <c r="CE43" s="34"/>
     </row>
-    <row r="44" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="44" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC44" s="20"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="27"/>
@@ -20483,7 +20521,7 @@
       <c r="CD44" s="4"/>
       <c r="CE44" s="34"/>
     </row>
-    <row r="45" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="45" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC45" s="20"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="27"/>
@@ -20528,7 +20566,7 @@
       <c r="CD45" s="4"/>
       <c r="CE45" s="34"/>
     </row>
-    <row r="46" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="46" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC46" s="20"/>
       <c r="AD46" s="38"/>
       <c r="AE46" s="27"/>
@@ -20573,7 +20611,7 @@
       <c r="CD46" s="4"/>
       <c r="CE46" s="34"/>
     </row>
-    <row r="47" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="47" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC47" s="20"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="27"/>
@@ -20618,7 +20656,7 @@
       <c r="CD47" s="4"/>
       <c r="CE47" s="34"/>
     </row>
-    <row r="48" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="48" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC48" s="20"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="27"/>
@@ -20663,7 +20701,7 @@
       <c r="CD48" s="4"/>
       <c r="CE48" s="34"/>
     </row>
-    <row r="49" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="49" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC49" s="20"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="27"/>
@@ -20708,7 +20746,7 @@
       <c r="CD49" s="4"/>
       <c r="CE49" s="34"/>
     </row>
-    <row r="50" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="50" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AC50" s="24"/>
       <c r="AD50" s="41"/>
       <c r="AE50" s="28"/>
@@ -20753,7 +20791,7 @@
       <c r="CD50" s="4"/>
       <c r="CE50" s="34"/>
     </row>
-    <row r="51" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="51" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS51" s="29"/>
       <c r="AT51" s="18"/>
       <c r="AU51" s="30"/>
@@ -20792,7 +20830,7 @@
       <c r="CD51" s="4"/>
       <c r="CE51" s="34"/>
     </row>
-    <row r="52" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="52" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS52" s="29"/>
       <c r="AT52" s="18"/>
       <c r="AU52" s="30"/>
@@ -20831,7 +20869,7 @@
       <c r="CD52" s="4"/>
       <c r="CE52" s="34"/>
     </row>
-    <row r="53" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="53" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS53" s="29"/>
       <c r="AT53" s="18"/>
       <c r="AU53" s="30"/>
@@ -20870,7 +20908,7 @@
       <c r="CD53" s="4"/>
       <c r="CE53" s="34"/>
     </row>
-    <row r="54" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="54" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS54" s="29"/>
       <c r="AT54" s="18"/>
       <c r="AU54" s="30"/>
@@ -20909,7 +20947,7 @@
       <c r="CD54" s="4"/>
       <c r="CE54" s="34"/>
     </row>
-    <row r="55" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="55" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS55" s="29"/>
       <c r="AT55" s="18"/>
       <c r="AU55" s="30"/>
@@ -20948,7 +20986,7 @@
       <c r="CD55" s="4"/>
       <c r="CE55" s="34"/>
     </row>
-    <row r="56" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="56" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS56" s="29"/>
       <c r="AT56" s="18"/>
       <c r="AU56" s="30"/>
@@ -20987,7 +21025,7 @@
       <c r="CD56" s="4"/>
       <c r="CE56" s="34"/>
     </row>
-    <row r="57" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="57" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS57" s="29"/>
       <c r="AT57" s="18"/>
       <c r="AU57" s="30"/>
@@ -21026,7 +21064,7 @@
       <c r="CD57" s="4"/>
       <c r="CE57" s="34"/>
     </row>
-    <row r="58" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="58" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS58" s="29"/>
       <c r="AT58" s="18"/>
       <c r="AU58" s="30"/>
@@ -21065,7 +21103,7 @@
       <c r="CD58" s="4"/>
       <c r="CE58" s="34"/>
     </row>
-    <row r="59" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="59" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS59" s="29"/>
       <c r="AT59" s="18"/>
       <c r="AU59" s="30"/>
@@ -21104,7 +21142,7 @@
       <c r="CD59" s="4"/>
       <c r="CE59" s="34"/>
     </row>
-    <row r="60" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="60" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS60" s="29"/>
       <c r="AT60" s="18"/>
       <c r="AU60" s="30"/>
@@ -21143,7 +21181,7 @@
       <c r="CD60" s="4"/>
       <c r="CE60" s="34"/>
     </row>
-    <row r="61" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="61" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS61" s="29"/>
       <c r="AT61" s="18"/>
       <c r="AU61" s="30"/>
@@ -21182,7 +21220,7 @@
       <c r="CD61" s="4"/>
       <c r="CE61" s="34"/>
     </row>
-    <row r="62" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="62" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS62" s="29"/>
       <c r="AT62" s="18"/>
       <c r="AU62" s="30"/>
@@ -21221,7 +21259,7 @@
       <c r="CD62" s="4"/>
       <c r="CE62" s="34"/>
     </row>
-    <row r="63" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="63" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS63" s="29"/>
       <c r="AT63" s="18"/>
       <c r="AU63" s="30"/>
@@ -21260,7 +21298,7 @@
       <c r="CD63" s="4"/>
       <c r="CE63" s="34"/>
     </row>
-    <row r="64" spans="29:83" x14ac:dyDescent="0.25">
+    <row r="64" spans="29:83" x14ac:dyDescent="0.3">
       <c r="AS64" s="29"/>
       <c r="AT64" s="18"/>
       <c r="AU64" s="30"/>
@@ -21299,7 +21337,7 @@
       <c r="CD64" s="4"/>
       <c r="CE64" s="34"/>
     </row>
-    <row r="65" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="65" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS65" s="29"/>
       <c r="AT65" s="18"/>
       <c r="AU65" s="30"/>
@@ -21338,7 +21376,7 @@
       <c r="CD65" s="4"/>
       <c r="CE65" s="34"/>
     </row>
-    <row r="66" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="66" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS66" s="29"/>
       <c r="AT66" s="18"/>
       <c r="AU66" s="30"/>
@@ -21377,7 +21415,7 @@
       <c r="CD66" s="4"/>
       <c r="CE66" s="34"/>
     </row>
-    <row r="67" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="67" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS67" s="29"/>
       <c r="AT67" s="18"/>
       <c r="AU67" s="30"/>
@@ -21416,7 +21454,7 @@
       <c r="CD67" s="4"/>
       <c r="CE67" s="34"/>
     </row>
-    <row r="68" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="68" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS68" s="29"/>
       <c r="AT68" s="18"/>
       <c r="AU68" s="30"/>
@@ -21455,7 +21493,7 @@
       <c r="CD68" s="4"/>
       <c r="CE68" s="34"/>
     </row>
-    <row r="69" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="69" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS69" s="29"/>
       <c r="AT69" s="18"/>
       <c r="AU69" s="30"/>
@@ -21494,7 +21532,7 @@
       <c r="CD69" s="4"/>
       <c r="CE69" s="34"/>
     </row>
-    <row r="70" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="70" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS70" s="29"/>
       <c r="AT70" s="18"/>
       <c r="AU70" s="30"/>
@@ -21533,7 +21571,7 @@
       <c r="CD70" s="4"/>
       <c r="CE70" s="34"/>
     </row>
-    <row r="71" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="71" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS71" s="29"/>
       <c r="AT71" s="18"/>
       <c r="AU71" s="30"/>
@@ -21572,7 +21610,7 @@
       <c r="CD71" s="4"/>
       <c r="CE71" s="34"/>
     </row>
-    <row r="72" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="72" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS72" s="29"/>
       <c r="AT72" s="18"/>
       <c r="AU72" s="30"/>
@@ -21611,7 +21649,7 @@
       <c r="CD72" s="4"/>
       <c r="CE72" s="34"/>
     </row>
-    <row r="73" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="73" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS73" s="29"/>
       <c r="AT73" s="18"/>
       <c r="AU73" s="30"/>
@@ -21650,7 +21688,7 @@
       <c r="CD73" s="4"/>
       <c r="CE73" s="34"/>
     </row>
-    <row r="74" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="74" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS74" s="29"/>
       <c r="AT74" s="18"/>
       <c r="AU74" s="30"/>
@@ -21689,7 +21727,7 @@
       <c r="CD74" s="4"/>
       <c r="CE74" s="34"/>
     </row>
-    <row r="75" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="75" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS75" s="29"/>
       <c r="AT75" s="18"/>
       <c r="AU75" s="30"/>
@@ -21728,7 +21766,7 @@
       <c r="CD75" s="4"/>
       <c r="CE75" s="34"/>
     </row>
-    <row r="76" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="76" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS76" s="29"/>
       <c r="AT76" s="18"/>
       <c r="AU76" s="30"/>
@@ -21767,7 +21805,7 @@
       <c r="CD76" s="4"/>
       <c r="CE76" s="34"/>
     </row>
-    <row r="77" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="77" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS77" s="29"/>
       <c r="AT77" s="18"/>
       <c r="AU77" s="30"/>
@@ -21806,7 +21844,7 @@
       <c r="CD77" s="4"/>
       <c r="CE77" s="34"/>
     </row>
-    <row r="78" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="78" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS78" s="29"/>
       <c r="AT78" s="18"/>
       <c r="AU78" s="30"/>
@@ -21845,7 +21883,7 @@
       <c r="CD78" s="4"/>
       <c r="CE78" s="34"/>
     </row>
-    <row r="79" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="79" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS79" s="29"/>
       <c r="AT79" s="18"/>
       <c r="AU79" s="30"/>
@@ -21884,7 +21922,7 @@
       <c r="CD79" s="4"/>
       <c r="CE79" s="34"/>
     </row>
-    <row r="80" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="80" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS80" s="29"/>
       <c r="AT80" s="18"/>
       <c r="AU80" s="30"/>
@@ -21923,7 +21961,7 @@
       <c r="CD80" s="4"/>
       <c r="CE80" s="34"/>
     </row>
-    <row r="81" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="81" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS81" s="29"/>
       <c r="AT81" s="18"/>
       <c r="AU81" s="30"/>
@@ -21962,7 +22000,7 @@
       <c r="CD81" s="4"/>
       <c r="CE81" s="34"/>
     </row>
-    <row r="82" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="82" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS82" s="29"/>
       <c r="AT82" s="18"/>
       <c r="AU82" s="30"/>
@@ -22001,7 +22039,7 @@
       <c r="CD82" s="4"/>
       <c r="CE82" s="34"/>
     </row>
-    <row r="83" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="83" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS83" s="29"/>
       <c r="AT83" s="18"/>
       <c r="AU83" s="30"/>
@@ -22040,7 +22078,7 @@
       <c r="CD83" s="4"/>
       <c r="CE83" s="34"/>
     </row>
-    <row r="84" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="84" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS84" s="29"/>
       <c r="AT84" s="18"/>
       <c r="AU84" s="30"/>
@@ -22079,7 +22117,7 @@
       <c r="CD84" s="4"/>
       <c r="CE84" s="34"/>
     </row>
-    <row r="85" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="85" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS85" s="29"/>
       <c r="AT85" s="18"/>
       <c r="AU85" s="30"/>
@@ -22118,7 +22156,7 @@
       <c r="CD85" s="4"/>
       <c r="CE85" s="34"/>
     </row>
-    <row r="86" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="86" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS86" s="29"/>
       <c r="AT86" s="18"/>
       <c r="AU86" s="30"/>
@@ -22157,7 +22195,7 @@
       <c r="CD86" s="4"/>
       <c r="CE86" s="34"/>
     </row>
-    <row r="87" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="87" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS87" s="29"/>
       <c r="AT87" s="18"/>
       <c r="AU87" s="30"/>
@@ -22196,7 +22234,7 @@
       <c r="CD87" s="4"/>
       <c r="CE87" s="34"/>
     </row>
-    <row r="88" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="88" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS88" s="29"/>
       <c r="AT88" s="18"/>
       <c r="AU88" s="30"/>
@@ -22235,7 +22273,7 @@
       <c r="CD88" s="4"/>
       <c r="CE88" s="34"/>
     </row>
-    <row r="89" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="89" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS89" s="29"/>
       <c r="AT89" s="18"/>
       <c r="AU89" s="30"/>
@@ -22274,7 +22312,7 @@
       <c r="CD89" s="4"/>
       <c r="CE89" s="34"/>
     </row>
-    <row r="90" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="90" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS90" s="29"/>
       <c r="AT90" s="18"/>
       <c r="AU90" s="30"/>
@@ -22313,7 +22351,7 @@
       <c r="CD90" s="4"/>
       <c r="CE90" s="34"/>
     </row>
-    <row r="91" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="91" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS91" s="29"/>
       <c r="AT91" s="18"/>
       <c r="AU91" s="30"/>
@@ -22352,7 +22390,7 @@
       <c r="CD91" s="4"/>
       <c r="CE91" s="34"/>
     </row>
-    <row r="92" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="92" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS92" s="29"/>
       <c r="AT92" s="18"/>
       <c r="AU92" s="30"/>
@@ -22391,7 +22429,7 @@
       <c r="CD92" s="4"/>
       <c r="CE92" s="34"/>
     </row>
-    <row r="93" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="93" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS93" s="29"/>
       <c r="AT93" s="18"/>
       <c r="AU93" s="30"/>
@@ -22430,7 +22468,7 @@
       <c r="CD93" s="4"/>
       <c r="CE93" s="34"/>
     </row>
-    <row r="94" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="94" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS94" s="29"/>
       <c r="AT94" s="18"/>
       <c r="AU94" s="30"/>
@@ -22469,7 +22507,7 @@
       <c r="CD94" s="4"/>
       <c r="CE94" s="34"/>
     </row>
-    <row r="95" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="95" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS95" s="29"/>
       <c r="AT95" s="18"/>
       <c r="AU95" s="30"/>
@@ -22508,7 +22546,7 @@
       <c r="CD95" s="4"/>
       <c r="CE95" s="34"/>
     </row>
-    <row r="96" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="96" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS96" s="29"/>
       <c r="AT96" s="18"/>
       <c r="AU96" s="30"/>
@@ -22547,7 +22585,7 @@
       <c r="CD96" s="4"/>
       <c r="CE96" s="34"/>
     </row>
-    <row r="97" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="97" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS97" s="29"/>
       <c r="AT97" s="18"/>
       <c r="AU97" s="30"/>
@@ -22586,7 +22624,7 @@
       <c r="CD97" s="4"/>
       <c r="CE97" s="34"/>
     </row>
-    <row r="98" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="98" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS98" s="29"/>
       <c r="AT98" s="18"/>
       <c r="AU98" s="30"/>
@@ -22625,7 +22663,7 @@
       <c r="CD98" s="4"/>
       <c r="CE98" s="34"/>
     </row>
-    <row r="99" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="99" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS99" s="29"/>
       <c r="AT99" s="18"/>
       <c r="AU99" s="30"/>
@@ -22664,7 +22702,7 @@
       <c r="CD99" s="4"/>
       <c r="CE99" s="34"/>
     </row>
-    <row r="100" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="100" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS100" s="29"/>
       <c r="AT100" s="18"/>
       <c r="AU100" s="30"/>
@@ -22703,7 +22741,7 @@
       <c r="CD100" s="4"/>
       <c r="CE100" s="34"/>
     </row>
-    <row r="101" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="101" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS101" s="29"/>
       <c r="AT101" s="18"/>
       <c r="AU101" s="30"/>
@@ -22742,7 +22780,7 @@
       <c r="CD101" s="4"/>
       <c r="CE101" s="34"/>
     </row>
-    <row r="102" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="102" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS102" s="29"/>
       <c r="AT102" s="18"/>
       <c r="AU102" s="30"/>
@@ -22781,7 +22819,7 @@
       <c r="CD102" s="4"/>
       <c r="CE102" s="34"/>
     </row>
-    <row r="103" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="103" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS103" s="29"/>
       <c r="AT103" s="18"/>
       <c r="AU103" s="30"/>
@@ -22820,7 +22858,7 @@
       <c r="CD103" s="4"/>
       <c r="CE103" s="34"/>
     </row>
-    <row r="104" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="104" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS104" s="29"/>
       <c r="AT104" s="18"/>
       <c r="AU104" s="30"/>
@@ -22859,7 +22897,7 @@
       <c r="CD104" s="4"/>
       <c r="CE104" s="34"/>
     </row>
-    <row r="105" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="105" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS105" s="29"/>
       <c r="AT105" s="18"/>
       <c r="AU105" s="30"/>
@@ -22898,7 +22936,7 @@
       <c r="CD105" s="4"/>
       <c r="CE105" s="34"/>
     </row>
-    <row r="106" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="106" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS106" s="31"/>
       <c r="AT106" s="32"/>
       <c r="AU106" s="33"/>
@@ -22937,7 +22975,7 @@
       <c r="CD106" s="4"/>
       <c r="CE106" s="34"/>
     </row>
-    <row r="107" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="107" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS107" s="29"/>
       <c r="AT107" s="18"/>
       <c r="AU107" s="30"/>
@@ -22976,7 +23014,7 @@
       <c r="CD107" s="4"/>
       <c r="CE107" s="34"/>
     </row>
-    <row r="108" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="108" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS108" s="29"/>
       <c r="AT108" s="18"/>
       <c r="AU108" s="30"/>
@@ -23015,7 +23053,7 @@
       <c r="CD108" s="4"/>
       <c r="CE108" s="34"/>
     </row>
-    <row r="109" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="109" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS109" s="29"/>
       <c r="AT109" s="18"/>
       <c r="AU109" s="30"/>
@@ -23054,7 +23092,7 @@
       <c r="CD109" s="4"/>
       <c r="CE109" s="34"/>
     </row>
-    <row r="110" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="110" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS110" s="29"/>
       <c r="AT110" s="18"/>
       <c r="AU110" s="30"/>
@@ -23093,7 +23131,7 @@
       <c r="CD110" s="4"/>
       <c r="CE110" s="34"/>
     </row>
-    <row r="111" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="111" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS111" s="29"/>
       <c r="AT111" s="18"/>
       <c r="AU111" s="30"/>
@@ -23132,7 +23170,7 @@
       <c r="CD111" s="4"/>
       <c r="CE111" s="34"/>
     </row>
-    <row r="112" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="112" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS112" s="29"/>
       <c r="AT112" s="18"/>
       <c r="AU112" s="30"/>
@@ -23171,7 +23209,7 @@
       <c r="CD112" s="4"/>
       <c r="CE112" s="34"/>
     </row>
-    <row r="113" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="113" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS113" s="29"/>
       <c r="AT113" s="18"/>
       <c r="AU113" s="30"/>
@@ -23210,7 +23248,7 @@
       <c r="CD113" s="4"/>
       <c r="CE113" s="34"/>
     </row>
-    <row r="114" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="114" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS114" s="29"/>
       <c r="AT114" s="18"/>
       <c r="AU114" s="30"/>
@@ -23249,7 +23287,7 @@
       <c r="CD114" s="4"/>
       <c r="CE114" s="34"/>
     </row>
-    <row r="115" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="115" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS115" s="29"/>
       <c r="AT115" s="18"/>
       <c r="AU115" s="30"/>
@@ -23288,7 +23326,7 @@
       <c r="CD115" s="35"/>
       <c r="CE115" s="36"/>
     </row>
-    <row r="116" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="116" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS116" s="29"/>
       <c r="AT116" s="18"/>
       <c r="AU116" s="30"/>
@@ -23310,7 +23348,7 @@
       <c r="BL116" s="4"/>
       <c r="BM116" s="34"/>
     </row>
-    <row r="117" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="117" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS117" s="29"/>
       <c r="AT117" s="18"/>
       <c r="AU117" s="30"/>
@@ -23332,7 +23370,7 @@
       <c r="BL117" s="4"/>
       <c r="BM117" s="34"/>
     </row>
-    <row r="118" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="118" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS118" s="29"/>
       <c r="AT118" s="18"/>
       <c r="AU118" s="30"/>
@@ -23354,7 +23392,7 @@
       <c r="BL118" s="4"/>
       <c r="BM118" s="34"/>
     </row>
-    <row r="119" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="119" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS119" s="29"/>
       <c r="AT119" s="18"/>
       <c r="AU119" s="30"/>
@@ -23376,7 +23414,7 @@
       <c r="BL119" s="4"/>
       <c r="BM119" s="34"/>
     </row>
-    <row r="120" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="120" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS120" s="29"/>
       <c r="AT120" s="18"/>
       <c r="AU120" s="30"/>
@@ -23398,7 +23436,7 @@
       <c r="BL120" s="4"/>
       <c r="BM120" s="34"/>
     </row>
-    <row r="121" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="121" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS121" s="29"/>
       <c r="AT121" s="18"/>
       <c r="AU121" s="30"/>
@@ -23420,7 +23458,7 @@
       <c r="BL121" s="4"/>
       <c r="BM121" s="34"/>
     </row>
-    <row r="122" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="122" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS122" s="29"/>
       <c r="AT122" s="18"/>
       <c r="AU122" s="30"/>
@@ -23442,7 +23480,7 @@
       <c r="BL122" s="4"/>
       <c r="BM122" s="34"/>
     </row>
-    <row r="123" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="123" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS123" s="29"/>
       <c r="AT123" s="18"/>
       <c r="AU123" s="30"/>
@@ -23464,7 +23502,7 @@
       <c r="BL123" s="4"/>
       <c r="BM123" s="34"/>
     </row>
-    <row r="124" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="124" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS124" s="29"/>
       <c r="AT124" s="18"/>
       <c r="AU124" s="30"/>
@@ -23486,7 +23524,7 @@
       <c r="BL124" s="4"/>
       <c r="BM124" s="34"/>
     </row>
-    <row r="125" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="125" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS125" s="29"/>
       <c r="AT125" s="18"/>
       <c r="AU125" s="30"/>
@@ -23508,7 +23546,7 @@
       <c r="BL125" s="4"/>
       <c r="BM125" s="34"/>
     </row>
-    <row r="126" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="126" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS126" s="29"/>
       <c r="AT126" s="18"/>
       <c r="AU126" s="30"/>
@@ -23530,7 +23568,7 @@
       <c r="BL126" s="4"/>
       <c r="BM126" s="34"/>
     </row>
-    <row r="127" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="127" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS127" s="29"/>
       <c r="AT127" s="18"/>
       <c r="AU127" s="30"/>
@@ -23552,7 +23590,7 @@
       <c r="BL127" s="4"/>
       <c r="BM127" s="34"/>
     </row>
-    <row r="128" spans="45:83" x14ac:dyDescent="0.25">
+    <row r="128" spans="45:83" x14ac:dyDescent="0.3">
       <c r="AS128" s="29"/>
       <c r="AT128" s="18"/>
       <c r="AU128" s="30"/>
@@ -23574,7 +23612,7 @@
       <c r="BL128" s="4"/>
       <c r="BM128" s="34"/>
     </row>
-    <row r="129" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="129" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS129" s="29"/>
       <c r="AT129" s="18"/>
       <c r="AU129" s="30"/>
@@ -23596,7 +23634,7 @@
       <c r="BL129" s="4"/>
       <c r="BM129" s="34"/>
     </row>
-    <row r="130" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="130" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS130" s="29"/>
       <c r="AT130" s="18"/>
       <c r="AU130" s="30"/>
@@ -23618,7 +23656,7 @@
       <c r="BL130" s="4"/>
       <c r="BM130" s="34"/>
     </row>
-    <row r="131" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="131" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS131" s="29"/>
       <c r="AT131" s="18"/>
       <c r="AU131" s="30"/>
@@ -23640,7 +23678,7 @@
       <c r="BL131" s="4"/>
       <c r="BM131" s="34"/>
     </row>
-    <row r="132" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="132" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS132" s="29"/>
       <c r="AT132" s="18"/>
       <c r="AU132" s="30"/>
@@ -23662,7 +23700,7 @@
       <c r="BL132" s="4"/>
       <c r="BM132" s="34"/>
     </row>
-    <row r="133" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="133" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS133" s="29"/>
       <c r="AT133" s="18"/>
       <c r="AU133" s="30"/>
@@ -23684,7 +23722,7 @@
       <c r="BL133" s="4"/>
       <c r="BM133" s="34"/>
     </row>
-    <row r="134" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="134" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS134" s="29"/>
       <c r="AT134" s="18"/>
       <c r="AU134" s="30"/>
@@ -23706,7 +23744,7 @@
       <c r="BL134" s="4"/>
       <c r="BM134" s="34"/>
     </row>
-    <row r="135" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="135" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS135" s="29"/>
       <c r="AT135" s="18"/>
       <c r="AU135" s="30"/>
@@ -23728,7 +23766,7 @@
       <c r="BL135" s="4"/>
       <c r="BM135" s="34"/>
     </row>
-    <row r="136" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="136" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS136" s="29"/>
       <c r="AT136" s="18"/>
       <c r="AU136" s="30"/>
@@ -23750,7 +23788,7 @@
       <c r="BL136" s="4"/>
       <c r="BM136" s="34"/>
     </row>
-    <row r="137" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="137" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS137" s="29"/>
       <c r="AT137" s="18"/>
       <c r="AU137" s="30"/>
@@ -23772,7 +23810,7 @@
       <c r="BL137" s="4"/>
       <c r="BM137" s="34"/>
     </row>
-    <row r="138" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="138" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS138" s="29"/>
       <c r="AT138" s="18"/>
       <c r="AU138" s="30"/>
@@ -23794,7 +23832,7 @@
       <c r="BL138" s="4"/>
       <c r="BM138" s="34"/>
     </row>
-    <row r="139" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="139" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS139" s="29"/>
       <c r="AT139" s="18"/>
       <c r="AU139" s="30"/>
@@ -23816,7 +23854,7 @@
       <c r="BL139" s="4"/>
       <c r="BM139" s="34"/>
     </row>
-    <row r="140" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="140" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS140" s="29"/>
       <c r="AT140" s="18"/>
       <c r="AU140" s="30"/>
@@ -23838,7 +23876,7 @@
       <c r="BL140" s="4"/>
       <c r="BM140" s="34"/>
     </row>
-    <row r="141" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="141" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS141" s="29"/>
       <c r="AT141" s="18"/>
       <c r="AU141" s="30"/>
@@ -23860,7 +23898,7 @@
       <c r="BL141" s="4"/>
       <c r="BM141" s="34"/>
     </row>
-    <row r="142" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="142" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS142" s="29"/>
       <c r="AT142" s="18"/>
       <c r="AU142" s="30"/>
@@ -23882,7 +23920,7 @@
       <c r="BL142" s="4"/>
       <c r="BM142" s="34"/>
     </row>
-    <row r="143" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="143" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS143" s="29"/>
       <c r="AT143" s="18"/>
       <c r="AU143" s="30"/>
@@ -23904,7 +23942,7 @@
       <c r="BL143" s="4"/>
       <c r="BM143" s="34"/>
     </row>
-    <row r="144" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="144" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS144" s="29"/>
       <c r="AT144" s="18"/>
       <c r="AU144" s="30"/>
@@ -23926,7 +23964,7 @@
       <c r="BL144" s="4"/>
       <c r="BM144" s="34"/>
     </row>
-    <row r="145" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="145" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS145" s="29"/>
       <c r="AT145" s="18"/>
       <c r="AU145" s="30"/>
@@ -23948,7 +23986,7 @@
       <c r="BL145" s="4"/>
       <c r="BM145" s="34"/>
     </row>
-    <row r="146" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="146" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS146" s="29"/>
       <c r="AT146" s="18"/>
       <c r="AU146" s="30"/>
@@ -23970,7 +24008,7 @@
       <c r="BL146" s="4"/>
       <c r="BM146" s="34"/>
     </row>
-    <row r="147" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="147" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS147" s="29"/>
       <c r="AT147" s="18"/>
       <c r="AU147" s="30"/>
@@ -23992,7 +24030,7 @@
       <c r="BL147" s="4"/>
       <c r="BM147" s="34"/>
     </row>
-    <row r="148" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="148" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS148" s="29"/>
       <c r="AT148" s="18"/>
       <c r="AU148" s="30"/>
@@ -24014,7 +24052,7 @@
       <c r="BL148" s="4"/>
       <c r="BM148" s="34"/>
     </row>
-    <row r="149" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="149" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS149" s="29"/>
       <c r="AT149" s="18"/>
       <c r="AU149" s="30"/>
@@ -24036,7 +24074,7 @@
       <c r="BL149" s="4"/>
       <c r="BM149" s="34"/>
     </row>
-    <row r="150" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="150" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS150" s="29"/>
       <c r="AT150" s="18"/>
       <c r="AU150" s="30"/>
@@ -24058,7 +24096,7 @@
       <c r="BL150" s="4"/>
       <c r="BM150" s="34"/>
     </row>
-    <row r="151" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="151" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS151" s="29"/>
       <c r="AT151" s="18"/>
       <c r="AU151" s="30"/>
@@ -24080,7 +24118,7 @@
       <c r="BL151" s="4"/>
       <c r="BM151" s="34"/>
     </row>
-    <row r="152" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="152" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS152" s="29"/>
       <c r="AT152" s="18"/>
       <c r="AU152" s="30"/>
@@ -24102,7 +24140,7 @@
       <c r="BL152" s="4"/>
       <c r="BM152" s="34"/>
     </row>
-    <row r="153" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="153" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS153" s="29"/>
       <c r="AT153" s="18"/>
       <c r="AU153" s="30"/>
@@ -24124,7 +24162,7 @@
       <c r="BL153" s="4"/>
       <c r="BM153" s="34"/>
     </row>
-    <row r="154" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="154" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS154" s="29"/>
       <c r="AT154" s="18"/>
       <c r="AU154" s="30"/>
@@ -24146,7 +24184,7 @@
       <c r="BL154" s="4"/>
       <c r="BM154" s="34"/>
     </row>
-    <row r="155" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="155" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS155" s="29"/>
       <c r="AT155" s="18"/>
       <c r="AU155" s="30"/>
@@ -24168,7 +24206,7 @@
       <c r="BL155" s="4"/>
       <c r="BM155" s="34"/>
     </row>
-    <row r="156" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="156" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS156" s="29"/>
       <c r="AT156" s="18"/>
       <c r="AU156" s="30"/>
@@ -24190,7 +24228,7 @@
       <c r="BL156" s="4"/>
       <c r="BM156" s="34"/>
     </row>
-    <row r="157" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="157" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS157" s="29"/>
       <c r="AT157" s="18"/>
       <c r="AU157" s="30"/>
@@ -24212,7 +24250,7 @@
       <c r="BL157" s="4"/>
       <c r="BM157" s="34"/>
     </row>
-    <row r="158" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="158" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS158" s="29"/>
       <c r="AT158" s="18"/>
       <c r="AU158" s="30"/>
@@ -24234,7 +24272,7 @@
       <c r="BL158" s="4"/>
       <c r="BM158" s="34"/>
     </row>
-    <row r="159" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="159" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS159" s="29"/>
       <c r="AT159" s="18"/>
       <c r="AU159" s="30"/>
@@ -24256,7 +24294,7 @@
       <c r="BL159" s="4"/>
       <c r="BM159" s="34"/>
     </row>
-    <row r="160" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="160" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS160" s="29"/>
       <c r="AT160" s="18"/>
       <c r="AU160" s="30"/>
@@ -24278,7 +24316,7 @@
       <c r="BL160" s="4"/>
       <c r="BM160" s="34"/>
     </row>
-    <row r="161" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="161" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS161" s="29"/>
       <c r="AT161" s="18"/>
       <c r="AU161" s="30"/>
@@ -24300,7 +24338,7 @@
       <c r="BL161" s="4"/>
       <c r="BM161" s="34"/>
     </row>
-    <row r="162" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="162" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS162" s="29"/>
       <c r="AT162" s="18"/>
       <c r="AU162" s="30"/>
@@ -24322,7 +24360,7 @@
       <c r="BL162" s="4"/>
       <c r="BM162" s="34"/>
     </row>
-    <row r="163" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="163" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS163" s="29"/>
       <c r="AT163" s="18"/>
       <c r="AU163" s="30"/>
@@ -24344,7 +24382,7 @@
       <c r="BL163" s="4"/>
       <c r="BM163" s="34"/>
     </row>
-    <row r="164" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="164" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS164" s="29"/>
       <c r="AT164" s="18"/>
       <c r="AU164" s="30"/>
@@ -24366,7 +24404,7 @@
       <c r="BL164" s="4"/>
       <c r="BM164" s="34"/>
     </row>
-    <row r="165" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="165" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS165" s="29"/>
       <c r="AT165" s="18"/>
       <c r="AU165" s="30"/>
@@ -24388,7 +24426,7 @@
       <c r="BL165" s="4"/>
       <c r="BM165" s="34"/>
     </row>
-    <row r="166" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="166" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS166" s="29"/>
       <c r="AT166" s="18"/>
       <c r="AU166" s="30"/>
@@ -24410,7 +24448,7 @@
       <c r="BL166" s="4"/>
       <c r="BM166" s="34"/>
     </row>
-    <row r="167" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="167" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS167" s="29"/>
       <c r="AT167" s="18"/>
       <c r="AU167" s="30"/>
@@ -24432,7 +24470,7 @@
       <c r="BL167" s="4"/>
       <c r="BM167" s="34"/>
     </row>
-    <row r="168" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="168" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS168" s="29"/>
       <c r="AT168" s="18"/>
       <c r="AU168" s="30"/>
@@ -24454,7 +24492,7 @@
       <c r="BL168" s="4"/>
       <c r="BM168" s="34"/>
     </row>
-    <row r="169" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="169" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS169" s="29"/>
       <c r="AT169" s="18"/>
       <c r="AU169" s="30"/>
@@ -24476,7 +24514,7 @@
       <c r="BL169" s="4"/>
       <c r="BM169" s="34"/>
     </row>
-    <row r="170" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="170" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS170" s="29"/>
       <c r="AT170" s="18"/>
       <c r="AU170" s="30"/>
@@ -24498,7 +24536,7 @@
       <c r="BL170" s="4"/>
       <c r="BM170" s="34"/>
     </row>
-    <row r="171" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="171" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS171" s="29"/>
       <c r="AT171" s="18"/>
       <c r="AU171" s="30"/>
@@ -24520,7 +24558,7 @@
       <c r="BL171" s="4"/>
       <c r="BM171" s="34"/>
     </row>
-    <row r="172" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="172" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS172" s="29"/>
       <c r="AT172" s="18"/>
       <c r="AU172" s="30"/>
@@ -24542,7 +24580,7 @@
       <c r="BL172" s="4"/>
       <c r="BM172" s="34"/>
     </row>
-    <row r="173" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="173" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS173" s="29"/>
       <c r="AT173" s="18"/>
       <c r="AU173" s="30"/>
@@ -24564,7 +24602,7 @@
       <c r="BL173" s="4"/>
       <c r="BM173" s="34"/>
     </row>
-    <row r="174" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="174" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS174" s="29"/>
       <c r="AT174" s="18"/>
       <c r="AU174" s="30"/>
@@ -24586,7 +24624,7 @@
       <c r="BL174" s="4"/>
       <c r="BM174" s="34"/>
     </row>
-    <row r="175" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="175" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS175" s="29"/>
       <c r="AT175" s="18"/>
       <c r="AU175" s="30"/>
@@ -24608,7 +24646,7 @@
       <c r="BL175" s="4"/>
       <c r="BM175" s="34"/>
     </row>
-    <row r="176" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="176" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS176" s="29"/>
       <c r="AT176" s="18"/>
       <c r="AU176" s="30"/>
@@ -24630,7 +24668,7 @@
       <c r="BL176" s="4"/>
       <c r="BM176" s="34"/>
     </row>
-    <row r="177" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="177" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS177" s="29"/>
       <c r="AT177" s="18"/>
       <c r="AU177" s="30"/>
@@ -24652,7 +24690,7 @@
       <c r="BL177" s="4"/>
       <c r="BM177" s="34"/>
     </row>
-    <row r="178" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="178" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS178" s="29"/>
       <c r="AT178" s="18"/>
       <c r="AU178" s="30"/>
@@ -24674,7 +24712,7 @@
       <c r="BL178" s="4"/>
       <c r="BM178" s="34"/>
     </row>
-    <row r="179" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="179" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS179" s="29"/>
       <c r="AT179" s="18"/>
       <c r="AU179" s="30"/>
@@ -24696,7 +24734,7 @@
       <c r="BL179" s="4"/>
       <c r="BM179" s="34"/>
     </row>
-    <row r="180" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="180" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS180" s="29"/>
       <c r="AT180" s="18"/>
       <c r="AU180" s="30"/>
@@ -24718,7 +24756,7 @@
       <c r="BL180" s="4"/>
       <c r="BM180" s="34"/>
     </row>
-    <row r="181" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="181" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS181" s="29"/>
       <c r="AT181" s="18"/>
       <c r="AU181" s="30"/>
@@ -24740,7 +24778,7 @@
       <c r="BL181" s="4"/>
       <c r="BM181" s="34"/>
     </row>
-    <row r="182" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="182" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS182" s="29"/>
       <c r="AT182" s="18"/>
       <c r="AU182" s="30"/>
@@ -24762,7 +24800,7 @@
       <c r="BL182" s="4"/>
       <c r="BM182" s="34"/>
     </row>
-    <row r="183" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="183" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS183" s="29"/>
       <c r="AT183" s="18"/>
       <c r="AU183" s="30"/>
@@ -24784,7 +24822,7 @@
       <c r="BL183" s="4"/>
       <c r="BM183" s="34"/>
     </row>
-    <row r="184" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="184" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS184" s="29"/>
       <c r="AT184" s="18"/>
       <c r="AU184" s="30"/>
@@ -24806,7 +24844,7 @@
       <c r="BL184" s="4"/>
       <c r="BM184" s="34"/>
     </row>
-    <row r="185" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="185" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS185" s="29"/>
       <c r="AT185" s="18"/>
       <c r="AU185" s="30"/>
@@ -24828,7 +24866,7 @@
       <c r="BL185" s="4"/>
       <c r="BM185" s="34"/>
     </row>
-    <row r="186" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="186" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS186" s="29"/>
       <c r="AT186" s="18"/>
       <c r="AU186" s="30"/>
@@ -24850,7 +24888,7 @@
       <c r="BL186" s="4"/>
       <c r="BM186" s="34"/>
     </row>
-    <row r="187" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="187" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS187" s="29"/>
       <c r="AT187" s="18"/>
       <c r="AU187" s="30"/>
@@ -24872,7 +24910,7 @@
       <c r="BL187" s="4"/>
       <c r="BM187" s="34"/>
     </row>
-    <row r="188" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="188" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS188" s="29"/>
       <c r="AT188" s="18"/>
       <c r="AU188" s="30"/>
@@ -24894,7 +24932,7 @@
       <c r="BL188" s="4"/>
       <c r="BM188" s="34"/>
     </row>
-    <row r="189" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="189" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS189" s="29"/>
       <c r="AT189" s="18"/>
       <c r="AU189" s="30"/>
@@ -24916,7 +24954,7 @@
       <c r="BL189" s="4"/>
       <c r="BM189" s="34"/>
     </row>
-    <row r="190" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="190" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS190" s="29"/>
       <c r="AT190" s="18"/>
       <c r="AU190" s="30"/>
@@ -24938,7 +24976,7 @@
       <c r="BL190" s="4"/>
       <c r="BM190" s="34"/>
     </row>
-    <row r="191" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="191" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS191" s="29"/>
       <c r="AT191" s="18"/>
       <c r="AU191" s="30"/>
@@ -24960,7 +24998,7 @@
       <c r="BL191" s="4"/>
       <c r="BM191" s="34"/>
     </row>
-    <row r="192" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="192" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS192" s="29"/>
       <c r="AT192" s="18"/>
       <c r="AU192" s="30"/>
@@ -24982,7 +25020,7 @@
       <c r="BL192" s="4"/>
       <c r="BM192" s="34"/>
     </row>
-    <row r="193" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="193" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS193" s="29"/>
       <c r="AT193" s="18"/>
       <c r="AU193" s="30"/>
@@ -25004,7 +25042,7 @@
       <c r="BL193" s="4"/>
       <c r="BM193" s="34"/>
     </row>
-    <row r="194" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="194" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS194" s="29"/>
       <c r="AT194" s="18"/>
       <c r="AU194" s="30"/>
@@ -25026,7 +25064,7 @@
       <c r="BL194" s="4"/>
       <c r="BM194" s="34"/>
     </row>
-    <row r="195" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="195" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS195" s="29"/>
       <c r="AT195" s="18"/>
       <c r="AU195" s="30"/>
@@ -25048,7 +25086,7 @@
       <c r="BL195" s="4"/>
       <c r="BM195" s="34"/>
     </row>
-    <row r="196" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="196" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS196" s="29"/>
       <c r="AT196" s="18"/>
       <c r="AU196" s="30"/>
@@ -25070,7 +25108,7 @@
       <c r="BL196" s="4"/>
       <c r="BM196" s="34"/>
     </row>
-    <row r="197" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="197" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS197" s="29"/>
       <c r="AT197" s="18"/>
       <c r="AU197" s="30"/>
@@ -25092,7 +25130,7 @@
       <c r="BL197" s="4"/>
       <c r="BM197" s="34"/>
     </row>
-    <row r="198" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="198" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS198" s="29"/>
       <c r="AT198" s="18"/>
       <c r="AU198" s="30"/>
@@ -25114,7 +25152,7 @@
       <c r="BL198" s="4"/>
       <c r="BM198" s="34"/>
     </row>
-    <row r="199" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="199" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS199" s="29"/>
       <c r="AT199" s="18"/>
       <c r="AU199" s="30"/>
@@ -25136,7 +25174,7 @@
       <c r="BL199" s="4"/>
       <c r="BM199" s="34"/>
     </row>
-    <row r="200" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="200" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS200" s="29"/>
       <c r="AT200" s="18"/>
       <c r="AU200" s="30"/>
@@ -25158,7 +25196,7 @@
       <c r="BL200" s="4"/>
       <c r="BM200" s="34"/>
     </row>
-    <row r="201" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="201" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS201" s="29"/>
       <c r="AT201" s="18"/>
       <c r="AU201" s="30"/>
@@ -25180,7 +25218,7 @@
       <c r="BL201" s="4"/>
       <c r="BM201" s="34"/>
     </row>
-    <row r="202" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="202" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS202" s="29"/>
       <c r="AT202" s="18"/>
       <c r="AU202" s="30"/>
@@ -25202,7 +25240,7 @@
       <c r="BL202" s="4"/>
       <c r="BM202" s="34"/>
     </row>
-    <row r="203" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="203" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS203" s="29"/>
       <c r="AT203" s="18"/>
       <c r="AU203" s="30"/>
@@ -25224,7 +25262,7 @@
       <c r="BL203" s="4"/>
       <c r="BM203" s="34"/>
     </row>
-    <row r="204" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="204" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS204" s="29"/>
       <c r="AT204" s="18"/>
       <c r="AU204" s="30"/>
@@ -25246,7 +25284,7 @@
       <c r="BL204" s="4"/>
       <c r="BM204" s="34"/>
     </row>
-    <row r="205" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="205" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS205" s="29"/>
       <c r="AT205" s="18"/>
       <c r="AU205" s="30"/>
@@ -25268,7 +25306,7 @@
       <c r="BL205" s="4"/>
       <c r="BM205" s="34"/>
     </row>
-    <row r="206" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="206" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS206" s="29"/>
       <c r="AT206" s="18"/>
       <c r="AU206" s="30"/>
@@ -25290,7 +25328,7 @@
       <c r="BL206" s="4"/>
       <c r="BM206" s="34"/>
     </row>
-    <row r="207" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="207" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS207" s="29"/>
       <c r="AT207" s="18"/>
       <c r="AU207" s="30"/>
@@ -25312,7 +25350,7 @@
       <c r="BL207" s="4"/>
       <c r="BM207" s="34"/>
     </row>
-    <row r="208" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="208" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS208" s="29"/>
       <c r="AT208" s="18"/>
       <c r="AU208" s="30"/>
@@ -25334,7 +25372,7 @@
       <c r="BL208" s="4"/>
       <c r="BM208" s="34"/>
     </row>
-    <row r="209" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="209" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS209" s="29"/>
       <c r="AT209" s="18"/>
       <c r="AU209" s="30"/>
@@ -25356,7 +25394,7 @@
       <c r="BL209" s="4"/>
       <c r="BM209" s="34"/>
     </row>
-    <row r="210" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="210" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS210" s="29"/>
       <c r="AT210" s="18"/>
       <c r="AU210" s="30"/>
@@ -25378,7 +25416,7 @@
       <c r="BL210" s="4"/>
       <c r="BM210" s="34"/>
     </row>
-    <row r="211" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="211" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS211" s="29"/>
       <c r="AT211" s="18"/>
       <c r="AU211" s="30"/>
@@ -25400,7 +25438,7 @@
       <c r="BL211" s="4"/>
       <c r="BM211" s="34"/>
     </row>
-    <row r="212" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="212" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS212" s="29"/>
       <c r="AT212" s="18"/>
       <c r="AU212" s="30"/>
@@ -25422,7 +25460,7 @@
       <c r="BL212" s="4"/>
       <c r="BM212" s="34"/>
     </row>
-    <row r="213" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="213" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS213" s="29"/>
       <c r="AT213" s="18"/>
       <c r="AU213" s="30"/>
@@ -25444,7 +25482,7 @@
       <c r="BL213" s="4"/>
       <c r="BM213" s="34"/>
     </row>
-    <row r="214" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="214" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS214" s="29"/>
       <c r="AT214" s="18"/>
       <c r="AU214" s="30"/>
@@ -25466,7 +25504,7 @@
       <c r="BL214" s="4"/>
       <c r="BM214" s="34"/>
     </row>
-    <row r="215" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="215" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS215" s="29"/>
       <c r="AT215" s="18"/>
       <c r="AU215" s="30"/>
@@ -25488,7 +25526,7 @@
       <c r="BL215" s="4"/>
       <c r="BM215" s="34"/>
     </row>
-    <row r="216" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="216" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS216" s="29"/>
       <c r="AT216" s="18"/>
       <c r="AU216" s="30"/>
@@ -25510,7 +25548,7 @@
       <c r="BL216" s="4"/>
       <c r="BM216" s="34"/>
     </row>
-    <row r="217" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="217" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS217" s="29"/>
       <c r="AT217" s="18"/>
       <c r="AU217" s="30"/>
@@ -25532,7 +25570,7 @@
       <c r="BL217" s="4"/>
       <c r="BM217" s="34"/>
     </row>
-    <row r="218" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="218" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS218" s="29"/>
       <c r="AT218" s="18"/>
       <c r="AU218" s="30"/>
@@ -25554,7 +25592,7 @@
       <c r="BL218" s="4"/>
       <c r="BM218" s="34"/>
     </row>
-    <row r="219" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="219" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS219" s="29"/>
       <c r="AT219" s="18"/>
       <c r="AU219" s="30"/>
@@ -25576,7 +25614,7 @@
       <c r="BL219" s="4"/>
       <c r="BM219" s="34"/>
     </row>
-    <row r="220" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="220" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS220" s="29"/>
       <c r="AT220" s="18"/>
       <c r="AU220" s="30"/>
@@ -25598,7 +25636,7 @@
       <c r="BL220" s="4"/>
       <c r="BM220" s="34"/>
     </row>
-    <row r="221" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="221" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS221" s="29"/>
       <c r="AT221" s="18"/>
       <c r="AU221" s="30"/>
@@ -25620,7 +25658,7 @@
       <c r="BL221" s="4"/>
       <c r="BM221" s="34"/>
     </row>
-    <row r="222" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="222" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS222" s="29"/>
       <c r="AT222" s="18"/>
       <c r="AU222" s="30"/>
@@ -25642,7 +25680,7 @@
       <c r="BL222" s="4"/>
       <c r="BM222" s="34"/>
     </row>
-    <row r="223" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="223" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS223" s="29"/>
       <c r="AT223" s="18"/>
       <c r="AU223" s="30"/>
@@ -25664,7 +25702,7 @@
       <c r="BL223" s="4"/>
       <c r="BM223" s="34"/>
     </row>
-    <row r="224" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="224" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS224" s="29"/>
       <c r="AT224" s="18"/>
       <c r="AU224" s="30"/>
@@ -25686,7 +25724,7 @@
       <c r="BL224" s="4"/>
       <c r="BM224" s="34"/>
     </row>
-    <row r="225" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="225" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS225" s="29"/>
       <c r="AT225" s="18"/>
       <c r="AU225" s="30"/>
@@ -25708,7 +25746,7 @@
       <c r="BL225" s="4"/>
       <c r="BM225" s="34"/>
     </row>
-    <row r="226" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="226" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS226" s="29"/>
       <c r="AT226" s="18"/>
       <c r="AU226" s="30"/>
@@ -25730,7 +25768,7 @@
       <c r="BL226" s="4"/>
       <c r="BM226" s="34"/>
     </row>
-    <row r="227" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="227" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS227" s="29"/>
       <c r="AT227" s="18"/>
       <c r="AU227" s="30"/>
@@ -25752,7 +25790,7 @@
       <c r="BL227" s="4"/>
       <c r="BM227" s="34"/>
     </row>
-    <row r="228" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="228" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS228" s="29"/>
       <c r="AT228" s="18"/>
       <c r="AU228" s="30"/>
@@ -25774,7 +25812,7 @@
       <c r="BL228" s="4"/>
       <c r="BM228" s="34"/>
     </row>
-    <row r="229" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="229" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS229" s="29"/>
       <c r="AT229" s="18"/>
       <c r="AU229" s="30"/>
@@ -25796,7 +25834,7 @@
       <c r="BL229" s="4"/>
       <c r="BM229" s="34"/>
     </row>
-    <row r="230" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="230" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS230" s="29"/>
       <c r="AT230" s="18"/>
       <c r="AU230" s="30"/>
@@ -25818,7 +25856,7 @@
       <c r="BL230" s="4"/>
       <c r="BM230" s="34"/>
     </row>
-    <row r="231" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="231" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS231" s="29"/>
       <c r="AT231" s="18"/>
       <c r="AU231" s="30"/>
@@ -25840,7 +25878,7 @@
       <c r="BL231" s="4"/>
       <c r="BM231" s="34"/>
     </row>
-    <row r="232" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="232" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS232" s="29"/>
       <c r="AT232" s="18"/>
       <c r="AU232" s="30"/>
@@ -25862,7 +25900,7 @@
       <c r="BL232" s="4"/>
       <c r="BM232" s="34"/>
     </row>
-    <row r="233" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="233" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS233" s="29"/>
       <c r="AT233" s="18"/>
       <c r="AU233" s="30"/>
@@ -25884,7 +25922,7 @@
       <c r="BL233" s="4"/>
       <c r="BM233" s="34"/>
     </row>
-    <row r="234" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="234" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS234" s="29"/>
       <c r="AT234" s="18"/>
       <c r="AU234" s="30"/>
@@ -25906,7 +25944,7 @@
       <c r="BL234" s="4"/>
       <c r="BM234" s="34"/>
     </row>
-    <row r="235" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="235" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS235" s="29"/>
       <c r="AT235" s="18"/>
       <c r="AU235" s="30"/>
@@ -25928,7 +25966,7 @@
       <c r="BL235" s="4"/>
       <c r="BM235" s="34"/>
     </row>
-    <row r="236" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="236" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS236" s="29"/>
       <c r="AT236" s="18"/>
       <c r="AU236" s="30"/>
@@ -25950,7 +25988,7 @@
       <c r="BL236" s="4"/>
       <c r="BM236" s="34"/>
     </row>
-    <row r="237" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="237" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS237" s="29"/>
       <c r="AT237" s="18"/>
       <c r="AU237" s="30"/>
@@ -25972,7 +26010,7 @@
       <c r="BL237" s="4"/>
       <c r="BM237" s="34"/>
     </row>
-    <row r="238" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="238" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS238" s="29"/>
       <c r="AT238" s="18"/>
       <c r="AU238" s="30"/>
@@ -25994,7 +26032,7 @@
       <c r="BL238" s="4"/>
       <c r="BM238" s="34"/>
     </row>
-    <row r="239" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="239" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS239" s="29"/>
       <c r="AT239" s="18"/>
       <c r="AU239" s="30"/>
@@ -26016,7 +26054,7 @@
       <c r="BL239" s="4"/>
       <c r="BM239" s="34"/>
     </row>
-    <row r="240" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="240" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS240" s="29"/>
       <c r="AT240" s="18"/>
       <c r="AU240" s="30"/>
@@ -26038,7 +26076,7 @@
       <c r="BL240" s="4"/>
       <c r="BM240" s="34"/>
     </row>
-    <row r="241" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="241" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS241" s="29"/>
       <c r="AT241" s="18"/>
       <c r="AU241" s="30"/>
@@ -26060,7 +26098,7 @@
       <c r="BL241" s="4"/>
       <c r="BM241" s="34"/>
     </row>
-    <row r="242" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="242" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS242" s="29"/>
       <c r="AT242" s="18"/>
       <c r="AU242" s="30"/>
@@ -26082,7 +26120,7 @@
       <c r="BL242" s="4"/>
       <c r="BM242" s="34"/>
     </row>
-    <row r="243" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="243" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS243" s="29"/>
       <c r="AT243" s="18"/>
       <c r="AU243" s="30"/>
@@ -26104,7 +26142,7 @@
       <c r="BL243" s="4"/>
       <c r="BM243" s="34"/>
     </row>
-    <row r="244" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="244" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS244" s="29"/>
       <c r="AT244" s="18"/>
       <c r="AU244" s="30"/>
@@ -26126,7 +26164,7 @@
       <c r="BL244" s="4"/>
       <c r="BM244" s="34"/>
     </row>
-    <row r="245" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="245" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS245" s="29"/>
       <c r="AT245" s="18"/>
       <c r="AU245" s="30"/>
@@ -26148,7 +26186,7 @@
       <c r="BL245" s="4"/>
       <c r="BM245" s="34"/>
     </row>
-    <row r="246" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="246" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS246" s="29"/>
       <c r="AT246" s="18"/>
       <c r="AU246" s="30"/>
@@ -26170,7 +26208,7 @@
       <c r="BL246" s="4"/>
       <c r="BM246" s="34"/>
     </row>
-    <row r="247" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="247" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS247" s="29"/>
       <c r="AT247" s="18"/>
       <c r="AU247" s="30"/>
@@ -26192,7 +26230,7 @@
       <c r="BL247" s="4"/>
       <c r="BM247" s="34"/>
     </row>
-    <row r="248" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="248" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS248" s="29"/>
       <c r="AT248" s="18"/>
       <c r="AU248" s="30"/>
@@ -26214,7 +26252,7 @@
       <c r="BL248" s="4"/>
       <c r="BM248" s="34"/>
     </row>
-    <row r="249" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="249" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS249" s="29"/>
       <c r="AT249" s="18"/>
       <c r="AU249" s="30"/>
@@ -26236,7 +26274,7 @@
       <c r="BL249" s="4"/>
       <c r="BM249" s="34"/>
     </row>
-    <row r="250" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="250" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS250" s="29"/>
       <c r="AT250" s="18"/>
       <c r="AU250" s="30"/>
@@ -26258,7 +26296,7 @@
       <c r="BL250" s="4"/>
       <c r="BM250" s="34"/>
     </row>
-    <row r="251" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="251" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS251" s="29"/>
       <c r="AT251" s="18"/>
       <c r="AU251" s="30"/>
@@ -26280,7 +26318,7 @@
       <c r="BL251" s="4"/>
       <c r="BM251" s="34"/>
     </row>
-    <row r="252" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="252" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS252" s="29"/>
       <c r="AT252" s="18"/>
       <c r="AU252" s="30"/>
@@ -26302,7 +26340,7 @@
       <c r="BL252" s="4"/>
       <c r="BM252" s="34"/>
     </row>
-    <row r="253" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="253" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS253" s="29"/>
       <c r="AT253" s="18"/>
       <c r="AU253" s="30"/>
@@ -26324,7 +26362,7 @@
       <c r="BL253" s="4"/>
       <c r="BM253" s="34"/>
     </row>
-    <row r="254" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="254" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS254" s="29"/>
       <c r="AT254" s="18"/>
       <c r="AU254" s="30"/>
@@ -26346,7 +26384,7 @@
       <c r="BL254" s="4"/>
       <c r="BM254" s="34"/>
     </row>
-    <row r="255" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="255" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS255" s="29"/>
       <c r="AT255" s="18"/>
       <c r="AU255" s="30"/>
@@ -26368,7 +26406,7 @@
       <c r="BL255" s="4"/>
       <c r="BM255" s="34"/>
     </row>
-    <row r="256" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="256" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS256" s="29"/>
       <c r="AT256" s="18"/>
       <c r="AU256" s="30"/>
@@ -26390,7 +26428,7 @@
       <c r="BL256" s="4"/>
       <c r="BM256" s="34"/>
     </row>
-    <row r="257" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="257" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS257" s="29"/>
       <c r="AT257" s="18"/>
       <c r="AU257" s="30"/>
@@ -26412,7 +26450,7 @@
       <c r="BL257" s="4"/>
       <c r="BM257" s="34"/>
     </row>
-    <row r="258" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="258" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS258" s="29"/>
       <c r="AT258" s="18"/>
       <c r="AU258" s="30"/>
@@ -26434,7 +26472,7 @@
       <c r="BL258" s="4"/>
       <c r="BM258" s="34"/>
     </row>
-    <row r="259" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="259" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS259" s="29"/>
       <c r="AT259" s="18"/>
       <c r="AU259" s="30"/>
@@ -26456,7 +26494,7 @@
       <c r="BL259" s="4"/>
       <c r="BM259" s="34"/>
     </row>
-    <row r="260" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="260" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS260" s="29"/>
       <c r="AT260" s="18"/>
       <c r="AU260" s="30"/>
@@ -26478,7 +26516,7 @@
       <c r="BL260" s="4"/>
       <c r="BM260" s="34"/>
     </row>
-    <row r="261" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="261" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS261" s="29"/>
       <c r="AT261" s="18"/>
       <c r="AU261" s="30"/>
@@ -26500,7 +26538,7 @@
       <c r="BL261" s="4"/>
       <c r="BM261" s="34"/>
     </row>
-    <row r="262" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="262" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS262" s="29"/>
       <c r="AT262" s="18"/>
       <c r="AU262" s="30"/>
@@ -26522,7 +26560,7 @@
       <c r="BL262" s="4"/>
       <c r="BM262" s="34"/>
     </row>
-    <row r="263" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="263" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS263" s="29"/>
       <c r="AT263" s="18"/>
       <c r="AU263" s="30"/>
@@ -26544,7 +26582,7 @@
       <c r="BL263" s="4"/>
       <c r="BM263" s="34"/>
     </row>
-    <row r="264" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="264" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS264" s="29"/>
       <c r="AT264" s="18"/>
       <c r="AU264" s="30"/>
@@ -26566,7 +26604,7 @@
       <c r="BL264" s="4"/>
       <c r="BM264" s="34"/>
     </row>
-    <row r="265" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="265" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS265" s="29"/>
       <c r="AT265" s="18"/>
       <c r="AU265" s="30"/>
@@ -26588,7 +26626,7 @@
       <c r="BL265" s="4"/>
       <c r="BM265" s="34"/>
     </row>
-    <row r="266" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="266" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS266" s="29"/>
       <c r="AT266" s="18"/>
       <c r="AU266" s="30"/>
@@ -26610,7 +26648,7 @@
       <c r="BL266" s="4"/>
       <c r="BM266" s="34"/>
     </row>
-    <row r="267" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="267" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS267" s="29"/>
       <c r="AT267" s="18"/>
       <c r="AU267" s="30"/>
@@ -26632,7 +26670,7 @@
       <c r="BL267" s="4"/>
       <c r="BM267" s="34"/>
     </row>
-    <row r="268" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="268" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS268" s="29"/>
       <c r="AT268" s="18"/>
       <c r="AU268" s="30"/>
@@ -26654,7 +26692,7 @@
       <c r="BL268" s="4"/>
       <c r="BM268" s="34"/>
     </row>
-    <row r="269" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="269" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS269" s="29"/>
       <c r="AT269" s="18"/>
       <c r="AU269" s="30"/>
@@ -26676,7 +26714,7 @@
       <c r="BL269" s="4"/>
       <c r="BM269" s="34"/>
     </row>
-    <row r="270" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="270" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS270" s="29"/>
       <c r="AT270" s="18"/>
       <c r="AU270" s="30"/>
@@ -26698,7 +26736,7 @@
       <c r="BL270" s="4"/>
       <c r="BM270" s="34"/>
     </row>
-    <row r="271" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="271" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS271" s="29"/>
       <c r="AT271" s="18"/>
       <c r="AU271" s="30"/>
@@ -26720,7 +26758,7 @@
       <c r="BL271" s="4"/>
       <c r="BM271" s="34"/>
     </row>
-    <row r="272" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="272" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS272" s="29"/>
       <c r="AT272" s="18"/>
       <c r="AU272" s="30"/>
@@ -26742,7 +26780,7 @@
       <c r="BL272" s="4"/>
       <c r="BM272" s="34"/>
     </row>
-    <row r="273" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="273" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS273" s="29"/>
       <c r="AT273" s="18"/>
       <c r="AU273" s="30"/>
@@ -26764,7 +26802,7 @@
       <c r="BL273" s="4"/>
       <c r="BM273" s="34"/>
     </row>
-    <row r="274" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="274" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS274" s="29"/>
       <c r="AT274" s="18"/>
       <c r="AU274" s="30"/>
@@ -26786,7 +26824,7 @@
       <c r="BL274" s="4"/>
       <c r="BM274" s="34"/>
     </row>
-    <row r="275" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="275" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS275" s="29"/>
       <c r="AT275" s="18"/>
       <c r="AU275" s="30"/>
@@ -26808,7 +26846,7 @@
       <c r="BL275" s="4"/>
       <c r="BM275" s="34"/>
     </row>
-    <row r="276" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="276" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS276" s="29"/>
       <c r="AT276" s="18"/>
       <c r="AU276" s="30"/>
@@ -26830,7 +26868,7 @@
       <c r="BL276" s="4"/>
       <c r="BM276" s="34"/>
     </row>
-    <row r="277" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="277" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS277" s="29"/>
       <c r="AT277" s="18"/>
       <c r="AU277" s="30"/>
@@ -26852,7 +26890,7 @@
       <c r="BL277" s="4"/>
       <c r="BM277" s="34"/>
     </row>
-    <row r="278" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="278" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS278" s="29"/>
       <c r="AT278" s="18"/>
       <c r="AU278" s="30"/>
@@ -26874,7 +26912,7 @@
       <c r="BL278" s="4"/>
       <c r="BM278" s="34"/>
     </row>
-    <row r="279" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="279" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS279" s="29"/>
       <c r="AT279" s="18"/>
       <c r="AU279" s="30"/>
@@ -26896,7 +26934,7 @@
       <c r="BL279" s="4"/>
       <c r="BM279" s="34"/>
     </row>
-    <row r="280" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="280" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS280" s="29"/>
       <c r="AT280" s="18"/>
       <c r="AU280" s="30"/>
@@ -26918,7 +26956,7 @@
       <c r="BL280" s="4"/>
       <c r="BM280" s="34"/>
     </row>
-    <row r="281" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="281" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS281" s="29"/>
       <c r="AT281" s="18"/>
       <c r="AU281" s="30"/>
@@ -26940,7 +26978,7 @@
       <c r="BL281" s="4"/>
       <c r="BM281" s="34"/>
     </row>
-    <row r="282" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="282" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS282" s="29"/>
       <c r="AT282" s="18"/>
       <c r="AU282" s="30"/>
@@ -26962,7 +27000,7 @@
       <c r="BL282" s="4"/>
       <c r="BM282" s="34"/>
     </row>
-    <row r="283" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="283" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS283" s="29"/>
       <c r="AT283" s="18"/>
       <c r="AU283" s="30"/>
@@ -26984,7 +27022,7 @@
       <c r="BL283" s="4"/>
       <c r="BM283" s="34"/>
     </row>
-    <row r="284" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="284" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS284" s="29"/>
       <c r="AT284" s="18"/>
       <c r="AU284" s="30"/>
@@ -27006,7 +27044,7 @@
       <c r="BL284" s="4"/>
       <c r="BM284" s="34"/>
     </row>
-    <row r="285" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="285" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS285" s="29"/>
       <c r="AT285" s="18"/>
       <c r="AU285" s="30"/>
@@ -27028,7 +27066,7 @@
       <c r="BL285" s="4"/>
       <c r="BM285" s="34"/>
     </row>
-    <row r="286" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="286" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS286" s="29"/>
       <c r="AT286" s="18"/>
       <c r="AU286" s="30"/>
@@ -27050,7 +27088,7 @@
       <c r="BL286" s="4"/>
       <c r="BM286" s="34"/>
     </row>
-    <row r="287" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="287" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS287" s="29"/>
       <c r="AT287" s="18"/>
       <c r="AU287" s="30"/>
@@ -27072,7 +27110,7 @@
       <c r="BL287" s="4"/>
       <c r="BM287" s="34"/>
     </row>
-    <row r="288" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="288" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS288" s="29"/>
       <c r="AT288" s="18"/>
       <c r="AU288" s="30"/>
@@ -27094,7 +27132,7 @@
       <c r="BL288" s="4"/>
       <c r="BM288" s="34"/>
     </row>
-    <row r="289" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="289" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS289" s="29"/>
       <c r="AT289" s="18"/>
       <c r="AU289" s="30"/>
@@ -27116,7 +27154,7 @@
       <c r="BL289" s="4"/>
       <c r="BM289" s="34"/>
     </row>
-    <row r="290" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="290" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS290" s="29"/>
       <c r="AT290" s="18"/>
       <c r="AU290" s="30"/>
@@ -27138,7 +27176,7 @@
       <c r="BL290" s="4"/>
       <c r="BM290" s="34"/>
     </row>
-    <row r="291" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="291" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS291" s="29"/>
       <c r="AT291" s="18"/>
       <c r="AU291" s="30"/>
@@ -27160,7 +27198,7 @@
       <c r="BL291" s="4"/>
       <c r="BM291" s="34"/>
     </row>
-    <row r="292" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="292" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS292" s="29"/>
       <c r="AT292" s="18"/>
       <c r="AU292" s="30"/>
@@ -27182,7 +27220,7 @@
       <c r="BL292" s="4"/>
       <c r="BM292" s="34"/>
     </row>
-    <row r="293" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="293" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS293" s="29"/>
       <c r="AT293" s="18"/>
       <c r="AU293" s="30"/>
@@ -27204,7 +27242,7 @@
       <c r="BL293" s="4"/>
       <c r="BM293" s="34"/>
     </row>
-    <row r="294" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="294" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS294" s="29"/>
       <c r="AT294" s="18"/>
       <c r="AU294" s="30"/>
@@ -27226,7 +27264,7 @@
       <c r="BL294" s="4"/>
       <c r="BM294" s="34"/>
     </row>
-    <row r="295" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="295" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS295" s="29"/>
       <c r="AT295" s="18"/>
       <c r="AU295" s="30"/>
@@ -27248,7 +27286,7 @@
       <c r="BL295" s="4"/>
       <c r="BM295" s="34"/>
     </row>
-    <row r="296" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="296" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS296" s="29"/>
       <c r="AT296" s="18"/>
       <c r="AU296" s="30"/>
@@ -27270,7 +27308,7 @@
       <c r="BL296" s="4"/>
       <c r="BM296" s="34"/>
     </row>
-    <row r="297" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="297" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS297" s="29"/>
       <c r="AT297" s="18"/>
       <c r="AU297" s="30"/>
@@ -27292,7 +27330,7 @@
       <c r="BL297" s="4"/>
       <c r="BM297" s="34"/>
     </row>
-    <row r="298" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="298" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS298" s="29"/>
       <c r="AT298" s="18"/>
       <c r="AU298" s="30"/>
@@ -27314,7 +27352,7 @@
       <c r="BL298" s="4"/>
       <c r="BM298" s="34"/>
     </row>
-    <row r="299" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="299" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS299" s="29"/>
       <c r="AT299" s="18"/>
       <c r="AU299" s="30"/>
@@ -27336,7 +27374,7 @@
       <c r="BL299" s="4"/>
       <c r="BM299" s="34"/>
     </row>
-    <row r="300" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="300" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS300" s="29"/>
       <c r="AT300" s="18"/>
       <c r="AU300" s="30"/>
@@ -27358,7 +27396,7 @@
       <c r="BL300" s="4"/>
       <c r="BM300" s="34"/>
     </row>
-    <row r="301" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="301" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS301" s="29"/>
       <c r="AT301" s="18"/>
       <c r="AU301" s="30"/>
@@ -27380,7 +27418,7 @@
       <c r="BL301" s="4"/>
       <c r="BM301" s="34"/>
     </row>
-    <row r="302" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="302" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS302" s="29"/>
       <c r="AT302" s="18"/>
       <c r="AU302" s="30"/>
@@ -27402,7 +27440,7 @@
       <c r="BL302" s="4"/>
       <c r="BM302" s="34"/>
     </row>
-    <row r="303" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="303" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS303" s="29"/>
       <c r="AT303" s="18"/>
       <c r="AU303" s="30"/>
@@ -27424,7 +27462,7 @@
       <c r="BL303" s="4"/>
       <c r="BM303" s="34"/>
     </row>
-    <row r="304" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="304" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS304" s="29"/>
       <c r="AT304" s="18"/>
       <c r="AU304" s="30"/>
@@ -27446,7 +27484,7 @@
       <c r="BL304" s="4"/>
       <c r="BM304" s="34"/>
     </row>
-    <row r="305" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="305" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS305" s="29"/>
       <c r="AT305" s="18"/>
       <c r="AU305" s="30"/>
@@ -27468,7 +27506,7 @@
       <c r="BL305" s="4"/>
       <c r="BM305" s="34"/>
     </row>
-    <row r="306" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="306" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS306" s="29"/>
       <c r="AT306" s="18"/>
       <c r="AU306" s="30"/>
@@ -27490,7 +27528,7 @@
       <c r="BL306" s="4"/>
       <c r="BM306" s="34"/>
     </row>
-    <row r="307" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="307" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS307" s="29"/>
       <c r="AT307" s="18"/>
       <c r="AU307" s="30"/>
@@ -27512,7 +27550,7 @@
       <c r="BL307" s="4"/>
       <c r="BM307" s="34"/>
     </row>
-    <row r="308" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="308" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS308" s="29"/>
       <c r="AT308" s="18"/>
       <c r="AU308" s="30"/>
@@ -27534,7 +27572,7 @@
       <c r="BL308" s="4"/>
       <c r="BM308" s="34"/>
     </row>
-    <row r="309" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="309" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS309" s="29"/>
       <c r="AT309" s="18"/>
       <c r="AU309" s="30"/>
@@ -27556,7 +27594,7 @@
       <c r="BL309" s="4"/>
       <c r="BM309" s="34"/>
     </row>
-    <row r="310" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="310" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS310" s="29"/>
       <c r="AT310" s="18"/>
       <c r="AU310" s="30"/>
@@ -27578,7 +27616,7 @@
       <c r="BL310" s="4"/>
       <c r="BM310" s="34"/>
     </row>
-    <row r="311" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="311" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS311" s="29"/>
       <c r="AT311" s="18"/>
       <c r="AU311" s="30"/>
@@ -27600,7 +27638,7 @@
       <c r="BL311" s="4"/>
       <c r="BM311" s="34"/>
     </row>
-    <row r="312" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="312" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS312" s="29"/>
       <c r="AT312" s="18"/>
       <c r="AU312" s="30"/>
@@ -27622,7 +27660,7 @@
       <c r="BL312" s="4"/>
       <c r="BM312" s="34"/>
     </row>
-    <row r="313" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="313" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS313" s="29"/>
       <c r="AT313" s="18"/>
       <c r="AU313" s="30"/>
@@ -27644,7 +27682,7 @@
       <c r="BL313" s="4"/>
       <c r="BM313" s="34"/>
     </row>
-    <row r="314" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="314" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS314" s="29"/>
       <c r="AT314" s="18"/>
       <c r="AU314" s="30"/>
@@ -27666,7 +27704,7 @@
       <c r="BL314" s="4"/>
       <c r="BM314" s="34"/>
     </row>
-    <row r="315" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="315" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS315" s="29"/>
       <c r="AT315" s="18"/>
       <c r="AU315" s="30"/>
@@ -27688,7 +27726,7 @@
       <c r="BL315" s="4"/>
       <c r="BM315" s="34"/>
     </row>
-    <row r="316" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="316" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS316" s="29"/>
       <c r="AT316" s="18"/>
       <c r="AU316" s="30"/>
@@ -27710,7 +27748,7 @@
       <c r="BL316" s="4"/>
       <c r="BM316" s="34"/>
     </row>
-    <row r="317" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="317" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS317" s="29"/>
       <c r="AT317" s="18"/>
       <c r="AU317" s="30"/>
@@ -27732,7 +27770,7 @@
       <c r="BL317" s="4"/>
       <c r="BM317" s="34"/>
     </row>
-    <row r="318" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="318" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS318" s="29"/>
       <c r="AT318" s="18"/>
       <c r="AU318" s="30"/>
@@ -27754,7 +27792,7 @@
       <c r="BL318" s="4"/>
       <c r="BM318" s="34"/>
     </row>
-    <row r="319" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="319" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS319" s="29"/>
       <c r="AT319" s="18"/>
       <c r="AU319" s="30"/>
@@ -27776,7 +27814,7 @@
       <c r="BL319" s="4"/>
       <c r="BM319" s="34"/>
     </row>
-    <row r="320" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="320" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS320" s="29"/>
       <c r="AT320" s="18"/>
       <c r="AU320" s="30"/>
@@ -27798,7 +27836,7 @@
       <c r="BL320" s="4"/>
       <c r="BM320" s="34"/>
     </row>
-    <row r="321" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="321" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS321" s="29"/>
       <c r="AT321" s="18"/>
       <c r="AU321" s="30"/>
@@ -27820,7 +27858,7 @@
       <c r="BL321" s="4"/>
       <c r="BM321" s="34"/>
     </row>
-    <row r="322" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="322" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS322" s="29"/>
       <c r="AT322" s="18"/>
       <c r="AU322" s="30"/>
@@ -27842,7 +27880,7 @@
       <c r="BL322" s="4"/>
       <c r="BM322" s="34"/>
     </row>
-    <row r="323" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="323" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS323" s="29"/>
       <c r="AT323" s="18"/>
       <c r="AU323" s="30"/>
@@ -27864,7 +27902,7 @@
       <c r="BL323" s="4"/>
       <c r="BM323" s="34"/>
     </row>
-    <row r="324" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="324" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS324" s="29"/>
       <c r="AT324" s="18"/>
       <c r="AU324" s="30"/>
@@ -27886,7 +27924,7 @@
       <c r="BL324" s="4"/>
       <c r="BM324" s="34"/>
     </row>
-    <row r="325" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="325" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS325" s="29"/>
       <c r="AT325" s="18"/>
       <c r="AU325" s="30"/>
@@ -27908,7 +27946,7 @@
       <c r="BL325" s="4"/>
       <c r="BM325" s="34"/>
     </row>
-    <row r="326" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="326" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS326" s="29"/>
       <c r="AT326" s="18"/>
       <c r="AU326" s="30"/>
@@ -27930,7 +27968,7 @@
       <c r="BL326" s="4"/>
       <c r="BM326" s="34"/>
     </row>
-    <row r="327" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="327" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS327" s="29"/>
       <c r="AT327" s="18"/>
       <c r="AU327" s="30"/>
@@ -27952,7 +27990,7 @@
       <c r="BL327" s="4"/>
       <c r="BM327" s="34"/>
     </row>
-    <row r="328" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="328" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS328" s="29"/>
       <c r="AT328" s="18"/>
       <c r="AU328" s="30"/>
@@ -27974,7 +28012,7 @@
       <c r="BL328" s="4"/>
       <c r="BM328" s="34"/>
     </row>
-    <row r="329" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="329" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS329" s="29"/>
       <c r="AT329" s="18"/>
       <c r="AU329" s="30"/>
@@ -27996,7 +28034,7 @@
       <c r="BL329" s="4"/>
       <c r="BM329" s="34"/>
     </row>
-    <row r="330" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="330" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS330" s="29"/>
       <c r="AT330" s="18"/>
       <c r="AU330" s="30"/>
@@ -28018,7 +28056,7 @@
       <c r="BL330" s="4"/>
       <c r="BM330" s="34"/>
     </row>
-    <row r="331" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="331" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS331" s="29"/>
       <c r="AT331" s="18"/>
       <c r="AU331" s="30"/>
@@ -28040,7 +28078,7 @@
       <c r="BL331" s="4"/>
       <c r="BM331" s="34"/>
     </row>
-    <row r="332" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="332" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS332" s="29"/>
       <c r="AT332" s="18"/>
       <c r="AU332" s="30"/>
@@ -28062,7 +28100,7 @@
       <c r="BL332" s="4"/>
       <c r="BM332" s="34"/>
     </row>
-    <row r="333" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="333" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS333" s="29"/>
       <c r="AT333" s="18"/>
       <c r="AU333" s="30"/>
@@ -28084,7 +28122,7 @@
       <c r="BL333" s="4"/>
       <c r="BM333" s="34"/>
     </row>
-    <row r="334" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="334" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS334" s="29"/>
       <c r="AT334" s="18"/>
       <c r="AU334" s="30"/>
@@ -28106,7 +28144,7 @@
       <c r="BL334" s="4"/>
       <c r="BM334" s="34"/>
     </row>
-    <row r="335" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="335" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS335" s="29"/>
       <c r="AT335" s="18"/>
       <c r="AU335" s="30"/>
@@ -28128,7 +28166,7 @@
       <c r="BL335" s="4"/>
       <c r="BM335" s="34"/>
     </row>
-    <row r="336" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="336" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS336" s="29"/>
       <c r="AT336" s="18"/>
       <c r="AU336" s="30"/>
@@ -28150,7 +28188,7 @@
       <c r="BL336" s="4"/>
       <c r="BM336" s="34"/>
     </row>
-    <row r="337" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="337" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS337" s="29"/>
       <c r="AT337" s="18"/>
       <c r="AU337" s="30"/>
@@ -28172,7 +28210,7 @@
       <c r="BL337" s="4"/>
       <c r="BM337" s="34"/>
     </row>
-    <row r="338" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="338" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS338" s="29"/>
       <c r="AT338" s="18"/>
       <c r="AU338" s="30"/>
@@ -28194,7 +28232,7 @@
       <c r="BL338" s="4"/>
       <c r="BM338" s="34"/>
     </row>
-    <row r="339" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="339" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS339" s="29"/>
       <c r="AT339" s="18"/>
       <c r="AU339" s="30"/>
@@ -28216,7 +28254,7 @@
       <c r="BL339" s="4"/>
       <c r="BM339" s="34"/>
     </row>
-    <row r="340" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="340" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS340" s="29"/>
       <c r="AT340" s="18"/>
       <c r="AU340" s="30"/>
@@ -28238,7 +28276,7 @@
       <c r="BL340" s="4"/>
       <c r="BM340" s="34"/>
     </row>
-    <row r="341" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="341" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS341" s="29"/>
       <c r="AT341" s="18"/>
       <c r="AU341" s="30"/>
@@ -28260,7 +28298,7 @@
       <c r="BL341" s="4"/>
       <c r="BM341" s="34"/>
     </row>
-    <row r="342" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="342" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS342" s="29"/>
       <c r="AT342" s="18"/>
       <c r="AU342" s="30"/>
@@ -28282,7 +28320,7 @@
       <c r="BL342" s="4"/>
       <c r="BM342" s="34"/>
     </row>
-    <row r="343" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="343" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS343" s="29"/>
       <c r="AT343" s="18"/>
       <c r="AU343" s="30"/>
@@ -28304,7 +28342,7 @@
       <c r="BL343" s="4"/>
       <c r="BM343" s="34"/>
     </row>
-    <row r="344" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="344" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS344" s="29"/>
       <c r="AT344" s="18"/>
       <c r="AU344" s="30"/>
@@ -28326,7 +28364,7 @@
       <c r="BL344" s="4"/>
       <c r="BM344" s="34"/>
     </row>
-    <row r="345" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="345" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS345" s="29"/>
       <c r="AT345" s="18"/>
       <c r="AU345" s="30"/>
@@ -28348,7 +28386,7 @@
       <c r="BL345" s="4"/>
       <c r="BM345" s="34"/>
     </row>
-    <row r="346" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="346" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS346" s="29"/>
       <c r="AT346" s="18"/>
       <c r="AU346" s="30"/>
@@ -28370,7 +28408,7 @@
       <c r="BL346" s="4"/>
       <c r="BM346" s="34"/>
     </row>
-    <row r="347" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="347" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS347" s="29"/>
       <c r="AT347" s="18"/>
       <c r="AU347" s="30"/>
@@ -28392,7 +28430,7 @@
       <c r="BL347" s="4"/>
       <c r="BM347" s="34"/>
     </row>
-    <row r="348" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="348" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS348" s="29"/>
       <c r="AT348" s="18"/>
       <c r="AU348" s="30"/>
@@ -28414,7 +28452,7 @@
       <c r="BL348" s="4"/>
       <c r="BM348" s="34"/>
     </row>
-    <row r="349" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="349" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS349" s="29"/>
       <c r="AT349" s="18"/>
       <c r="AU349" s="30"/>
@@ -28436,7 +28474,7 @@
       <c r="BL349" s="4"/>
       <c r="BM349" s="34"/>
     </row>
-    <row r="350" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="350" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS350" s="29"/>
       <c r="AT350" s="18"/>
       <c r="AU350" s="30"/>
@@ -28458,7 +28496,7 @@
       <c r="BL350" s="4"/>
       <c r="BM350" s="34"/>
     </row>
-    <row r="351" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="351" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS351" s="29"/>
       <c r="AT351" s="18"/>
       <c r="AU351" s="30"/>
@@ -28480,7 +28518,7 @@
       <c r="BL351" s="4"/>
       <c r="BM351" s="34"/>
     </row>
-    <row r="352" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="352" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS352" s="29"/>
       <c r="AT352" s="18"/>
       <c r="AU352" s="30"/>
@@ -28502,7 +28540,7 @@
       <c r="BL352" s="4"/>
       <c r="BM352" s="34"/>
     </row>
-    <row r="353" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="353" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS353" s="29"/>
       <c r="AT353" s="18"/>
       <c r="AU353" s="30"/>
@@ -28524,7 +28562,7 @@
       <c r="BL353" s="4"/>
       <c r="BM353" s="34"/>
     </row>
-    <row r="354" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="354" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS354" s="29"/>
       <c r="AT354" s="18"/>
       <c r="AU354" s="30"/>
@@ -28546,7 +28584,7 @@
       <c r="BL354" s="4"/>
       <c r="BM354" s="34"/>
     </row>
-    <row r="355" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="355" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS355" s="29"/>
       <c r="AT355" s="18"/>
       <c r="AU355" s="30"/>
@@ -28568,7 +28606,7 @@
       <c r="BL355" s="4"/>
       <c r="BM355" s="34"/>
     </row>
-    <row r="356" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="356" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS356" s="29"/>
       <c r="AT356" s="18"/>
       <c r="AU356" s="30"/>
@@ -28590,7 +28628,7 @@
       <c r="BL356" s="4"/>
       <c r="BM356" s="34"/>
     </row>
-    <row r="357" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="357" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS357" s="29"/>
       <c r="AT357" s="18"/>
       <c r="AU357" s="30"/>
@@ -28612,7 +28650,7 @@
       <c r="BL357" s="4"/>
       <c r="BM357" s="34"/>
     </row>
-    <row r="358" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="358" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS358" s="29"/>
       <c r="AT358" s="18"/>
       <c r="AU358" s="30"/>
@@ -28634,7 +28672,7 @@
       <c r="BL358" s="4"/>
       <c r="BM358" s="34"/>
     </row>
-    <row r="359" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="359" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS359" s="29"/>
       <c r="AT359" s="18"/>
       <c r="AU359" s="30"/>
@@ -28656,7 +28694,7 @@
       <c r="BL359" s="4"/>
       <c r="BM359" s="34"/>
     </row>
-    <row r="360" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="360" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS360" s="29"/>
       <c r="AT360" s="18"/>
       <c r="AU360" s="30"/>
@@ -28678,7 +28716,7 @@
       <c r="BL360" s="4"/>
       <c r="BM360" s="34"/>
     </row>
-    <row r="361" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="361" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS361" s="29"/>
       <c r="AT361" s="18"/>
       <c r="AU361" s="30"/>
@@ -28700,7 +28738,7 @@
       <c r="BL361" s="4"/>
       <c r="BM361" s="34"/>
     </row>
-    <row r="362" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="362" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS362" s="29"/>
       <c r="AT362" s="18"/>
       <c r="AU362" s="30"/>
@@ -28722,7 +28760,7 @@
       <c r="BL362" s="4"/>
       <c r="BM362" s="34"/>
     </row>
-    <row r="363" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="363" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS363" s="29"/>
       <c r="AT363" s="18"/>
       <c r="AU363" s="30"/>
@@ -28744,7 +28782,7 @@
       <c r="BL363" s="4"/>
       <c r="BM363" s="34"/>
     </row>
-    <row r="364" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="364" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS364" s="29"/>
       <c r="AT364" s="18"/>
       <c r="AU364" s="30"/>
@@ -28766,7 +28804,7 @@
       <c r="BL364" s="4"/>
       <c r="BM364" s="34"/>
     </row>
-    <row r="365" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="365" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS365" s="29"/>
       <c r="AT365" s="18"/>
       <c r="AU365" s="30"/>
@@ -28788,7 +28826,7 @@
       <c r="BL365" s="4"/>
       <c r="BM365" s="34"/>
     </row>
-    <row r="366" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="366" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS366" s="29"/>
       <c r="AT366" s="18"/>
       <c r="AU366" s="30"/>
@@ -28810,7 +28848,7 @@
       <c r="BL366" s="4"/>
       <c r="BM366" s="34"/>
     </row>
-    <row r="367" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="367" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS367" s="29"/>
       <c r="AT367" s="18"/>
       <c r="AU367" s="30"/>
@@ -28832,7 +28870,7 @@
       <c r="BL367" s="4"/>
       <c r="BM367" s="34"/>
     </row>
-    <row r="368" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="368" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS368" s="29"/>
       <c r="AT368" s="18"/>
       <c r="AU368" s="30"/>
@@ -28854,7 +28892,7 @@
       <c r="BL368" s="4"/>
       <c r="BM368" s="34"/>
     </row>
-    <row r="369" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="369" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS369" s="29"/>
       <c r="AT369" s="18"/>
       <c r="AU369" s="30"/>
@@ -28876,7 +28914,7 @@
       <c r="BL369" s="4"/>
       <c r="BM369" s="34"/>
     </row>
-    <row r="370" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="370" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS370" s="29"/>
       <c r="AT370" s="18"/>
       <c r="AU370" s="30"/>
@@ -28898,7 +28936,7 @@
       <c r="BL370" s="4"/>
       <c r="BM370" s="34"/>
     </row>
-    <row r="371" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="371" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS371" s="29"/>
       <c r="AT371" s="18"/>
       <c r="AU371" s="30"/>
@@ -28920,7 +28958,7 @@
       <c r="BL371" s="4"/>
       <c r="BM371" s="34"/>
     </row>
-    <row r="372" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="372" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS372" s="29"/>
       <c r="AT372" s="18"/>
       <c r="AU372" s="30"/>
@@ -28942,7 +28980,7 @@
       <c r="BL372" s="4"/>
       <c r="BM372" s="34"/>
     </row>
-    <row r="373" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="373" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS373" s="29"/>
       <c r="AT373" s="18"/>
       <c r="AU373" s="30"/>
@@ -28964,7 +29002,7 @@
       <c r="BL373" s="4"/>
       <c r="BM373" s="34"/>
     </row>
-    <row r="374" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="374" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS374" s="29"/>
       <c r="AT374" s="18"/>
       <c r="AU374" s="30"/>
@@ -28986,7 +29024,7 @@
       <c r="BL374" s="4"/>
       <c r="BM374" s="34"/>
     </row>
-    <row r="375" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="375" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS375" s="29"/>
       <c r="AT375" s="18"/>
       <c r="AU375" s="30"/>
@@ -29008,7 +29046,7 @@
       <c r="BL375" s="4"/>
       <c r="BM375" s="34"/>
     </row>
-    <row r="376" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="376" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS376" s="29"/>
       <c r="AT376" s="18"/>
       <c r="AU376" s="30"/>
@@ -29030,7 +29068,7 @@
       <c r="BL376" s="4"/>
       <c r="BM376" s="34"/>
     </row>
-    <row r="377" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="377" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS377" s="29"/>
       <c r="AT377" s="18"/>
       <c r="AU377" s="30"/>
@@ -29052,7 +29090,7 @@
       <c r="BL377" s="4"/>
       <c r="BM377" s="34"/>
     </row>
-    <row r="378" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="378" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS378" s="29"/>
       <c r="AT378" s="18"/>
       <c r="AU378" s="30"/>
@@ -29074,7 +29112,7 @@
       <c r="BL378" s="4"/>
       <c r="BM378" s="34"/>
     </row>
-    <row r="379" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="379" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS379" s="29"/>
       <c r="AT379" s="18"/>
       <c r="AU379" s="30"/>
@@ -29096,7 +29134,7 @@
       <c r="BL379" s="4"/>
       <c r="BM379" s="34"/>
     </row>
-    <row r="380" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="380" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS380" s="29"/>
       <c r="AT380" s="18"/>
       <c r="AU380" s="30"/>
@@ -29118,7 +29156,7 @@
       <c r="BL380" s="4"/>
       <c r="BM380" s="34"/>
     </row>
-    <row r="381" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="381" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS381" s="29"/>
       <c r="AT381" s="18"/>
       <c r="AU381" s="30"/>
@@ -29140,7 +29178,7 @@
       <c r="BL381" s="4"/>
       <c r="BM381" s="34"/>
     </row>
-    <row r="382" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="382" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS382" s="29"/>
       <c r="AT382" s="18"/>
       <c r="AU382" s="30"/>
@@ -29162,7 +29200,7 @@
       <c r="BL382" s="4"/>
       <c r="BM382" s="34"/>
     </row>
-    <row r="383" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="383" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS383" s="29"/>
       <c r="AT383" s="18"/>
       <c r="AU383" s="30"/>
@@ -29184,7 +29222,7 @@
       <c r="BL383" s="4"/>
       <c r="BM383" s="34"/>
     </row>
-    <row r="384" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="384" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS384" s="29"/>
       <c r="AT384" s="18"/>
       <c r="AU384" s="30"/>
@@ -29206,7 +29244,7 @@
       <c r="BL384" s="4"/>
       <c r="BM384" s="34"/>
     </row>
-    <row r="385" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="385" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS385" s="29"/>
       <c r="AT385" s="18"/>
       <c r="AU385" s="30"/>
@@ -29228,7 +29266,7 @@
       <c r="BL385" s="4"/>
       <c r="BM385" s="34"/>
     </row>
-    <row r="386" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="386" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS386" s="29"/>
       <c r="AT386" s="18"/>
       <c r="AU386" s="30"/>
@@ -29250,7 +29288,7 @@
       <c r="BL386" s="4"/>
       <c r="BM386" s="34"/>
     </row>
-    <row r="387" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="387" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS387" s="29"/>
       <c r="AT387" s="18"/>
       <c r="AU387" s="30"/>
@@ -29272,7 +29310,7 @@
       <c r="BL387" s="4"/>
       <c r="BM387" s="34"/>
     </row>
-    <row r="388" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="388" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS388" s="29"/>
       <c r="AT388" s="18"/>
       <c r="AU388" s="30"/>
@@ -29294,7 +29332,7 @@
       <c r="BL388" s="4"/>
       <c r="BM388" s="34"/>
     </row>
-    <row r="389" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="389" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS389" s="29"/>
       <c r="AT389" s="18"/>
       <c r="AU389" s="30"/>
@@ -29316,7 +29354,7 @@
       <c r="BL389" s="4"/>
       <c r="BM389" s="34"/>
     </row>
-    <row r="390" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="390" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS390" s="29"/>
       <c r="AT390" s="18"/>
       <c r="AU390" s="30"/>
@@ -29338,7 +29376,7 @@
       <c r="BL390" s="4"/>
       <c r="BM390" s="34"/>
     </row>
-    <row r="391" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="391" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS391" s="29"/>
       <c r="AT391" s="18"/>
       <c r="AU391" s="30"/>
@@ -29360,7 +29398,7 @@
       <c r="BL391" s="4"/>
       <c r="BM391" s="34"/>
     </row>
-    <row r="392" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="392" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS392" s="29"/>
       <c r="AT392" s="18"/>
       <c r="AU392" s="30"/>
@@ -29382,7 +29420,7 @@
       <c r="BL392" s="4"/>
       <c r="BM392" s="34"/>
     </row>
-    <row r="393" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="393" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS393" s="29"/>
       <c r="AT393" s="18"/>
       <c r="AU393" s="30"/>
@@ -29404,7 +29442,7 @@
       <c r="BL393" s="4"/>
       <c r="BM393" s="34"/>
     </row>
-    <row r="394" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="394" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS394" s="29"/>
       <c r="AT394" s="18"/>
       <c r="AU394" s="30"/>
@@ -29426,7 +29464,7 @@
       <c r="BL394" s="4"/>
       <c r="BM394" s="34"/>
     </row>
-    <row r="395" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="395" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS395" s="29"/>
       <c r="AT395" s="18"/>
       <c r="AU395" s="30"/>
@@ -29448,7 +29486,7 @@
       <c r="BL395" s="4"/>
       <c r="BM395" s="34"/>
     </row>
-    <row r="396" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="396" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS396" s="29"/>
       <c r="AT396" s="18"/>
       <c r="AU396" s="30"/>
@@ -29470,7 +29508,7 @@
       <c r="BL396" s="4"/>
       <c r="BM396" s="34"/>
     </row>
-    <row r="397" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="397" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS397" s="29"/>
       <c r="AT397" s="18"/>
       <c r="AU397" s="30"/>
@@ -29492,7 +29530,7 @@
       <c r="BL397" s="4"/>
       <c r="BM397" s="34"/>
     </row>
-    <row r="398" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="398" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS398" s="29"/>
       <c r="AT398" s="18"/>
       <c r="AU398" s="30"/>
@@ -29514,7 +29552,7 @@
       <c r="BL398" s="4"/>
       <c r="BM398" s="34"/>
     </row>
-    <row r="399" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="399" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS399" s="29"/>
       <c r="AT399" s="18"/>
       <c r="AU399" s="30"/>
@@ -29536,7 +29574,7 @@
       <c r="BL399" s="4"/>
       <c r="BM399" s="34"/>
     </row>
-    <row r="400" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="400" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS400" s="29"/>
       <c r="AT400" s="18"/>
       <c r="AU400" s="30"/>
@@ -29558,7 +29596,7 @@
       <c r="BL400" s="4"/>
       <c r="BM400" s="34"/>
     </row>
-    <row r="401" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="401" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS401" s="29"/>
       <c r="AT401" s="18"/>
       <c r="AU401" s="30"/>
@@ -29580,7 +29618,7 @@
       <c r="BL401" s="4"/>
       <c r="BM401" s="34"/>
     </row>
-    <row r="402" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="402" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS402" s="29"/>
       <c r="AT402" s="18"/>
       <c r="AU402" s="30"/>
@@ -29602,7 +29640,7 @@
       <c r="BL402" s="4"/>
       <c r="BM402" s="34"/>
     </row>
-    <row r="403" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="403" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS403" s="29"/>
       <c r="AT403" s="18"/>
       <c r="AU403" s="30"/>
@@ -29624,7 +29662,7 @@
       <c r="BL403" s="4"/>
       <c r="BM403" s="34"/>
     </row>
-    <row r="404" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="404" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS404" s="29"/>
       <c r="AT404" s="18"/>
       <c r="AU404" s="30"/>
@@ -29646,7 +29684,7 @@
       <c r="BL404" s="4"/>
       <c r="BM404" s="34"/>
     </row>
-    <row r="405" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="405" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS405" s="29"/>
       <c r="AT405" s="18"/>
       <c r="AU405" s="30"/>
@@ -29668,7 +29706,7 @@
       <c r="BL405" s="4"/>
       <c r="BM405" s="34"/>
     </row>
-    <row r="406" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="406" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS406" s="29"/>
       <c r="AT406" s="18"/>
       <c r="AU406" s="30"/>
@@ -29690,7 +29728,7 @@
       <c r="BL406" s="4"/>
       <c r="BM406" s="34"/>
     </row>
-    <row r="407" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="407" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS407" s="29"/>
       <c r="AT407" s="18"/>
       <c r="AU407" s="30"/>
@@ -29712,7 +29750,7 @@
       <c r="BL407" s="4"/>
       <c r="BM407" s="34"/>
     </row>
-    <row r="408" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="408" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS408" s="29"/>
       <c r="AT408" s="18"/>
       <c r="AU408" s="30"/>
@@ -29734,7 +29772,7 @@
       <c r="BL408" s="4"/>
       <c r="BM408" s="34"/>
     </row>
-    <row r="409" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="409" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS409" s="29"/>
       <c r="AT409" s="18"/>
       <c r="AU409" s="30"/>
@@ -29756,7 +29794,7 @@
       <c r="BL409" s="4"/>
       <c r="BM409" s="34"/>
     </row>
-    <row r="410" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="410" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS410" s="29"/>
       <c r="AT410" s="18"/>
       <c r="AU410" s="30"/>
@@ -29778,7 +29816,7 @@
       <c r="BL410" s="4"/>
       <c r="BM410" s="34"/>
     </row>
-    <row r="411" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="411" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS411" s="29"/>
       <c r="AT411" s="18"/>
       <c r="AU411" s="30"/>
@@ -29800,7 +29838,7 @@
       <c r="BL411" s="4"/>
       <c r="BM411" s="34"/>
     </row>
-    <row r="412" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="412" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS412" s="29"/>
       <c r="AT412" s="18"/>
       <c r="AU412" s="30"/>
@@ -29822,7 +29860,7 @@
       <c r="BL412" s="4"/>
       <c r="BM412" s="34"/>
     </row>
-    <row r="413" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="413" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS413" s="29"/>
       <c r="AT413" s="18"/>
       <c r="AU413" s="30"/>
@@ -29844,7 +29882,7 @@
       <c r="BL413" s="4"/>
       <c r="BM413" s="34"/>
     </row>
-    <row r="414" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="414" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS414" s="29"/>
       <c r="AT414" s="18"/>
       <c r="AU414" s="30"/>
@@ -29866,7 +29904,7 @@
       <c r="BL414" s="4"/>
       <c r="BM414" s="34"/>
     </row>
-    <row r="415" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="415" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS415" s="29"/>
       <c r="AT415" s="18"/>
       <c r="AU415" s="30"/>
@@ -29888,7 +29926,7 @@
       <c r="BL415" s="4"/>
       <c r="BM415" s="34"/>
     </row>
-    <row r="416" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="416" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS416" s="29"/>
       <c r="AT416" s="18"/>
       <c r="AU416" s="30"/>
@@ -29910,7 +29948,7 @@
       <c r="BL416" s="4"/>
       <c r="BM416" s="34"/>
     </row>
-    <row r="417" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="417" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS417" s="29"/>
       <c r="AT417" s="18"/>
       <c r="AU417" s="30"/>
@@ -29932,7 +29970,7 @@
       <c r="BL417" s="4"/>
       <c r="BM417" s="34"/>
     </row>
-    <row r="418" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="418" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS418" s="29"/>
       <c r="AT418" s="18"/>
       <c r="AU418" s="30"/>
@@ -29954,7 +29992,7 @@
       <c r="BL418" s="4"/>
       <c r="BM418" s="34"/>
     </row>
-    <row r="419" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="419" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS419" s="29"/>
       <c r="AT419" s="18"/>
       <c r="AU419" s="30"/>
@@ -29976,7 +30014,7 @@
       <c r="BL419" s="4"/>
       <c r="BM419" s="34"/>
     </row>
-    <row r="420" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="420" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS420" s="29"/>
       <c r="AT420" s="18"/>
       <c r="AU420" s="30"/>
@@ -29998,7 +30036,7 @@
       <c r="BL420" s="4"/>
       <c r="BM420" s="34"/>
     </row>
-    <row r="421" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="421" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS421" s="29"/>
       <c r="AT421" s="18"/>
       <c r="AU421" s="30"/>
@@ -30020,7 +30058,7 @@
       <c r="BL421" s="4"/>
       <c r="BM421" s="34"/>
     </row>
-    <row r="422" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="422" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS422" s="29"/>
       <c r="AT422" s="18"/>
       <c r="AU422" s="30"/>
@@ -30042,7 +30080,7 @@
       <c r="BL422" s="4"/>
       <c r="BM422" s="34"/>
     </row>
-    <row r="423" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="423" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS423" s="29"/>
       <c r="AT423" s="18"/>
       <c r="AU423" s="30"/>
@@ -30064,7 +30102,7 @@
       <c r="BL423" s="4"/>
       <c r="BM423" s="34"/>
     </row>
-    <row r="424" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="424" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS424" s="29"/>
       <c r="AT424" s="18"/>
       <c r="AU424" s="30"/>
@@ -30086,7 +30124,7 @@
       <c r="BL424" s="4"/>
       <c r="BM424" s="34"/>
     </row>
-    <row r="425" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="425" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS425" s="29"/>
       <c r="AT425" s="18"/>
       <c r="AU425" s="30"/>
@@ -30108,7 +30146,7 @@
       <c r="BL425" s="4"/>
       <c r="BM425" s="34"/>
     </row>
-    <row r="426" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="426" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS426" s="29"/>
       <c r="AT426" s="18"/>
       <c r="AU426" s="30"/>
@@ -30130,7 +30168,7 @@
       <c r="BL426" s="4"/>
       <c r="BM426" s="34"/>
     </row>
-    <row r="427" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="427" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS427" s="29"/>
       <c r="AT427" s="18"/>
       <c r="AU427" s="30"/>
@@ -30152,7 +30190,7 @@
       <c r="BL427" s="4"/>
       <c r="BM427" s="34"/>
     </row>
-    <row r="428" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="428" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS428" s="29"/>
       <c r="AT428" s="18"/>
       <c r="AU428" s="30"/>
@@ -30174,7 +30212,7 @@
       <c r="BL428" s="4"/>
       <c r="BM428" s="34"/>
     </row>
-    <row r="429" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="429" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS429" s="29"/>
       <c r="AT429" s="18"/>
       <c r="AU429" s="30"/>
@@ -30196,7 +30234,7 @@
       <c r="BL429" s="4"/>
       <c r="BM429" s="34"/>
     </row>
-    <row r="430" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="430" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS430" s="29"/>
       <c r="AT430" s="18"/>
       <c r="AU430" s="30"/>
@@ -30218,7 +30256,7 @@
       <c r="BL430" s="4"/>
       <c r="BM430" s="34"/>
     </row>
-    <row r="431" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="431" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS431" s="29"/>
       <c r="AT431" s="18"/>
       <c r="AU431" s="30"/>
@@ -30240,7 +30278,7 @@
       <c r="BL431" s="4"/>
       <c r="BM431" s="34"/>
     </row>
-    <row r="432" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="432" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS432" s="29"/>
       <c r="AT432" s="18"/>
       <c r="AU432" s="30"/>
@@ -30262,7 +30300,7 @@
       <c r="BL432" s="4"/>
       <c r="BM432" s="34"/>
     </row>
-    <row r="433" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="433" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS433" s="29"/>
       <c r="AT433" s="18"/>
       <c r="AU433" s="30"/>
@@ -30284,7 +30322,7 @@
       <c r="BL433" s="4"/>
       <c r="BM433" s="34"/>
     </row>
-    <row r="434" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="434" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS434" s="29"/>
       <c r="AT434" s="18"/>
       <c r="AU434" s="30"/>
@@ -30306,7 +30344,7 @@
       <c r="BL434" s="4"/>
       <c r="BM434" s="34"/>
     </row>
-    <row r="435" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="435" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS435" s="29"/>
       <c r="AT435" s="18"/>
       <c r="AU435" s="30"/>
@@ -30328,7 +30366,7 @@
       <c r="BL435" s="4"/>
       <c r="BM435" s="34"/>
     </row>
-    <row r="436" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="436" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS436" s="29"/>
       <c r="AT436" s="18"/>
       <c r="AU436" s="30"/>
@@ -30350,7 +30388,7 @@
       <c r="BL436" s="4"/>
       <c r="BM436" s="34"/>
     </row>
-    <row r="437" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="437" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS437" s="29"/>
       <c r="AT437" s="18"/>
       <c r="AU437" s="30"/>
@@ -30372,7 +30410,7 @@
       <c r="BL437" s="4"/>
       <c r="BM437" s="34"/>
     </row>
-    <row r="438" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="438" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS438" s="29"/>
       <c r="AT438" s="18"/>
       <c r="AU438" s="30"/>
@@ -30394,7 +30432,7 @@
       <c r="BL438" s="4"/>
       <c r="BM438" s="34"/>
     </row>
-    <row r="439" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="439" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS439" s="29"/>
       <c r="AT439" s="18"/>
       <c r="AU439" s="30"/>
@@ -30416,7 +30454,7 @@
       <c r="BL439" s="4"/>
       <c r="BM439" s="34"/>
     </row>
-    <row r="440" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="440" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS440" s="29"/>
       <c r="AT440" s="18"/>
       <c r="AU440" s="30"/>
@@ -30438,7 +30476,7 @@
       <c r="BL440" s="4"/>
       <c r="BM440" s="34"/>
     </row>
-    <row r="441" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="441" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS441" s="29"/>
       <c r="AT441" s="18"/>
       <c r="AU441" s="30"/>
@@ -30460,7 +30498,7 @@
       <c r="BL441" s="4"/>
       <c r="BM441" s="34"/>
     </row>
-    <row r="442" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="442" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS442" s="29"/>
       <c r="AT442" s="18"/>
       <c r="AU442" s="30"/>
@@ -30482,7 +30520,7 @@
       <c r="BL442" s="4"/>
       <c r="BM442" s="34"/>
     </row>
-    <row r="443" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="443" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS443" s="29"/>
       <c r="AT443" s="18"/>
       <c r="AU443" s="30"/>
@@ -30504,7 +30542,7 @@
       <c r="BL443" s="4"/>
       <c r="BM443" s="34"/>
     </row>
-    <row r="444" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="444" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS444" s="29"/>
       <c r="AT444" s="18"/>
       <c r="AU444" s="30"/>
@@ -30526,7 +30564,7 @@
       <c r="BL444" s="4"/>
       <c r="BM444" s="34"/>
     </row>
-    <row r="445" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="445" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS445" s="29"/>
       <c r="AT445" s="18"/>
       <c r="AU445" s="30"/>
@@ -30548,7 +30586,7 @@
       <c r="BL445" s="4"/>
       <c r="BM445" s="34"/>
     </row>
-    <row r="446" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="446" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS446" s="29"/>
       <c r="AT446" s="18"/>
       <c r="AU446" s="30"/>
@@ -30570,7 +30608,7 @@
       <c r="BL446" s="4"/>
       <c r="BM446" s="34"/>
     </row>
-    <row r="447" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="447" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS447" s="29"/>
       <c r="AT447" s="18"/>
       <c r="AU447" s="30"/>
@@ -30592,7 +30630,7 @@
       <c r="BL447" s="4"/>
       <c r="BM447" s="34"/>
     </row>
-    <row r="448" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="448" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS448" s="29"/>
       <c r="AT448" s="18"/>
       <c r="AU448" s="30"/>
@@ -30614,7 +30652,7 @@
       <c r="BL448" s="4"/>
       <c r="BM448" s="34"/>
     </row>
-    <row r="449" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="449" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS449" s="29"/>
       <c r="AT449" s="18"/>
       <c r="AU449" s="30"/>
@@ -30636,7 +30674,7 @@
       <c r="BL449" s="4"/>
       <c r="BM449" s="34"/>
     </row>
-    <row r="450" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="450" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS450" s="29"/>
       <c r="AT450" s="18"/>
       <c r="AU450" s="30"/>
@@ -30658,7 +30696,7 @@
       <c r="BL450" s="4"/>
       <c r="BM450" s="34"/>
     </row>
-    <row r="451" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="451" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS451" s="29"/>
       <c r="AT451" s="18"/>
       <c r="AU451" s="30"/>
@@ -30680,7 +30718,7 @@
       <c r="BL451" s="4"/>
       <c r="BM451" s="34"/>
     </row>
-    <row r="452" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="452" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS452" s="29"/>
       <c r="AT452" s="18"/>
       <c r="AU452" s="30"/>
@@ -30702,7 +30740,7 @@
       <c r="BL452" s="4"/>
       <c r="BM452" s="34"/>
     </row>
-    <row r="453" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="453" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS453" s="29"/>
       <c r="AT453" s="18"/>
       <c r="AU453" s="30"/>
@@ -30724,7 +30762,7 @@
       <c r="BL453" s="4"/>
       <c r="BM453" s="34"/>
     </row>
-    <row r="454" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="454" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS454" s="29"/>
       <c r="AT454" s="18"/>
       <c r="AU454" s="30"/>
@@ -30746,7 +30784,7 @@
       <c r="BL454" s="4"/>
       <c r="BM454" s="34"/>
     </row>
-    <row r="455" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="455" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS455" s="29"/>
       <c r="AT455" s="18"/>
       <c r="AU455" s="30"/>
@@ -30768,7 +30806,7 @@
       <c r="BL455" s="4"/>
       <c r="BM455" s="34"/>
     </row>
-    <row r="456" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="456" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS456" s="29"/>
       <c r="AT456" s="18"/>
       <c r="AU456" s="30"/>
@@ -30790,7 +30828,7 @@
       <c r="BL456" s="4"/>
       <c r="BM456" s="34"/>
     </row>
-    <row r="457" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="457" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS457" s="29"/>
       <c r="AT457" s="18"/>
       <c r="AU457" s="30"/>
@@ -30812,7 +30850,7 @@
       <c r="BL457" s="4"/>
       <c r="BM457" s="34"/>
     </row>
-    <row r="458" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="458" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS458" s="29"/>
       <c r="AT458" s="18"/>
       <c r="AU458" s="30"/>
@@ -30834,7 +30872,7 @@
       <c r="BL458" s="4"/>
       <c r="BM458" s="34"/>
     </row>
-    <row r="459" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="459" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS459" s="29"/>
       <c r="AT459" s="18"/>
       <c r="AU459" s="30"/>
@@ -30856,7 +30894,7 @@
       <c r="BL459" s="4"/>
       <c r="BM459" s="34"/>
     </row>
-    <row r="460" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="460" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS460" s="29"/>
       <c r="AT460" s="18"/>
       <c r="AU460" s="30"/>
@@ -30878,7 +30916,7 @@
       <c r="BL460" s="4"/>
       <c r="BM460" s="34"/>
     </row>
-    <row r="461" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="461" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS461" s="29"/>
       <c r="AT461" s="18"/>
       <c r="AU461" s="30"/>
@@ -30900,7 +30938,7 @@
       <c r="BL461" s="4"/>
       <c r="BM461" s="34"/>
     </row>
-    <row r="462" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="462" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS462" s="29"/>
       <c r="AT462" s="18"/>
       <c r="AU462" s="30"/>
@@ -30922,7 +30960,7 @@
       <c r="BL462" s="4"/>
       <c r="BM462" s="34"/>
     </row>
-    <row r="463" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="463" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS463" s="29"/>
       <c r="AT463" s="18"/>
       <c r="AU463" s="30"/>
@@ -30944,7 +30982,7 @@
       <c r="BL463" s="4"/>
       <c r="BM463" s="34"/>
     </row>
-    <row r="464" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="464" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS464" s="29"/>
       <c r="AT464" s="18"/>
       <c r="AU464" s="30"/>
@@ -30966,7 +31004,7 @@
       <c r="BL464" s="4"/>
       <c r="BM464" s="34"/>
     </row>
-    <row r="465" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="465" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS465" s="29"/>
       <c r="AT465" s="18"/>
       <c r="AU465" s="30"/>
@@ -30988,7 +31026,7 @@
       <c r="BL465" s="4"/>
       <c r="BM465" s="34"/>
     </row>
-    <row r="466" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="466" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS466" s="29"/>
       <c r="AT466" s="18"/>
       <c r="AU466" s="30"/>
@@ -31010,7 +31048,7 @@
       <c r="BL466" s="4"/>
       <c r="BM466" s="34"/>
     </row>
-    <row r="467" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="467" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS467" s="29"/>
       <c r="AT467" s="18"/>
       <c r="AU467" s="30"/>
@@ -31032,7 +31070,7 @@
       <c r="BL467" s="4"/>
       <c r="BM467" s="34"/>
     </row>
-    <row r="468" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="468" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS468" s="29"/>
       <c r="AT468" s="18"/>
       <c r="AU468" s="30"/>
@@ -31054,7 +31092,7 @@
       <c r="BL468" s="4"/>
       <c r="BM468" s="34"/>
     </row>
-    <row r="469" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="469" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS469" s="29"/>
       <c r="AT469" s="18"/>
       <c r="AU469" s="30"/>
@@ -31076,7 +31114,7 @@
       <c r="BL469" s="4"/>
       <c r="BM469" s="34"/>
     </row>
-    <row r="470" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="470" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS470" s="29"/>
       <c r="AT470" s="18"/>
       <c r="AU470" s="30"/>
@@ -31098,7 +31136,7 @@
       <c r="BL470" s="4"/>
       <c r="BM470" s="34"/>
     </row>
-    <row r="471" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="471" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS471" s="29"/>
       <c r="AT471" s="18"/>
       <c r="AU471" s="30"/>
@@ -31120,7 +31158,7 @@
       <c r="BL471" s="4"/>
       <c r="BM471" s="34"/>
     </row>
-    <row r="472" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="472" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS472" s="29"/>
       <c r="AT472" s="18"/>
       <c r="AU472" s="30"/>
@@ -31142,7 +31180,7 @@
       <c r="BL472" s="4"/>
       <c r="BM472" s="34"/>
     </row>
-    <row r="473" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="473" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS473" s="29"/>
       <c r="AT473" s="18"/>
       <c r="AU473" s="30"/>
@@ -31164,7 +31202,7 @@
       <c r="BL473" s="4"/>
       <c r="BM473" s="34"/>
     </row>
-    <row r="474" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="474" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS474" s="29"/>
       <c r="AT474" s="18"/>
       <c r="AU474" s="30"/>
@@ -31186,7 +31224,7 @@
       <c r="BL474" s="4"/>
       <c r="BM474" s="34"/>
     </row>
-    <row r="475" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="475" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS475" s="29"/>
       <c r="AT475" s="18"/>
       <c r="AU475" s="30"/>
@@ -31208,7 +31246,7 @@
       <c r="BL475" s="4"/>
       <c r="BM475" s="34"/>
     </row>
-    <row r="476" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="476" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS476" s="29"/>
       <c r="AT476" s="18"/>
       <c r="AU476" s="30"/>
@@ -31230,7 +31268,7 @@
       <c r="BL476" s="4"/>
       <c r="BM476" s="34"/>
     </row>
-    <row r="477" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="477" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS477" s="29"/>
       <c r="AT477" s="18"/>
       <c r="AU477" s="30"/>
@@ -31252,7 +31290,7 @@
       <c r="BL477" s="4"/>
       <c r="BM477" s="34"/>
     </row>
-    <row r="478" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="478" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS478" s="29"/>
       <c r="AT478" s="18"/>
       <c r="AU478" s="30"/>
@@ -31274,7 +31312,7 @@
       <c r="BL478" s="4"/>
       <c r="BM478" s="34"/>
     </row>
-    <row r="479" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="479" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS479" s="29"/>
       <c r="AT479" s="18"/>
       <c r="AU479" s="30"/>
@@ -31296,7 +31334,7 @@
       <c r="BL479" s="4"/>
       <c r="BM479" s="34"/>
     </row>
-    <row r="480" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="480" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS480" s="29"/>
       <c r="AT480" s="18"/>
       <c r="AU480" s="30"/>
@@ -31318,7 +31356,7 @@
       <c r="BL480" s="4"/>
       <c r="BM480" s="34"/>
     </row>
-    <row r="481" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="481" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS481" s="29"/>
       <c r="AT481" s="18"/>
       <c r="AU481" s="30"/>
@@ -31340,7 +31378,7 @@
       <c r="BL481" s="4"/>
       <c r="BM481" s="34"/>
     </row>
-    <row r="482" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="482" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS482" s="29"/>
       <c r="AT482" s="18"/>
       <c r="AU482" s="30"/>
@@ -31362,7 +31400,7 @@
       <c r="BL482" s="4"/>
       <c r="BM482" s="34"/>
     </row>
-    <row r="483" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="483" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS483" s="29"/>
       <c r="AT483" s="18"/>
       <c r="AU483" s="30"/>
@@ -31384,7 +31422,7 @@
       <c r="BL483" s="4"/>
       <c r="BM483" s="34"/>
     </row>
-    <row r="484" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="484" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS484" s="29"/>
       <c r="AT484" s="18"/>
       <c r="AU484" s="30"/>
@@ -31406,7 +31444,7 @@
       <c r="BL484" s="4"/>
       <c r="BM484" s="34"/>
     </row>
-    <row r="485" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="485" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS485" s="29"/>
       <c r="AT485" s="18"/>
       <c r="AU485" s="30"/>
@@ -31428,7 +31466,7 @@
       <c r="BL485" s="4"/>
       <c r="BM485" s="34"/>
     </row>
-    <row r="486" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="486" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS486" s="29"/>
       <c r="AT486" s="18"/>
       <c r="AU486" s="30"/>
@@ -31450,7 +31488,7 @@
       <c r="BL486" s="4"/>
       <c r="BM486" s="34"/>
     </row>
-    <row r="487" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="487" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS487" s="29"/>
       <c r="AT487" s="18"/>
       <c r="AU487" s="30"/>
@@ -31472,7 +31510,7 @@
       <c r="BL487" s="4"/>
       <c r="BM487" s="34"/>
     </row>
-    <row r="488" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="488" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS488" s="29"/>
       <c r="AT488" s="18"/>
       <c r="AU488" s="30"/>
@@ -31494,7 +31532,7 @@
       <c r="BL488" s="4"/>
       <c r="BM488" s="34"/>
     </row>
-    <row r="489" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="489" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS489" s="29"/>
       <c r="AT489" s="18"/>
       <c r="AU489" s="30"/>
@@ -31516,7 +31554,7 @@
       <c r="BL489" s="4"/>
       <c r="BM489" s="34"/>
     </row>
-    <row r="490" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="490" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS490" s="29"/>
       <c r="AT490" s="18"/>
       <c r="AU490" s="30"/>
@@ -31538,7 +31576,7 @@
       <c r="BL490" s="4"/>
       <c r="BM490" s="34"/>
     </row>
-    <row r="491" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="491" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS491" s="29"/>
       <c r="AT491" s="18"/>
       <c r="AU491" s="30"/>
@@ -31560,7 +31598,7 @@
       <c r="BL491" s="4"/>
       <c r="BM491" s="34"/>
     </row>
-    <row r="492" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="492" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS492" s="29"/>
       <c r="AT492" s="18"/>
       <c r="AU492" s="30"/>
@@ -31582,7 +31620,7 @@
       <c r="BL492" s="4"/>
       <c r="BM492" s="34"/>
     </row>
-    <row r="493" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="493" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS493" s="29"/>
       <c r="AT493" s="18"/>
       <c r="AU493" s="30"/>
@@ -31604,7 +31642,7 @@
       <c r="BL493" s="4"/>
       <c r="BM493" s="34"/>
     </row>
-    <row r="494" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="494" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS494" s="29"/>
       <c r="AT494" s="18"/>
       <c r="AU494" s="30"/>
@@ -31626,7 +31664,7 @@
       <c r="BL494" s="4"/>
       <c r="BM494" s="34"/>
     </row>
-    <row r="495" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="495" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS495" s="29"/>
       <c r="AT495" s="18"/>
       <c r="AU495" s="30"/>
@@ -31648,7 +31686,7 @@
       <c r="BL495" s="4"/>
       <c r="BM495" s="34"/>
     </row>
-    <row r="496" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="496" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS496" s="29"/>
       <c r="AT496" s="18"/>
       <c r="AU496" s="30"/>
@@ -31670,7 +31708,7 @@
       <c r="BL496" s="4"/>
       <c r="BM496" s="34"/>
     </row>
-    <row r="497" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="497" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS497" s="29"/>
       <c r="AT497" s="18"/>
       <c r="AU497" s="30"/>
@@ -31692,7 +31730,7 @@
       <c r="BL497" s="4"/>
       <c r="BM497" s="34"/>
     </row>
-    <row r="498" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="498" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS498" s="29"/>
       <c r="AT498" s="18"/>
       <c r="AU498" s="30"/>
@@ -31714,7 +31752,7 @@
       <c r="BL498" s="4"/>
       <c r="BM498" s="34"/>
     </row>
-    <row r="499" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="499" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS499" s="29"/>
       <c r="AT499" s="18"/>
       <c r="AU499" s="30"/>
@@ -31736,7 +31774,7 @@
       <c r="BL499" s="4"/>
       <c r="BM499" s="34"/>
     </row>
-    <row r="500" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="500" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS500" s="29"/>
       <c r="AT500" s="18"/>
       <c r="AU500" s="30"/>
@@ -31758,7 +31796,7 @@
       <c r="BL500" s="4"/>
       <c r="BM500" s="34"/>
     </row>
-    <row r="501" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="501" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS501" s="29"/>
       <c r="AT501" s="18"/>
       <c r="AU501" s="30"/>
@@ -31780,7 +31818,7 @@
       <c r="BL501" s="4"/>
       <c r="BM501" s="34"/>
     </row>
-    <row r="502" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="502" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS502" s="29"/>
       <c r="AT502" s="18"/>
       <c r="AU502" s="30"/>
@@ -31802,7 +31840,7 @@
       <c r="BL502" s="4"/>
       <c r="BM502" s="34"/>
     </row>
-    <row r="503" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="503" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS503" s="29"/>
       <c r="AT503" s="18"/>
       <c r="AU503" s="30"/>
@@ -31824,7 +31862,7 @@
       <c r="BL503" s="4"/>
       <c r="BM503" s="34"/>
     </row>
-    <row r="504" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="504" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS504" s="29"/>
       <c r="AT504" s="18"/>
       <c r="AU504" s="30"/>
@@ -31846,7 +31884,7 @@
       <c r="BL504" s="4"/>
       <c r="BM504" s="34"/>
     </row>
-    <row r="505" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="505" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS505" s="29"/>
       <c r="AT505" s="18"/>
       <c r="AU505" s="30"/>
@@ -31868,7 +31906,7 @@
       <c r="BL505" s="4"/>
       <c r="BM505" s="34"/>
     </row>
-    <row r="506" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="506" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS506" s="29"/>
       <c r="AT506" s="18"/>
       <c r="AU506" s="30"/>
@@ -31890,7 +31928,7 @@
       <c r="BL506" s="4"/>
       <c r="BM506" s="34"/>
     </row>
-    <row r="507" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="507" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS507" s="29"/>
       <c r="AT507" s="18"/>
       <c r="AU507" s="30"/>
@@ -31912,7 +31950,7 @@
       <c r="BL507" s="4"/>
       <c r="BM507" s="34"/>
     </row>
-    <row r="508" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="508" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS508" s="29"/>
       <c r="AT508" s="18"/>
       <c r="AU508" s="30"/>
@@ -31934,7 +31972,7 @@
       <c r="BL508" s="4"/>
       <c r="BM508" s="34"/>
     </row>
-    <row r="509" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="509" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS509" s="29"/>
       <c r="AT509" s="18"/>
       <c r="AU509" s="30"/>
@@ -31956,7 +31994,7 @@
       <c r="BL509" s="4"/>
       <c r="BM509" s="34"/>
     </row>
-    <row r="510" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="510" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS510" s="29"/>
       <c r="AT510" s="18"/>
       <c r="AU510" s="30"/>
@@ -31978,7 +32016,7 @@
       <c r="BL510" s="4"/>
       <c r="BM510" s="34"/>
     </row>
-    <row r="511" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="511" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS511" s="29"/>
       <c r="AT511" s="18"/>
       <c r="AU511" s="30"/>
@@ -32000,7 +32038,7 @@
       <c r="BL511" s="4"/>
       <c r="BM511" s="34"/>
     </row>
-    <row r="512" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="512" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS512" s="29"/>
       <c r="AT512" s="18"/>
       <c r="AU512" s="30"/>
@@ -32022,7 +32060,7 @@
       <c r="BL512" s="4"/>
       <c r="BM512" s="34"/>
     </row>
-    <row r="513" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="513" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS513" s="29"/>
       <c r="AT513" s="18"/>
       <c r="AU513" s="30"/>
@@ -32044,7 +32082,7 @@
       <c r="BL513" s="4"/>
       <c r="BM513" s="34"/>
     </row>
-    <row r="514" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="514" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS514" s="29"/>
       <c r="AT514" s="18"/>
       <c r="AU514" s="30"/>
@@ -32066,7 +32104,7 @@
       <c r="BL514" s="4"/>
       <c r="BM514" s="34"/>
     </row>
-    <row r="515" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="515" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS515" s="29"/>
       <c r="AT515" s="18"/>
       <c r="AU515" s="30"/>
@@ -32088,7 +32126,7 @@
       <c r="BL515" s="4"/>
       <c r="BM515" s="34"/>
     </row>
-    <row r="516" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="516" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS516" s="29"/>
       <c r="AT516" s="18"/>
       <c r="AU516" s="30"/>
@@ -32110,7 +32148,7 @@
       <c r="BL516" s="4"/>
       <c r="BM516" s="34"/>
     </row>
-    <row r="517" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="517" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS517" s="29"/>
       <c r="AT517" s="18"/>
       <c r="AU517" s="30"/>
@@ -32132,7 +32170,7 @@
       <c r="BL517" s="4"/>
       <c r="BM517" s="34"/>
     </row>
-    <row r="518" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="518" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS518" s="29"/>
       <c r="AT518" s="18"/>
       <c r="AU518" s="30"/>
@@ -32154,7 +32192,7 @@
       <c r="BL518" s="4"/>
       <c r="BM518" s="34"/>
     </row>
-    <row r="519" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="519" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS519" s="29"/>
       <c r="AT519" s="18"/>
       <c r="AU519" s="30"/>
@@ -32176,7 +32214,7 @@
       <c r="BL519" s="4"/>
       <c r="BM519" s="34"/>
     </row>
-    <row r="520" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="520" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS520" s="29"/>
       <c r="AT520" s="18"/>
       <c r="AU520" s="30"/>
@@ -32198,7 +32236,7 @@
       <c r="BL520" s="4"/>
       <c r="BM520" s="34"/>
     </row>
-    <row r="521" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="521" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS521" s="29"/>
       <c r="AT521" s="18"/>
       <c r="AU521" s="30"/>
@@ -32220,7 +32258,7 @@
       <c r="BL521" s="4"/>
       <c r="BM521" s="34"/>
     </row>
-    <row r="522" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="522" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS522" s="29"/>
       <c r="AT522" s="18"/>
       <c r="AU522" s="30"/>
@@ -32242,7 +32280,7 @@
       <c r="BL522" s="4"/>
       <c r="BM522" s="34"/>
     </row>
-    <row r="523" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="523" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS523" s="29"/>
       <c r="AT523" s="18"/>
       <c r="AU523" s="30"/>
@@ -32264,7 +32302,7 @@
       <c r="BL523" s="4"/>
       <c r="BM523" s="34"/>
     </row>
-    <row r="524" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="524" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS524" s="29"/>
       <c r="AT524" s="18"/>
       <c r="AU524" s="30"/>
@@ -32286,7 +32324,7 @@
       <c r="BL524" s="4"/>
       <c r="BM524" s="34"/>
     </row>
-    <row r="525" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="525" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS525" s="29"/>
       <c r="AT525" s="18"/>
       <c r="AU525" s="30"/>
@@ -32308,7 +32346,7 @@
       <c r="BL525" s="4"/>
       <c r="BM525" s="34"/>
     </row>
-    <row r="526" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="526" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS526" s="29"/>
       <c r="AT526" s="18"/>
       <c r="AU526" s="30"/>
@@ -32330,7 +32368,7 @@
       <c r="BL526" s="4"/>
       <c r="BM526" s="34"/>
     </row>
-    <row r="527" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="527" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS527" s="29"/>
       <c r="AT527" s="18"/>
       <c r="AU527" s="30"/>
@@ -32352,7 +32390,7 @@
       <c r="BL527" s="4"/>
       <c r="BM527" s="34"/>
     </row>
-    <row r="528" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="528" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS528" s="29"/>
       <c r="AT528" s="18"/>
       <c r="AU528" s="30"/>
@@ -32374,7 +32412,7 @@
       <c r="BL528" s="4"/>
       <c r="BM528" s="34"/>
     </row>
-    <row r="529" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="529" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS529" s="29"/>
       <c r="AT529" s="18"/>
       <c r="AU529" s="30"/>
@@ -32396,7 +32434,7 @@
       <c r="BL529" s="4"/>
       <c r="BM529" s="34"/>
     </row>
-    <row r="530" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="530" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS530" s="29"/>
       <c r="AT530" s="18"/>
       <c r="AU530" s="30"/>
@@ -32418,7 +32456,7 @@
       <c r="BL530" s="4"/>
       <c r="BM530" s="34"/>
     </row>
-    <row r="531" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="531" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS531" s="29"/>
       <c r="AT531" s="18"/>
       <c r="AU531" s="30"/>
@@ -32440,7 +32478,7 @@
       <c r="BL531" s="4"/>
       <c r="BM531" s="34"/>
     </row>
-    <row r="532" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="532" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS532" s="29"/>
       <c r="AT532" s="18"/>
       <c r="AU532" s="30"/>
@@ -32462,7 +32500,7 @@
       <c r="BL532" s="4"/>
       <c r="BM532" s="34"/>
     </row>
-    <row r="533" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="533" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS533" s="29"/>
       <c r="AT533" s="18"/>
       <c r="AU533" s="30"/>
@@ -32484,7 +32522,7 @@
       <c r="BL533" s="4"/>
       <c r="BM533" s="34"/>
     </row>
-    <row r="534" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="534" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS534" s="29"/>
       <c r="AT534" s="18"/>
       <c r="AU534" s="30"/>
@@ -32506,7 +32544,7 @@
       <c r="BL534" s="4"/>
       <c r="BM534" s="34"/>
     </row>
-    <row r="535" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="535" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS535" s="29"/>
       <c r="AT535" s="18"/>
       <c r="AU535" s="30"/>
@@ -32528,7 +32566,7 @@
       <c r="BL535" s="4"/>
       <c r="BM535" s="34"/>
     </row>
-    <row r="536" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="536" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS536" s="29"/>
       <c r="AT536" s="18"/>
       <c r="AU536" s="30"/>
@@ -32550,7 +32588,7 @@
       <c r="BL536" s="4"/>
       <c r="BM536" s="34"/>
     </row>
-    <row r="537" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="537" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS537" s="29"/>
       <c r="AT537" s="18"/>
       <c r="AU537" s="30"/>
@@ -32572,7 +32610,7 @@
       <c r="BL537" s="4"/>
       <c r="BM537" s="34"/>
     </row>
-    <row r="538" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="538" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS538" s="29"/>
       <c r="AT538" s="18"/>
       <c r="AU538" s="30"/>
@@ -32594,7 +32632,7 @@
       <c r="BL538" s="4"/>
       <c r="BM538" s="34"/>
     </row>
-    <row r="539" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="539" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS539" s="29"/>
       <c r="AT539" s="18"/>
       <c r="AU539" s="30"/>
@@ -32616,7 +32654,7 @@
       <c r="BL539" s="4"/>
       <c r="BM539" s="34"/>
     </row>
-    <row r="540" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="540" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS540" s="29"/>
       <c r="AT540" s="18"/>
       <c r="AU540" s="30"/>
@@ -32638,7 +32676,7 @@
       <c r="BL540" s="4"/>
       <c r="BM540" s="34"/>
     </row>
-    <row r="541" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="541" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS541" s="29"/>
       <c r="AT541" s="18"/>
       <c r="AU541" s="30"/>
@@ -32660,7 +32698,7 @@
       <c r="BL541" s="4"/>
       <c r="BM541" s="34"/>
     </row>
-    <row r="542" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="542" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS542" s="29"/>
       <c r="AT542" s="18"/>
       <c r="AU542" s="30"/>
@@ -32682,7 +32720,7 @@
       <c r="BL542" s="4"/>
       <c r="BM542" s="34"/>
     </row>
-    <row r="543" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="543" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS543" s="29"/>
       <c r="AT543" s="18"/>
       <c r="AU543" s="30"/>
@@ -32704,7 +32742,7 @@
       <c r="BL543" s="4"/>
       <c r="BM543" s="34"/>
     </row>
-    <row r="544" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="544" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS544" s="29"/>
       <c r="AT544" s="18"/>
       <c r="AU544" s="30"/>
@@ -32726,7 +32764,7 @@
       <c r="BL544" s="4"/>
       <c r="BM544" s="34"/>
     </row>
-    <row r="545" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="545" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS545" s="29"/>
       <c r="AT545" s="18"/>
       <c r="AU545" s="30"/>
@@ -32748,7 +32786,7 @@
       <c r="BL545" s="4"/>
       <c r="BM545" s="34"/>
     </row>
-    <row r="546" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="546" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS546" s="29"/>
       <c r="AT546" s="18"/>
       <c r="AU546" s="30"/>
@@ -32770,7 +32808,7 @@
       <c r="BL546" s="4"/>
       <c r="BM546" s="34"/>
     </row>
-    <row r="547" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="547" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS547" s="29"/>
       <c r="AT547" s="18"/>
       <c r="AU547" s="30"/>
@@ -32792,7 +32830,7 @@
       <c r="BL547" s="4"/>
       <c r="BM547" s="34"/>
     </row>
-    <row r="548" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="548" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS548" s="29"/>
       <c r="AT548" s="18"/>
       <c r="AU548" s="30"/>
@@ -32814,7 +32852,7 @@
       <c r="BL548" s="4"/>
       <c r="BM548" s="34"/>
     </row>
-    <row r="549" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="549" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS549" s="29"/>
       <c r="AT549" s="18"/>
       <c r="AU549" s="30"/>
@@ -32836,7 +32874,7 @@
       <c r="BL549" s="4"/>
       <c r="BM549" s="34"/>
     </row>
-    <row r="550" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="550" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS550" s="29"/>
       <c r="AT550" s="18"/>
       <c r="AU550" s="30"/>
@@ -32858,7 +32896,7 @@
       <c r="BL550" s="4"/>
       <c r="BM550" s="34"/>
     </row>
-    <row r="551" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="551" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS551" s="29"/>
       <c r="AT551" s="18"/>
       <c r="AU551" s="30"/>
@@ -32880,7 +32918,7 @@
       <c r="BL551" s="4"/>
       <c r="BM551" s="34"/>
     </row>
-    <row r="552" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="552" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS552" s="29"/>
       <c r="AT552" s="18"/>
       <c r="AU552" s="30"/>
@@ -32902,7 +32940,7 @@
       <c r="BL552" s="4"/>
       <c r="BM552" s="34"/>
     </row>
-    <row r="553" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="553" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS553" s="29"/>
       <c r="AT553" s="18"/>
       <c r="AU553" s="30"/>
@@ -32924,7 +32962,7 @@
       <c r="BL553" s="4"/>
       <c r="BM553" s="34"/>
     </row>
-    <row r="554" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="554" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS554" s="29"/>
       <c r="AT554" s="18"/>
       <c r="AU554" s="30"/>
@@ -32946,7 +32984,7 @@
       <c r="BL554" s="4"/>
       <c r="BM554" s="34"/>
     </row>
-    <row r="555" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="555" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS555" s="29"/>
       <c r="AT555" s="18"/>
       <c r="AU555" s="30"/>
@@ -32968,7 +33006,7 @@
       <c r="BL555" s="4"/>
       <c r="BM555" s="34"/>
     </row>
-    <row r="556" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="556" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS556" s="29"/>
       <c r="AT556" s="18"/>
       <c r="AU556" s="30"/>
@@ -32990,7 +33028,7 @@
       <c r="BL556" s="4"/>
       <c r="BM556" s="34"/>
     </row>
-    <row r="557" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="557" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS557" s="29"/>
       <c r="AT557" s="18"/>
       <c r="AU557" s="30"/>
@@ -33012,7 +33050,7 @@
       <c r="BL557" s="4"/>
       <c r="BM557" s="34"/>
     </row>
-    <row r="558" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="558" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS558" s="29"/>
       <c r="AT558" s="18"/>
       <c r="AU558" s="30"/>
@@ -33034,7 +33072,7 @@
       <c r="BL558" s="4"/>
       <c r="BM558" s="34"/>
     </row>
-    <row r="559" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="559" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS559" s="29"/>
       <c r="AT559" s="18"/>
       <c r="AU559" s="30"/>
@@ -33056,7 +33094,7 @@
       <c r="BL559" s="4"/>
       <c r="BM559" s="34"/>
     </row>
-    <row r="560" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="560" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS560" s="29"/>
       <c r="AT560" s="18"/>
       <c r="AU560" s="30"/>
@@ -33078,7 +33116,7 @@
       <c r="BL560" s="4"/>
       <c r="BM560" s="34"/>
     </row>
-    <row r="561" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="561" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS561" s="29"/>
       <c r="AT561" s="18"/>
       <c r="AU561" s="30"/>
@@ -33100,7 +33138,7 @@
       <c r="BL561" s="4"/>
       <c r="BM561" s="34"/>
     </row>
-    <row r="562" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="562" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS562" s="29"/>
       <c r="AT562" s="18"/>
       <c r="AU562" s="30"/>
@@ -33122,7 +33160,7 @@
       <c r="BL562" s="4"/>
       <c r="BM562" s="34"/>
     </row>
-    <row r="563" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="563" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS563" s="29"/>
       <c r="AT563" s="18"/>
       <c r="AU563" s="30"/>
@@ -33144,7 +33182,7 @@
       <c r="BL563" s="4"/>
       <c r="BM563" s="34"/>
     </row>
-    <row r="564" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="564" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS564" s="29"/>
       <c r="AT564" s="18"/>
       <c r="AU564" s="30"/>
@@ -33166,7 +33204,7 @@
       <c r="BL564" s="4"/>
       <c r="BM564" s="34"/>
     </row>
-    <row r="565" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="565" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS565" s="29"/>
       <c r="AT565" s="18"/>
       <c r="AU565" s="30"/>
@@ -33188,7 +33226,7 @@
       <c r="BL565" s="4"/>
       <c r="BM565" s="34"/>
     </row>
-    <row r="566" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="566" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS566" s="29"/>
       <c r="AT566" s="18"/>
       <c r="AU566" s="30"/>
@@ -33210,7 +33248,7 @@
       <c r="BL566" s="4"/>
       <c r="BM566" s="34"/>
     </row>
-    <row r="567" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="567" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS567" s="29"/>
       <c r="AT567" s="18"/>
       <c r="AU567" s="30"/>
@@ -33232,7 +33270,7 @@
       <c r="BL567" s="4"/>
       <c r="BM567" s="34"/>
     </row>
-    <row r="568" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="568" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS568" s="29"/>
       <c r="AT568" s="18"/>
       <c r="AU568" s="30"/>
@@ -33254,7 +33292,7 @@
       <c r="BL568" s="4"/>
       <c r="BM568" s="34"/>
     </row>
-    <row r="569" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="569" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS569" s="29"/>
       <c r="AT569" s="18"/>
       <c r="AU569" s="30"/>
@@ -33276,7 +33314,7 @@
       <c r="BL569" s="4"/>
       <c r="BM569" s="34"/>
     </row>
-    <row r="570" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="570" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS570" s="29"/>
       <c r="AT570" s="18"/>
       <c r="AU570" s="30"/>
@@ -33298,7 +33336,7 @@
       <c r="BL570" s="4"/>
       <c r="BM570" s="34"/>
     </row>
-    <row r="571" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="571" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS571" s="29"/>
       <c r="AT571" s="18"/>
       <c r="AU571" s="30"/>
@@ -33320,7 +33358,7 @@
       <c r="BL571" s="4"/>
       <c r="BM571" s="34"/>
     </row>
-    <row r="572" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="572" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS572" s="29"/>
       <c r="AT572" s="18"/>
       <c r="AU572" s="30"/>
@@ -33342,7 +33380,7 @@
       <c r="BL572" s="4"/>
       <c r="BM572" s="34"/>
     </row>
-    <row r="573" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="573" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS573" s="29"/>
       <c r="AT573" s="18"/>
       <c r="AU573" s="30"/>
@@ -33364,7 +33402,7 @@
       <c r="BL573" s="4"/>
       <c r="BM573" s="34"/>
     </row>
-    <row r="574" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="574" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS574" s="29"/>
       <c r="AT574" s="18"/>
       <c r="AU574" s="30"/>
@@ -33386,7 +33424,7 @@
       <c r="BL574" s="4"/>
       <c r="BM574" s="34"/>
     </row>
-    <row r="575" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="575" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS575" s="29"/>
       <c r="AT575" s="18"/>
       <c r="AU575" s="30"/>
@@ -33408,7 +33446,7 @@
       <c r="BL575" s="4"/>
       <c r="BM575" s="34"/>
     </row>
-    <row r="576" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="576" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS576" s="29"/>
       <c r="AT576" s="18"/>
       <c r="AU576" s="30"/>
@@ -33430,7 +33468,7 @@
       <c r="BL576" s="4"/>
       <c r="BM576" s="34"/>
     </row>
-    <row r="577" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="577" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS577" s="29"/>
       <c r="AT577" s="18"/>
       <c r="AU577" s="30"/>
@@ -33452,7 +33490,7 @@
       <c r="BL577" s="4"/>
       <c r="BM577" s="34"/>
     </row>
-    <row r="578" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="578" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS578" s="29"/>
       <c r="AT578" s="18"/>
       <c r="AU578" s="30"/>
@@ -33474,7 +33512,7 @@
       <c r="BL578" s="4"/>
       <c r="BM578" s="34"/>
     </row>
-    <row r="579" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="579" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS579" s="29"/>
       <c r="AT579" s="18"/>
       <c r="AU579" s="30"/>
@@ -33496,7 +33534,7 @@
       <c r="BL579" s="4"/>
       <c r="BM579" s="34"/>
     </row>
-    <row r="580" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="580" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS580" s="29"/>
       <c r="AT580" s="18"/>
       <c r="AU580" s="30"/>
@@ -33518,7 +33556,7 @@
       <c r="BL580" s="4"/>
       <c r="BM580" s="34"/>
     </row>
-    <row r="581" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="581" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS581" s="29"/>
       <c r="AT581" s="18"/>
       <c r="AU581" s="30"/>
@@ -33540,7 +33578,7 @@
       <c r="BL581" s="4"/>
       <c r="BM581" s="34"/>
     </row>
-    <row r="582" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="582" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS582" s="29"/>
       <c r="AT582" s="18"/>
       <c r="AU582" s="30"/>
@@ -33562,7 +33600,7 @@
       <c r="BL582" s="4"/>
       <c r="BM582" s="34"/>
     </row>
-    <row r="583" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="583" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS583" s="29"/>
       <c r="AT583" s="18"/>
       <c r="AU583" s="30"/>
@@ -33584,7 +33622,7 @@
       <c r="BL583" s="4"/>
       <c r="BM583" s="34"/>
     </row>
-    <row r="584" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="584" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS584" s="29"/>
       <c r="AT584" s="18"/>
       <c r="AU584" s="30"/>
@@ -33606,7 +33644,7 @@
       <c r="BL584" s="4"/>
       <c r="BM584" s="34"/>
     </row>
-    <row r="585" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="585" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS585" s="29"/>
       <c r="AT585" s="18"/>
       <c r="AU585" s="30"/>
@@ -33628,7 +33666,7 @@
       <c r="BL585" s="4"/>
       <c r="BM585" s="34"/>
     </row>
-    <row r="586" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="586" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS586" s="29"/>
       <c r="AT586" s="18"/>
       <c r="AU586" s="30"/>
@@ -33650,7 +33688,7 @@
       <c r="BL586" s="4"/>
       <c r="BM586" s="34"/>
     </row>
-    <row r="587" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="587" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS587" s="29"/>
       <c r="AT587" s="18"/>
       <c r="AU587" s="30"/>
@@ -33672,7 +33710,7 @@
       <c r="BL587" s="4"/>
       <c r="BM587" s="34"/>
     </row>
-    <row r="588" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="588" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS588" s="29"/>
       <c r="AT588" s="18"/>
       <c r="AU588" s="30"/>
@@ -33694,7 +33732,7 @@
       <c r="BL588" s="4"/>
       <c r="BM588" s="34"/>
     </row>
-    <row r="589" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="589" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS589" s="29"/>
       <c r="AT589" s="18"/>
       <c r="AU589" s="30"/>
@@ -33716,7 +33754,7 @@
       <c r="BL589" s="4"/>
       <c r="BM589" s="34"/>
     </row>
-    <row r="590" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="590" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS590" s="29"/>
       <c r="AT590" s="18"/>
       <c r="AU590" s="30"/>
@@ -33738,7 +33776,7 @@
       <c r="BL590" s="4"/>
       <c r="BM590" s="34"/>
     </row>
-    <row r="591" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="591" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS591" s="29"/>
       <c r="AT591" s="18"/>
       <c r="AU591" s="30"/>
@@ -33760,7 +33798,7 @@
       <c r="BL591" s="4"/>
       <c r="BM591" s="34"/>
     </row>
-    <row r="592" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="592" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS592" s="29"/>
       <c r="AT592" s="18"/>
       <c r="AU592" s="30"/>
@@ -33782,7 +33820,7 @@
       <c r="BL592" s="4"/>
       <c r="BM592" s="34"/>
     </row>
-    <row r="593" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="593" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS593" s="29"/>
       <c r="AT593" s="18"/>
       <c r="AU593" s="30"/>
@@ -33804,7 +33842,7 @@
       <c r="BL593" s="4"/>
       <c r="BM593" s="34"/>
     </row>
-    <row r="594" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="594" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS594" s="29"/>
       <c r="AT594" s="18"/>
       <c r="AU594" s="30"/>
@@ -33826,7 +33864,7 @@
       <c r="BL594" s="4"/>
       <c r="BM594" s="34"/>
     </row>
-    <row r="595" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="595" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS595" s="29"/>
       <c r="AT595" s="18"/>
       <c r="AU595" s="30"/>
@@ -33848,7 +33886,7 @@
       <c r="BL595" s="4"/>
       <c r="BM595" s="34"/>
     </row>
-    <row r="596" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="596" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS596" s="29"/>
       <c r="AT596" s="18"/>
       <c r="AU596" s="30"/>
@@ -33870,7 +33908,7 @@
       <c r="BL596" s="4"/>
       <c r="BM596" s="34"/>
     </row>
-    <row r="597" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="597" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS597" s="29"/>
       <c r="AT597" s="18"/>
       <c r="AU597" s="30"/>
@@ -33892,7 +33930,7 @@
       <c r="BL597" s="4"/>
       <c r="BM597" s="34"/>
     </row>
-    <row r="598" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="598" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS598" s="29"/>
       <c r="AT598" s="18"/>
       <c r="AU598" s="30"/>
@@ -33914,7 +33952,7 @@
       <c r="BL598" s="4"/>
       <c r="BM598" s="34"/>
     </row>
-    <row r="599" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="599" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS599" s="29"/>
       <c r="AT599" s="18"/>
       <c r="AU599" s="30"/>
@@ -33936,7 +33974,7 @@
       <c r="BL599" s="4"/>
       <c r="BM599" s="34"/>
     </row>
-    <row r="600" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="600" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS600" s="29"/>
       <c r="AT600" s="18"/>
       <c r="AU600" s="30"/>
@@ -33958,7 +33996,7 @@
       <c r="BL600" s="4"/>
       <c r="BM600" s="34"/>
     </row>
-    <row r="601" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="601" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS601" s="29"/>
       <c r="AT601" s="18"/>
       <c r="AU601" s="30"/>
@@ -33980,7 +34018,7 @@
       <c r="BL601" s="4"/>
       <c r="BM601" s="34"/>
     </row>
-    <row r="602" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="602" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS602" s="29"/>
       <c r="AT602" s="18"/>
       <c r="AU602" s="30"/>
@@ -34002,7 +34040,7 @@
       <c r="BL602" s="4"/>
       <c r="BM602" s="34"/>
     </row>
-    <row r="603" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="603" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS603" s="29"/>
       <c r="AT603" s="18"/>
       <c r="AU603" s="30"/>
@@ -34024,7 +34062,7 @@
       <c r="BL603" s="4"/>
       <c r="BM603" s="34"/>
     </row>
-    <row r="604" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="604" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS604" s="29"/>
       <c r="AT604" s="18"/>
       <c r="AU604" s="30"/>
@@ -34046,7 +34084,7 @@
       <c r="BL604" s="4"/>
       <c r="BM604" s="34"/>
     </row>
-    <row r="605" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="605" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS605" s="29"/>
       <c r="AT605" s="18"/>
       <c r="AU605" s="30"/>
@@ -34068,7 +34106,7 @@
       <c r="BL605" s="4"/>
       <c r="BM605" s="34"/>
     </row>
-    <row r="606" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="606" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS606" s="29"/>
       <c r="AT606" s="18"/>
       <c r="AU606" s="30"/>
@@ -34090,7 +34128,7 @@
       <c r="BL606" s="4"/>
       <c r="BM606" s="34"/>
     </row>
-    <row r="607" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="607" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS607" s="29"/>
       <c r="AT607" s="18"/>
       <c r="AU607" s="30"/>
@@ -34112,7 +34150,7 @@
       <c r="BL607" s="4"/>
       <c r="BM607" s="34"/>
     </row>
-    <row r="608" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="608" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS608" s="29"/>
       <c r="AT608" s="18"/>
       <c r="AU608" s="30"/>
@@ -34134,7 +34172,7 @@
       <c r="BL608" s="4"/>
       <c r="BM608" s="34"/>
     </row>
-    <row r="609" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="609" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS609" s="29"/>
       <c r="AT609" s="18"/>
       <c r="AU609" s="30"/>
@@ -34156,7 +34194,7 @@
       <c r="BL609" s="4"/>
       <c r="BM609" s="34"/>
     </row>
-    <row r="610" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="610" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS610" s="29"/>
       <c r="AT610" s="18"/>
       <c r="AU610" s="30"/>
@@ -34178,7 +34216,7 @@
       <c r="BL610" s="4"/>
       <c r="BM610" s="34"/>
     </row>
-    <row r="611" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="611" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS611" s="29"/>
       <c r="AT611" s="18"/>
       <c r="AU611" s="30"/>
@@ -34200,7 +34238,7 @@
       <c r="BL611" s="4"/>
       <c r="BM611" s="34"/>
     </row>
-    <row r="612" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="612" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS612" s="29"/>
       <c r="AT612" s="18"/>
       <c r="AU612" s="30"/>
@@ -34222,7 +34260,7 @@
       <c r="BL612" s="4"/>
       <c r="BM612" s="34"/>
     </row>
-    <row r="613" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="613" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS613" s="29"/>
       <c r="AT613" s="18"/>
       <c r="AU613" s="30"/>
@@ -34244,7 +34282,7 @@
       <c r="BL613" s="4"/>
       <c r="BM613" s="34"/>
     </row>
-    <row r="614" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="614" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS614" s="29"/>
       <c r="AT614" s="18"/>
       <c r="AU614" s="30"/>
@@ -34266,7 +34304,7 @@
       <c r="BL614" s="4"/>
       <c r="BM614" s="34"/>
     </row>
-    <row r="615" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="615" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS615" s="29"/>
       <c r="AT615" s="18"/>
       <c r="AU615" s="30"/>
@@ -34288,7 +34326,7 @@
       <c r="BL615" s="4"/>
       <c r="BM615" s="34"/>
     </row>
-    <row r="616" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="616" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS616" s="29"/>
       <c r="AT616" s="18"/>
       <c r="AU616" s="30"/>
@@ -34310,7 +34348,7 @@
       <c r="BL616" s="4"/>
       <c r="BM616" s="34"/>
     </row>
-    <row r="617" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="617" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS617" s="29"/>
       <c r="AT617" s="18"/>
       <c r="AU617" s="30"/>
@@ -34332,7 +34370,7 @@
       <c r="BL617" s="4"/>
       <c r="BM617" s="34"/>
     </row>
-    <row r="618" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="618" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS618" s="29"/>
       <c r="AT618" s="18"/>
       <c r="AU618" s="30"/>
@@ -34354,7 +34392,7 @@
       <c r="BL618" s="4"/>
       <c r="BM618" s="34"/>
     </row>
-    <row r="619" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="619" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS619" s="29"/>
       <c r="AT619" s="18"/>
       <c r="AU619" s="30"/>
@@ -34376,7 +34414,7 @@
       <c r="BL619" s="4"/>
       <c r="BM619" s="34"/>
     </row>
-    <row r="620" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="620" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS620" s="29"/>
       <c r="AT620" s="18"/>
       <c r="AU620" s="30"/>
@@ -34398,7 +34436,7 @@
       <c r="BL620" s="4"/>
       <c r="BM620" s="34"/>
     </row>
-    <row r="621" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="621" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS621" s="29"/>
       <c r="AT621" s="18"/>
       <c r="AU621" s="30"/>
@@ -34420,7 +34458,7 @@
       <c r="BL621" s="4"/>
       <c r="BM621" s="34"/>
     </row>
-    <row r="622" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="622" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS622" s="29"/>
       <c r="AT622" s="18"/>
       <c r="AU622" s="30"/>
@@ -34442,7 +34480,7 @@
       <c r="BL622" s="4"/>
       <c r="BM622" s="34"/>
     </row>
-    <row r="623" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="623" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS623" s="29"/>
       <c r="AT623" s="18"/>
       <c r="AU623" s="30"/>
@@ -34464,7 +34502,7 @@
       <c r="BL623" s="4"/>
       <c r="BM623" s="34"/>
     </row>
-    <row r="624" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="624" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS624" s="29"/>
       <c r="AT624" s="18"/>
       <c r="AU624" s="30"/>
@@ -34486,7 +34524,7 @@
       <c r="BL624" s="4"/>
       <c r="BM624" s="34"/>
     </row>
-    <row r="625" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="625" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS625" s="29"/>
       <c r="AT625" s="18"/>
       <c r="AU625" s="30"/>
@@ -34508,7 +34546,7 @@
       <c r="BL625" s="4"/>
       <c r="BM625" s="34"/>
     </row>
-    <row r="626" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="626" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS626" s="29"/>
       <c r="AT626" s="18"/>
       <c r="AU626" s="30"/>
@@ -34530,7 +34568,7 @@
       <c r="BL626" s="4"/>
       <c r="BM626" s="34"/>
     </row>
-    <row r="627" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="627" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS627" s="29"/>
       <c r="AT627" s="18"/>
       <c r="AU627" s="30"/>
@@ -34552,7 +34590,7 @@
       <c r="BL627" s="4"/>
       <c r="BM627" s="34"/>
     </row>
-    <row r="628" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="628" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS628" s="29"/>
       <c r="AT628" s="18"/>
       <c r="AU628" s="30"/>
@@ -34574,7 +34612,7 @@
       <c r="BL628" s="4"/>
       <c r="BM628" s="34"/>
     </row>
-    <row r="629" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="629" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS629" s="29"/>
       <c r="AT629" s="18"/>
       <c r="AU629" s="30"/>
@@ -34596,7 +34634,7 @@
       <c r="BL629" s="4"/>
       <c r="BM629" s="34"/>
     </row>
-    <row r="630" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="630" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS630" s="29"/>
       <c r="AT630" s="18"/>
       <c r="AU630" s="30"/>
@@ -34618,7 +34656,7 @@
       <c r="BL630" s="4"/>
       <c r="BM630" s="34"/>
     </row>
-    <row r="631" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="631" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS631" s="29"/>
       <c r="AT631" s="18"/>
       <c r="AU631" s="30"/>
@@ -34640,7 +34678,7 @@
       <c r="BL631" s="4"/>
       <c r="BM631" s="34"/>
     </row>
-    <row r="632" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="632" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS632" s="29"/>
       <c r="AT632" s="18"/>
       <c r="AU632" s="30"/>
@@ -34662,7 +34700,7 @@
       <c r="BL632" s="4"/>
       <c r="BM632" s="34"/>
     </row>
-    <row r="633" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="633" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS633" s="29"/>
       <c r="AT633" s="18"/>
       <c r="AU633" s="30"/>
@@ -34684,7 +34722,7 @@
       <c r="BL633" s="4"/>
       <c r="BM633" s="34"/>
     </row>
-    <row r="634" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="634" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS634" s="29"/>
       <c r="AT634" s="18"/>
       <c r="AU634" s="30"/>
@@ -34706,7 +34744,7 @@
       <c r="BL634" s="4"/>
       <c r="BM634" s="34"/>
     </row>
-    <row r="635" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="635" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS635" s="29"/>
       <c r="AT635" s="18"/>
       <c r="AU635" s="30"/>
@@ -34728,7 +34766,7 @@
       <c r="BL635" s="4"/>
       <c r="BM635" s="34"/>
     </row>
-    <row r="636" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="636" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS636" s="29"/>
       <c r="AT636" s="18"/>
       <c r="AU636" s="30"/>
@@ -34750,7 +34788,7 @@
       <c r="BL636" s="4"/>
       <c r="BM636" s="34"/>
     </row>
-    <row r="637" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="637" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS637" s="29"/>
       <c r="AT637" s="18"/>
       <c r="AU637" s="30"/>
@@ -34772,7 +34810,7 @@
       <c r="BL637" s="4"/>
       <c r="BM637" s="34"/>
     </row>
-    <row r="638" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="638" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS638" s="29"/>
       <c r="AT638" s="18"/>
       <c r="AU638" s="30"/>
@@ -34794,7 +34832,7 @@
       <c r="BL638" s="4"/>
       <c r="BM638" s="34"/>
     </row>
-    <row r="639" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="639" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS639" s="29"/>
       <c r="AT639" s="18"/>
       <c r="AU639" s="30"/>
@@ -34816,7 +34854,7 @@
       <c r="BL639" s="4"/>
       <c r="BM639" s="34"/>
     </row>
-    <row r="640" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="640" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS640" s="29"/>
       <c r="AT640" s="18"/>
       <c r="AU640" s="30"/>
@@ -34838,7 +34876,7 @@
       <c r="BL640" s="4"/>
       <c r="BM640" s="34"/>
     </row>
-    <row r="641" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="641" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS641" s="29"/>
       <c r="AT641" s="18"/>
       <c r="AU641" s="30"/>
@@ -34860,7 +34898,7 @@
       <c r="BL641" s="4"/>
       <c r="BM641" s="34"/>
     </row>
-    <row r="642" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="642" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS642" s="29"/>
       <c r="AT642" s="18"/>
       <c r="AU642" s="30"/>
@@ -34882,7 +34920,7 @@
       <c r="BL642" s="4"/>
       <c r="BM642" s="34"/>
     </row>
-    <row r="643" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="643" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS643" s="29"/>
       <c r="AT643" s="18"/>
       <c r="AU643" s="30"/>
@@ -34904,7 +34942,7 @@
       <c r="BL643" s="4"/>
       <c r="BM643" s="34"/>
     </row>
-    <row r="644" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="644" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS644" s="29"/>
       <c r="AT644" s="18"/>
       <c r="AU644" s="30"/>
@@ -34926,7 +34964,7 @@
       <c r="BL644" s="4"/>
       <c r="BM644" s="34"/>
     </row>
-    <row r="645" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="645" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS645" s="29"/>
       <c r="AT645" s="18"/>
       <c r="AU645" s="30"/>
@@ -34948,7 +34986,7 @@
       <c r="BL645" s="4"/>
       <c r="BM645" s="34"/>
     </row>
-    <row r="646" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="646" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS646" s="29"/>
       <c r="AT646" s="18"/>
       <c r="AU646" s="30"/>
@@ -34970,7 +35008,7 @@
       <c r="BL646" s="4"/>
       <c r="BM646" s="34"/>
     </row>
-    <row r="647" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="647" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS647" s="29"/>
       <c r="AT647" s="18"/>
       <c r="AU647" s="30"/>
@@ -34992,7 +35030,7 @@
       <c r="BL647" s="4"/>
       <c r="BM647" s="34"/>
     </row>
-    <row r="648" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="648" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS648" s="29"/>
       <c r="AT648" s="18"/>
       <c r="AU648" s="30"/>
@@ -35014,7 +35052,7 @@
       <c r="BL648" s="4"/>
       <c r="BM648" s="34"/>
     </row>
-    <row r="649" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="649" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS649" s="29"/>
       <c r="AT649" s="18"/>
       <c r="AU649" s="30"/>
@@ -35036,7 +35074,7 @@
       <c r="BL649" s="4"/>
       <c r="BM649" s="34"/>
     </row>
-    <row r="650" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="650" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS650" s="29"/>
       <c r="AT650" s="18"/>
       <c r="AU650" s="30"/>
@@ -35058,7 +35096,7 @@
       <c r="BL650" s="4"/>
       <c r="BM650" s="34"/>
     </row>
-    <row r="651" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="651" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS651" s="29"/>
       <c r="AT651" s="18"/>
       <c r="AU651" s="30"/>
@@ -35080,7 +35118,7 @@
       <c r="BL651" s="4"/>
       <c r="BM651" s="34"/>
     </row>
-    <row r="652" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="652" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS652" s="29"/>
       <c r="AT652" s="18"/>
       <c r="AU652" s="30"/>
@@ -35102,7 +35140,7 @@
       <c r="BL652" s="4"/>
       <c r="BM652" s="34"/>
     </row>
-    <row r="653" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="653" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS653" s="29"/>
       <c r="AT653" s="18"/>
       <c r="AU653" s="30"/>
@@ -35124,7 +35162,7 @@
       <c r="BL653" s="4"/>
       <c r="BM653" s="34"/>
     </row>
-    <row r="654" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="654" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS654" s="29"/>
       <c r="AT654" s="18"/>
       <c r="AU654" s="30"/>
@@ -35146,7 +35184,7 @@
       <c r="BL654" s="4"/>
       <c r="BM654" s="34"/>
     </row>
-    <row r="655" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="655" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS655" s="29"/>
       <c r="AT655" s="18"/>
       <c r="AU655" s="30"/>
@@ -35168,7 +35206,7 @@
       <c r="BL655" s="4"/>
       <c r="BM655" s="34"/>
     </row>
-    <row r="656" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="656" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS656" s="29"/>
       <c r="AT656" s="18"/>
       <c r="AU656" s="30"/>
@@ -35190,7 +35228,7 @@
       <c r="BL656" s="4"/>
       <c r="BM656" s="34"/>
     </row>
-    <row r="657" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="657" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS657" s="29"/>
       <c r="AT657" s="18"/>
       <c r="AU657" s="30"/>
@@ -35212,7 +35250,7 @@
       <c r="BL657" s="4"/>
       <c r="BM657" s="34"/>
     </row>
-    <row r="658" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="658" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS658" s="29"/>
       <c r="AT658" s="18"/>
       <c r="AU658" s="30"/>
@@ -35234,7 +35272,7 @@
       <c r="BL658" s="4"/>
       <c r="BM658" s="34"/>
     </row>
-    <row r="659" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="659" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS659" s="29"/>
       <c r="AT659" s="18"/>
       <c r="AU659" s="30"/>
@@ -35256,7 +35294,7 @@
       <c r="BL659" s="4"/>
       <c r="BM659" s="34"/>
     </row>
-    <row r="660" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="660" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS660" s="29"/>
       <c r="AT660" s="18"/>
       <c r="AU660" s="30"/>
@@ -35278,7 +35316,7 @@
       <c r="BL660" s="4"/>
       <c r="BM660" s="34"/>
     </row>
-    <row r="661" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="661" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS661" s="29"/>
       <c r="AT661" s="18"/>
       <c r="AU661" s="30"/>
@@ -35300,7 +35338,7 @@
       <c r="BL661" s="4"/>
       <c r="BM661" s="34"/>
     </row>
-    <row r="662" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="662" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS662" s="29"/>
       <c r="AT662" s="18"/>
       <c r="AU662" s="30"/>
@@ -35322,7 +35360,7 @@
       <c r="BL662" s="4"/>
       <c r="BM662" s="34"/>
     </row>
-    <row r="663" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="663" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS663" s="29"/>
       <c r="AT663" s="18"/>
       <c r="AU663" s="30"/>
@@ -35344,7 +35382,7 @@
       <c r="BL663" s="4"/>
       <c r="BM663" s="34"/>
     </row>
-    <row r="664" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="664" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS664" s="29"/>
       <c r="AT664" s="18"/>
       <c r="AU664" s="30"/>
@@ -35366,7 +35404,7 @@
       <c r="BL664" s="4"/>
       <c r="BM664" s="34"/>
     </row>
-    <row r="665" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="665" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS665" s="29"/>
       <c r="AT665" s="18"/>
       <c r="AU665" s="30"/>
@@ -35388,7 +35426,7 @@
       <c r="BL665" s="4"/>
       <c r="BM665" s="34"/>
     </row>
-    <row r="666" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="666" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS666" s="29"/>
       <c r="AT666" s="18"/>
       <c r="AU666" s="30"/>
@@ -35410,7 +35448,7 @@
       <c r="BL666" s="4"/>
       <c r="BM666" s="34"/>
     </row>
-    <row r="667" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="667" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS667" s="29"/>
       <c r="AT667" s="18"/>
       <c r="AU667" s="30"/>
@@ -35432,7 +35470,7 @@
       <c r="BL667" s="4"/>
       <c r="BM667" s="34"/>
     </row>
-    <row r="668" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="668" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS668" s="29"/>
       <c r="AT668" s="18"/>
       <c r="AU668" s="30"/>
@@ -35454,7 +35492,7 @@
       <c r="BL668" s="4"/>
       <c r="BM668" s="34"/>
     </row>
-    <row r="669" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="669" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS669" s="29"/>
       <c r="AT669" s="18"/>
       <c r="AU669" s="30"/>
@@ -35476,7 +35514,7 @@
       <c r="BL669" s="4"/>
       <c r="BM669" s="34"/>
     </row>
-    <row r="670" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="670" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS670" s="29"/>
       <c r="AT670" s="18"/>
       <c r="AU670" s="30"/>
@@ -35498,7 +35536,7 @@
       <c r="BL670" s="4"/>
       <c r="BM670" s="34"/>
     </row>
-    <row r="671" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="671" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS671" s="29"/>
       <c r="AT671" s="18"/>
       <c r="AU671" s="30"/>
@@ -35520,7 +35558,7 @@
       <c r="BL671" s="4"/>
       <c r="BM671" s="34"/>
     </row>
-    <row r="672" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="672" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS672" s="29"/>
       <c r="AT672" s="18"/>
       <c r="AU672" s="30"/>
@@ -35542,7 +35580,7 @@
       <c r="BL672" s="4"/>
       <c r="BM672" s="34"/>
     </row>
-    <row r="673" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="673" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS673" s="29"/>
       <c r="AT673" s="18"/>
       <c r="AU673" s="30"/>
@@ -35564,7 +35602,7 @@
       <c r="BL673" s="4"/>
       <c r="BM673" s="34"/>
     </row>
-    <row r="674" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="674" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS674" s="29"/>
       <c r="AT674" s="18"/>
       <c r="AU674" s="30"/>
@@ -35586,7 +35624,7 @@
       <c r="BL674" s="4"/>
       <c r="BM674" s="34"/>
     </row>
-    <row r="675" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="675" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS675" s="29"/>
       <c r="AT675" s="18"/>
       <c r="AU675" s="30"/>
@@ -35608,7 +35646,7 @@
       <c r="BL675" s="4"/>
       <c r="BM675" s="34"/>
     </row>
-    <row r="676" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="676" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS676" s="29"/>
       <c r="AT676" s="18"/>
       <c r="AU676" s="30"/>
@@ -35630,7 +35668,7 @@
       <c r="BL676" s="4"/>
       <c r="BM676" s="34"/>
     </row>
-    <row r="677" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="677" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS677" s="29"/>
       <c r="AT677" s="18"/>
       <c r="AU677" s="30"/>
@@ -35652,7 +35690,7 @@
       <c r="BL677" s="4"/>
       <c r="BM677" s="34"/>
     </row>
-    <row r="678" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="678" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS678" s="29"/>
       <c r="AT678" s="18"/>
       <c r="AU678" s="30"/>
@@ -35674,7 +35712,7 @@
       <c r="BL678" s="4"/>
       <c r="BM678" s="34"/>
     </row>
-    <row r="679" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="679" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS679" s="29"/>
       <c r="AT679" s="18"/>
       <c r="AU679" s="30"/>
@@ -35696,7 +35734,7 @@
       <c r="BL679" s="4"/>
       <c r="BM679" s="34"/>
     </row>
-    <row r="680" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="680" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS680" s="29"/>
       <c r="AT680" s="18"/>
       <c r="AU680" s="30"/>
@@ -35718,7 +35756,7 @@
       <c r="BL680" s="4"/>
       <c r="BM680" s="34"/>
     </row>
-    <row r="681" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="681" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS681" s="29"/>
       <c r="AT681" s="18"/>
       <c r="AU681" s="30"/>
@@ -35740,7 +35778,7 @@
       <c r="BL681" s="4"/>
       <c r="BM681" s="34"/>
     </row>
-    <row r="682" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="682" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS682" s="29"/>
       <c r="AT682" s="18"/>
       <c r="AU682" s="30"/>
@@ -35762,7 +35800,7 @@
       <c r="BL682" s="4"/>
       <c r="BM682" s="34"/>
     </row>
-    <row r="683" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="683" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS683" s="29"/>
       <c r="AT683" s="18"/>
       <c r="AU683" s="30"/>
@@ -35784,7 +35822,7 @@
       <c r="BL683" s="4"/>
       <c r="BM683" s="34"/>
     </row>
-    <row r="684" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="684" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS684" s="29"/>
       <c r="AT684" s="18"/>
       <c r="AU684" s="30"/>
@@ -35806,7 +35844,7 @@
       <c r="BL684" s="4"/>
       <c r="BM684" s="34"/>
     </row>
-    <row r="685" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="685" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS685" s="29"/>
       <c r="AT685" s="18"/>
       <c r="AU685" s="30"/>
@@ -35828,7 +35866,7 @@
       <c r="BL685" s="4"/>
       <c r="BM685" s="34"/>
     </row>
-    <row r="686" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="686" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS686" s="29"/>
       <c r="AT686" s="18"/>
       <c r="AU686" s="30"/>
@@ -35850,7 +35888,7 @@
       <c r="BL686" s="4"/>
       <c r="BM686" s="34"/>
     </row>
-    <row r="687" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="687" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS687" s="29"/>
       <c r="AT687" s="18"/>
       <c r="AU687" s="30"/>
@@ -35872,7 +35910,7 @@
       <c r="BL687" s="4"/>
       <c r="BM687" s="34"/>
     </row>
-    <row r="688" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="688" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS688" s="29"/>
       <c r="AT688" s="18"/>
       <c r="AU688" s="30"/>
@@ -35894,7 +35932,7 @@
       <c r="BL688" s="4"/>
       <c r="BM688" s="34"/>
     </row>
-    <row r="689" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="689" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS689" s="29"/>
       <c r="AT689" s="18"/>
       <c r="AU689" s="30"/>
@@ -35916,7 +35954,7 @@
       <c r="BL689" s="4"/>
       <c r="BM689" s="34"/>
     </row>
-    <row r="690" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="690" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS690" s="29"/>
       <c r="AT690" s="18"/>
       <c r="AU690" s="30"/>
@@ -35938,7 +35976,7 @@
       <c r="BL690" s="4"/>
       <c r="BM690" s="34"/>
     </row>
-    <row r="691" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="691" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS691" s="29"/>
       <c r="AT691" s="18"/>
       <c r="AU691" s="30"/>
@@ -35960,7 +35998,7 @@
       <c r="BL691" s="4"/>
       <c r="BM691" s="34"/>
     </row>
-    <row r="692" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="692" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS692" s="29"/>
       <c r="AT692" s="18"/>
       <c r="AU692" s="30"/>
@@ -35982,7 +36020,7 @@
       <c r="BL692" s="4"/>
       <c r="BM692" s="34"/>
     </row>
-    <row r="693" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="693" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS693" s="29"/>
       <c r="AT693" s="18"/>
       <c r="AU693" s="30"/>
@@ -36004,7 +36042,7 @@
       <c r="BL693" s="4"/>
       <c r="BM693" s="34"/>
     </row>
-    <row r="694" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="694" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS694" s="29"/>
       <c r="AT694" s="18"/>
       <c r="AU694" s="30"/>
@@ -36026,7 +36064,7 @@
       <c r="BL694" s="4"/>
       <c r="BM694" s="34"/>
     </row>
-    <row r="695" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="695" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS695" s="29"/>
       <c r="AT695" s="18"/>
       <c r="AU695" s="30"/>
@@ -36048,7 +36086,7 @@
       <c r="BL695" s="4"/>
       <c r="BM695" s="34"/>
     </row>
-    <row r="696" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="696" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS696" s="29"/>
       <c r="AT696" s="18"/>
       <c r="AU696" s="30"/>
@@ -36070,7 +36108,7 @@
       <c r="BL696" s="4"/>
       <c r="BM696" s="34"/>
     </row>
-    <row r="697" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="697" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS697" s="29"/>
       <c r="AT697" s="18"/>
       <c r="AU697" s="30"/>
@@ -36092,7 +36130,7 @@
       <c r="BL697" s="4"/>
       <c r="BM697" s="34"/>
     </row>
-    <row r="698" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="698" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS698" s="29"/>
       <c r="AT698" s="18"/>
       <c r="AU698" s="30"/>
@@ -36114,7 +36152,7 @@
       <c r="BL698" s="4"/>
       <c r="BM698" s="34"/>
     </row>
-    <row r="699" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="699" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS699" s="29"/>
       <c r="AT699" s="18"/>
       <c r="AU699" s="30"/>
@@ -36136,7 +36174,7 @@
       <c r="BL699" s="4"/>
       <c r="BM699" s="34"/>
     </row>
-    <row r="700" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="700" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS700" s="29"/>
       <c r="AT700" s="18"/>
       <c r="AU700" s="30"/>
@@ -36158,7 +36196,7 @@
       <c r="BL700" s="4"/>
       <c r="BM700" s="34"/>
     </row>
-    <row r="701" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="701" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS701" s="29"/>
       <c r="AT701" s="18"/>
       <c r="AU701" s="30"/>
@@ -36180,7 +36218,7 @@
       <c r="BL701" s="4"/>
       <c r="BM701" s="34"/>
     </row>
-    <row r="702" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="702" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS702" s="29"/>
       <c r="AT702" s="18"/>
       <c r="AU702" s="30"/>
@@ -36202,7 +36240,7 @@
       <c r="BL702" s="4"/>
       <c r="BM702" s="34"/>
     </row>
-    <row r="703" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="703" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS703" s="29"/>
       <c r="AT703" s="18"/>
       <c r="AU703" s="30"/>
@@ -36224,7 +36262,7 @@
       <c r="BL703" s="4"/>
       <c r="BM703" s="34"/>
     </row>
-    <row r="704" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="704" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS704" s="29"/>
       <c r="AT704" s="18"/>
       <c r="AU704" s="30"/>
@@ -36246,7 +36284,7 @@
       <c r="BL704" s="4"/>
       <c r="BM704" s="34"/>
     </row>
-    <row r="705" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="705" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS705" s="29"/>
       <c r="AT705" s="18"/>
       <c r="AU705" s="30"/>
@@ -36268,7 +36306,7 @@
       <c r="BL705" s="4"/>
       <c r="BM705" s="34"/>
     </row>
-    <row r="706" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="706" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS706" s="29"/>
       <c r="AT706" s="18"/>
       <c r="AU706" s="30"/>
@@ -36290,7 +36328,7 @@
       <c r="BL706" s="4"/>
       <c r="BM706" s="34"/>
     </row>
-    <row r="707" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="707" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS707" s="29"/>
       <c r="AT707" s="18"/>
       <c r="AU707" s="30"/>
@@ -36312,7 +36350,7 @@
       <c r="BL707" s="4"/>
       <c r="BM707" s="34"/>
     </row>
-    <row r="708" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="708" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS708" s="29"/>
       <c r="AT708" s="18"/>
       <c r="AU708" s="30"/>
@@ -36334,7 +36372,7 @@
       <c r="BL708" s="4"/>
       <c r="BM708" s="34"/>
     </row>
-    <row r="709" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="709" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS709" s="29"/>
       <c r="AT709" s="18"/>
       <c r="AU709" s="30"/>
@@ -36356,7 +36394,7 @@
       <c r="BL709" s="4"/>
       <c r="BM709" s="34"/>
     </row>
-    <row r="710" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="710" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS710" s="29"/>
       <c r="AT710" s="18"/>
       <c r="AU710" s="30"/>
@@ -36378,7 +36416,7 @@
       <c r="BL710" s="4"/>
       <c r="BM710" s="34"/>
     </row>
-    <row r="711" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="711" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS711" s="29"/>
       <c r="AT711" s="18"/>
       <c r="AU711" s="30"/>
@@ -36400,7 +36438,7 @@
       <c r="BL711" s="4"/>
       <c r="BM711" s="34"/>
     </row>
-    <row r="712" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="712" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS712" s="29"/>
       <c r="AT712" s="18"/>
       <c r="AU712" s="30"/>
@@ -36422,7 +36460,7 @@
       <c r="BL712" s="4"/>
       <c r="BM712" s="34"/>
     </row>
-    <row r="713" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="713" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS713" s="29"/>
       <c r="AT713" s="18"/>
       <c r="AU713" s="30"/>
@@ -36444,7 +36482,7 @@
       <c r="BL713" s="4"/>
       <c r="BM713" s="34"/>
     </row>
-    <row r="714" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="714" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS714" s="29"/>
       <c r="AT714" s="18"/>
       <c r="AU714" s="30"/>
@@ -36466,7 +36504,7 @@
       <c r="BL714" s="4"/>
       <c r="BM714" s="34"/>
     </row>
-    <row r="715" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="715" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS715" s="29"/>
       <c r="AT715" s="18"/>
       <c r="AU715" s="30"/>
@@ -36488,7 +36526,7 @@
       <c r="BL715" s="4"/>
       <c r="BM715" s="34"/>
     </row>
-    <row r="716" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="716" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS716" s="29"/>
       <c r="AT716" s="18"/>
       <c r="AU716" s="30"/>
@@ -36510,7 +36548,7 @@
       <c r="BL716" s="4"/>
       <c r="BM716" s="34"/>
     </row>
-    <row r="717" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="717" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS717" s="29"/>
       <c r="AT717" s="18"/>
       <c r="AU717" s="30"/>
@@ -36532,7 +36570,7 @@
       <c r="BL717" s="4"/>
       <c r="BM717" s="34"/>
     </row>
-    <row r="718" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="718" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS718" s="29"/>
       <c r="AT718" s="18"/>
       <c r="AU718" s="30"/>
@@ -36554,7 +36592,7 @@
       <c r="BL718" s="4"/>
       <c r="BM718" s="34"/>
     </row>
-    <row r="719" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="719" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS719" s="29"/>
       <c r="AT719" s="18"/>
       <c r="AU719" s="30"/>
@@ -36576,7 +36614,7 @@
       <c r="BL719" s="4"/>
       <c r="BM719" s="34"/>
     </row>
-    <row r="720" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="720" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS720" s="29"/>
       <c r="AT720" s="18"/>
       <c r="AU720" s="30"/>
@@ -36598,7 +36636,7 @@
       <c r="BL720" s="4"/>
       <c r="BM720" s="34"/>
     </row>
-    <row r="721" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="721" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS721" s="29"/>
       <c r="AT721" s="18"/>
       <c r="AU721" s="30"/>
@@ -36620,7 +36658,7 @@
       <c r="BL721" s="4"/>
       <c r="BM721" s="34"/>
     </row>
-    <row r="722" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="722" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS722" s="29"/>
       <c r="AT722" s="18"/>
       <c r="AU722" s="30"/>
@@ -36642,7 +36680,7 @@
       <c r="BL722" s="4"/>
       <c r="BM722" s="34"/>
     </row>
-    <row r="723" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="723" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS723" s="29"/>
       <c r="AT723" s="18"/>
       <c r="AU723" s="30"/>
@@ -36664,7 +36702,7 @@
       <c r="BL723" s="4"/>
       <c r="BM723" s="34"/>
     </row>
-    <row r="724" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="724" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS724" s="29"/>
       <c r="AT724" s="18"/>
       <c r="AU724" s="30"/>
@@ -36686,7 +36724,7 @@
       <c r="BL724" s="4"/>
       <c r="BM724" s="34"/>
     </row>
-    <row r="725" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="725" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS725" s="29"/>
       <c r="AT725" s="18"/>
       <c r="AU725" s="30"/>
@@ -36708,7 +36746,7 @@
       <c r="BL725" s="4"/>
       <c r="BM725" s="34"/>
     </row>
-    <row r="726" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="726" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS726" s="29"/>
       <c r="AT726" s="18"/>
       <c r="AU726" s="30"/>
@@ -36730,7 +36768,7 @@
       <c r="BL726" s="4"/>
       <c r="BM726" s="34"/>
     </row>
-    <row r="727" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="727" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS727" s="29"/>
       <c r="AT727" s="18"/>
       <c r="AU727" s="30"/>
@@ -36752,7 +36790,7 @@
       <c r="BL727" s="4"/>
       <c r="BM727" s="34"/>
     </row>
-    <row r="728" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="728" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS728" s="29"/>
       <c r="AT728" s="18"/>
       <c r="AU728" s="30"/>
@@ -36774,7 +36812,7 @@
       <c r="BL728" s="4"/>
       <c r="BM728" s="34"/>
     </row>
-    <row r="729" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="729" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS729" s="29"/>
       <c r="AT729" s="18"/>
       <c r="AU729" s="30"/>
@@ -36796,7 +36834,7 @@
       <c r="BL729" s="4"/>
       <c r="BM729" s="34"/>
     </row>
-    <row r="730" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="730" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS730" s="29"/>
       <c r="AT730" s="18"/>
       <c r="AU730" s="30"/>
@@ -36818,7 +36856,7 @@
       <c r="BL730" s="4"/>
       <c r="BM730" s="34"/>
     </row>
-    <row r="731" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="731" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS731" s="29"/>
       <c r="AT731" s="18"/>
       <c r="AU731" s="30"/>
@@ -36840,7 +36878,7 @@
       <c r="BL731" s="4"/>
       <c r="BM731" s="34"/>
     </row>
-    <row r="732" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="732" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS732" s="29"/>
       <c r="AT732" s="18"/>
       <c r="AU732" s="30"/>
@@ -36862,7 +36900,7 @@
       <c r="BL732" s="4"/>
       <c r="BM732" s="34"/>
     </row>
-    <row r="733" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="733" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS733" s="29"/>
       <c r="AT733" s="18"/>
       <c r="AU733" s="30"/>
@@ -36884,7 +36922,7 @@
       <c r="BL733" s="4"/>
       <c r="BM733" s="34"/>
     </row>
-    <row r="734" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="734" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS734" s="29"/>
       <c r="AT734" s="18"/>
       <c r="AU734" s="30"/>
@@ -36906,7 +36944,7 @@
       <c r="BL734" s="4"/>
       <c r="BM734" s="34"/>
     </row>
-    <row r="735" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="735" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS735" s="29"/>
       <c r="AT735" s="18"/>
       <c r="AU735" s="30"/>
@@ -36928,7 +36966,7 @@
       <c r="BL735" s="4"/>
       <c r="BM735" s="34"/>
     </row>
-    <row r="736" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="736" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS736" s="29"/>
       <c r="AT736" s="18"/>
       <c r="AU736" s="30"/>
@@ -36950,7 +36988,7 @@
       <c r="BL736" s="4"/>
       <c r="BM736" s="34"/>
     </row>
-    <row r="737" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="737" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS737" s="29"/>
       <c r="AT737" s="18"/>
       <c r="AU737" s="30"/>
@@ -36972,7 +37010,7 @@
       <c r="BL737" s="4"/>
       <c r="BM737" s="34"/>
     </row>
-    <row r="738" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="738" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS738" s="29"/>
       <c r="AT738" s="18"/>
       <c r="AU738" s="30"/>
@@ -36994,7 +37032,7 @@
       <c r="BL738" s="4"/>
       <c r="BM738" s="34"/>
     </row>
-    <row r="739" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="739" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS739" s="29"/>
       <c r="AT739" s="18"/>
       <c r="AU739" s="30"/>
@@ -37016,7 +37054,7 @@
       <c r="BL739" s="4"/>
       <c r="BM739" s="34"/>
     </row>
-    <row r="740" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="740" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS740" s="29"/>
       <c r="AT740" s="18"/>
       <c r="AU740" s="30"/>
@@ -37038,7 +37076,7 @@
       <c r="BL740" s="4"/>
       <c r="BM740" s="34"/>
     </row>
-    <row r="741" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="741" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS741" s="29"/>
       <c r="AT741" s="18"/>
       <c r="AU741" s="30"/>
@@ -37060,7 +37098,7 @@
       <c r="BL741" s="4"/>
       <c r="BM741" s="34"/>
     </row>
-    <row r="742" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="742" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS742" s="29"/>
       <c r="AT742" s="18"/>
       <c r="AU742" s="30"/>
@@ -37082,7 +37120,7 @@
       <c r="BL742" s="4"/>
       <c r="BM742" s="34"/>
     </row>
-    <row r="743" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="743" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS743" s="29"/>
       <c r="AT743" s="18"/>
       <c r="AU743" s="30"/>
@@ -37104,7 +37142,7 @@
       <c r="BL743" s="4"/>
       <c r="BM743" s="34"/>
     </row>
-    <row r="744" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="744" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS744" s="29"/>
       <c r="AT744" s="18"/>
       <c r="AU744" s="30"/>
@@ -37126,7 +37164,7 @@
       <c r="BL744" s="4"/>
       <c r="BM744" s="34"/>
     </row>
-    <row r="745" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="745" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS745" s="29"/>
       <c r="AT745" s="18"/>
       <c r="AU745" s="30"/>
@@ -37148,7 +37186,7 @@
       <c r="BL745" s="4"/>
       <c r="BM745" s="34"/>
     </row>
-    <row r="746" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="746" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS746" s="29"/>
       <c r="AT746" s="18"/>
       <c r="AU746" s="30"/>
@@ -37170,7 +37208,7 @@
       <c r="BL746" s="4"/>
       <c r="BM746" s="34"/>
     </row>
-    <row r="747" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="747" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS747" s="29"/>
       <c r="AT747" s="18"/>
       <c r="AU747" s="30"/>
@@ -37192,7 +37230,7 @@
       <c r="BL747" s="4"/>
       <c r="BM747" s="34"/>
     </row>
-    <row r="748" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="748" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS748" s="29"/>
       <c r="AT748" s="18"/>
       <c r="AU748" s="30"/>
@@ -37214,7 +37252,7 @@
       <c r="BL748" s="4"/>
       <c r="BM748" s="34"/>
     </row>
-    <row r="749" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="749" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS749" s="29"/>
       <c r="AT749" s="18"/>
       <c r="AU749" s="30"/>
@@ -37236,7 +37274,7 @@
       <c r="BL749" s="4"/>
       <c r="BM749" s="34"/>
     </row>
-    <row r="750" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="750" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS750" s="29"/>
       <c r="AT750" s="18"/>
       <c r="AU750" s="30"/>
@@ -37258,7 +37296,7 @@
       <c r="BL750" s="4"/>
       <c r="BM750" s="34"/>
     </row>
-    <row r="751" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="751" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS751" s="29"/>
       <c r="AT751" s="18"/>
       <c r="AU751" s="30"/>
@@ -37280,7 +37318,7 @@
       <c r="BL751" s="4"/>
       <c r="BM751" s="34"/>
     </row>
-    <row r="752" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="752" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS752" s="29"/>
       <c r="AT752" s="18"/>
       <c r="AU752" s="30"/>
@@ -37302,7 +37340,7 @@
       <c r="BL752" s="4"/>
       <c r="BM752" s="34"/>
     </row>
-    <row r="753" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="753" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS753" s="29"/>
       <c r="AT753" s="18"/>
       <c r="AU753" s="30"/>
@@ -37324,7 +37362,7 @@
       <c r="BL753" s="4"/>
       <c r="BM753" s="34"/>
     </row>
-    <row r="754" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="754" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS754" s="29"/>
       <c r="AT754" s="18"/>
       <c r="AU754" s="30"/>
@@ -37346,7 +37384,7 @@
       <c r="BL754" s="4"/>
       <c r="BM754" s="34"/>
     </row>
-    <row r="755" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="755" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS755" s="29"/>
       <c r="AT755" s="18"/>
       <c r="AU755" s="30"/>
@@ -37368,7 +37406,7 @@
       <c r="BL755" s="4"/>
       <c r="BM755" s="34"/>
     </row>
-    <row r="756" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="756" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS756" s="29"/>
       <c r="AT756" s="18"/>
       <c r="AU756" s="30"/>
@@ -37390,7 +37428,7 @@
       <c r="BL756" s="4"/>
       <c r="BM756" s="34"/>
     </row>
-    <row r="757" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="757" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS757" s="29"/>
       <c r="AT757" s="18"/>
       <c r="AU757" s="30"/>
@@ -37412,7 +37450,7 @@
       <c r="BL757" s="4"/>
       <c r="BM757" s="34"/>
     </row>
-    <row r="758" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="758" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS758" s="29"/>
       <c r="AT758" s="18"/>
       <c r="AU758" s="30"/>
@@ -37434,7 +37472,7 @@
       <c r="BL758" s="4"/>
       <c r="BM758" s="34"/>
     </row>
-    <row r="759" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="759" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS759" s="29"/>
       <c r="AT759" s="18"/>
       <c r="AU759" s="30"/>
@@ -37456,7 +37494,7 @@
       <c r="BL759" s="4"/>
       <c r="BM759" s="34"/>
     </row>
-    <row r="760" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="760" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS760" s="29"/>
       <c r="AT760" s="18"/>
       <c r="AU760" s="30"/>
@@ -37478,7 +37516,7 @@
       <c r="BL760" s="4"/>
       <c r="BM760" s="34"/>
     </row>
-    <row r="761" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="761" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS761" s="29"/>
       <c r="AT761" s="18"/>
       <c r="AU761" s="30"/>
@@ -37500,7 +37538,7 @@
       <c r="BL761" s="4"/>
       <c r="BM761" s="34"/>
     </row>
-    <row r="762" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="762" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS762" s="29"/>
       <c r="AT762" s="18"/>
       <c r="AU762" s="30"/>
@@ -37522,7 +37560,7 @@
       <c r="BL762" s="4"/>
       <c r="BM762" s="34"/>
     </row>
-    <row r="763" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="763" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS763" s="29"/>
       <c r="AT763" s="18"/>
       <c r="AU763" s="30"/>
@@ -37544,7 +37582,7 @@
       <c r="BL763" s="4"/>
       <c r="BM763" s="34"/>
     </row>
-    <row r="764" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="764" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS764" s="29"/>
       <c r="AT764" s="18"/>
       <c r="AU764" s="30"/>
@@ -37566,7 +37604,7 @@
       <c r="BL764" s="4"/>
       <c r="BM764" s="34"/>
     </row>
-    <row r="765" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="765" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS765" s="29"/>
       <c r="AT765" s="18"/>
       <c r="AU765" s="30"/>
@@ -37588,7 +37626,7 @@
       <c r="BL765" s="4"/>
       <c r="BM765" s="34"/>
     </row>
-    <row r="766" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="766" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS766" s="29"/>
       <c r="AT766" s="18"/>
       <c r="AU766" s="30"/>
@@ -37610,7 +37648,7 @@
       <c r="BL766" s="4"/>
       <c r="BM766" s="34"/>
     </row>
-    <row r="767" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="767" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS767" s="29"/>
       <c r="AT767" s="18"/>
       <c r="AU767" s="30"/>
@@ -37632,7 +37670,7 @@
       <c r="BL767" s="4"/>
       <c r="BM767" s="34"/>
     </row>
-    <row r="768" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="768" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS768" s="29"/>
       <c r="AT768" s="18"/>
       <c r="AU768" s="30"/>
@@ -37654,7 +37692,7 @@
       <c r="BL768" s="4"/>
       <c r="BM768" s="34"/>
     </row>
-    <row r="769" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="769" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS769" s="29"/>
       <c r="AT769" s="18"/>
       <c r="AU769" s="30"/>
@@ -37676,7 +37714,7 @@
       <c r="BL769" s="4"/>
       <c r="BM769" s="34"/>
     </row>
-    <row r="770" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="770" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS770" s="29"/>
       <c r="AT770" s="18"/>
       <c r="AU770" s="30"/>
@@ -37698,7 +37736,7 @@
       <c r="BL770" s="4"/>
       <c r="BM770" s="34"/>
     </row>
-    <row r="771" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="771" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS771" s="29"/>
       <c r="AT771" s="18"/>
       <c r="AU771" s="30"/>
@@ -37720,7 +37758,7 @@
       <c r="BL771" s="4"/>
       <c r="BM771" s="34"/>
     </row>
-    <row r="772" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="772" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS772" s="29"/>
       <c r="AT772" s="18"/>
       <c r="AU772" s="30"/>
@@ -37742,7 +37780,7 @@
       <c r="BL772" s="4"/>
       <c r="BM772" s="34"/>
     </row>
-    <row r="773" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="773" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS773" s="29"/>
       <c r="AT773" s="18"/>
       <c r="AU773" s="30"/>
@@ -37764,7 +37802,7 @@
       <c r="BL773" s="4"/>
       <c r="BM773" s="34"/>
     </row>
-    <row r="774" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="774" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS774" s="29"/>
       <c r="AT774" s="18"/>
       <c r="AU774" s="30"/>
@@ -37786,7 +37824,7 @@
       <c r="BL774" s="4"/>
       <c r="BM774" s="34"/>
     </row>
-    <row r="775" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="775" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS775" s="29"/>
       <c r="AT775" s="18"/>
       <c r="AU775" s="30"/>
@@ -37808,7 +37846,7 @@
       <c r="BL775" s="4"/>
       <c r="BM775" s="34"/>
     </row>
-    <row r="776" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="776" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS776" s="29"/>
       <c r="AT776" s="18"/>
       <c r="AU776" s="30"/>
@@ -37830,7 +37868,7 @@
       <c r="BL776" s="4"/>
       <c r="BM776" s="34"/>
     </row>
-    <row r="777" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="777" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS777" s="29"/>
       <c r="AT777" s="18"/>
       <c r="AU777" s="30"/>
@@ -37852,7 +37890,7 @@
       <c r="BL777" s="4"/>
       <c r="BM777" s="34"/>
     </row>
-    <row r="778" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="778" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS778" s="29"/>
       <c r="AT778" s="18"/>
       <c r="AU778" s="30"/>
@@ -37874,7 +37912,7 @@
       <c r="BL778" s="4"/>
       <c r="BM778" s="34"/>
     </row>
-    <row r="779" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="779" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS779" s="29"/>
       <c r="AT779" s="18"/>
       <c r="AU779" s="30"/>
@@ -37896,7 +37934,7 @@
       <c r="BL779" s="4"/>
       <c r="BM779" s="34"/>
     </row>
-    <row r="780" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="780" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS780" s="29"/>
       <c r="AT780" s="18"/>
       <c r="AU780" s="30"/>
@@ -37918,7 +37956,7 @@
       <c r="BL780" s="4"/>
       <c r="BM780" s="34"/>
     </row>
-    <row r="781" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="781" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS781" s="29"/>
       <c r="AT781" s="18"/>
       <c r="AU781" s="30"/>
@@ -37940,7 +37978,7 @@
       <c r="BL781" s="4"/>
       <c r="BM781" s="34"/>
     </row>
-    <row r="782" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="782" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS782" s="29"/>
       <c r="AT782" s="18"/>
       <c r="AU782" s="30"/>
@@ -37962,7 +38000,7 @@
       <c r="BL782" s="4"/>
       <c r="BM782" s="34"/>
     </row>
-    <row r="783" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="783" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS783" s="29"/>
       <c r="AT783" s="18"/>
       <c r="AU783" s="30"/>
@@ -37984,7 +38022,7 @@
       <c r="BL783" s="4"/>
       <c r="BM783" s="34"/>
     </row>
-    <row r="784" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="784" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS784" s="29"/>
       <c r="AT784" s="18"/>
       <c r="AU784" s="30"/>
@@ -38006,7 +38044,7 @@
       <c r="BL784" s="4"/>
       <c r="BM784" s="34"/>
     </row>
-    <row r="785" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="785" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS785" s="29"/>
       <c r="AT785" s="18"/>
       <c r="AU785" s="30"/>
@@ -38028,7 +38066,7 @@
       <c r="BL785" s="4"/>
       <c r="BM785" s="34"/>
     </row>
-    <row r="786" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="786" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS786" s="29"/>
       <c r="AT786" s="18"/>
       <c r="AU786" s="30"/>
@@ -38050,7 +38088,7 @@
       <c r="BL786" s="4"/>
       <c r="BM786" s="34"/>
     </row>
-    <row r="787" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="787" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS787" s="29"/>
       <c r="AT787" s="18"/>
       <c r="AU787" s="30"/>
@@ -38072,7 +38110,7 @@
       <c r="BL787" s="4"/>
       <c r="BM787" s="34"/>
     </row>
-    <row r="788" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="788" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS788" s="29"/>
       <c r="AT788" s="18"/>
       <c r="AU788" s="30"/>
@@ -38094,7 +38132,7 @@
       <c r="BL788" s="4"/>
       <c r="BM788" s="34"/>
     </row>
-    <row r="789" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="789" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS789" s="29"/>
       <c r="AT789" s="18"/>
       <c r="AU789" s="30"/>
@@ -38116,7 +38154,7 @@
       <c r="BL789" s="4"/>
       <c r="BM789" s="34"/>
     </row>
-    <row r="790" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="790" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS790" s="29"/>
       <c r="AT790" s="18"/>
       <c r="AU790" s="30"/>
@@ -38138,7 +38176,7 @@
       <c r="BL790" s="4"/>
       <c r="BM790" s="34"/>
     </row>
-    <row r="791" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="791" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS791" s="29"/>
       <c r="AT791" s="18"/>
       <c r="AU791" s="30"/>
@@ -38160,7 +38198,7 @@
       <c r="BL791" s="4"/>
       <c r="BM791" s="34"/>
     </row>
-    <row r="792" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="792" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS792" s="29"/>
       <c r="AT792" s="18"/>
       <c r="AU792" s="30"/>
@@ -38182,7 +38220,7 @@
       <c r="BL792" s="4"/>
       <c r="BM792" s="34"/>
     </row>
-    <row r="793" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="793" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS793" s="29"/>
       <c r="AT793" s="18"/>
       <c r="AU793" s="30"/>
@@ -38204,7 +38242,7 @@
       <c r="BL793" s="4"/>
       <c r="BM793" s="34"/>
     </row>
-    <row r="794" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="794" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS794" s="29"/>
       <c r="AT794" s="18"/>
       <c r="AU794" s="30"/>
@@ -38226,7 +38264,7 @@
       <c r="BL794" s="4"/>
       <c r="BM794" s="34"/>
     </row>
-    <row r="795" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="795" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS795" s="29"/>
       <c r="AT795" s="18"/>
       <c r="AU795" s="30"/>
@@ -38248,7 +38286,7 @@
       <c r="BL795" s="4"/>
       <c r="BM795" s="34"/>
     </row>
-    <row r="796" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="796" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS796" s="29"/>
       <c r="AT796" s="18"/>
       <c r="AU796" s="30"/>
@@ -38270,7 +38308,7 @@
       <c r="BL796" s="4"/>
       <c r="BM796" s="34"/>
     </row>
-    <row r="797" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="797" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS797" s="29"/>
       <c r="AT797" s="18"/>
       <c r="AU797" s="30"/>
@@ -38292,7 +38330,7 @@
       <c r="BL797" s="4"/>
       <c r="BM797" s="34"/>
     </row>
-    <row r="798" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="798" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS798" s="29"/>
       <c r="AT798" s="18"/>
       <c r="AU798" s="30"/>
@@ -38314,7 +38352,7 @@
       <c r="BL798" s="4"/>
       <c r="BM798" s="34"/>
     </row>
-    <row r="799" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="799" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS799" s="29"/>
       <c r="AT799" s="18"/>
       <c r="AU799" s="30"/>
@@ -38336,7 +38374,7 @@
       <c r="BL799" s="4"/>
       <c r="BM799" s="34"/>
     </row>
-    <row r="800" spans="45:65" x14ac:dyDescent="0.25">
+    <row r="800" spans="45:65" x14ac:dyDescent="0.3">
       <c r="AS800" s="31"/>
       <c r="AT800" s="32"/>
       <c r="AU800" s="33"/>

--- a/FastEHC Template.xlsx
+++ b/FastEHC Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RyanW\IDE Sources\fastEHC-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://checkmarx-my.sharepoint.com/personal/ryan_wakeham_checkmarx_com/Documents/Documents/Document Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A18A69E9-4B75-46F7-AC86-202FE4AA93D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A18A69E9-4B75-46F7-AC86-202FE4AA93D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A776F9F3-B53C-4102-9DE4-D7CF40FBD3B1}"/>
   <bookViews>
     <workbookView xWindow="18672" yWindow="120" windowWidth="27384" windowHeight="18336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -506,9 +506,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -741,7 +742,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -816,6 +817,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15951,7 +15953,9 @@
   </sheetPr>
   <dimension ref="B1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU41" sqref="AU41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -16234,7 +16238,7 @@
         <f>Data!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="12" t="e">
+      <c r="D10" s="52" t="e">
         <f>C10/C9</f>
         <v>#DIV/0!</v>
       </c>
@@ -16265,7 +16269,7 @@
         <f>Data!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="12" t="e">
+      <c r="D11" s="52" t="e">
         <f>C11/C9</f>
         <v>#DIV/0!</v>
       </c>

--- a/FastEHC Template.xlsx
+++ b/FastEHC Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://checkmarx-my.sharepoint.com/personal/ryan_wakeham_checkmarx_com/Documents/Documents/Document Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesBo\Documents\src\james-bostock-cx\fastEHC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{A18A69E9-4B75-46F7-AC86-202FE4AA93D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A776F9F3-B53C-4102-9DE4-D7CF40FBD3B1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAB14F43-5741-4F4A-863C-E139C1EB03B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18672" yWindow="120" windowWidth="27384" windowHeight="18336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="147">
   <si>
     <t>Scan Metrics</t>
   </si>
@@ -501,6 +501,12 @@
   <si>
     <t>Scans Failed</t>
   </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Scans with Critical Results</t>
+  </si>
 </sst>
 </file>
 
@@ -509,7 +515,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="166" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -793,6 +799,7 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,7 +824,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1399,7 +1405,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2072,7 +2078,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2255,7 +2261,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="167" formatCode="m/d/yyyy"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -15954,53 +15960,53 @@
   <dimension ref="B1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AU41" sqref="AU41"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="27.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" style="8" customWidth="1"/>
     <col min="10" max="10" width="36" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.6640625" style="8" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" style="8" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" style="8" customWidth="1"/>
-    <col min="15" max="16" width="12.6640625" style="8" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="8" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="8" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="8"/>
+    <col min="11" max="12" width="12.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" style="8" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" style="8" customWidth="1"/>
+    <col min="15" max="16" width="12.7109375" style="8" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" style="8" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="8" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:16" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="44"/>
-      <c r="F2" s="42" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="45"/>
+      <c r="F2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="J2" s="42" t="s">
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="J2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="N2" s="42" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="N2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-    </row>
-    <row r="3" spans="2:16" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+    </row>
+    <row r="3" spans="2:16" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>4</v>
       </c>
@@ -16035,7 +16041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
@@ -16074,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
@@ -16102,7 +16108,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="O6" s="11">
         <f>Data!O5</f>
@@ -16113,7 +16119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>22</v>
       </c>
@@ -16141,7 +16147,7 @@
         <v>0</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="O7" s="11">
         <f>Data!O6</f>
@@ -16152,7 +16158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
         <v>26</v>
       </c>
@@ -16180,7 +16186,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="O8" s="11">
         <f>Data!O7</f>
@@ -16191,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>30</v>
       </c>
@@ -16219,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="O9" s="11">
         <f>Data!O8</f>
@@ -16230,7 +16236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>143</v>
       </c>
@@ -16238,7 +16244,7 @@
         <f>Data!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="52" t="e">
+      <c r="D10" s="42" t="e">
         <f>C10/C9</f>
         <v>#DIV/0!</v>
       </c>
@@ -16260,8 +16266,19 @@
         <f>Data!W9</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O10" s="11">
+        <f>Data!O9</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="11">
+        <f>Data!P9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>144</v>
       </c>
@@ -16269,7 +16286,7 @@
         <f>Data!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="52" t="e">
+      <c r="D11" s="42" t="e">
         <f>C11/C9</f>
         <v>#DIV/0!</v>
       </c>
@@ -16284,17 +16301,8 @@
         <f>_xlfn.IFNA(VLOOKUP($F11,Data!$R$4:$T$28,2,FALSE),"")</f>
         <v/>
       </c>
-      <c r="N11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>34</v>
       </c>
@@ -16326,20 +16334,17 @@
       <c r="L12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG4),"",Data!AG4)</f>
-        <v/>
-      </c>
-      <c r="O12" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH4),"",Data!AH4)</f>
-        <v/>
-      </c>
-      <c r="P12" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI4),"",Data!AI4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="N12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -16374,19 +16379,19 @@
         <v>0</v>
       </c>
       <c r="N13" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG5),"",Data!AG5)</f>
+        <f>IF(ISBLANK(Data!AG4),"",Data!AG4)</f>
         <v/>
       </c>
       <c r="O13" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH5),"",Data!AH5)</f>
+        <f>IF(ISBLANK(Data!AH4),"",Data!AH4)</f>
         <v/>
       </c>
       <c r="P13" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI5),"",Data!AI5)</f>
+        <f>IF(ISBLANK(Data!AI4),"",Data!AI4)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
@@ -16421,21 +16426,21 @@
         <v>0</v>
       </c>
       <c r="N14" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG6),"",Data!AG6)</f>
+        <f>IF(ISBLANK(Data!AG5),"",Data!AG5)</f>
         <v/>
       </c>
       <c r="O14" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH6),"",Data!AH6)</f>
+        <f>IF(ISBLANK(Data!AH5),"",Data!AH5)</f>
         <v/>
       </c>
       <c r="P14" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI6),"",Data!AI6)</f>
+        <f>IF(ISBLANK(Data!AI5),"",Data!AI5)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="9" t="s">
-        <v>43</v>
+        <v>146</v>
       </c>
       <c r="C15" s="11">
         <f>Data!C14</f>
@@ -16468,21 +16473,21 @@
         <v>0</v>
       </c>
       <c r="N15" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG7),"",Data!AG7)</f>
+        <f>IF(ISBLANK(Data!AG6),"",Data!AG6)</f>
         <v/>
       </c>
       <c r="O15" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH7),"",Data!AH7)</f>
+        <f>IF(ISBLANK(Data!AH6),"",Data!AH6)</f>
         <v/>
       </c>
       <c r="P15" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI7),"",Data!AI7)</f>
+        <f>IF(ISBLANK(Data!AI6),"",Data!AI6)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="11">
         <f>Data!C15</f>
@@ -16515,21 +16520,21 @@
         <v>0</v>
       </c>
       <c r="N16" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG8),"",Data!AG8)</f>
+        <f>IF(ISBLANK(Data!AG7),"",Data!AG7)</f>
         <v/>
       </c>
       <c r="O16" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH8),"",Data!AH8)</f>
+        <f>IF(ISBLANK(Data!AH7),"",Data!AH7)</f>
         <v/>
       </c>
       <c r="P16" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI8),"",Data!AI8)</f>
+        <f>IF(ISBLANK(Data!AI7),"",Data!AI7)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C17" s="11">
         <f>Data!C16</f>
@@ -16562,21 +16567,21 @@
         <v>0</v>
       </c>
       <c r="N17" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG9),"",Data!AG9)</f>
+        <f>IF(ISBLANK(Data!AG8),"",Data!AG8)</f>
         <v/>
       </c>
       <c r="O17" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH9),"",Data!AH9)</f>
+        <f>IF(ISBLANK(Data!AH8),"",Data!AH8)</f>
         <v/>
       </c>
       <c r="P17" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI9),"",Data!AI9)</f>
+        <f>IF(ISBLANK(Data!AI8),"",Data!AI8)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="11">
         <f>Data!C17</f>
@@ -16609,21 +16614,21 @@
         <v>0</v>
       </c>
       <c r="N18" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG10),"",Data!AG10)</f>
+        <f>IF(ISBLANK(Data!AG9),"",Data!AG9)</f>
         <v/>
       </c>
       <c r="O18" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH10),"",Data!AH10)</f>
+        <f>IF(ISBLANK(Data!AH9),"",Data!AH9)</f>
         <v/>
       </c>
       <c r="P18" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI10),"",Data!AI10)</f>
+        <f>IF(ISBLANK(Data!AI9),"",Data!AI9)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C19" s="11">
         <f>Data!C18</f>
@@ -16656,27 +16661,30 @@
         <v>0</v>
       </c>
       <c r="N19" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG11),"",Data!AG11)</f>
+        <f>IF(ISBLANK(Data!AG10),"",Data!AG10)</f>
         <v/>
       </c>
       <c r="O19" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH11),"",Data!AH11)</f>
+        <f>IF(ISBLANK(Data!AH10),"",Data!AH10)</f>
         <v/>
       </c>
       <c r="P19" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI11),"",Data!AI11)</f>
+        <f>IF(ISBLANK(Data!AI10),"",Data!AI10)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C20" s="11">
         <f>Data!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="19"/>
+      <c r="D20" s="12">
+        <f>Data!D19</f>
+        <v>0</v>
+      </c>
       <c r="F20" s="9" t="s">
         <v>63</v>
       </c>
@@ -16689,19 +16697,27 @@
         <v/>
       </c>
       <c r="N20" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG12),"",Data!AG12)</f>
+        <f>IF(ISBLANK(Data!AG11),"",Data!AG11)</f>
         <v/>
       </c>
       <c r="O20" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH12),"",Data!AH12)</f>
+        <f>IF(ISBLANK(Data!AH11),"",Data!AH11)</f>
         <v/>
       </c>
       <c r="P20" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI12),"",Data!AI12)</f>
+        <f>IF(ISBLANK(Data!AI11),"",Data!AI11)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="11">
+        <f>Data!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="19"/>
       <c r="F21" s="9" t="s">
         <v>65</v>
       </c>
@@ -16723,28 +16739,19 @@
         <v>9</v>
       </c>
       <c r="N21" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG13),"",Data!AG13)</f>
+        <f>IF(ISBLANK(Data!AG12),"",Data!AG12)</f>
         <v/>
       </c>
       <c r="O21" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH13),"",Data!AH13)</f>
+        <f>IF(ISBLANK(Data!AH12),"",Data!AH12)</f>
         <v/>
       </c>
       <c r="P21" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI13),"",Data!AI13)</f>
+        <f>IF(ISBLANK(Data!AI12),"",Data!AI12)</f>
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="F22" s="9" t="s">
         <v>68</v>
       </c>
@@ -16769,29 +16776,27 @@
         <v/>
       </c>
       <c r="N22" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG14),"",Data!AG14)</f>
+        <f>IF(ISBLANK(Data!AG13),"",Data!AG13)</f>
         <v/>
       </c>
       <c r="O22" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH14),"",Data!AH14)</f>
+        <f>IF(ISBLANK(Data!AH13),"",Data!AH13)</f>
         <v/>
       </c>
       <c r="P22" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI14),"",Data!AI14)</f>
+        <f>IF(ISBLANK(Data!AI13),"",Data!AI13)</f>
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="11">
-        <f>Data!G4</f>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D23" s="11">
-        <f>Data!H4</f>
-        <v>0</v>
+      <c r="C23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>70</v>
@@ -16817,28 +16822,28 @@
         <v/>
       </c>
       <c r="N23" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG15),"",Data!AG15)</f>
+        <f>IF(ISBLANK(Data!AG14),"",Data!AG14)</f>
         <v/>
       </c>
       <c r="O23" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH15),"",Data!AH15)</f>
+        <f>IF(ISBLANK(Data!AH14),"",Data!AH14)</f>
         <v/>
       </c>
       <c r="P23" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI15),"",Data!AI15)</f>
+        <f>IF(ISBLANK(Data!AI14),"",Data!AI14)</f>
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="11">
-        <f>Data!G5</f>
+        <f>Data!G4</f>
         <v>0</v>
       </c>
       <c r="D24" s="11">
-        <f>Data!H5</f>
+        <f>Data!H4</f>
         <v>0</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -16865,28 +16870,28 @@
         <v/>
       </c>
       <c r="N24" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG16),"",Data!AG16)</f>
+        <f>IF(ISBLANK(Data!AG15),"",Data!AG15)</f>
         <v/>
       </c>
       <c r="O24" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH16),"",Data!AH16)</f>
+        <f>IF(ISBLANK(Data!AH15),"",Data!AH15)</f>
         <v/>
       </c>
       <c r="P24" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI16),"",Data!AI16)</f>
+        <f>IF(ISBLANK(Data!AI15),"",Data!AI15)</f>
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C25" s="11">
-        <f>Data!G6</f>
+        <f>Data!G5</f>
         <v>0</v>
       </c>
       <c r="D25" s="11">
-        <f>Data!H6</f>
+        <f>Data!H5</f>
         <v>0</v>
       </c>
       <c r="F25" s="9" t="s">
@@ -16913,19 +16918,30 @@
         <v/>
       </c>
       <c r="N25" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG17),"",Data!AG17)</f>
+        <f>IF(ISBLANK(Data!AG16),"",Data!AG16)</f>
         <v/>
       </c>
       <c r="O25" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH17),"",Data!AH17)</f>
+        <f>IF(ISBLANK(Data!AH16),"",Data!AH16)</f>
         <v/>
       </c>
       <c r="P25" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI17),"",Data!AI17)</f>
+        <f>IF(ISBLANK(Data!AI16),"",Data!AI16)</f>
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="11">
+        <f>Data!G6</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="11">
+        <f>Data!H6</f>
+        <v>0</v>
+      </c>
       <c r="F26" s="9" t="s">
         <v>75</v>
       </c>
@@ -16950,28 +16966,19 @@
         <v/>
       </c>
       <c r="N26" s="9" t="str">
-        <f>IF(ISBLANK(Data!AG18),"",Data!AG18)</f>
+        <f>IF(ISBLANK(Data!AG17),"",Data!AG17)</f>
         <v/>
       </c>
       <c r="O26" s="11" t="str">
-        <f>IF(ISBLANK(Data!AH18),"",Data!AH18)</f>
+        <f>IF(ISBLANK(Data!AH17),"",Data!AH17)</f>
         <v/>
       </c>
       <c r="P26" s="12" t="str">
-        <f>IF(ISBLANK(Data!AI18),"",Data!AI18)</f>
+        <f>IF(ISBLANK(Data!AI17),"",Data!AI17)</f>
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>13</v>
-      </c>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="J27" s="9" t="str">
         <f>IF(ISBLANK(Data!AC9),"",Data!AC9)</f>
         <v/>
@@ -16984,18 +16991,28 @@
         <f>IF(ISBLANK(Data!AE9),"",Data!AE9)</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="13">
-        <f>Data!K4</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="13">
-        <f>Data!L4</f>
-        <v>0</v>
+      <c r="N27" s="9" t="str">
+        <f>IF(ISBLANK(Data!AG18),"",Data!AG18)</f>
+        <v/>
+      </c>
+      <c r="O27" s="11" t="str">
+        <f>IF(ISBLANK(Data!AH18),"",Data!AH18)</f>
+        <v/>
+      </c>
+      <c r="P27" s="12" t="str">
+        <f>IF(ISBLANK(Data!AI18),"",Data!AI18)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>78</v>
@@ -17019,16 +17036,16 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C29" s="13">
-        <f>Data!K5</f>
+        <f>Data!K4</f>
         <v>0</v>
       </c>
       <c r="D29" s="13">
-        <f>Data!L5</f>
+        <f>Data!L4</f>
         <v>0</v>
       </c>
       <c r="F29" s="9" t="s">
@@ -17055,16 +17072,16 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" s="13">
-        <f>Data!K6</f>
+        <f>Data!K5</f>
         <v>0</v>
       </c>
       <c r="D30" s="13">
-        <f>Data!L6</f>
+        <f>Data!L5</f>
         <v>0</v>
       </c>
       <c r="F30" s="9" t="s">
@@ -17091,16 +17108,16 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C31" s="13">
-        <f>Data!K7</f>
+        <f>Data!K6</f>
         <v>0</v>
       </c>
       <c r="D31" s="13">
-        <f>Data!L7</f>
+        <f>Data!L6</f>
         <v>0</v>
       </c>
       <c r="F31" s="9" t="s">
@@ -17127,7 +17144,18 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" s="13">
+        <f>Data!K7</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <f>Data!L7</f>
+        <v>0</v>
+      </c>
       <c r="F32" s="9" t="s">
         <v>83</v>
       </c>
@@ -17152,7 +17180,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F33" s="9" t="s">
         <v>84</v>
       </c>
@@ -17177,7 +17205,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F34" s="9" t="s">
         <v>85</v>
       </c>
@@ -17202,7 +17230,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F35" s="9" t="s">
         <v>86</v>
       </c>
@@ -17227,7 +17255,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F36" s="9" t="s">
         <v>87</v>
       </c>
@@ -17252,7 +17280,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F37" s="9" t="s">
         <v>88</v>
       </c>
@@ -17265,7 +17293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F38" s="9" t="s">
         <v>89</v>
       </c>
@@ -17278,7 +17306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F39" s="9" t="s">
         <v>90</v>
       </c>
@@ -17291,7 +17319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="6:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F40" s="9" t="s">
         <v>91</v>
       </c>
@@ -17327,29 +17355,29 @@
       <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
     <col min="2" max="2" width="10" style="8" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="8" customWidth="1"/>
-    <col min="5" max="8" width="12.6640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="8" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="8"/>
+    <col min="3" max="4" width="10.7109375" style="8" customWidth="1"/>
+    <col min="5" max="8" width="12.7109375" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:8" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-    </row>
-    <row r="4" spans="2:8" s="15" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+    </row>
+    <row r="4" spans="2:8" s="15" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>78</v>
       </c>
@@ -17372,7 +17400,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
         <f>Data!AK4</f>
         <v>0</v>
@@ -17402,7 +17430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <f>Data!AK5</f>
         <v>0</v>
@@ -17432,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
         <f>Data!AK6</f>
         <v>0</v>
@@ -17462,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <f>Data!AK7</f>
         <v>0</v>
@@ -17492,7 +17520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <f>Data!AK8</f>
         <v>0</v>
@@ -17522,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
         <f>Data!AK9</f>
         <v>0</v>
@@ -17552,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <f>Data!AK10</f>
         <v>0</v>
@@ -17582,7 +17610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <f>Data!AK11</f>
         <v>0</v>
@@ -17612,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <f>Data!AK12</f>
         <v>0</v>
@@ -17642,7 +17670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <f>Data!AK13</f>
         <v>0</v>
@@ -17672,7 +17700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <f>Data!AK14</f>
         <v>0</v>
@@ -17702,7 +17730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <f>Data!AK15</f>
         <v>0</v>
@@ -17732,7 +17760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="11">
         <f>SUM(C5:C16)</f>
         <v>0</v>
@@ -17759,242 +17787,242 @@
       <selection activeCell="X143" sqref="X143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="8" customWidth="1"/>
-    <col min="2" max="9" width="13.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="2.6640625" style="8" customWidth="1"/>
-    <col min="11" max="18" width="13.33203125" style="8" customWidth="1"/>
-    <col min="19" max="19" width="1.6640625" style="8" customWidth="1"/>
-    <col min="20" max="20" width="8.88671875" style="8" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="1.7109375" style="8" customWidth="1"/>
+    <col min="2" max="9" width="13.28515625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="8" customWidth="1"/>
+    <col min="11" max="18" width="13.28515625" style="8" customWidth="1"/>
+    <col min="19" max="19" width="1.7109375" style="8" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="8" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+    <row r="1" spans="2:18" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:18" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="44"/>
-    </row>
-    <row r="3" spans="2:18" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:18" s="15" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="45" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="45"/>
+    </row>
+    <row r="3" spans="2:18" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:18" s="15" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="47"/>
-    </row>
-    <row r="5" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="45" t="s">
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+    </row>
+    <row r="5" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="46"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="47"/>
-    </row>
-    <row r="29" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="36" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="37" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="39" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="40" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="45" t="s">
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="48"/>
+    </row>
+    <row r="29" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="46"/>
-      <c r="D52" s="46"/>
-      <c r="E52" s="46"/>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-      <c r="I52" s="46"/>
-      <c r="J52" s="46"/>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
-      <c r="P52" s="46"/>
-      <c r="Q52" s="46"/>
-      <c r="R52" s="47"/>
-    </row>
-    <row r="53" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="45" t="s">
+      <c r="C52" s="47"/>
+      <c r="D52" s="47"/>
+      <c r="E52" s="47"/>
+      <c r="F52" s="47"/>
+      <c r="G52" s="47"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="47"/>
+      <c r="J52" s="47"/>
+      <c r="K52" s="47"/>
+      <c r="L52" s="47"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="47"/>
+      <c r="O52" s="47"/>
+      <c r="P52" s="47"/>
+      <c r="Q52" s="47"/>
+      <c r="R52" s="48"/>
+    </row>
+    <row r="53" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="46"/>
-      <c r="E76" s="46"/>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-      <c r="I76" s="46"/>
-      <c r="J76" s="46"/>
-      <c r="K76" s="46"/>
-      <c r="L76" s="46"/>
-      <c r="M76" s="46"/>
-      <c r="N76" s="46"/>
-      <c r="O76" s="46"/>
-      <c r="P76" s="46"/>
-      <c r="Q76" s="46"/>
-      <c r="R76" s="47"/>
-    </row>
-    <row r="77" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" spans="2:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B100" s="45" t="s">
+      <c r="C76" s="47"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="47"/>
+      <c r="F76" s="47"/>
+      <c r="G76" s="47"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="47"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="47"/>
+      <c r="N76" s="47"/>
+      <c r="O76" s="47"/>
+      <c r="P76" s="47"/>
+      <c r="Q76" s="47"/>
+      <c r="R76" s="48"/>
+    </row>
+    <row r="77" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B100" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="46"/>
-      <c r="D100" s="46"/>
-      <c r="E100" s="46"/>
-      <c r="F100" s="46"/>
-      <c r="G100" s="46"/>
-      <c r="H100" s="46"/>
-      <c r="I100" s="47"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="47"/>
+      <c r="E100" s="47"/>
+      <c r="F100" s="47"/>
+      <c r="G100" s="47"/>
+      <c r="H100" s="47"/>
+      <c r="I100" s="48"/>
       <c r="J100"/>
-      <c r="K100" s="45" t="s">
+      <c r="K100" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="L100" s="46"/>
-      <c r="M100" s="46"/>
-      <c r="N100" s="46"/>
-      <c r="O100" s="46"/>
-      <c r="P100" s="46"/>
-      <c r="Q100" s="46"/>
-      <c r="R100" s="47"/>
-    </row>
-    <row r="124" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B124" s="45" t="s">
+      <c r="L100" s="47"/>
+      <c r="M100" s="47"/>
+      <c r="N100" s="47"/>
+      <c r="O100" s="47"/>
+      <c r="P100" s="47"/>
+      <c r="Q100" s="47"/>
+      <c r="R100" s="48"/>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B124" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="F124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="H124" s="46"/>
-      <c r="I124" s="47"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="47"/>
+      <c r="E124" s="47"/>
+      <c r="F124" s="47"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="48"/>
       <c r="J124"/>
-      <c r="K124" s="45" t="s">
+      <c r="K124" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="L124" s="46"/>
-      <c r="M124" s="46"/>
-      <c r="N124" s="46"/>
-      <c r="O124" s="46"/>
-      <c r="P124" s="46"/>
-      <c r="Q124" s="46"/>
-      <c r="R124" s="47"/>
+      <c r="L124" s="47"/>
+      <c r="M124" s="47"/>
+      <c r="N124" s="47"/>
+      <c r="O124" s="47"/>
+      <c r="P124" s="47"/>
+      <c r="Q124" s="47"/>
+      <c r="R124" s="48"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -18023,176 +18051,176 @@
   <dimension ref="B1:CE800"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="1.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="1.6640625" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="20" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="1.6640625" customWidth="1"/>
-    <col min="22" max="22" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="1.6640625" customWidth="1"/>
-    <col min="25" max="25" width="10.6640625" style="1" customWidth="1"/>
-    <col min="26" max="27" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="1.6640625" customWidth="1"/>
-    <col min="29" max="29" width="22.6640625" style="1" customWidth="1"/>
-    <col min="30" max="31" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="1.6640625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="22.6640625" style="1" customWidth="1"/>
-    <col min="34" max="35" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="1.6640625" customWidth="1"/>
-    <col min="37" max="37" width="10.6640625" style="1" customWidth="1"/>
-    <col min="38" max="43" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="1.6640625" style="1" customWidth="1"/>
-    <col min="45" max="46" width="10.6640625" style="1" customWidth="1"/>
-    <col min="47" max="47" width="11.5546875" style="1" customWidth="1"/>
-    <col min="48" max="48" width="1.6640625" style="1" customWidth="1"/>
-    <col min="49" max="52" width="10.6640625" style="1" customWidth="1"/>
-    <col min="53" max="53" width="15.6640625" style="1" customWidth="1"/>
-    <col min="54" max="55" width="10.6640625" style="1" customWidth="1"/>
-    <col min="56" max="56" width="13.88671875" style="1" customWidth="1"/>
-    <col min="57" max="57" width="13.5546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="1.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="1.7109375" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.7109375" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" customWidth="1"/>
+    <col min="22" max="22" width="30.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.7109375" style="1" customWidth="1"/>
+    <col min="24" max="24" width="1.7109375" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" style="1" customWidth="1"/>
+    <col min="26" max="27" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="1.7109375" customWidth="1"/>
+    <col min="29" max="29" width="22.7109375" style="1" customWidth="1"/>
+    <col min="30" max="31" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="1.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="22.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="1.7109375" customWidth="1"/>
+    <col min="37" max="37" width="10.7109375" style="1" customWidth="1"/>
+    <col min="38" max="43" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="1.7109375" style="1" customWidth="1"/>
+    <col min="45" max="46" width="10.7109375" style="1" customWidth="1"/>
+    <col min="47" max="47" width="11.5703125" style="1" customWidth="1"/>
+    <col min="48" max="48" width="1.7109375" style="1" customWidth="1"/>
+    <col min="49" max="52" width="10.7109375" style="1" customWidth="1"/>
+    <col min="53" max="53" width="15.7109375" style="1" customWidth="1"/>
+    <col min="54" max="55" width="10.7109375" style="1" customWidth="1"/>
+    <col min="56" max="56" width="13.85546875" style="1" customWidth="1"/>
+    <col min="57" max="57" width="13.5703125" style="1" customWidth="1"/>
     <col min="58" max="58" width="17" style="1" customWidth="1"/>
-    <col min="59" max="59" width="16.88671875" style="1" customWidth="1"/>
-    <col min="60" max="60" width="19.44140625" style="1" customWidth="1"/>
-    <col min="61" max="61" width="19.6640625" style="1" customWidth="1"/>
-    <col min="62" max="62" width="14.109375" style="1" customWidth="1"/>
-    <col min="63" max="63" width="14.44140625" style="1" customWidth="1"/>
-    <col min="64" max="64" width="14.33203125" style="1" customWidth="1"/>
-    <col min="65" max="65" width="14.5546875" style="1" customWidth="1"/>
-    <col min="66" max="66" width="1.6640625" style="1" customWidth="1"/>
-    <col min="67" max="67" width="10.6640625" style="1" customWidth="1"/>
-    <col min="68" max="70" width="10.6640625" style="1"/>
-    <col min="71" max="71" width="15.6640625" style="1" customWidth="1"/>
-    <col min="72" max="73" width="10.6640625" style="1"/>
-    <col min="74" max="74" width="13.88671875" style="1" customWidth="1"/>
-    <col min="75" max="75" width="13.5546875" style="1" customWidth="1"/>
+    <col min="59" max="59" width="16.85546875" style="1" customWidth="1"/>
+    <col min="60" max="60" width="19.42578125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="19.7109375" style="1" customWidth="1"/>
+    <col min="62" max="62" width="14.140625" style="1" customWidth="1"/>
+    <col min="63" max="63" width="14.42578125" style="1" customWidth="1"/>
+    <col min="64" max="64" width="14.28515625" style="1" customWidth="1"/>
+    <col min="65" max="65" width="14.5703125" style="1" customWidth="1"/>
+    <col min="66" max="66" width="1.7109375" style="1" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" style="1" customWidth="1"/>
+    <col min="68" max="70" width="10.7109375" style="1"/>
+    <col min="71" max="71" width="15.7109375" style="1" customWidth="1"/>
+    <col min="72" max="73" width="10.7109375" style="1"/>
+    <col min="74" max="74" width="13.85546875" style="1" customWidth="1"/>
+    <col min="75" max="75" width="13.5703125" style="1" customWidth="1"/>
     <col min="76" max="76" width="17" style="1" customWidth="1"/>
-    <col min="77" max="77" width="16.88671875" style="1" customWidth="1"/>
-    <col min="78" max="78" width="19.44140625" style="1" customWidth="1"/>
-    <col min="79" max="79" width="19.6640625" style="1" customWidth="1"/>
-    <col min="80" max="80" width="14.109375" style="1" customWidth="1"/>
-    <col min="81" max="81" width="14.44140625" style="1" customWidth="1"/>
-    <col min="82" max="82" width="14.33203125" style="1" customWidth="1"/>
-    <col min="83" max="83" width="14.5546875" style="1" customWidth="1"/>
-    <col min="84" max="16384" width="10.6640625" style="1"/>
+    <col min="77" max="77" width="16.85546875" style="1" customWidth="1"/>
+    <col min="78" max="78" width="19.42578125" style="1" customWidth="1"/>
+    <col min="79" max="79" width="19.7109375" style="1" customWidth="1"/>
+    <col min="80" max="80" width="14.140625" style="1" customWidth="1"/>
+    <col min="81" max="81" width="14.42578125" style="1" customWidth="1"/>
+    <col min="82" max="82" width="14.28515625" style="1" customWidth="1"/>
+    <col min="83" max="83" width="14.5703125" style="1" customWidth="1"/>
+    <col min="84" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:83" ht="7.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:83" x14ac:dyDescent="0.3">
-      <c r="B2" s="49" t="s">
+    <row r="1" spans="2:83" ht="7.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:83" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="F2" s="49" t="s">
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="F2" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="J2" s="51" t="s">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="J2" s="52" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="44"/>
-      <c r="N2" s="51" t="s">
+      <c r="K2" s="44"/>
+      <c r="L2" s="45"/>
+      <c r="N2" s="52" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
-      <c r="R2" s="51" t="s">
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
+      <c r="R2" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="S2" s="43"/>
-      <c r="T2" s="44"/>
-      <c r="V2" s="48" t="s">
+      <c r="S2" s="44"/>
+      <c r="T2" s="45"/>
+      <c r="V2" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="W2" s="43"/>
-      <c r="Y2" s="51" t="s">
+      <c r="W2" s="44"/>
+      <c r="Y2" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="44"/>
-      <c r="AC2" s="51" t="s">
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="45"/>
+      <c r="AC2" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="44"/>
-      <c r="AG2" s="51" t="s">
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="45"/>
+      <c r="AG2" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="44"/>
-      <c r="AK2" s="49" t="s">
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="45"/>
+      <c r="AK2" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AL2" s="50"/>
-      <c r="AM2" s="50"/>
-      <c r="AN2" s="50"/>
-      <c r="AO2" s="50"/>
-      <c r="AP2" s="50"/>
-      <c r="AQ2" s="50"/>
-      <c r="AS2" s="51" t="s">
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AS2" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="44"/>
-      <c r="AW2" s="48" t="s">
+      <c r="AT2" s="44"/>
+      <c r="AU2" s="45"/>
+      <c r="AW2" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="AX2" s="43"/>
-      <c r="AY2" s="43"/>
-      <c r="AZ2" s="43"/>
-      <c r="BA2" s="43"/>
-      <c r="BB2" s="43"/>
-      <c r="BC2" s="43"/>
-      <c r="BD2" s="43"/>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="43"/>
-      <c r="BJ2" s="43"/>
-      <c r="BK2" s="43"/>
-      <c r="BL2" s="43"/>
-      <c r="BM2" s="43"/>
-      <c r="BO2" s="48" t="s">
+      <c r="AX2" s="44"/>
+      <c r="AY2" s="44"/>
+      <c r="AZ2" s="44"/>
+      <c r="BA2" s="44"/>
+      <c r="BB2" s="44"/>
+      <c r="BC2" s="44"/>
+      <c r="BD2" s="44"/>
+      <c r="BE2" s="44"/>
+      <c r="BF2" s="44"/>
+      <c r="BG2" s="44"/>
+      <c r="BH2" s="44"/>
+      <c r="BI2" s="44"/>
+      <c r="BJ2" s="44"/>
+      <c r="BK2" s="44"/>
+      <c r="BL2" s="44"/>
+      <c r="BM2" s="44"/>
+      <c r="BO2" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="BP2" s="43"/>
-      <c r="BQ2" s="43"/>
-      <c r="BR2" s="43"/>
-      <c r="BS2" s="43"/>
-      <c r="BT2" s="43"/>
-      <c r="BU2" s="43"/>
-      <c r="BV2" s="43"/>
-      <c r="BW2" s="43"/>
-      <c r="BX2" s="43"/>
-      <c r="BY2" s="43"/>
-      <c r="BZ2" s="43"/>
-      <c r="CA2" s="43"/>
-      <c r="CB2" s="43"/>
-      <c r="CC2" s="43"/>
-      <c r="CD2" s="43"/>
-      <c r="CE2" s="43"/>
-    </row>
-    <row r="3" spans="2:83" x14ac:dyDescent="0.3">
+      <c r="BP2" s="44"/>
+      <c r="BQ2" s="44"/>
+      <c r="BR2" s="44"/>
+      <c r="BS2" s="44"/>
+      <c r="BT2" s="44"/>
+      <c r="BU2" s="44"/>
+      <c r="BV2" s="44"/>
+      <c r="BW2" s="44"/>
+      <c r="BX2" s="44"/>
+      <c r="BY2" s="44"/>
+      <c r="BZ2" s="44"/>
+      <c r="CA2" s="44"/>
+      <c r="CB2" s="44"/>
+      <c r="CC2" s="44"/>
+      <c r="CD2" s="44"/>
+      <c r="CE2" s="44"/>
+    </row>
+    <row r="3" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
         <v>118</v>
       </c>
@@ -18404,7 +18432,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
@@ -18476,7 +18504,7 @@
       <c r="CD4" s="4"/>
       <c r="CE4" s="34"/>
     </row>
-    <row r="5" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
@@ -18548,7 +18576,7 @@
       <c r="CD5" s="4"/>
       <c r="CE5" s="34"/>
     </row>
-    <row r="6" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="38"/>
       <c r="D6" s="2"/>
@@ -18620,7 +18648,7 @@
       <c r="CD6" s="4"/>
       <c r="CE6" s="34"/>
     </row>
-    <row r="7" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="38"/>
       <c r="D7" s="2"/>
@@ -18689,7 +18717,7 @@
       <c r="CD7" s="4"/>
       <c r="CE7" s="34"/>
     </row>
-    <row r="8" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="38"/>
       <c r="D8" s="2"/>
@@ -18755,10 +18783,13 @@
       <c r="CD8" s="4"/>
       <c r="CE8" s="34"/>
     </row>
-    <row r="9" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="38"/>
       <c r="D9" s="37"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
       <c r="R9" s="20"/>
       <c r="S9" s="25"/>
       <c r="T9" s="39"/>
@@ -18818,7 +18849,7 @@
       <c r="CD9" s="4"/>
       <c r="CE9" s="34"/>
     </row>
-    <row r="10" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="38"/>
       <c r="D10" s="37"/>
@@ -18879,7 +18910,7 @@
       <c r="CD10" s="4"/>
       <c r="CE10" s="34"/>
     </row>
-    <row r="11" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="38"/>
       <c r="D11" s="37"/>
@@ -18937,7 +18968,7 @@
       <c r="CD11" s="4"/>
       <c r="CE11" s="34"/>
     </row>
-    <row r="12" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="38"/>
       <c r="D12" s="25"/>
@@ -18995,7 +19026,7 @@
       <c r="CD12" s="4"/>
       <c r="CE12" s="34"/>
     </row>
-    <row r="13" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="38"/>
       <c r="D13" s="37"/>
@@ -19053,7 +19084,7 @@
       <c r="CD13" s="4"/>
       <c r="CE13" s="34"/>
     </row>
-    <row r="14" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="38"/>
       <c r="D14" s="37"/>
@@ -19111,7 +19142,7 @@
       <c r="CD14" s="4"/>
       <c r="CE14" s="34"/>
     </row>
-    <row r="15" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="38"/>
       <c r="D15" s="37"/>
@@ -19169,7 +19200,7 @@
       <c r="CD15" s="4"/>
       <c r="CE15" s="34"/>
     </row>
-    <row r="16" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="38"/>
       <c r="D16" s="37"/>
@@ -19220,7 +19251,7 @@
       <c r="CD16" s="4"/>
       <c r="CE16" s="34"/>
     </row>
-    <row r="17" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="38"/>
       <c r="D17" s="2"/>
@@ -19271,7 +19302,7 @@
       <c r="CD17" s="35"/>
       <c r="CE17" s="36"/>
     </row>
-    <row r="18" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="38"/>
       <c r="D18" s="2"/>
@@ -19322,7 +19353,7 @@
       <c r="CD18" s="4"/>
       <c r="CE18" s="34"/>
     </row>
-    <row r="19" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:83" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="38"/>
       <c r="D19" s="2"/>
@@ -19373,7 +19404,7 @@
       <c r="CD19" s="4"/>
       <c r="CE19" s="34"/>
     </row>
-    <row r="20" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R20" s="20"/>
       <c r="S20" s="25"/>
       <c r="T20" s="39"/>
@@ -19421,7 +19452,7 @@
       <c r="CD20" s="4"/>
       <c r="CE20" s="34"/>
     </row>
-    <row r="21" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R21" s="20"/>
       <c r="S21" s="25"/>
       <c r="T21" s="39"/>
@@ -19469,7 +19500,7 @@
       <c r="CD21" s="4"/>
       <c r="CE21" s="34"/>
     </row>
-    <row r="22" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R22" s="20"/>
       <c r="S22" s="25"/>
       <c r="T22" s="39"/>
@@ -19517,7 +19548,7 @@
       <c r="CD22" s="4"/>
       <c r="CE22" s="34"/>
     </row>
-    <row r="23" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R23" s="20"/>
       <c r="S23" s="25"/>
       <c r="T23" s="39"/>
@@ -19565,7 +19596,7 @@
       <c r="CD23" s="4"/>
       <c r="CE23" s="34"/>
     </row>
-    <row r="24" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R24" s="20"/>
       <c r="S24" s="25"/>
       <c r="T24" s="39"/>
@@ -19613,7 +19644,7 @@
       <c r="CD24" s="4"/>
       <c r="CE24" s="34"/>
     </row>
-    <row r="25" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R25" s="20"/>
       <c r="S25" s="25"/>
       <c r="T25" s="39"/>
@@ -19661,7 +19692,7 @@
       <c r="CD25" s="4"/>
       <c r="CE25" s="34"/>
     </row>
-    <row r="26" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R26" s="20"/>
       <c r="S26" s="25"/>
       <c r="T26" s="39"/>
@@ -19709,7 +19740,7 @@
       <c r="CD26" s="4"/>
       <c r="CE26" s="34"/>
     </row>
-    <row r="27" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R27" s="20"/>
       <c r="S27" s="25"/>
       <c r="T27" s="39"/>
@@ -19757,7 +19788,7 @@
       <c r="CD27" s="4"/>
       <c r="CE27" s="34"/>
     </row>
-    <row r="28" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:83" x14ac:dyDescent="0.25">
       <c r="R28" s="24"/>
       <c r="S28" s="26"/>
       <c r="T28" s="40"/>
@@ -19805,7 +19836,7 @@
       <c r="CD28" s="4"/>
       <c r="CE28" s="34"/>
     </row>
-    <row r="29" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC29" s="20"/>
       <c r="AD29" s="38"/>
       <c r="AE29" s="27"/>
@@ -19850,7 +19881,7 @@
       <c r="CD29" s="4"/>
       <c r="CE29" s="34"/>
     </row>
-    <row r="30" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC30" s="20"/>
       <c r="AD30" s="38"/>
       <c r="AE30" s="27"/>
@@ -19895,7 +19926,7 @@
       <c r="CD30" s="4"/>
       <c r="CE30" s="34"/>
     </row>
-    <row r="31" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC31" s="20"/>
       <c r="AD31" s="38"/>
       <c r="AE31" s="27"/>
@@ -19940,7 +19971,7 @@
       <c r="CD31" s="4"/>
       <c r="CE31" s="34"/>
     </row>
-    <row r="32" spans="2:83" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:83" x14ac:dyDescent="0.25">
       <c r="AC32" s="20"/>
       <c r="AD32" s="38"/>
       <c r="AE32" s="27"/>
@@ -19985,7 +20016,7 @@
       <c r="CD32" s="4"/>
       <c r="CE32" s="34"/>
     </row>
-    <row r="33" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="33" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC33" s="20"/>
       <c r="AD33" s="38"/>
       <c r="AE33" s="27"/>
@@ -20030,7 +20061,7 @@
       <c r="CD33" s="4"/>
       <c r="CE33" s="34"/>
     </row>
-    <row r="34" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="34" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC34" s="20"/>
       <c r="AD34" s="38"/>
       <c r="AE34" s="27"/>
@@ -20075,7 +20106,7 @@
       <c r="CD34" s="4"/>
       <c r="CE34" s="34"/>
     </row>
-    <row r="35" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="35" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC35" s="20"/>
       <c r="AD35" s="38"/>
       <c r="AE35" s="27"/>
@@ -20120,7 +20151,7 @@
       <c r="CD35" s="4"/>
       <c r="CE35" s="34"/>
     </row>
-    <row r="36" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="36" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC36" s="20"/>
       <c r="AD36" s="38"/>
       <c r="AE36" s="27"/>
@@ -20165,7 +20196,7 @@
       <c r="CD36" s="4"/>
       <c r="CE36" s="34"/>
     </row>
-    <row r="37" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="37" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC37" s="20"/>
       <c r="AD37" s="38"/>
       <c r="AE37" s="27"/>
@@ -20210,7 +20241,7 @@
       <c r="CD37" s="4"/>
       <c r="CE37" s="34"/>
     </row>
-    <row r="38" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="38" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC38" s="20"/>
       <c r="AD38" s="38"/>
       <c r="AE38" s="27"/>
@@ -20255,7 +20286,7 @@
       <c r="CD38" s="4"/>
       <c r="CE38" s="34"/>
     </row>
-    <row r="39" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="39" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC39" s="20"/>
       <c r="AD39" s="38"/>
       <c r="AE39" s="27"/>
@@ -20300,7 +20331,7 @@
       <c r="CD39" s="4"/>
       <c r="CE39" s="34"/>
     </row>
-    <row r="40" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="40" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC40" s="20"/>
       <c r="AD40" s="38"/>
       <c r="AE40" s="27"/>
@@ -20345,7 +20376,7 @@
       <c r="CD40" s="4"/>
       <c r="CE40" s="34"/>
     </row>
-    <row r="41" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="41" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC41" s="20"/>
       <c r="AD41" s="38"/>
       <c r="AE41" s="27"/>
@@ -20390,7 +20421,7 @@
       <c r="CD41" s="4"/>
       <c r="CE41" s="34"/>
     </row>
-    <row r="42" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="42" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC42" s="20"/>
       <c r="AD42" s="38"/>
       <c r="AE42" s="27"/>
@@ -20435,7 +20466,7 @@
       <c r="CD42" s="4"/>
       <c r="CE42" s="34"/>
     </row>
-    <row r="43" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="43" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC43" s="20"/>
       <c r="AD43" s="38"/>
       <c r="AE43" s="27"/>
@@ -20480,7 +20511,7 @@
       <c r="CD43" s="4"/>
       <c r="CE43" s="34"/>
     </row>
-    <row r="44" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="44" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC44" s="20"/>
       <c r="AD44" s="38"/>
       <c r="AE44" s="27"/>
@@ -20525,7 +20556,7 @@
       <c r="CD44" s="4"/>
       <c r="CE44" s="34"/>
     </row>
-    <row r="45" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="45" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC45" s="20"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="27"/>
@@ -20570,7 +20601,7 @@
       <c r="CD45" s="4"/>
       <c r="CE45" s="34"/>
     </row>
-    <row r="46" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="46" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC46" s="20"/>
       <c r="AD46" s="38"/>
       <c r="AE46" s="27"/>
@@ -20615,7 +20646,7 @@
       <c r="CD46" s="4"/>
       <c r="CE46" s="34"/>
     </row>
-    <row r="47" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="47" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC47" s="20"/>
       <c r="AD47" s="38"/>
       <c r="AE47" s="27"/>
@@ -20660,7 +20691,7 @@
       <c r="CD47" s="4"/>
       <c r="CE47" s="34"/>
     </row>
-    <row r="48" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="48" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC48" s="20"/>
       <c r="AD48" s="38"/>
       <c r="AE48" s="27"/>
@@ -20705,7 +20736,7 @@
       <c r="CD48" s="4"/>
       <c r="CE48" s="34"/>
     </row>
-    <row r="49" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="49" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC49" s="20"/>
       <c r="AD49" s="38"/>
       <c r="AE49" s="27"/>
@@ -20750,7 +20781,7 @@
       <c r="CD49" s="4"/>
       <c r="CE49" s="34"/>
     </row>
-    <row r="50" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="50" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AC50" s="24"/>
       <c r="AD50" s="41"/>
       <c r="AE50" s="28"/>
@@ -20795,7 +20826,7 @@
       <c r="CD50" s="4"/>
       <c r="CE50" s="34"/>
     </row>
-    <row r="51" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="51" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS51" s="29"/>
       <c r="AT51" s="18"/>
       <c r="AU51" s="30"/>
@@ -20834,7 +20865,7 @@
       <c r="CD51" s="4"/>
       <c r="CE51" s="34"/>
     </row>
-    <row r="52" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="52" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS52" s="29"/>
       <c r="AT52" s="18"/>
       <c r="AU52" s="30"/>
@@ -20873,7 +20904,7 @@
       <c r="CD52" s="4"/>
       <c r="CE52" s="34"/>
     </row>
-    <row r="53" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="53" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS53" s="29"/>
       <c r="AT53" s="18"/>
       <c r="AU53" s="30"/>
@@ -20912,7 +20943,7 @@
       <c r="CD53" s="4"/>
       <c r="CE53" s="34"/>
     </row>
-    <row r="54" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="54" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS54" s="29"/>
       <c r="AT54" s="18"/>
       <c r="AU54" s="30"/>
@@ -20951,7 +20982,7 @@
       <c r="CD54" s="4"/>
       <c r="CE54" s="34"/>
     </row>
-    <row r="55" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="55" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS55" s="29"/>
       <c r="AT55" s="18"/>
       <c r="AU55" s="30"/>
@@ -20990,7 +21021,7 @@
       <c r="CD55" s="4"/>
       <c r="CE55" s="34"/>
     </row>
-    <row r="56" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="56" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS56" s="29"/>
       <c r="AT56" s="18"/>
       <c r="AU56" s="30"/>
@@ -21029,7 +21060,7 @@
       <c r="CD56" s="4"/>
       <c r="CE56" s="34"/>
     </row>
-    <row r="57" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="57" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS57" s="29"/>
       <c r="AT57" s="18"/>
       <c r="AU57" s="30"/>
@@ -21068,7 +21099,7 @@
       <c r="CD57" s="4"/>
       <c r="CE57" s="34"/>
     </row>
-    <row r="58" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="58" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS58" s="29"/>
       <c r="AT58" s="18"/>
       <c r="AU58" s="30"/>
@@ -21107,7 +21138,7 @@
       <c r="CD58" s="4"/>
       <c r="CE58" s="34"/>
     </row>
-    <row r="59" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="59" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS59" s="29"/>
       <c r="AT59" s="18"/>
       <c r="AU59" s="30"/>
@@ -21146,7 +21177,7 @@
       <c r="CD59" s="4"/>
       <c r="CE59" s="34"/>
     </row>
-    <row r="60" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="60" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS60" s="29"/>
       <c r="AT60" s="18"/>
       <c r="AU60" s="30"/>
@@ -21185,7 +21216,7 @@
       <c r="CD60" s="4"/>
       <c r="CE60" s="34"/>
     </row>
-    <row r="61" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="61" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS61" s="29"/>
       <c r="AT61" s="18"/>
       <c r="AU61" s="30"/>
@@ -21224,7 +21255,7 @@
       <c r="CD61" s="4"/>
       <c r="CE61" s="34"/>
     </row>
-    <row r="62" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="62" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS62" s="29"/>
       <c r="AT62" s="18"/>
       <c r="AU62" s="30"/>
@@ -21263,7 +21294,7 @@
       <c r="CD62" s="4"/>
       <c r="CE62" s="34"/>
     </row>
-    <row r="63" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="63" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS63" s="29"/>
       <c r="AT63" s="18"/>
       <c r="AU63" s="30"/>
@@ -21302,7 +21333,7 @@
       <c r="CD63" s="4"/>
       <c r="CE63" s="34"/>
     </row>
-    <row r="64" spans="29:83" x14ac:dyDescent="0.3">
+    <row r="64" spans="29:83" x14ac:dyDescent="0.25">
       <c r="AS64" s="29"/>
       <c r="AT64" s="18"/>
       <c r="AU64" s="30"/>
@@ -21341,7 +21372,7 @@
       <c r="CD64" s="4"/>
       <c r="CE64" s="34"/>
     </row>
-    <row r="65" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="65" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS65" s="29"/>
       <c r="AT65" s="18"/>
       <c r="AU65" s="30"/>
@@ -21380,7 +21411,7 @@
       <c r="CD65" s="4"/>
       <c r="CE65" s="34"/>
     </row>
-    <row r="66" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="66" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS66" s="29"/>
       <c r="AT66" s="18"/>
       <c r="AU66" s="30"/>
@@ -21419,7 +21450,7 @@
       <c r="CD66" s="4"/>
       <c r="CE66" s="34"/>
     </row>
-    <row r="67" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="67" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS67" s="29"/>
       <c r="AT67" s="18"/>
       <c r="AU67" s="30"/>
@@ -21458,7 +21489,7 @@
       <c r="CD67" s="4"/>
       <c r="CE67" s="34"/>
     </row>
-    <row r="68" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="68" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS68" s="29"/>
       <c r="AT68" s="18"/>
       <c r="AU68" s="30"/>
@@ -21497,7 +21528,7 @@
       <c r="CD68" s="4"/>
       <c r="CE68" s="34"/>
     </row>
-    <row r="69" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="69" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS69" s="29"/>
       <c r="AT69" s="18"/>
       <c r="AU69" s="30"/>
@@ -21536,7 +21567,7 @@
       <c r="CD69" s="4"/>
       <c r="CE69" s="34"/>
     </row>
-    <row r="70" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="70" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS70" s="29"/>
       <c r="AT70" s="18"/>
       <c r="AU70" s="30"/>
@@ -21575,7 +21606,7 @@
       <c r="CD70" s="4"/>
       <c r="CE70" s="34"/>
     </row>
-    <row r="71" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="71" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS71" s="29"/>
       <c r="AT71" s="18"/>
       <c r="AU71" s="30"/>
@@ -21614,7 +21645,7 @@
       <c r="CD71" s="4"/>
       <c r="CE71" s="34"/>
     </row>
-    <row r="72" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="72" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS72" s="29"/>
       <c r="AT72" s="18"/>
       <c r="AU72" s="30"/>
@@ -21653,7 +21684,7 @@
       <c r="CD72" s="4"/>
       <c r="CE72" s="34"/>
     </row>
-    <row r="73" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="73" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS73" s="29"/>
       <c r="AT73" s="18"/>
       <c r="AU73" s="30"/>
@@ -21692,7 +21723,7 @@
       <c r="CD73" s="4"/>
       <c r="CE73" s="34"/>
     </row>
-    <row r="74" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="74" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS74" s="29"/>
       <c r="AT74" s="18"/>
       <c r="AU74" s="30"/>
@@ -21731,7 +21762,7 @@
       <c r="CD74" s="4"/>
       <c r="CE74" s="34"/>
     </row>
-    <row r="75" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="75" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS75" s="29"/>
       <c r="AT75" s="18"/>
       <c r="AU75" s="30"/>
@@ -21770,7 +21801,7 @@
       <c r="CD75" s="4"/>
       <c r="CE75" s="34"/>
     </row>
-    <row r="76" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="76" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS76" s="29"/>
       <c r="AT76" s="18"/>
       <c r="AU76" s="30"/>
@@ -21809,7 +21840,7 @@
       <c r="CD76" s="4"/>
       <c r="CE76" s="34"/>
     </row>
-    <row r="77" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="77" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS77" s="29"/>
       <c r="AT77" s="18"/>
       <c r="AU77" s="30"/>
@@ -21848,7 +21879,7 @@
       <c r="CD77" s="4"/>
       <c r="CE77" s="34"/>
     </row>
-    <row r="78" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="78" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS78" s="29"/>
       <c r="AT78" s="18"/>
       <c r="AU78" s="30"/>
@@ -21887,7 +21918,7 @@
       <c r="CD78" s="4"/>
       <c r="CE78" s="34"/>
     </row>
-    <row r="79" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="79" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS79" s="29"/>
       <c r="AT79" s="18"/>
       <c r="AU79" s="30"/>
@@ -21926,7 +21957,7 @@
       <c r="CD79" s="4"/>
       <c r="CE79" s="34"/>
     </row>
-    <row r="80" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="80" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS80" s="29"/>
       <c r="AT80" s="18"/>
       <c r="AU80" s="30"/>
@@ -21965,7 +21996,7 @@
       <c r="CD80" s="4"/>
       <c r="CE80" s="34"/>
     </row>
-    <row r="81" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="81" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS81" s="29"/>
       <c r="AT81" s="18"/>
       <c r="AU81" s="30"/>
@@ -22004,7 +22035,7 @@
       <c r="CD81" s="4"/>
       <c r="CE81" s="34"/>
     </row>
-    <row r="82" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="82" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS82" s="29"/>
       <c r="AT82" s="18"/>
       <c r="AU82" s="30"/>
@@ -22043,7 +22074,7 @@
       <c r="CD82" s="4"/>
       <c r="CE82" s="34"/>
     </row>
-    <row r="83" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="83" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS83" s="29"/>
       <c r="AT83" s="18"/>
       <c r="AU83" s="30"/>
@@ -22082,7 +22113,7 @@
       <c r="CD83" s="4"/>
       <c r="CE83" s="34"/>
     </row>
-    <row r="84" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="84" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS84" s="29"/>
       <c r="AT84" s="18"/>
       <c r="AU84" s="30"/>
@@ -22121,7 +22152,7 @@
       <c r="CD84" s="4"/>
       <c r="CE84" s="34"/>
     </row>
-    <row r="85" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="85" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS85" s="29"/>
       <c r="AT85" s="18"/>
       <c r="AU85" s="30"/>
@@ -22160,7 +22191,7 @@
       <c r="CD85" s="4"/>
       <c r="CE85" s="34"/>
     </row>
-    <row r="86" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="86" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS86" s="29"/>
       <c r="AT86" s="18"/>
       <c r="AU86" s="30"/>
@@ -22199,7 +22230,7 @@
       <c r="CD86" s="4"/>
       <c r="CE86" s="34"/>
     </row>
-    <row r="87" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="87" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS87" s="29"/>
       <c r="AT87" s="18"/>
       <c r="AU87" s="30"/>
@@ -22238,7 +22269,7 @@
       <c r="CD87" s="4"/>
       <c r="CE87" s="34"/>
     </row>
-    <row r="88" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="88" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS88" s="29"/>
       <c r="AT88" s="18"/>
       <c r="AU88" s="30"/>
@@ -22277,7 +22308,7 @@
       <c r="CD88" s="4"/>
       <c r="CE88" s="34"/>
     </row>
-    <row r="89" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="89" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS89" s="29"/>
       <c r="AT89" s="18"/>
       <c r="AU89" s="30"/>
@@ -22316,7 +22347,7 @@
       <c r="CD89" s="4"/>
       <c r="CE89" s="34"/>
     </row>
-    <row r="90" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="90" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS90" s="29"/>
       <c r="AT90" s="18"/>
       <c r="AU90" s="30"/>
@@ -22355,7 +22386,7 @@
       <c r="CD90" s="4"/>
       <c r="CE90" s="34"/>
     </row>
-    <row r="91" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="91" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS91" s="29"/>
       <c r="AT91" s="18"/>
       <c r="AU91" s="30"/>
@@ -22394,7 +22425,7 @@
       <c r="CD91" s="4"/>
       <c r="CE91" s="34"/>
     </row>
-    <row r="92" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="92" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS92" s="29"/>
       <c r="AT92" s="18"/>
       <c r="AU92" s="30"/>
@@ -22433,7 +22464,7 @@
       <c r="CD92" s="4"/>
       <c r="CE92" s="34"/>
     </row>
-    <row r="93" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="93" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS93" s="29"/>
       <c r="AT93" s="18"/>
       <c r="AU93" s="30"/>
@@ -22472,7 +22503,7 @@
       <c r="CD93" s="4"/>
       <c r="CE93" s="34"/>
     </row>
-    <row r="94" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="94" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS94" s="29"/>
       <c r="AT94" s="18"/>
       <c r="AU94" s="30"/>
@@ -22511,7 +22542,7 @@
       <c r="CD94" s="4"/>
       <c r="CE94" s="34"/>
     </row>
-    <row r="95" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="95" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS95" s="29"/>
       <c r="AT95" s="18"/>
       <c r="AU95" s="30"/>
@@ -22550,7 +22581,7 @@
       <c r="CD95" s="4"/>
       <c r="CE95" s="34"/>
     </row>
-    <row r="96" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="96" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS96" s="29"/>
       <c r="AT96" s="18"/>
       <c r="AU96" s="30"/>
@@ -22589,7 +22620,7 @@
       <c r="CD96" s="4"/>
       <c r="CE96" s="34"/>
     </row>
-    <row r="97" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="97" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS97" s="29"/>
       <c r="AT97" s="18"/>
       <c r="AU97" s="30"/>
@@ -22628,7 +22659,7 @@
       <c r="CD97" s="4"/>
       <c r="CE97" s="34"/>
     </row>
-    <row r="98" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="98" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS98" s="29"/>
       <c r="AT98" s="18"/>
       <c r="AU98" s="30"/>
@@ -22667,7 +22698,7 @@
       <c r="CD98" s="4"/>
       <c r="CE98" s="34"/>
     </row>
-    <row r="99" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="99" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS99" s="29"/>
       <c r="AT99" s="18"/>
       <c r="AU99" s="30"/>
@@ -22706,7 +22737,7 @@
       <c r="CD99" s="4"/>
       <c r="CE99" s="34"/>
     </row>
-    <row r="100" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="100" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS100" s="29"/>
       <c r="AT100" s="18"/>
       <c r="AU100" s="30"/>
@@ -22745,7 +22776,7 @@
       <c r="CD100" s="4"/>
       <c r="CE100" s="34"/>
     </row>
-    <row r="101" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="101" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS101" s="29"/>
       <c r="AT101" s="18"/>
       <c r="AU101" s="30"/>
@@ -22784,7 +22815,7 @@
       <c r="CD101" s="4"/>
       <c r="CE101" s="34"/>
     </row>
-    <row r="102" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="102" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS102" s="29"/>
       <c r="AT102" s="18"/>
       <c r="AU102" s="30"/>
@@ -22823,7 +22854,7 @@
       <c r="CD102" s="4"/>
       <c r="CE102" s="34"/>
     </row>
-    <row r="103" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="103" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS103" s="29"/>
       <c r="AT103" s="18"/>
       <c r="AU103" s="30"/>
@@ -22862,7 +22893,7 @@
       <c r="CD103" s="4"/>
       <c r="CE103" s="34"/>
     </row>
-    <row r="104" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="104" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS104" s="29"/>
       <c r="AT104" s="18"/>
       <c r="AU104" s="30"/>
@@ -22901,7 +22932,7 @@
       <c r="CD104" s="4"/>
       <c r="CE104" s="34"/>
     </row>
-    <row r="105" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="105" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS105" s="29"/>
       <c r="AT105" s="18"/>
       <c r="AU105" s="30"/>
@@ -22940,7 +22971,7 @@
       <c r="CD105" s="4"/>
       <c r="CE105" s="34"/>
     </row>
-    <row r="106" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="106" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS106" s="31"/>
       <c r="AT106" s="32"/>
       <c r="AU106" s="33"/>
@@ -22979,7 +23010,7 @@
       <c r="CD106" s="4"/>
       <c r="CE106" s="34"/>
     </row>
-    <row r="107" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="107" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS107" s="29"/>
       <c r="AT107" s="18"/>
       <c r="AU107" s="30"/>
@@ -23018,7 +23049,7 @@
       <c r="CD107" s="4"/>
       <c r="CE107" s="34"/>
     </row>
-    <row r="108" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="108" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS108" s="29"/>
       <c r="AT108" s="18"/>
       <c r="AU108" s="30"/>
@@ -23057,7 +23088,7 @@
       <c r="CD108" s="4"/>
       <c r="CE108" s="34"/>
     </row>
-    <row r="109" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="109" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS109" s="29"/>
       <c r="AT109" s="18"/>
       <c r="AU109" s="30"/>
@@ -23096,7 +23127,7 @@
       <c r="CD109" s="4"/>
       <c r="CE109" s="34"/>
     </row>
-    <row r="110" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="110" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS110" s="29"/>
       <c r="AT110" s="18"/>
       <c r="AU110" s="30"/>
@@ -23135,7 +23166,7 @@
       <c r="CD110" s="4"/>
       <c r="CE110" s="34"/>
     </row>
-    <row r="111" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="111" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS111" s="29"/>
       <c r="AT111" s="18"/>
       <c r="AU111" s="30"/>
@@ -23174,7 +23205,7 @@
       <c r="CD111" s="4"/>
       <c r="CE111" s="34"/>
     </row>
-    <row r="112" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="112" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS112" s="29"/>
       <c r="AT112" s="18"/>
       <c r="AU112" s="30"/>
@@ -23213,7 +23244,7 @@
       <c r="CD112" s="4"/>
       <c r="CE112" s="34"/>
     </row>
-    <row r="113" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="113" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS113" s="29"/>
       <c r="AT113" s="18"/>
       <c r="AU113" s="30"/>
@@ -23252,7 +23283,7 @@
       <c r="CD113" s="4"/>
       <c r="CE113" s="34"/>
     </row>
-    <row r="114" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="114" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS114" s="29"/>
       <c r="AT114" s="18"/>
       <c r="AU114" s="30"/>
@@ -23291,7 +23322,7 @@
       <c r="CD114" s="4"/>
       <c r="CE114" s="34"/>
     </row>
-    <row r="115" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="115" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS115" s="29"/>
       <c r="AT115" s="18"/>
       <c r="AU115" s="30"/>
@@ -23330,7 +23361,7 @@
       <c r="CD115" s="35"/>
       <c r="CE115" s="36"/>
     </row>
-    <row r="116" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="116" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS116" s="29"/>
       <c r="AT116" s="18"/>
       <c r="AU116" s="30"/>
@@ -23352,7 +23383,7 @@
       <c r="BL116" s="4"/>
       <c r="BM116" s="34"/>
     </row>
-    <row r="117" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="117" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS117" s="29"/>
       <c r="AT117" s="18"/>
       <c r="AU117" s="30"/>
@@ -23374,7 +23405,7 @@
       <c r="BL117" s="4"/>
       <c r="BM117" s="34"/>
     </row>
-    <row r="118" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="118" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS118" s="29"/>
       <c r="AT118" s="18"/>
       <c r="AU118" s="30"/>
@@ -23396,7 +23427,7 @@
       <c r="BL118" s="4"/>
       <c r="BM118" s="34"/>
     </row>
-    <row r="119" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="119" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS119" s="29"/>
       <c r="AT119" s="18"/>
       <c r="AU119" s="30"/>
@@ -23418,7 +23449,7 @@
       <c r="BL119" s="4"/>
       <c r="BM119" s="34"/>
     </row>
-    <row r="120" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="120" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS120" s="29"/>
       <c r="AT120" s="18"/>
       <c r="AU120" s="30"/>
@@ -23440,7 +23471,7 @@
       <c r="BL120" s="4"/>
       <c r="BM120" s="34"/>
     </row>
-    <row r="121" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="121" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS121" s="29"/>
       <c r="AT121" s="18"/>
       <c r="AU121" s="30"/>
@@ -23462,7 +23493,7 @@
       <c r="BL121" s="4"/>
       <c r="BM121" s="34"/>
     </row>
-    <row r="122" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="122" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS122" s="29"/>
       <c r="AT122" s="18"/>
       <c r="AU122" s="30"/>
@@ -23484,7 +23515,7 @@
       <c r="BL122" s="4"/>
       <c r="BM122" s="34"/>
     </row>
-    <row r="123" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="123" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS123" s="29"/>
       <c r="AT123" s="18"/>
       <c r="AU123" s="30"/>
@@ -23506,7 +23537,7 @@
       <c r="BL123" s="4"/>
       <c r="BM123" s="34"/>
     </row>
-    <row r="124" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="124" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS124" s="29"/>
       <c r="AT124" s="18"/>
       <c r="AU124" s="30"/>
@@ -23528,7 +23559,7 @@
       <c r="BL124" s="4"/>
       <c r="BM124" s="34"/>
     </row>
-    <row r="125" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="125" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS125" s="29"/>
       <c r="AT125" s="18"/>
       <c r="AU125" s="30"/>
@@ -23550,7 +23581,7 @@
       <c r="BL125" s="4"/>
       <c r="BM125" s="34"/>
     </row>
-    <row r="126" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="126" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS126" s="29"/>
       <c r="AT126" s="18"/>
       <c r="AU126" s="30"/>
@@ -23572,7 +23603,7 @@
       <c r="BL126" s="4"/>
       <c r="BM126" s="34"/>
     </row>
-    <row r="127" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="127" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS127" s="29"/>
       <c r="AT127" s="18"/>
       <c r="AU127" s="30"/>
@@ -23594,7 +23625,7 @@
       <c r="BL127" s="4"/>
       <c r="BM127" s="34"/>
     </row>
-    <row r="128" spans="45:83" x14ac:dyDescent="0.3">
+    <row r="128" spans="45:83" x14ac:dyDescent="0.25">
       <c r="AS128" s="29"/>
       <c r="AT128" s="18"/>
       <c r="AU128" s="30"/>
@@ -23616,7 +23647,7 @@
       <c r="BL128" s="4"/>
       <c r="BM128" s="34"/>
     </row>
-    <row r="129" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="129" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS129" s="29"/>
       <c r="AT129" s="18"/>
       <c r="AU129" s="30"/>
@@ -23638,7 +23669,7 @@
       <c r="BL129" s="4"/>
       <c r="BM129" s="34"/>
     </row>
-    <row r="130" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="130" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS130" s="29"/>
       <c r="AT130" s="18"/>
       <c r="AU130" s="30"/>
@@ -23660,7 +23691,7 @@
       <c r="BL130" s="4"/>
       <c r="BM130" s="34"/>
     </row>
-    <row r="131" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="131" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS131" s="29"/>
       <c r="AT131" s="18"/>
       <c r="AU131" s="30"/>
@@ -23682,7 +23713,7 @@
       <c r="BL131" s="4"/>
       <c r="BM131" s="34"/>
     </row>
-    <row r="132" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="132" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS132" s="29"/>
       <c r="AT132" s="18"/>
       <c r="AU132" s="30"/>
@@ -23704,7 +23735,7 @@
       <c r="BL132" s="4"/>
       <c r="BM132" s="34"/>
     </row>
-    <row r="133" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="133" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS133" s="29"/>
       <c r="AT133" s="18"/>
       <c r="AU133" s="30"/>
@@ -23726,7 +23757,7 @@
       <c r="BL133" s="4"/>
       <c r="BM133" s="34"/>
     </row>
-    <row r="134" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="134" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS134" s="29"/>
       <c r="AT134" s="18"/>
       <c r="AU134" s="30"/>
@@ -23748,7 +23779,7 @@
       <c r="BL134" s="4"/>
       <c r="BM134" s="34"/>
     </row>
-    <row r="135" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="135" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS135" s="29"/>
       <c r="AT135" s="18"/>
       <c r="AU135" s="30"/>
@@ -23770,7 +23801,7 @@
       <c r="BL135" s="4"/>
       <c r="BM135" s="34"/>
     </row>
-    <row r="136" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="136" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS136" s="29"/>
       <c r="AT136" s="18"/>
       <c r="AU136" s="30"/>
@@ -23792,7 +23823,7 @@
       <c r="BL136" s="4"/>
       <c r="BM136" s="34"/>
     </row>
-    <row r="137" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="137" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS137" s="29"/>
       <c r="AT137" s="18"/>
       <c r="AU137" s="30"/>
@@ -23814,7 +23845,7 @@
       <c r="BL137" s="4"/>
       <c r="BM137" s="34"/>
     </row>
-    <row r="138" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="138" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS138" s="29"/>
       <c r="AT138" s="18"/>
       <c r="AU138" s="30"/>
@@ -23836,7 +23867,7 @@
       <c r="BL138" s="4"/>
       <c r="BM138" s="34"/>
     </row>
-    <row r="139" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="139" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS139" s="29"/>
       <c r="AT139" s="18"/>
       <c r="AU139" s="30"/>
@@ -23858,7 +23889,7 @@
       <c r="BL139" s="4"/>
       <c r="BM139" s="34"/>
     </row>
-    <row r="140" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="140" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS140" s="29"/>
       <c r="AT140" s="18"/>
       <c r="AU140" s="30"/>
@@ -23880,7 +23911,7 @@
       <c r="BL140" s="4"/>
       <c r="BM140" s="34"/>
     </row>
-    <row r="141" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="141" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS141" s="29"/>
       <c r="AT141" s="18"/>
       <c r="AU141" s="30"/>
@@ -23902,7 +23933,7 @@
       <c r="BL141" s="4"/>
       <c r="BM141" s="34"/>
     </row>
-    <row r="142" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="142" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS142" s="29"/>
       <c r="AT142" s="18"/>
       <c r="AU142" s="30"/>
@@ -23924,7 +23955,7 @@
       <c r="BL142" s="4"/>
       <c r="BM142" s="34"/>
     </row>
-    <row r="143" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="143" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS143" s="29"/>
       <c r="AT143" s="18"/>
       <c r="AU143" s="30"/>
@@ -23946,7 +23977,7 @@
       <c r="BL143" s="4"/>
       <c r="BM143" s="34"/>
     </row>
-    <row r="144" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="144" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS144" s="29"/>
       <c r="AT144" s="18"/>
       <c r="AU144" s="30"/>
@@ -23968,7 +23999,7 @@
       <c r="BL144" s="4"/>
       <c r="BM144" s="34"/>
     </row>
-    <row r="145" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="145" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS145" s="29"/>
       <c r="AT145" s="18"/>
       <c r="AU145" s="30"/>
@@ -23990,7 +24021,7 @@
       <c r="BL145" s="4"/>
       <c r="BM145" s="34"/>
     </row>
-    <row r="146" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="146" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS146" s="29"/>
       <c r="AT146" s="18"/>
       <c r="AU146" s="30"/>
@@ -24012,7 +24043,7 @@
       <c r="BL146" s="4"/>
       <c r="BM146" s="34"/>
     </row>
-    <row r="147" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="147" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS147" s="29"/>
       <c r="AT147" s="18"/>
       <c r="AU147" s="30"/>
@@ -24034,7 +24065,7 @@
       <c r="BL147" s="4"/>
       <c r="BM147" s="34"/>
     </row>
-    <row r="148" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="148" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS148" s="29"/>
       <c r="AT148" s="18"/>
       <c r="AU148" s="30"/>
@@ -24056,7 +24087,7 @@
       <c r="BL148" s="4"/>
       <c r="BM148" s="34"/>
     </row>
-    <row r="149" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="149" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS149" s="29"/>
       <c r="AT149" s="18"/>
       <c r="AU149" s="30"/>
@@ -24078,7 +24109,7 @@
       <c r="BL149" s="4"/>
       <c r="BM149" s="34"/>
     </row>
-    <row r="150" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="150" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS150" s="29"/>
       <c r="AT150" s="18"/>
       <c r="AU150" s="30"/>
@@ -24100,7 +24131,7 @@
       <c r="BL150" s="4"/>
       <c r="BM150" s="34"/>
     </row>
-    <row r="151" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="151" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS151" s="29"/>
       <c r="AT151" s="18"/>
       <c r="AU151" s="30"/>
@@ -24122,7 +24153,7 @@
       <c r="BL151" s="4"/>
       <c r="BM151" s="34"/>
     </row>
-    <row r="152" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="152" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS152" s="29"/>
       <c r="AT152" s="18"/>
       <c r="AU152" s="30"/>
@@ -24144,7 +24175,7 @@
       <c r="BL152" s="4"/>
       <c r="BM152" s="34"/>
     </row>
-    <row r="153" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="153" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS153" s="29"/>
       <c r="AT153" s="18"/>
       <c r="AU153" s="30"/>
@@ -24166,7 +24197,7 @@
       <c r="BL153" s="4"/>
       <c r="BM153" s="34"/>
     </row>
-    <row r="154" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="154" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS154" s="29"/>
       <c r="AT154" s="18"/>
       <c r="AU154" s="30"/>
@@ -24188,7 +24219,7 @@
       <c r="BL154" s="4"/>
       <c r="BM154" s="34"/>
     </row>
-    <row r="155" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="155" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS155" s="29"/>
       <c r="AT155" s="18"/>
       <c r="AU155" s="30"/>
@@ -24210,7 +24241,7 @@
       <c r="BL155" s="4"/>
       <c r="BM155" s="34"/>
     </row>
-    <row r="156" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="156" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS156" s="29"/>
       <c r="AT156" s="18"/>
       <c r="AU156" s="30"/>
@@ -24232,7 +24263,7 @@
       <c r="BL156" s="4"/>
       <c r="BM156" s="34"/>
     </row>
-    <row r="157" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="157" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS157" s="29"/>
       <c r="AT157" s="18"/>
       <c r="AU157" s="30"/>
@@ -24254,7 +24285,7 @@
       <c r="BL157" s="4"/>
       <c r="BM157" s="34"/>
     </row>
-    <row r="158" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="158" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS158" s="29"/>
       <c r="AT158" s="18"/>
       <c r="AU158" s="30"/>
@@ -24276,7 +24307,7 @@
       <c r="BL158" s="4"/>
       <c r="BM158" s="34"/>
     </row>
-    <row r="159" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="159" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS159" s="29"/>
       <c r="AT159" s="18"/>
       <c r="AU159" s="30"/>
@@ -24298,7 +24329,7 @@
       <c r="BL159" s="4"/>
       <c r="BM159" s="34"/>
     </row>
-    <row r="160" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="160" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS160" s="29"/>
       <c r="AT160" s="18"/>
       <c r="AU160" s="30"/>
@@ -24320,7 +24351,7 @@
       <c r="BL160" s="4"/>
       <c r="BM160" s="34"/>
     </row>
-    <row r="161" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="161" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS161" s="29"/>
       <c r="AT161" s="18"/>
       <c r="AU161" s="30"/>
@@ -24342,7 +24373,7 @@
       <c r="BL161" s="4"/>
       <c r="BM161" s="34"/>
     </row>
-    <row r="162" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="162" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS162" s="29"/>
       <c r="AT162" s="18"/>
       <c r="AU162" s="30"/>
@@ -24364,7 +24395,7 @@
       <c r="BL162" s="4"/>
       <c r="BM162" s="34"/>
     </row>
-    <row r="163" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="163" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS163" s="29"/>
       <c r="AT163" s="18"/>
       <c r="AU163" s="30"/>
@@ -24386,7 +24417,7 @@
       <c r="BL163" s="4"/>
       <c r="BM163" s="34"/>
     </row>
-    <row r="164" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="164" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS164" s="29"/>
       <c r="AT164" s="18"/>
       <c r="AU164" s="30"/>
@@ -24408,7 +24439,7 @@
       <c r="BL164" s="4"/>
       <c r="BM164" s="34"/>
     </row>
-    <row r="165" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="165" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS165" s="29"/>
       <c r="AT165" s="18"/>
       <c r="AU165" s="30"/>
@@ -24430,7 +24461,7 @@
       <c r="BL165" s="4"/>
       <c r="BM165" s="34"/>
     </row>
-    <row r="166" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="166" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS166" s="29"/>
       <c r="AT166" s="18"/>
       <c r="AU166" s="30"/>
@@ -24452,7 +24483,7 @@
       <c r="BL166" s="4"/>
       <c r="BM166" s="34"/>
     </row>
-    <row r="167" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="167" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS167" s="29"/>
       <c r="AT167" s="18"/>
       <c r="AU167" s="30"/>
@@ -24474,7 +24505,7 @@
       <c r="BL167" s="4"/>
       <c r="BM167" s="34"/>
     </row>
-    <row r="168" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="168" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS168" s="29"/>
       <c r="AT168" s="18"/>
       <c r="AU168" s="30"/>
@@ -24496,7 +24527,7 @@
       <c r="BL168" s="4"/>
       <c r="BM168" s="34"/>
     </row>
-    <row r="169" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="169" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS169" s="29"/>
       <c r="AT169" s="18"/>
       <c r="AU169" s="30"/>
@@ -24518,7 +24549,7 @@
       <c r="BL169" s="4"/>
       <c r="BM169" s="34"/>
     </row>
-    <row r="170" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="170" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS170" s="29"/>
       <c r="AT170" s="18"/>
       <c r="AU170" s="30"/>
@@ -24540,7 +24571,7 @@
       <c r="BL170" s="4"/>
       <c r="BM170" s="34"/>
     </row>
-    <row r="171" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="171" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS171" s="29"/>
       <c r="AT171" s="18"/>
       <c r="AU171" s="30"/>
@@ -24562,7 +24593,7 @@
       <c r="BL171" s="4"/>
       <c r="BM171" s="34"/>
     </row>
-    <row r="172" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="172" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS172" s="29"/>
       <c r="AT172" s="18"/>
       <c r="AU172" s="30"/>
@@ -24584,7 +24615,7 @@
       <c r="BL172" s="4"/>
       <c r="BM172" s="34"/>
     </row>
-    <row r="173" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="173" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS173" s="29"/>
       <c r="AT173" s="18"/>
       <c r="AU173" s="30"/>
@@ -24606,7 +24637,7 @@
       <c r="BL173" s="4"/>
       <c r="BM173" s="34"/>
     </row>
-    <row r="174" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="174" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS174" s="29"/>
       <c r="AT174" s="18"/>
       <c r="AU174" s="30"/>
@@ -24628,7 +24659,7 @@
       <c r="BL174" s="4"/>
       <c r="BM174" s="34"/>
     </row>
-    <row r="175" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="175" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS175" s="29"/>
       <c r="AT175" s="18"/>
       <c r="AU175" s="30"/>
@@ -24650,7 +24681,7 @@
       <c r="BL175" s="4"/>
       <c r="BM175" s="34"/>
     </row>
-    <row r="176" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="176" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS176" s="29"/>
       <c r="AT176" s="18"/>
       <c r="AU176" s="30"/>
@@ -24672,7 +24703,7 @@
       <c r="BL176" s="4"/>
       <c r="BM176" s="34"/>
     </row>
-    <row r="177" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="177" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS177" s="29"/>
       <c r="AT177" s="18"/>
       <c r="AU177" s="30"/>
@@ -24694,7 +24725,7 @@
       <c r="BL177" s="4"/>
       <c r="BM177" s="34"/>
     </row>
-    <row r="178" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="178" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS178" s="29"/>
       <c r="AT178" s="18"/>
       <c r="AU178" s="30"/>
@@ -24716,7 +24747,7 @@
       <c r="BL178" s="4"/>
       <c r="BM178" s="34"/>
     </row>
-    <row r="179" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="179" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS179" s="29"/>
       <c r="AT179" s="18"/>
       <c r="AU179" s="30"/>
@@ -24738,7 +24769,7 @@
       <c r="BL179" s="4"/>
       <c r="BM179" s="34"/>
     </row>
-    <row r="180" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="180" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS180" s="29"/>
       <c r="AT180" s="18"/>
       <c r="AU180" s="30"/>
@@ -24760,7 +24791,7 @@
       <c r="BL180" s="4"/>
       <c r="BM180" s="34"/>
     </row>
-    <row r="181" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="181" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS181" s="29"/>
       <c r="AT181" s="18"/>
       <c r="AU181" s="30"/>
@@ -24782,7 +24813,7 @@
       <c r="BL181" s="4"/>
       <c r="BM181" s="34"/>
     </row>
-    <row r="182" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="182" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS182" s="29"/>
       <c r="AT182" s="18"/>
       <c r="AU182" s="30"/>
@@ -24804,7 +24835,7 @@
       <c r="BL182" s="4"/>
       <c r="BM182" s="34"/>
     </row>
-    <row r="183" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="183" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS183" s="29"/>
       <c r="AT183" s="18"/>
       <c r="AU183" s="30"/>
@@ -24826,7 +24857,7 @@
       <c r="BL183" s="4"/>
       <c r="BM183" s="34"/>
     </row>
-    <row r="184" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="184" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS184" s="29"/>
       <c r="AT184" s="18"/>
       <c r="AU184" s="30"/>
@@ -24848,7 +24879,7 @@
       <c r="BL184" s="4"/>
       <c r="BM184" s="34"/>
     </row>
-    <row r="185" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="185" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS185" s="29"/>
       <c r="AT185" s="18"/>
       <c r="AU185" s="30"/>
@@ -24870,7 +24901,7 @@
       <c r="BL185" s="4"/>
       <c r="BM185" s="34"/>
     </row>
-    <row r="186" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="186" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS186" s="29"/>
       <c r="AT186" s="18"/>
       <c r="AU186" s="30"/>
@@ -24892,7 +24923,7 @@
       <c r="BL186" s="4"/>
       <c r="BM186" s="34"/>
     </row>
-    <row r="187" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="187" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS187" s="29"/>
       <c r="AT187" s="18"/>
       <c r="AU187" s="30"/>
@@ -24914,7 +24945,7 @@
       <c r="BL187" s="4"/>
       <c r="BM187" s="34"/>
     </row>
-    <row r="188" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="188" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS188" s="29"/>
       <c r="AT188" s="18"/>
       <c r="AU188" s="30"/>
@@ -24936,7 +24967,7 @@
       <c r="BL188" s="4"/>
       <c r="BM188" s="34"/>
     </row>
-    <row r="189" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="189" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS189" s="29"/>
       <c r="AT189" s="18"/>
       <c r="AU189" s="30"/>
@@ -24958,7 +24989,7 @@
       <c r="BL189" s="4"/>
       <c r="BM189" s="34"/>
     </row>
-    <row r="190" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="190" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS190" s="29"/>
       <c r="AT190" s="18"/>
       <c r="AU190" s="30"/>
@@ -24980,7 +25011,7 @@
       <c r="BL190" s="4"/>
       <c r="BM190" s="34"/>
     </row>
-    <row r="191" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="191" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS191" s="29"/>
       <c r="AT191" s="18"/>
       <c r="AU191" s="30"/>
@@ -25002,7 +25033,7 @@
       <c r="BL191" s="4"/>
       <c r="BM191" s="34"/>
     </row>
-    <row r="192" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="192" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS192" s="29"/>
       <c r="AT192" s="18"/>
       <c r="AU192" s="30"/>
@@ -25024,7 +25055,7 @@
       <c r="BL192" s="4"/>
       <c r="BM192" s="34"/>
     </row>
-    <row r="193" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="193" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS193" s="29"/>
       <c r="AT193" s="18"/>
       <c r="AU193" s="30"/>
@@ -25046,7 +25077,7 @@
       <c r="BL193" s="4"/>
       <c r="BM193" s="34"/>
     </row>
-    <row r="194" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="194" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS194" s="29"/>
       <c r="AT194" s="18"/>
       <c r="AU194" s="30"/>
@@ -25068,7 +25099,7 @@
       <c r="BL194" s="4"/>
       <c r="BM194" s="34"/>
     </row>
-    <row r="195" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="195" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS195" s="29"/>
       <c r="AT195" s="18"/>
       <c r="AU195" s="30"/>
@@ -25090,7 +25121,7 @@
       <c r="BL195" s="4"/>
       <c r="BM195" s="34"/>
     </row>
-    <row r="196" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="196" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS196" s="29"/>
       <c r="AT196" s="18"/>
       <c r="AU196" s="30"/>
@@ -25112,7 +25143,7 @@
       <c r="BL196" s="4"/>
       <c r="BM196" s="34"/>
     </row>
-    <row r="197" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="197" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS197" s="29"/>
       <c r="AT197" s="18"/>
       <c r="AU197" s="30"/>
@@ -25134,7 +25165,7 @@
       <c r="BL197" s="4"/>
       <c r="BM197" s="34"/>
     </row>
-    <row r="198" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="198" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS198" s="29"/>
       <c r="AT198" s="18"/>
       <c r="AU198" s="30"/>
@@ -25156,7 +25187,7 @@
       <c r="BL198" s="4"/>
       <c r="BM198" s="34"/>
     </row>
-    <row r="199" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="199" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS199" s="29"/>
       <c r="AT199" s="18"/>
       <c r="AU199" s="30"/>
@@ -25178,7 +25209,7 @@
       <c r="BL199" s="4"/>
       <c r="BM199" s="34"/>
     </row>
-    <row r="200" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="200" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS200" s="29"/>
       <c r="AT200" s="18"/>
       <c r="AU200" s="30"/>
@@ -25200,7 +25231,7 @@
       <c r="BL200" s="4"/>
       <c r="BM200" s="34"/>
     </row>
-    <row r="201" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="201" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS201" s="29"/>
       <c r="AT201" s="18"/>
       <c r="AU201" s="30"/>
@@ -25222,7 +25253,7 @@
       <c r="BL201" s="4"/>
       <c r="BM201" s="34"/>
     </row>
-    <row r="202" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="202" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS202" s="29"/>
       <c r="AT202" s="18"/>
       <c r="AU202" s="30"/>
@@ -25244,7 +25275,7 @@
       <c r="BL202" s="4"/>
       <c r="BM202" s="34"/>
     </row>
-    <row r="203" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="203" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS203" s="29"/>
       <c r="AT203" s="18"/>
       <c r="AU203" s="30"/>
@@ -25266,7 +25297,7 @@
       <c r="BL203" s="4"/>
       <c r="BM203" s="34"/>
     </row>
-    <row r="204" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="204" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS204" s="29"/>
       <c r="AT204" s="18"/>
       <c r="AU204" s="30"/>
@@ -25288,7 +25319,7 @@
       <c r="BL204" s="4"/>
       <c r="BM204" s="34"/>
     </row>
-    <row r="205" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="205" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS205" s="29"/>
       <c r="AT205" s="18"/>
       <c r="AU205" s="30"/>
@@ -25310,7 +25341,7 @@
       <c r="BL205" s="4"/>
       <c r="BM205" s="34"/>
     </row>
-    <row r="206" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="206" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS206" s="29"/>
       <c r="AT206" s="18"/>
       <c r="AU206" s="30"/>
@@ -25332,7 +25363,7 @@
       <c r="BL206" s="4"/>
       <c r="BM206" s="34"/>
     </row>
-    <row r="207" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="207" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS207" s="29"/>
       <c r="AT207" s="18"/>
       <c r="AU207" s="30"/>
@@ -25354,7 +25385,7 @@
       <c r="BL207" s="4"/>
       <c r="BM207" s="34"/>
     </row>
-    <row r="208" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="208" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS208" s="29"/>
       <c r="AT208" s="18"/>
       <c r="AU208" s="30"/>
@@ -25376,7 +25407,7 @@
       <c r="BL208" s="4"/>
       <c r="BM208" s="34"/>
     </row>
-    <row r="209" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="209" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS209" s="29"/>
       <c r="AT209" s="18"/>
       <c r="AU209" s="30"/>
@@ -25398,7 +25429,7 @@
       <c r="BL209" s="4"/>
       <c r="BM209" s="34"/>
     </row>
-    <row r="210" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="210" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS210" s="29"/>
       <c r="AT210" s="18"/>
       <c r="AU210" s="30"/>
@@ -25420,7 +25451,7 @@
       <c r="BL210" s="4"/>
       <c r="BM210" s="34"/>
     </row>
-    <row r="211" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="211" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS211" s="29"/>
       <c r="AT211" s="18"/>
       <c r="AU211" s="30"/>
@@ -25442,7 +25473,7 @@
       <c r="BL211" s="4"/>
       <c r="BM211" s="34"/>
     </row>
-    <row r="212" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="212" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS212" s="29"/>
       <c r="AT212" s="18"/>
       <c r="AU212" s="30"/>
@@ -25464,7 +25495,7 @@
       <c r="BL212" s="4"/>
       <c r="BM212" s="34"/>
     </row>
-    <row r="213" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="213" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS213" s="29"/>
       <c r="AT213" s="18"/>
       <c r="AU213" s="30"/>
@@ -25486,7 +25517,7 @@
       <c r="BL213" s="4"/>
       <c r="BM213" s="34"/>
     </row>
-    <row r="214" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="214" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS214" s="29"/>
       <c r="AT214" s="18"/>
       <c r="AU214" s="30"/>
@@ -25508,7 +25539,7 @@
       <c r="BL214" s="4"/>
       <c r="BM214" s="34"/>
     </row>
-    <row r="215" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="215" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS215" s="29"/>
       <c r="AT215" s="18"/>
       <c r="AU215" s="30"/>
@@ -25530,7 +25561,7 @@
       <c r="BL215" s="4"/>
       <c r="BM215" s="34"/>
     </row>
-    <row r="216" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="216" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS216" s="29"/>
       <c r="AT216" s="18"/>
       <c r="AU216" s="30"/>
@@ -25552,7 +25583,7 @@
       <c r="BL216" s="4"/>
       <c r="BM216" s="34"/>
     </row>
-    <row r="217" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="217" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS217" s="29"/>
       <c r="AT217" s="18"/>
       <c r="AU217" s="30"/>
@@ -25574,7 +25605,7 @@
       <c r="BL217" s="4"/>
       <c r="BM217" s="34"/>
     </row>
-    <row r="218" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="218" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS218" s="29"/>
       <c r="AT218" s="18"/>
       <c r="AU218" s="30"/>
@@ -25596,7 +25627,7 @@
       <c r="BL218" s="4"/>
       <c r="BM218" s="34"/>
     </row>
-    <row r="219" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="219" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS219" s="29"/>
       <c r="AT219" s="18"/>
       <c r="AU219" s="30"/>
@@ -25618,7 +25649,7 @@
       <c r="BL219" s="4"/>
       <c r="BM219" s="34"/>
     </row>
-    <row r="220" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="220" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS220" s="29"/>
       <c r="AT220" s="18"/>
       <c r="AU220" s="30"/>
@@ -25640,7 +25671,7 @@
       <c r="BL220" s="4"/>
       <c r="BM220" s="34"/>
     </row>
-    <row r="221" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="221" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS221" s="29"/>
       <c r="AT221" s="18"/>
       <c r="AU221" s="30"/>
@@ -25662,7 +25693,7 @@
       <c r="BL221" s="4"/>
       <c r="BM221" s="34"/>
     </row>
-    <row r="222" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="222" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS222" s="29"/>
       <c r="AT222" s="18"/>
       <c r="AU222" s="30"/>
@@ -25684,7 +25715,7 @@
       <c r="BL222" s="4"/>
       <c r="BM222" s="34"/>
     </row>
-    <row r="223" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="223" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS223" s="29"/>
       <c r="AT223" s="18"/>
       <c r="AU223" s="30"/>
@@ -25706,7 +25737,7 @@
       <c r="BL223" s="4"/>
       <c r="BM223" s="34"/>
     </row>
-    <row r="224" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="224" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS224" s="29"/>
       <c r="AT224" s="18"/>
       <c r="AU224" s="30"/>
@@ -25728,7 +25759,7 @@
       <c r="BL224" s="4"/>
       <c r="BM224" s="34"/>
     </row>
-    <row r="225" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="225" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS225" s="29"/>
       <c r="AT225" s="18"/>
       <c r="AU225" s="30"/>
@@ -25750,7 +25781,7 @@
       <c r="BL225" s="4"/>
       <c r="BM225" s="34"/>
     </row>
-    <row r="226" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="226" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS226" s="29"/>
       <c r="AT226" s="18"/>
       <c r="AU226" s="30"/>
@@ -25772,7 +25803,7 @@
       <c r="BL226" s="4"/>
       <c r="BM226" s="34"/>
     </row>
-    <row r="227" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="227" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS227" s="29"/>
       <c r="AT227" s="18"/>
       <c r="AU227" s="30"/>
@@ -25794,7 +25825,7 @@
       <c r="BL227" s="4"/>
       <c r="BM227" s="34"/>
     </row>
-    <row r="228" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="228" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS228" s="29"/>
       <c r="AT228" s="18"/>
       <c r="AU228" s="30"/>
@@ -25816,7 +25847,7 @@
       <c r="BL228" s="4"/>
       <c r="BM228" s="34"/>
     </row>
-    <row r="229" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="229" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS229" s="29"/>
       <c r="AT229" s="18"/>
       <c r="AU229" s="30"/>
@@ -25838,7 +25869,7 @@
       <c r="BL229" s="4"/>
       <c r="BM229" s="34"/>
     </row>
-    <row r="230" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="230" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS230" s="29"/>
       <c r="AT230" s="18"/>
       <c r="AU230" s="30"/>
@@ -25860,7 +25891,7 @@
       <c r="BL230" s="4"/>
       <c r="BM230" s="34"/>
     </row>
-    <row r="231" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="231" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS231" s="29"/>
       <c r="AT231" s="18"/>
       <c r="AU231" s="30"/>
@@ -25882,7 +25913,7 @@
       <c r="BL231" s="4"/>
       <c r="BM231" s="34"/>
     </row>
-    <row r="232" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="232" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS232" s="29"/>
       <c r="AT232" s="18"/>
       <c r="AU232" s="30"/>
@@ -25904,7 +25935,7 @@
       <c r="BL232" s="4"/>
       <c r="BM232" s="34"/>
     </row>
-    <row r="233" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="233" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS233" s="29"/>
       <c r="AT233" s="18"/>
       <c r="AU233" s="30"/>
@@ -25926,7 +25957,7 @@
       <c r="BL233" s="4"/>
       <c r="BM233" s="34"/>
     </row>
-    <row r="234" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="234" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS234" s="29"/>
       <c r="AT234" s="18"/>
       <c r="AU234" s="30"/>
@@ -25948,7 +25979,7 @@
       <c r="BL234" s="4"/>
       <c r="BM234" s="34"/>
     </row>
-    <row r="235" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="235" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS235" s="29"/>
       <c r="AT235" s="18"/>
       <c r="AU235" s="30"/>
@@ -25970,7 +26001,7 @@
       <c r="BL235" s="4"/>
       <c r="BM235" s="34"/>
     </row>
-    <row r="236" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="236" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS236" s="29"/>
       <c r="AT236" s="18"/>
       <c r="AU236" s="30"/>
@@ -25992,7 +26023,7 @@
       <c r="BL236" s="4"/>
       <c r="BM236" s="34"/>
     </row>
-    <row r="237" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="237" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS237" s="29"/>
       <c r="AT237" s="18"/>
       <c r="AU237" s="30"/>
@@ -26014,7 +26045,7 @@
       <c r="BL237" s="4"/>
       <c r="BM237" s="34"/>
     </row>
-    <row r="238" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="238" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS238" s="29"/>
       <c r="AT238" s="18"/>
       <c r="AU238" s="30"/>
@@ -26036,7 +26067,7 @@
       <c r="BL238" s="4"/>
       <c r="BM238" s="34"/>
     </row>
-    <row r="239" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="239" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS239" s="29"/>
       <c r="AT239" s="18"/>
       <c r="AU239" s="30"/>
@@ -26058,7 +26089,7 @@
       <c r="BL239" s="4"/>
       <c r="BM239" s="34"/>
     </row>
-    <row r="240" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="240" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS240" s="29"/>
       <c r="AT240" s="18"/>
       <c r="AU240" s="30"/>
@@ -26080,7 +26111,7 @@
       <c r="BL240" s="4"/>
       <c r="BM240" s="34"/>
     </row>
-    <row r="241" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="241" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS241" s="29"/>
       <c r="AT241" s="18"/>
       <c r="AU241" s="30"/>
@@ -26102,7 +26133,7 @@
       <c r="BL241" s="4"/>
       <c r="BM241" s="34"/>
     </row>
-    <row r="242" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="242" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS242" s="29"/>
       <c r="AT242" s="18"/>
       <c r="AU242" s="30"/>
@@ -26124,7 +26155,7 @@
       <c r="BL242" s="4"/>
       <c r="BM242" s="34"/>
     </row>
-    <row r="243" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="243" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS243" s="29"/>
       <c r="AT243" s="18"/>
       <c r="AU243" s="30"/>
@@ -26146,7 +26177,7 @@
       <c r="BL243" s="4"/>
       <c r="BM243" s="34"/>
     </row>
-    <row r="244" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="244" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS244" s="29"/>
       <c r="AT244" s="18"/>
       <c r="AU244" s="30"/>
@@ -26168,7 +26199,7 @@
       <c r="BL244" s="4"/>
       <c r="BM244" s="34"/>
     </row>
-    <row r="245" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="245" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS245" s="29"/>
       <c r="AT245" s="18"/>
       <c r="AU245" s="30"/>
@@ -26190,7 +26221,7 @@
       <c r="BL245" s="4"/>
       <c r="BM245" s="34"/>
     </row>
-    <row r="246" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="246" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS246" s="29"/>
       <c r="AT246" s="18"/>
       <c r="AU246" s="30"/>
@@ -26212,7 +26243,7 @@
       <c r="BL246" s="4"/>
       <c r="BM246" s="34"/>
     </row>
-    <row r="247" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="247" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS247" s="29"/>
       <c r="AT247" s="18"/>
       <c r="AU247" s="30"/>
@@ -26234,7 +26265,7 @@
       <c r="BL247" s="4"/>
       <c r="BM247" s="34"/>
     </row>
-    <row r="248" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="248" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS248" s="29"/>
       <c r="AT248" s="18"/>
       <c r="AU248" s="30"/>
@@ -26256,7 +26287,7 @@
       <c r="BL248" s="4"/>
       <c r="BM248" s="34"/>
     </row>
-    <row r="249" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="249" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS249" s="29"/>
       <c r="AT249" s="18"/>
       <c r="AU249" s="30"/>
@@ -26278,7 +26309,7 @@
       <c r="BL249" s="4"/>
       <c r="BM249" s="34"/>
     </row>
-    <row r="250" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="250" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS250" s="29"/>
       <c r="AT250" s="18"/>
       <c r="AU250" s="30"/>
@@ -26300,7 +26331,7 @@
       <c r="BL250" s="4"/>
       <c r="BM250" s="34"/>
     </row>
-    <row r="251" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="251" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS251" s="29"/>
       <c r="AT251" s="18"/>
       <c r="AU251" s="30"/>
@@ -26322,7 +26353,7 @@
       <c r="BL251" s="4"/>
       <c r="BM251" s="34"/>
     </row>
-    <row r="252" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="252" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS252" s="29"/>
       <c r="AT252" s="18"/>
       <c r="AU252" s="30"/>
@@ -26344,7 +26375,7 @@
       <c r="BL252" s="4"/>
       <c r="BM252" s="34"/>
     </row>
-    <row r="253" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="253" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS253" s="29"/>
       <c r="AT253" s="18"/>
       <c r="AU253" s="30"/>
@@ -26366,7 +26397,7 @@
       <c r="BL253" s="4"/>
       <c r="BM253" s="34"/>
     </row>
-    <row r="254" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="254" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS254" s="29"/>
       <c r="AT254" s="18"/>
       <c r="AU254" s="30"/>
@@ -26388,7 +26419,7 @@
       <c r="BL254" s="4"/>
       <c r="BM254" s="34"/>
     </row>
-    <row r="255" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="255" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS255" s="29"/>
       <c r="AT255" s="18"/>
       <c r="AU255" s="30"/>
@@ -26410,7 +26441,7 @@
       <c r="BL255" s="4"/>
       <c r="BM255" s="34"/>
     </row>
-    <row r="256" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="256" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS256" s="29"/>
       <c r="AT256" s="18"/>
       <c r="AU256" s="30"/>
@@ -26432,7 +26463,7 @@
       <c r="BL256" s="4"/>
       <c r="BM256" s="34"/>
     </row>
-    <row r="257" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="257" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS257" s="29"/>
       <c r="AT257" s="18"/>
       <c r="AU257" s="30"/>
@@ -26454,7 +26485,7 @@
       <c r="BL257" s="4"/>
       <c r="BM257" s="34"/>
     </row>
-    <row r="258" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="258" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS258" s="29"/>
       <c r="AT258" s="18"/>
       <c r="AU258" s="30"/>
@@ -26476,7 +26507,7 @@
       <c r="BL258" s="4"/>
       <c r="BM258" s="34"/>
     </row>
-    <row r="259" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="259" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS259" s="29"/>
       <c r="AT259" s="18"/>
       <c r="AU259" s="30"/>
@@ -26498,7 +26529,7 @@
       <c r="BL259" s="4"/>
       <c r="BM259" s="34"/>
     </row>
-    <row r="260" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="260" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS260" s="29"/>
       <c r="AT260" s="18"/>
       <c r="AU260" s="30"/>
@@ -26520,7 +26551,7 @@
       <c r="BL260" s="4"/>
       <c r="BM260" s="34"/>
     </row>
-    <row r="261" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="261" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS261" s="29"/>
       <c r="AT261" s="18"/>
       <c r="AU261" s="30"/>
@@ -26542,7 +26573,7 @@
       <c r="BL261" s="4"/>
       <c r="BM261" s="34"/>
     </row>
-    <row r="262" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="262" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS262" s="29"/>
       <c r="AT262" s="18"/>
       <c r="AU262" s="30"/>
@@ -26564,7 +26595,7 @@
       <c r="BL262" s="4"/>
       <c r="BM262" s="34"/>
     </row>
-    <row r="263" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="263" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS263" s="29"/>
       <c r="AT263" s="18"/>
       <c r="AU263" s="30"/>
@@ -26586,7 +26617,7 @@
       <c r="BL263" s="4"/>
       <c r="BM263" s="34"/>
     </row>
-    <row r="264" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="264" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS264" s="29"/>
       <c r="AT264" s="18"/>
       <c r="AU264" s="30"/>
@@ -26608,7 +26639,7 @@
       <c r="BL264" s="4"/>
       <c r="BM264" s="34"/>
     </row>
-    <row r="265" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="265" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS265" s="29"/>
       <c r="AT265" s="18"/>
       <c r="AU265" s="30"/>
@@ -26630,7 +26661,7 @@
       <c r="BL265" s="4"/>
       <c r="BM265" s="34"/>
     </row>
-    <row r="266" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="266" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS266" s="29"/>
       <c r="AT266" s="18"/>
       <c r="AU266" s="30"/>
@@ -26652,7 +26683,7 @@
       <c r="BL266" s="4"/>
       <c r="BM266" s="34"/>
     </row>
-    <row r="267" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="267" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS267" s="29"/>
       <c r="AT267" s="18"/>
       <c r="AU267" s="30"/>
@@ -26674,7 +26705,7 @@
       <c r="BL267" s="4"/>
       <c r="BM267" s="34"/>
     </row>
-    <row r="268" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="268" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS268" s="29"/>
       <c r="AT268" s="18"/>
       <c r="AU268" s="30"/>
@@ -26696,7 +26727,7 @@
       <c r="BL268" s="4"/>
       <c r="BM268" s="34"/>
     </row>
-    <row r="269" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="269" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS269" s="29"/>
       <c r="AT269" s="18"/>
       <c r="AU269" s="30"/>
@@ -26718,7 +26749,7 @@
       <c r="BL269" s="4"/>
       <c r="BM269" s="34"/>
     </row>
-    <row r="270" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="270" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS270" s="29"/>
       <c r="AT270" s="18"/>
       <c r="AU270" s="30"/>
@@ -26740,7 +26771,7 @@
       <c r="BL270" s="4"/>
       <c r="BM270" s="34"/>
     </row>
-    <row r="271" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="271" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS271" s="29"/>
       <c r="AT271" s="18"/>
       <c r="AU271" s="30"/>
@@ -26762,7 +26793,7 @@
       <c r="BL271" s="4"/>
       <c r="BM271" s="34"/>
     </row>
-    <row r="272" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="272" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS272" s="29"/>
       <c r="AT272" s="18"/>
       <c r="AU272" s="30"/>
@@ -26784,7 +26815,7 @@
       <c r="BL272" s="4"/>
       <c r="BM272" s="34"/>
     </row>
-    <row r="273" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="273" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS273" s="29"/>
       <c r="AT273" s="18"/>
       <c r="AU273" s="30"/>
@@ -26806,7 +26837,7 @@
       <c r="BL273" s="4"/>
       <c r="BM273" s="34"/>
     </row>
-    <row r="274" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="274" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS274" s="29"/>
       <c r="AT274" s="18"/>
       <c r="AU274" s="30"/>
@@ -26828,7 +26859,7 @@
       <c r="BL274" s="4"/>
       <c r="BM274" s="34"/>
     </row>
-    <row r="275" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="275" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS275" s="29"/>
       <c r="AT275" s="18"/>
       <c r="AU275" s="30"/>
@@ -26850,7 +26881,7 @@
       <c r="BL275" s="4"/>
       <c r="BM275" s="34"/>
     </row>
-    <row r="276" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="276" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS276" s="29"/>
       <c r="AT276" s="18"/>
       <c r="AU276" s="30"/>
@@ -26872,7 +26903,7 @@
       <c r="BL276" s="4"/>
       <c r="BM276" s="34"/>
     </row>
-    <row r="277" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="277" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS277" s="29"/>
       <c r="AT277" s="18"/>
       <c r="AU277" s="30"/>
@@ -26894,7 +26925,7 @@
       <c r="BL277" s="4"/>
       <c r="BM277" s="34"/>
     </row>
-    <row r="278" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="278" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS278" s="29"/>
       <c r="AT278" s="18"/>
       <c r="AU278" s="30"/>
@@ -26916,7 +26947,7 @@
       <c r="BL278" s="4"/>
       <c r="BM278" s="34"/>
     </row>
-    <row r="279" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="279" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS279" s="29"/>
       <c r="AT279" s="18"/>
       <c r="AU279" s="30"/>
@@ -26938,7 +26969,7 @@
       <c r="BL279" s="4"/>
       <c r="BM279" s="34"/>
     </row>
-    <row r="280" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="280" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS280" s="29"/>
       <c r="AT280" s="18"/>
       <c r="AU280" s="30"/>
@@ -26960,7 +26991,7 @@
       <c r="BL280" s="4"/>
       <c r="BM280" s="34"/>
     </row>
-    <row r="281" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="281" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS281" s="29"/>
       <c r="AT281" s="18"/>
       <c r="AU281" s="30"/>
@@ -26982,7 +27013,7 @@
       <c r="BL281" s="4"/>
       <c r="BM281" s="34"/>
     </row>
-    <row r="282" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="282" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS282" s="29"/>
       <c r="AT282" s="18"/>
       <c r="AU282" s="30"/>
@@ -27004,7 +27035,7 @@
       <c r="BL282" s="4"/>
       <c r="BM282" s="34"/>
     </row>
-    <row r="283" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="283" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS283" s="29"/>
       <c r="AT283" s="18"/>
       <c r="AU283" s="30"/>
@@ -27026,7 +27057,7 @@
       <c r="BL283" s="4"/>
       <c r="BM283" s="34"/>
     </row>
-    <row r="284" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="284" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS284" s="29"/>
       <c r="AT284" s="18"/>
       <c r="AU284" s="30"/>
@@ -27048,7 +27079,7 @@
       <c r="BL284" s="4"/>
       <c r="BM284" s="34"/>
     </row>
-    <row r="285" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="285" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS285" s="29"/>
       <c r="AT285" s="18"/>
       <c r="AU285" s="30"/>
@@ -27070,7 +27101,7 @@
       <c r="BL285" s="4"/>
       <c r="BM285" s="34"/>
     </row>
-    <row r="286" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="286" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS286" s="29"/>
       <c r="AT286" s="18"/>
       <c r="AU286" s="30"/>
@@ -27092,7 +27123,7 @@
       <c r="BL286" s="4"/>
       <c r="BM286" s="34"/>
     </row>
-    <row r="287" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="287" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS287" s="29"/>
       <c r="AT287" s="18"/>
       <c r="AU287" s="30"/>
@@ -27114,7 +27145,7 @@
       <c r="BL287" s="4"/>
       <c r="BM287" s="34"/>
     </row>
-    <row r="288" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="288" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS288" s="29"/>
       <c r="AT288" s="18"/>
       <c r="AU288" s="30"/>
@@ -27136,7 +27167,7 @@
       <c r="BL288" s="4"/>
       <c r="BM288" s="34"/>
     </row>
-    <row r="289" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="289" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS289" s="29"/>
       <c r="AT289" s="18"/>
       <c r="AU289" s="30"/>
@@ -27158,7 +27189,7 @@
       <c r="BL289" s="4"/>
       <c r="BM289" s="34"/>
     </row>
-    <row r="290" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="290" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS290" s="29"/>
       <c r="AT290" s="18"/>
       <c r="AU290" s="30"/>
@@ -27180,7 +27211,7 @@
       <c r="BL290" s="4"/>
       <c r="BM290" s="34"/>
     </row>
-    <row r="291" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="291" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS291" s="29"/>
       <c r="AT291" s="18"/>
       <c r="AU291" s="30"/>
@@ -27202,7 +27233,7 @@
       <c r="BL291" s="4"/>
       <c r="BM291" s="34"/>
     </row>
-    <row r="292" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="292" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS292" s="29"/>
       <c r="AT292" s="18"/>
       <c r="AU292" s="30"/>
@@ -27224,7 +27255,7 @@
       <c r="BL292" s="4"/>
       <c r="BM292" s="34"/>
     </row>
-    <row r="293" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="293" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS293" s="29"/>
       <c r="AT293" s="18"/>
       <c r="AU293" s="30"/>
@@ -27246,7 +27277,7 @@
       <c r="BL293" s="4"/>
       <c r="BM293" s="34"/>
     </row>
-    <row r="294" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="294" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS294" s="29"/>
       <c r="AT294" s="18"/>
       <c r="AU294" s="30"/>
@@ -27268,7 +27299,7 @@
       <c r="BL294" s="4"/>
       <c r="BM294" s="34"/>
     </row>
-    <row r="295" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="295" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS295" s="29"/>
       <c r="AT295" s="18"/>
       <c r="AU295" s="30"/>
@@ -27290,7 +27321,7 @@
       <c r="BL295" s="4"/>
       <c r="BM295" s="34"/>
     </row>
-    <row r="296" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="296" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS296" s="29"/>
       <c r="AT296" s="18"/>
       <c r="AU296" s="30"/>
@@ -27312,7 +27343,7 @@
       <c r="BL296" s="4"/>
       <c r="BM296" s="34"/>
     </row>
-    <row r="297" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="297" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS297" s="29"/>
       <c r="AT297" s="18"/>
       <c r="AU297" s="30"/>
@@ -27334,7 +27365,7 @@
       <c r="BL297" s="4"/>
       <c r="BM297" s="34"/>
     </row>
-    <row r="298" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="298" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS298" s="29"/>
       <c r="AT298" s="18"/>
       <c r="AU298" s="30"/>
@@ -27356,7 +27387,7 @@
       <c r="BL298" s="4"/>
       <c r="BM298" s="34"/>
     </row>
-    <row r="299" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="299" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS299" s="29"/>
       <c r="AT299" s="18"/>
       <c r="AU299" s="30"/>
@@ -27378,7 +27409,7 @@
       <c r="BL299" s="4"/>
       <c r="BM299" s="34"/>
     </row>
-    <row r="300" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="300" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS300" s="29"/>
       <c r="AT300" s="18"/>
       <c r="AU300" s="30"/>
@@ -27400,7 +27431,7 @@
       <c r="BL300" s="4"/>
       <c r="BM300" s="34"/>
     </row>
-    <row r="301" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="301" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS301" s="29"/>
       <c r="AT301" s="18"/>
       <c r="AU301" s="30"/>
@@ -27422,7 +27453,7 @@
       <c r="BL301" s="4"/>
       <c r="BM301" s="34"/>
     </row>
-    <row r="302" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="302" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS302" s="29"/>
       <c r="AT302" s="18"/>
       <c r="AU302" s="30"/>
@@ -27444,7 +27475,7 @@
       <c r="BL302" s="4"/>
       <c r="BM302" s="34"/>
     </row>
-    <row r="303" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="303" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS303" s="29"/>
       <c r="AT303" s="18"/>
       <c r="AU303" s="30"/>
@@ -27466,7 +27497,7 @@
       <c r="BL303" s="4"/>
       <c r="BM303" s="34"/>
     </row>
-    <row r="304" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="304" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS304" s="29"/>
       <c r="AT304" s="18"/>
       <c r="AU304" s="30"/>
@@ -27488,7 +27519,7 @@
       <c r="BL304" s="4"/>
       <c r="BM304" s="34"/>
     </row>
-    <row r="305" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="305" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS305" s="29"/>
       <c r="AT305" s="18"/>
       <c r="AU305" s="30"/>
@@ -27510,7 +27541,7 @@
       <c r="BL305" s="4"/>
       <c r="BM305" s="34"/>
     </row>
-    <row r="306" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="306" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS306" s="29"/>
       <c r="AT306" s="18"/>
       <c r="AU306" s="30"/>
@@ -27532,7 +27563,7 @@
       <c r="BL306" s="4"/>
       <c r="BM306" s="34"/>
     </row>
-    <row r="307" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="307" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS307" s="29"/>
       <c r="AT307" s="18"/>
       <c r="AU307" s="30"/>
@@ -27554,7 +27585,7 @@
       <c r="BL307" s="4"/>
       <c r="BM307" s="34"/>
     </row>
-    <row r="308" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="308" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS308" s="29"/>
       <c r="AT308" s="18"/>
       <c r="AU308" s="30"/>
@@ -27576,7 +27607,7 @@
       <c r="BL308" s="4"/>
       <c r="BM308" s="34"/>
     </row>
-    <row r="309" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="309" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS309" s="29"/>
       <c r="AT309" s="18"/>
       <c r="AU309" s="30"/>
@@ -27598,7 +27629,7 @@
       <c r="BL309" s="4"/>
       <c r="BM309" s="34"/>
     </row>
-    <row r="310" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="310" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS310" s="29"/>
       <c r="AT310" s="18"/>
       <c r="AU310" s="30"/>
@@ -27620,7 +27651,7 @@
       <c r="BL310" s="4"/>
       <c r="BM310" s="34"/>
     </row>
-    <row r="311" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="311" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS311" s="29"/>
       <c r="AT311" s="18"/>
       <c r="AU311" s="30"/>
@@ -27642,7 +27673,7 @@
       <c r="BL311" s="4"/>
       <c r="BM311" s="34"/>
     </row>
-    <row r="312" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="312" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS312" s="29"/>
       <c r="AT312" s="18"/>
       <c r="AU312" s="30"/>
@@ -27664,7 +27695,7 @@
       <c r="BL312" s="4"/>
       <c r="BM312" s="34"/>
     </row>
-    <row r="313" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="313" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS313" s="29"/>
       <c r="AT313" s="18"/>
       <c r="AU313" s="30"/>
@@ -27686,7 +27717,7 @@
       <c r="BL313" s="4"/>
       <c r="BM313" s="34"/>
     </row>
-    <row r="314" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="314" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS314" s="29"/>
       <c r="AT314" s="18"/>
       <c r="AU314" s="30"/>
@@ -27708,7 +27739,7 @@
       <c r="BL314" s="4"/>
       <c r="BM314" s="34"/>
     </row>
-    <row r="315" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="315" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS315" s="29"/>
       <c r="AT315" s="18"/>
       <c r="AU315" s="30"/>
@@ -27730,7 +27761,7 @@
       <c r="BL315" s="4"/>
       <c r="BM315" s="34"/>
     </row>
-    <row r="316" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="316" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS316" s="29"/>
       <c r="AT316" s="18"/>
       <c r="AU316" s="30"/>
@@ -27752,7 +27783,7 @@
       <c r="BL316" s="4"/>
       <c r="BM316" s="34"/>
     </row>
-    <row r="317" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="317" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS317" s="29"/>
       <c r="AT317" s="18"/>
       <c r="AU317" s="30"/>
@@ -27774,7 +27805,7 @@
       <c r="BL317" s="4"/>
       <c r="BM317" s="34"/>
     </row>
-    <row r="318" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="318" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS318" s="29"/>
       <c r="AT318" s="18"/>
       <c r="AU318" s="30"/>
@@ -27796,7 +27827,7 @@
       <c r="BL318" s="4"/>
       <c r="BM318" s="34"/>
     </row>
-    <row r="319" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="319" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS319" s="29"/>
       <c r="AT319" s="18"/>
       <c r="AU319" s="30"/>
@@ -27818,7 +27849,7 @@
       <c r="BL319" s="4"/>
       <c r="BM319" s="34"/>
     </row>
-    <row r="320" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="320" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS320" s="29"/>
       <c r="AT320" s="18"/>
       <c r="AU320" s="30"/>
@@ -27840,7 +27871,7 @@
       <c r="BL320" s="4"/>
       <c r="BM320" s="34"/>
     </row>
-    <row r="321" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="321" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS321" s="29"/>
       <c r="AT321" s="18"/>
       <c r="AU321" s="30"/>
@@ -27862,7 +27893,7 @@
       <c r="BL321" s="4"/>
       <c r="BM321" s="34"/>
     </row>
-    <row r="322" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="322" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS322" s="29"/>
       <c r="AT322" s="18"/>
       <c r="AU322" s="30"/>
@@ -27884,7 +27915,7 @@
       <c r="BL322" s="4"/>
       <c r="BM322" s="34"/>
     </row>
-    <row r="323" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="323" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS323" s="29"/>
       <c r="AT323" s="18"/>
       <c r="AU323" s="30"/>
@@ -27906,7 +27937,7 @@
       <c r="BL323" s="4"/>
       <c r="BM323" s="34"/>
     </row>
-    <row r="324" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="324" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS324" s="29"/>
       <c r="AT324" s="18"/>
       <c r="AU324" s="30"/>
@@ -27928,7 +27959,7 @@
       <c r="BL324" s="4"/>
       <c r="BM324" s="34"/>
     </row>
-    <row r="325" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="325" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS325" s="29"/>
       <c r="AT325" s="18"/>
       <c r="AU325" s="30"/>
@@ -27950,7 +27981,7 @@
       <c r="BL325" s="4"/>
       <c r="BM325" s="34"/>
     </row>
-    <row r="326" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="326" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS326" s="29"/>
       <c r="AT326" s="18"/>
       <c r="AU326" s="30"/>
@@ -27972,7 +28003,7 @@
       <c r="BL326" s="4"/>
       <c r="BM326" s="34"/>
     </row>
-    <row r="327" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="327" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS327" s="29"/>
       <c r="AT327" s="18"/>
       <c r="AU327" s="30"/>
@@ -27994,7 +28025,7 @@
       <c r="BL327" s="4"/>
       <c r="BM327" s="34"/>
     </row>
-    <row r="328" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="328" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS328" s="29"/>
       <c r="AT328" s="18"/>
       <c r="AU328" s="30"/>
@@ -28016,7 +28047,7 @@
       <c r="BL328" s="4"/>
       <c r="BM328" s="34"/>
     </row>
-    <row r="329" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="329" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS329" s="29"/>
       <c r="AT329" s="18"/>
       <c r="AU329" s="30"/>
@@ -28038,7 +28069,7 @@
       <c r="BL329" s="4"/>
       <c r="BM329" s="34"/>
     </row>
-    <row r="330" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="330" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS330" s="29"/>
       <c r="AT330" s="18"/>
       <c r="AU330" s="30"/>
@@ -28060,7 +28091,7 @@
       <c r="BL330" s="4"/>
       <c r="BM330" s="34"/>
     </row>
-    <row r="331" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="331" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS331" s="29"/>
       <c r="AT331" s="18"/>
       <c r="AU331" s="30"/>
@@ -28082,7 +28113,7 @@
       <c r="BL331" s="4"/>
       <c r="BM331" s="34"/>
     </row>
-    <row r="332" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="332" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS332" s="29"/>
       <c r="AT332" s="18"/>
       <c r="AU332" s="30"/>
@@ -28104,7 +28135,7 @@
       <c r="BL332" s="4"/>
       <c r="BM332" s="34"/>
     </row>
-    <row r="333" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="333" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS333" s="29"/>
       <c r="AT333" s="18"/>
       <c r="AU333" s="30"/>
@@ -28126,7 +28157,7 @@
       <c r="BL333" s="4"/>
       <c r="BM333" s="34"/>
     </row>
-    <row r="334" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="334" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS334" s="29"/>
       <c r="AT334" s="18"/>
       <c r="AU334" s="30"/>
@@ -28148,7 +28179,7 @@
       <c r="BL334" s="4"/>
       <c r="BM334" s="34"/>
     </row>
-    <row r="335" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="335" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS335" s="29"/>
       <c r="AT335" s="18"/>
       <c r="AU335" s="30"/>
@@ -28170,7 +28201,7 @@
       <c r="BL335" s="4"/>
       <c r="BM335" s="34"/>
     </row>
-    <row r="336" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="336" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS336" s="29"/>
       <c r="AT336" s="18"/>
       <c r="AU336" s="30"/>
@@ -28192,7 +28223,7 @@
       <c r="BL336" s="4"/>
       <c r="BM336" s="34"/>
     </row>
-    <row r="337" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="337" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS337" s="29"/>
       <c r="AT337" s="18"/>
       <c r="AU337" s="30"/>
@@ -28214,7 +28245,7 @@
       <c r="BL337" s="4"/>
       <c r="BM337" s="34"/>
     </row>
-    <row r="338" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="338" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS338" s="29"/>
       <c r="AT338" s="18"/>
       <c r="AU338" s="30"/>
@@ -28236,7 +28267,7 @@
       <c r="BL338" s="4"/>
       <c r="BM338" s="34"/>
     </row>
-    <row r="339" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="339" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS339" s="29"/>
       <c r="AT339" s="18"/>
       <c r="AU339" s="30"/>
@@ -28258,7 +28289,7 @@
       <c r="BL339" s="4"/>
       <c r="BM339" s="34"/>
     </row>
-    <row r="340" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="340" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS340" s="29"/>
       <c r="AT340" s="18"/>
       <c r="AU340" s="30"/>
@@ -28280,7 +28311,7 @@
       <c r="BL340" s="4"/>
       <c r="BM340" s="34"/>
     </row>
-    <row r="341" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="341" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS341" s="29"/>
       <c r="AT341" s="18"/>
       <c r="AU341" s="30"/>
@@ -28302,7 +28333,7 @@
       <c r="BL341" s="4"/>
       <c r="BM341" s="34"/>
     </row>
-    <row r="342" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="342" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS342" s="29"/>
       <c r="AT342" s="18"/>
       <c r="AU342" s="30"/>
@@ -28324,7 +28355,7 @@
       <c r="BL342" s="4"/>
       <c r="BM342" s="34"/>
     </row>
-    <row r="343" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="343" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS343" s="29"/>
       <c r="AT343" s="18"/>
       <c r="AU343" s="30"/>
@@ -28346,7 +28377,7 @@
       <c r="BL343" s="4"/>
       <c r="BM343" s="34"/>
     </row>
-    <row r="344" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="344" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS344" s="29"/>
       <c r="AT344" s="18"/>
       <c r="AU344" s="30"/>
@@ -28368,7 +28399,7 @@
       <c r="BL344" s="4"/>
       <c r="BM344" s="34"/>
     </row>
-    <row r="345" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="345" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS345" s="29"/>
       <c r="AT345" s="18"/>
       <c r="AU345" s="30"/>
@@ -28390,7 +28421,7 @@
       <c r="BL345" s="4"/>
       <c r="BM345" s="34"/>
     </row>
-    <row r="346" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="346" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS346" s="29"/>
       <c r="AT346" s="18"/>
       <c r="AU346" s="30"/>
@@ -28412,7 +28443,7 @@
       <c r="BL346" s="4"/>
       <c r="BM346" s="34"/>
     </row>
-    <row r="347" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="347" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS347" s="29"/>
       <c r="AT347" s="18"/>
       <c r="AU347" s="30"/>
@@ -28434,7 +28465,7 @@
       <c r="BL347" s="4"/>
       <c r="BM347" s="34"/>
     </row>
-    <row r="348" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="348" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS348" s="29"/>
       <c r="AT348" s="18"/>
       <c r="AU348" s="30"/>
@@ -28456,7 +28487,7 @@
       <c r="BL348" s="4"/>
       <c r="BM348" s="34"/>
     </row>
-    <row r="349" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="349" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS349" s="29"/>
       <c r="AT349" s="18"/>
       <c r="AU349" s="30"/>
@@ -28478,7 +28509,7 @@
       <c r="BL349" s="4"/>
       <c r="BM349" s="34"/>
     </row>
-    <row r="350" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="350" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS350" s="29"/>
       <c r="AT350" s="18"/>
       <c r="AU350" s="30"/>
@@ -28500,7 +28531,7 @@
       <c r="BL350" s="4"/>
       <c r="BM350" s="34"/>
     </row>
-    <row r="351" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="351" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS351" s="29"/>
       <c r="AT351" s="18"/>
       <c r="AU351" s="30"/>
@@ -28522,7 +28553,7 @@
       <c r="BL351" s="4"/>
       <c r="BM351" s="34"/>
     </row>
-    <row r="352" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="352" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS352" s="29"/>
       <c r="AT352" s="18"/>
       <c r="AU352" s="30"/>
@@ -28544,7 +28575,7 @@
       <c r="BL352" s="4"/>
       <c r="BM352" s="34"/>
     </row>
-    <row r="353" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="353" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS353" s="29"/>
       <c r="AT353" s="18"/>
       <c r="AU353" s="30"/>
@@ -28566,7 +28597,7 @@
       <c r="BL353" s="4"/>
       <c r="BM353" s="34"/>
     </row>
-    <row r="354" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="354" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS354" s="29"/>
       <c r="AT354" s="18"/>
       <c r="AU354" s="30"/>
@@ -28588,7 +28619,7 @@
       <c r="BL354" s="4"/>
       <c r="BM354" s="34"/>
     </row>
-    <row r="355" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="355" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS355" s="29"/>
       <c r="AT355" s="18"/>
       <c r="AU355" s="30"/>
@@ -28610,7 +28641,7 @@
       <c r="BL355" s="4"/>
       <c r="BM355" s="34"/>
     </row>
-    <row r="356" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="356" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS356" s="29"/>
       <c r="AT356" s="18"/>
       <c r="AU356" s="30"/>
@@ -28632,7 +28663,7 @@
       <c r="BL356" s="4"/>
       <c r="BM356" s="34"/>
     </row>
-    <row r="357" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="357" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS357" s="29"/>
       <c r="AT357" s="18"/>
       <c r="AU357" s="30"/>
@@ -28654,7 +28685,7 @@
       <c r="BL357" s="4"/>
       <c r="BM357" s="34"/>
     </row>
-    <row r="358" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="358" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS358" s="29"/>
       <c r="AT358" s="18"/>
       <c r="AU358" s="30"/>
@@ -28676,7 +28707,7 @@
       <c r="BL358" s="4"/>
       <c r="BM358" s="34"/>
     </row>
-    <row r="359" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="359" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS359" s="29"/>
       <c r="AT359" s="18"/>
       <c r="AU359" s="30"/>
@@ -28698,7 +28729,7 @@
       <c r="BL359" s="4"/>
       <c r="BM359" s="34"/>
     </row>
-    <row r="360" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="360" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS360" s="29"/>
       <c r="AT360" s="18"/>
       <c r="AU360" s="30"/>
@@ -28720,7 +28751,7 @@
       <c r="BL360" s="4"/>
       <c r="BM360" s="34"/>
     </row>
-    <row r="361" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="361" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS361" s="29"/>
       <c r="AT361" s="18"/>
       <c r="AU361" s="30"/>
@@ -28742,7 +28773,7 @@
       <c r="BL361" s="4"/>
       <c r="BM361" s="34"/>
     </row>
-    <row r="362" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="362" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS362" s="29"/>
       <c r="AT362" s="18"/>
       <c r="AU362" s="30"/>
@@ -28764,7 +28795,7 @@
       <c r="BL362" s="4"/>
       <c r="BM362" s="34"/>
     </row>
-    <row r="363" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="363" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS363" s="29"/>
       <c r="AT363" s="18"/>
       <c r="AU363" s="30"/>
@@ -28786,7 +28817,7 @@
       <c r="BL363" s="4"/>
       <c r="BM363" s="34"/>
     </row>
-    <row r="364" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="364" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS364" s="29"/>
       <c r="AT364" s="18"/>
       <c r="AU364" s="30"/>
@@ -28808,7 +28839,7 @@
       <c r="BL364" s="4"/>
       <c r="BM364" s="34"/>
     </row>
-    <row r="365" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="365" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS365" s="29"/>
       <c r="AT365" s="18"/>
       <c r="AU365" s="30"/>
@@ -28830,7 +28861,7 @@
       <c r="BL365" s="4"/>
       <c r="BM365" s="34"/>
     </row>
-    <row r="366" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="366" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS366" s="29"/>
       <c r="AT366" s="18"/>
       <c r="AU366" s="30"/>
@@ -28852,7 +28883,7 @@
       <c r="BL366" s="4"/>
       <c r="BM366" s="34"/>
     </row>
-    <row r="367" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="367" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS367" s="29"/>
       <c r="AT367" s="18"/>
       <c r="AU367" s="30"/>
@@ -28874,7 +28905,7 @@
       <c r="BL367" s="4"/>
       <c r="BM367" s="34"/>
     </row>
-    <row r="368" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="368" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS368" s="29"/>
       <c r="AT368" s="18"/>
       <c r="AU368" s="30"/>
@@ -28896,7 +28927,7 @@
       <c r="BL368" s="4"/>
       <c r="BM368" s="34"/>
     </row>
-    <row r="369" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="369" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS369" s="29"/>
       <c r="AT369" s="18"/>
       <c r="AU369" s="30"/>
@@ -28918,7 +28949,7 @@
       <c r="BL369" s="4"/>
       <c r="BM369" s="34"/>
     </row>
-    <row r="370" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="370" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS370" s="29"/>
       <c r="AT370" s="18"/>
       <c r="AU370" s="30"/>
@@ -28940,7 +28971,7 @@
       <c r="BL370" s="4"/>
       <c r="BM370" s="34"/>
     </row>
-    <row r="371" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="371" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS371" s="29"/>
       <c r="AT371" s="18"/>
       <c r="AU371" s="30"/>
@@ -28962,7 +28993,7 @@
       <c r="BL371" s="4"/>
       <c r="BM371" s="34"/>
     </row>
-    <row r="372" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="372" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS372" s="29"/>
       <c r="AT372" s="18"/>
       <c r="AU372" s="30"/>
@@ -28984,7 +29015,7 @@
       <c r="BL372" s="4"/>
       <c r="BM372" s="34"/>
     </row>
-    <row r="373" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="373" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS373" s="29"/>
       <c r="AT373" s="18"/>
       <c r="AU373" s="30"/>
@@ -29006,7 +29037,7 @@
       <c r="BL373" s="4"/>
       <c r="BM373" s="34"/>
     </row>
-    <row r="374" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="374" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS374" s="29"/>
       <c r="AT374" s="18"/>
       <c r="AU374" s="30"/>
@@ -29028,7 +29059,7 @@
       <c r="BL374" s="4"/>
       <c r="BM374" s="34"/>
     </row>
-    <row r="375" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="375" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS375" s="29"/>
       <c r="AT375" s="18"/>
       <c r="AU375" s="30"/>
@@ -29050,7 +29081,7 @@
       <c r="BL375" s="4"/>
       <c r="BM375" s="34"/>
     </row>
-    <row r="376" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="376" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS376" s="29"/>
       <c r="AT376" s="18"/>
       <c r="AU376" s="30"/>
@@ -29072,7 +29103,7 @@
       <c r="BL376" s="4"/>
       <c r="BM376" s="34"/>
     </row>
-    <row r="377" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="377" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS377" s="29"/>
       <c r="AT377" s="18"/>
       <c r="AU377" s="30"/>
@@ -29094,7 +29125,7 @@
       <c r="BL377" s="4"/>
       <c r="BM377" s="34"/>
     </row>
-    <row r="378" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="378" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS378" s="29"/>
       <c r="AT378" s="18"/>
       <c r="AU378" s="30"/>
@@ -29116,7 +29147,7 @@
       <c r="BL378" s="4"/>
       <c r="BM378" s="34"/>
     </row>
-    <row r="379" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="379" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS379" s="29"/>
       <c r="AT379" s="18"/>
       <c r="AU379" s="30"/>
@@ -29138,7 +29169,7 @@
       <c r="BL379" s="4"/>
       <c r="BM379" s="34"/>
     </row>
-    <row r="380" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="380" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS380" s="29"/>
       <c r="AT380" s="18"/>
       <c r="AU380" s="30"/>
@@ -29160,7 +29191,7 @@
       <c r="BL380" s="4"/>
       <c r="BM380" s="34"/>
     </row>
-    <row r="381" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="381" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS381" s="29"/>
       <c r="AT381" s="18"/>
       <c r="AU381" s="30"/>
@@ -29182,7 +29213,7 @@
       <c r="BL381" s="4"/>
       <c r="BM381" s="34"/>
     </row>
-    <row r="382" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="382" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS382" s="29"/>
       <c r="AT382" s="18"/>
       <c r="AU382" s="30"/>
@@ -29204,7 +29235,7 @@
       <c r="BL382" s="4"/>
       <c r="BM382" s="34"/>
     </row>
-    <row r="383" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="383" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS383" s="29"/>
       <c r="AT383" s="18"/>
       <c r="AU383" s="30"/>
@@ -29226,7 +29257,7 @@
       <c r="BL383" s="4"/>
       <c r="BM383" s="34"/>
     </row>
-    <row r="384" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="384" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS384" s="29"/>
       <c r="AT384" s="18"/>
       <c r="AU384" s="30"/>
@@ -29248,7 +29279,7 @@
       <c r="BL384" s="4"/>
       <c r="BM384" s="34"/>
     </row>
-    <row r="385" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="385" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS385" s="29"/>
       <c r="AT385" s="18"/>
       <c r="AU385" s="30"/>
@@ -29270,7 +29301,7 @@
       <c r="BL385" s="4"/>
       <c r="BM385" s="34"/>
     </row>
-    <row r="386" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="386" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS386" s="29"/>
       <c r="AT386" s="18"/>
       <c r="AU386" s="30"/>
@@ -29292,7 +29323,7 @@
       <c r="BL386" s="4"/>
       <c r="BM386" s="34"/>
     </row>
-    <row r="387" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="387" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS387" s="29"/>
       <c r="AT387" s="18"/>
       <c r="AU387" s="30"/>
@@ -29314,7 +29345,7 @@
       <c r="BL387" s="4"/>
       <c r="BM387" s="34"/>
     </row>
-    <row r="388" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="388" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS388" s="29"/>
       <c r="AT388" s="18"/>
       <c r="AU388" s="30"/>
@@ -29336,7 +29367,7 @@
       <c r="BL388" s="4"/>
       <c r="BM388" s="34"/>
     </row>
-    <row r="389" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="389" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS389" s="29"/>
       <c r="AT389" s="18"/>
       <c r="AU389" s="30"/>
@@ -29358,7 +29389,7 @@
       <c r="BL389" s="4"/>
       <c r="BM389" s="34"/>
     </row>
-    <row r="390" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="390" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS390" s="29"/>
       <c r="AT390" s="18"/>
       <c r="AU390" s="30"/>
@@ -29380,7 +29411,7 @@
       <c r="BL390" s="4"/>
       <c r="BM390" s="34"/>
     </row>
-    <row r="391" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="391" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS391" s="29"/>
       <c r="AT391" s="18"/>
       <c r="AU391" s="30"/>
@@ -29402,7 +29433,7 @@
       <c r="BL391" s="4"/>
       <c r="BM391" s="34"/>
     </row>
-    <row r="392" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="392" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS392" s="29"/>
       <c r="AT392" s="18"/>
       <c r="AU392" s="30"/>
@@ -29424,7 +29455,7 @@
       <c r="BL392" s="4"/>
       <c r="BM392" s="34"/>
     </row>
-    <row r="393" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="393" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS393" s="29"/>
       <c r="AT393" s="18"/>
       <c r="AU393" s="30"/>
@@ -29446,7 +29477,7 @@
       <c r="BL393" s="4"/>
       <c r="BM393" s="34"/>
     </row>
-    <row r="394" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="394" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS394" s="29"/>
       <c r="AT394" s="18"/>
       <c r="AU394" s="30"/>
@@ -29468,7 +29499,7 @@
       <c r="BL394" s="4"/>
       <c r="BM394" s="34"/>
     </row>
-    <row r="395" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="395" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS395" s="29"/>
       <c r="AT395" s="18"/>
       <c r="AU395" s="30"/>
@@ -29490,7 +29521,7 @@
       <c r="BL395" s="4"/>
       <c r="BM395" s="34"/>
     </row>
-    <row r="396" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="396" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS396" s="29"/>
       <c r="AT396" s="18"/>
       <c r="AU396" s="30"/>
@@ -29512,7 +29543,7 @@
       <c r="BL396" s="4"/>
       <c r="BM396" s="34"/>
     </row>
-    <row r="397" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="397" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS397" s="29"/>
       <c r="AT397" s="18"/>
       <c r="AU397" s="30"/>
@@ -29534,7 +29565,7 @@
       <c r="BL397" s="4"/>
       <c r="BM397" s="34"/>
     </row>
-    <row r="398" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="398" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS398" s="29"/>
       <c r="AT398" s="18"/>
       <c r="AU398" s="30"/>
@@ -29556,7 +29587,7 @@
       <c r="BL398" s="4"/>
       <c r="BM398" s="34"/>
     </row>
-    <row r="399" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="399" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS399" s="29"/>
       <c r="AT399" s="18"/>
       <c r="AU399" s="30"/>
@@ -29578,7 +29609,7 @@
       <c r="BL399" s="4"/>
       <c r="BM399" s="34"/>
     </row>
-    <row r="400" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="400" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS400" s="29"/>
       <c r="AT400" s="18"/>
       <c r="AU400" s="30"/>
@@ -29600,7 +29631,7 @@
       <c r="BL400" s="4"/>
       <c r="BM400" s="34"/>
     </row>
-    <row r="401" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="401" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS401" s="29"/>
       <c r="AT401" s="18"/>
       <c r="AU401" s="30"/>
@@ -29622,7 +29653,7 @@
       <c r="BL401" s="4"/>
       <c r="BM401" s="34"/>
     </row>
-    <row r="402" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="402" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS402" s="29"/>
       <c r="AT402" s="18"/>
       <c r="AU402" s="30"/>
@@ -29644,7 +29675,7 @@
       <c r="BL402" s="4"/>
       <c r="BM402" s="34"/>
     </row>
-    <row r="403" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="403" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS403" s="29"/>
       <c r="AT403" s="18"/>
       <c r="AU403" s="30"/>
@@ -29666,7 +29697,7 @@
       <c r="BL403" s="4"/>
       <c r="BM403" s="34"/>
     </row>
-    <row r="404" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="404" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS404" s="29"/>
       <c r="AT404" s="18"/>
       <c r="AU404" s="30"/>
@@ -29688,7 +29719,7 @@
       <c r="BL404" s="4"/>
       <c r="BM404" s="34"/>
     </row>
-    <row r="405" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="405" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS405" s="29"/>
       <c r="AT405" s="18"/>
       <c r="AU405" s="30"/>
@@ -29710,7 +29741,7 @@
       <c r="BL405" s="4"/>
       <c r="BM405" s="34"/>
     </row>
-    <row r="406" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="406" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS406" s="29"/>
       <c r="AT406" s="18"/>
       <c r="AU406" s="30"/>
@@ -29732,7 +29763,7 @@
       <c r="BL406" s="4"/>
       <c r="BM406" s="34"/>
     </row>
-    <row r="407" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="407" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS407" s="29"/>
       <c r="AT407" s="18"/>
       <c r="AU407" s="30"/>
@@ -29754,7 +29785,7 @@
       <c r="BL407" s="4"/>
       <c r="BM407" s="34"/>
     </row>
-    <row r="408" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="408" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS408" s="29"/>
       <c r="AT408" s="18"/>
       <c r="AU408" s="30"/>
@@ -29776,7 +29807,7 @@
       <c r="BL408" s="4"/>
       <c r="BM408" s="34"/>
     </row>
-    <row r="409" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="409" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS409" s="29"/>
       <c r="AT409" s="18"/>
       <c r="AU409" s="30"/>
@@ -29798,7 +29829,7 @@
       <c r="BL409" s="4"/>
       <c r="BM409" s="34"/>
     </row>
-    <row r="410" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="410" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS410" s="29"/>
       <c r="AT410" s="18"/>
       <c r="AU410" s="30"/>
@@ -29820,7 +29851,7 @@
       <c r="BL410" s="4"/>
       <c r="BM410" s="34"/>
     </row>
-    <row r="411" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="411" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS411" s="29"/>
       <c r="AT411" s="18"/>
       <c r="AU411" s="30"/>
@@ -29842,7 +29873,7 @@
       <c r="BL411" s="4"/>
       <c r="BM411" s="34"/>
     </row>
-    <row r="412" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="412" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS412" s="29"/>
       <c r="AT412" s="18"/>
       <c r="AU412" s="30"/>
@@ -29864,7 +29895,7 @@
       <c r="BL412" s="4"/>
       <c r="BM412" s="34"/>
     </row>
-    <row r="413" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="413" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS413" s="29"/>
       <c r="AT413" s="18"/>
       <c r="AU413" s="30"/>
@@ -29886,7 +29917,7 @@
       <c r="BL413" s="4"/>
       <c r="BM413" s="34"/>
     </row>
-    <row r="414" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="414" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS414" s="29"/>
       <c r="AT414" s="18"/>
       <c r="AU414" s="30"/>
@@ -29908,7 +29939,7 @@
       <c r="BL414" s="4"/>
       <c r="BM414" s="34"/>
     </row>
-    <row r="415" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="415" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS415" s="29"/>
       <c r="AT415" s="18"/>
       <c r="AU415" s="30"/>
@@ -29930,7 +29961,7 @@
       <c r="BL415" s="4"/>
       <c r="BM415" s="34"/>
     </row>
-    <row r="416" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="416" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS416" s="29"/>
       <c r="AT416" s="18"/>
       <c r="AU416" s="30"/>
@@ -29952,7 +29983,7 @@
       <c r="BL416" s="4"/>
       <c r="BM416" s="34"/>
     </row>
-    <row r="417" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="417" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS417" s="29"/>
       <c r="AT417" s="18"/>
       <c r="AU417" s="30"/>
@@ -29974,7 +30005,7 @@
       <c r="BL417" s="4"/>
       <c r="BM417" s="34"/>
     </row>
-    <row r="418" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="418" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS418" s="29"/>
       <c r="AT418" s="18"/>
       <c r="AU418" s="30"/>
@@ -29996,7 +30027,7 @@
       <c r="BL418" s="4"/>
       <c r="BM418" s="34"/>
     </row>
-    <row r="419" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="419" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS419" s="29"/>
       <c r="AT419" s="18"/>
       <c r="AU419" s="30"/>
@@ -30018,7 +30049,7 @@
       <c r="BL419" s="4"/>
       <c r="BM419" s="34"/>
     </row>
-    <row r="420" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="420" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS420" s="29"/>
       <c r="AT420" s="18"/>
       <c r="AU420" s="30"/>
@@ -30040,7 +30071,7 @@
       <c r="BL420" s="4"/>
       <c r="BM420" s="34"/>
     </row>
-    <row r="421" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="421" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS421" s="29"/>
       <c r="AT421" s="18"/>
       <c r="AU421" s="30"/>
@@ -30062,7 +30093,7 @@
       <c r="BL421" s="4"/>
       <c r="BM421" s="34"/>
     </row>
-    <row r="422" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="422" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS422" s="29"/>
       <c r="AT422" s="18"/>
       <c r="AU422" s="30"/>
@@ -30084,7 +30115,7 @@
       <c r="BL422" s="4"/>
       <c r="BM422" s="34"/>
     </row>
-    <row r="423" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="423" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS423" s="29"/>
       <c r="AT423" s="18"/>
       <c r="AU423" s="30"/>
@@ -30106,7 +30137,7 @@
       <c r="BL423" s="4"/>
       <c r="BM423" s="34"/>
     </row>
-    <row r="424" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="424" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS424" s="29"/>
       <c r="AT424" s="18"/>
       <c r="AU424" s="30"/>
@@ -30128,7 +30159,7 @@
       <c r="BL424" s="4"/>
       <c r="BM424" s="34"/>
     </row>
-    <row r="425" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="425" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS425" s="29"/>
       <c r="AT425" s="18"/>
       <c r="AU425" s="30"/>
@@ -30150,7 +30181,7 @@
       <c r="BL425" s="4"/>
       <c r="BM425" s="34"/>
     </row>
-    <row r="426" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="426" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS426" s="29"/>
       <c r="AT426" s="18"/>
       <c r="AU426" s="30"/>
@@ -30172,7 +30203,7 @@
       <c r="BL426" s="4"/>
       <c r="BM426" s="34"/>
     </row>
-    <row r="427" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="427" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS427" s="29"/>
       <c r="AT427" s="18"/>
       <c r="AU427" s="30"/>
@@ -30194,7 +30225,7 @@
       <c r="BL427" s="4"/>
       <c r="BM427" s="34"/>
     </row>
-    <row r="428" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="428" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS428" s="29"/>
       <c r="AT428" s="18"/>
       <c r="AU428" s="30"/>
@@ -30216,7 +30247,7 @@
       <c r="BL428" s="4"/>
       <c r="BM428" s="34"/>
     </row>
-    <row r="429" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="429" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS429" s="29"/>
       <c r="AT429" s="18"/>
       <c r="AU429" s="30"/>
@@ -30238,7 +30269,7 @@
       <c r="BL429" s="4"/>
       <c r="BM429" s="34"/>
     </row>
-    <row r="430" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="430" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS430" s="29"/>
       <c r="AT430" s="18"/>
       <c r="AU430" s="30"/>
@@ -30260,7 +30291,7 @@
       <c r="BL430" s="4"/>
       <c r="BM430" s="34"/>
     </row>
-    <row r="431" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="431" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS431" s="29"/>
       <c r="AT431" s="18"/>
       <c r="AU431" s="30"/>
@@ -30282,7 +30313,7 @@
       <c r="BL431" s="4"/>
       <c r="BM431" s="34"/>
     </row>
-    <row r="432" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="432" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS432" s="29"/>
       <c r="AT432" s="18"/>
       <c r="AU432" s="30"/>
@@ -30304,7 +30335,7 @@
       <c r="BL432" s="4"/>
       <c r="BM432" s="34"/>
     </row>
-    <row r="433" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="433" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS433" s="29"/>
       <c r="AT433" s="18"/>
       <c r="AU433" s="30"/>
@@ -30326,7 +30357,7 @@
       <c r="BL433" s="4"/>
       <c r="BM433" s="34"/>
     </row>
-    <row r="434" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="434" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS434" s="29"/>
       <c r="AT434" s="18"/>
       <c r="AU434" s="30"/>
@@ -30348,7 +30379,7 @@
       <c r="BL434" s="4"/>
       <c r="BM434" s="34"/>
     </row>
-    <row r="435" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="435" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS435" s="29"/>
       <c r="AT435" s="18"/>
       <c r="AU435" s="30"/>
@@ -30370,7 +30401,7 @@
       <c r="BL435" s="4"/>
       <c r="BM435" s="34"/>
     </row>
-    <row r="436" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="436" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS436" s="29"/>
       <c r="AT436" s="18"/>
       <c r="AU436" s="30"/>
@@ -30392,7 +30423,7 @@
       <c r="BL436" s="4"/>
       <c r="BM436" s="34"/>
     </row>
-    <row r="437" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="437" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS437" s="29"/>
       <c r="AT437" s="18"/>
       <c r="AU437" s="30"/>
@@ -30414,7 +30445,7 @@
       <c r="BL437" s="4"/>
       <c r="BM437" s="34"/>
     </row>
-    <row r="438" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="438" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS438" s="29"/>
       <c r="AT438" s="18"/>
       <c r="AU438" s="30"/>
@@ -30436,7 +30467,7 @@
       <c r="BL438" s="4"/>
       <c r="BM438" s="34"/>
     </row>
-    <row r="439" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="439" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS439" s="29"/>
       <c r="AT439" s="18"/>
       <c r="AU439" s="30"/>
@@ -30458,7 +30489,7 @@
       <c r="BL439" s="4"/>
       <c r="BM439" s="34"/>
     </row>
-    <row r="440" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="440" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS440" s="29"/>
       <c r="AT440" s="18"/>
       <c r="AU440" s="30"/>
@@ -30480,7 +30511,7 @@
       <c r="BL440" s="4"/>
       <c r="BM440" s="34"/>
     </row>
-    <row r="441" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="441" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS441" s="29"/>
       <c r="AT441" s="18"/>
       <c r="AU441" s="30"/>
@@ -30502,7 +30533,7 @@
       <c r="BL441" s="4"/>
       <c r="BM441" s="34"/>
     </row>
-    <row r="442" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="442" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS442" s="29"/>
       <c r="AT442" s="18"/>
       <c r="AU442" s="30"/>
@@ -30524,7 +30555,7 @@
       <c r="BL442" s="4"/>
       <c r="BM442" s="34"/>
     </row>
-    <row r="443" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="443" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS443" s="29"/>
       <c r="AT443" s="18"/>
       <c r="AU443" s="30"/>
@@ -30546,7 +30577,7 @@
       <c r="BL443" s="4"/>
       <c r="BM443" s="34"/>
     </row>
-    <row r="444" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="444" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS444" s="29"/>
       <c r="AT444" s="18"/>
       <c r="AU444" s="30"/>
@@ -30568,7 +30599,7 @@
       <c r="BL444" s="4"/>
       <c r="BM444" s="34"/>
     </row>
-    <row r="445" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="445" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS445" s="29"/>
       <c r="AT445" s="18"/>
       <c r="AU445" s="30"/>
@@ -30590,7 +30621,7 @@
       <c r="BL445" s="4"/>
       <c r="BM445" s="34"/>
     </row>
-    <row r="446" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="446" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS446" s="29"/>
       <c r="AT446" s="18"/>
       <c r="AU446" s="30"/>
@@ -30612,7 +30643,7 @@
       <c r="BL446" s="4"/>
       <c r="BM446" s="34"/>
     </row>
-    <row r="447" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="447" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS447" s="29"/>
       <c r="AT447" s="18"/>
       <c r="AU447" s="30"/>
@@ -30634,7 +30665,7 @@
       <c r="BL447" s="4"/>
       <c r="BM447" s="34"/>
     </row>
-    <row r="448" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="448" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS448" s="29"/>
       <c r="AT448" s="18"/>
       <c r="AU448" s="30"/>
@@ -30656,7 +30687,7 @@
       <c r="BL448" s="4"/>
       <c r="BM448" s="34"/>
     </row>
-    <row r="449" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="449" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS449" s="29"/>
       <c r="AT449" s="18"/>
       <c r="AU449" s="30"/>
@@ -30678,7 +30709,7 @@
       <c r="BL449" s="4"/>
       <c r="BM449" s="34"/>
     </row>
-    <row r="450" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="450" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS450" s="29"/>
       <c r="AT450" s="18"/>
       <c r="AU450" s="30"/>
@@ -30700,7 +30731,7 @@
       <c r="BL450" s="4"/>
       <c r="BM450" s="34"/>
     </row>
-    <row r="451" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="451" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS451" s="29"/>
       <c r="AT451" s="18"/>
       <c r="AU451" s="30"/>
@@ -30722,7 +30753,7 @@
       <c r="BL451" s="4"/>
       <c r="BM451" s="34"/>
     </row>
-    <row r="452" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="452" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS452" s="29"/>
       <c r="AT452" s="18"/>
       <c r="AU452" s="30"/>
@@ -30744,7 +30775,7 @@
       <c r="BL452" s="4"/>
       <c r="BM452" s="34"/>
     </row>
-    <row r="453" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="453" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS453" s="29"/>
       <c r="AT453" s="18"/>
       <c r="AU453" s="30"/>
@@ -30766,7 +30797,7 @@
       <c r="BL453" s="4"/>
       <c r="BM453" s="34"/>
     </row>
-    <row r="454" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="454" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS454" s="29"/>
       <c r="AT454" s="18"/>
       <c r="AU454" s="30"/>
@@ -30788,7 +30819,7 @@
       <c r="BL454" s="4"/>
       <c r="BM454" s="34"/>
     </row>
-    <row r="455" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="455" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS455" s="29"/>
       <c r="AT455" s="18"/>
       <c r="AU455" s="30"/>
@@ -30810,7 +30841,7 @@
       <c r="BL455" s="4"/>
       <c r="BM455" s="34"/>
     </row>
-    <row r="456" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="456" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS456" s="29"/>
       <c r="AT456" s="18"/>
       <c r="AU456" s="30"/>
@@ -30832,7 +30863,7 @@
       <c r="BL456" s="4"/>
       <c r="BM456" s="34"/>
     </row>
-    <row r="457" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="457" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS457" s="29"/>
       <c r="AT457" s="18"/>
       <c r="AU457" s="30"/>
@@ -30854,7 +30885,7 @@
       <c r="BL457" s="4"/>
       <c r="BM457" s="34"/>
     </row>
-    <row r="458" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="458" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS458" s="29"/>
       <c r="AT458" s="18"/>
       <c r="AU458" s="30"/>
@@ -30876,7 +30907,7 @@
       <c r="BL458" s="4"/>
       <c r="BM458" s="34"/>
     </row>
-    <row r="459" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="459" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS459" s="29"/>
       <c r="AT459" s="18"/>
       <c r="AU459" s="30"/>
@@ -30898,7 +30929,7 @@
       <c r="BL459" s="4"/>
       <c r="BM459" s="34"/>
     </row>
-    <row r="460" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="460" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS460" s="29"/>
       <c r="AT460" s="18"/>
       <c r="AU460" s="30"/>
@@ -30920,7 +30951,7 @@
       <c r="BL460" s="4"/>
       <c r="BM460" s="34"/>
     </row>
-    <row r="461" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="461" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS461" s="29"/>
       <c r="AT461" s="18"/>
       <c r="AU461" s="30"/>
@@ -30942,7 +30973,7 @@
       <c r="BL461" s="4"/>
       <c r="BM461" s="34"/>
     </row>
-    <row r="462" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="462" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS462" s="29"/>
       <c r="AT462" s="18"/>
       <c r="AU462" s="30"/>
@@ -30964,7 +30995,7 @@
       <c r="BL462" s="4"/>
       <c r="BM462" s="34"/>
     </row>
-    <row r="463" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="463" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS463" s="29"/>
       <c r="AT463" s="18"/>
       <c r="AU463" s="30"/>
@@ -30986,7 +31017,7 @@
       <c r="BL463" s="4"/>
       <c r="BM463" s="34"/>
     </row>
-    <row r="464" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="464" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS464" s="29"/>
       <c r="AT464" s="18"/>
       <c r="AU464" s="30"/>
@@ -31008,7 +31039,7 @@
       <c r="BL464" s="4"/>
       <c r="BM464" s="34"/>
     </row>
-    <row r="465" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="465" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS465" s="29"/>
       <c r="AT465" s="18"/>
       <c r="AU465" s="30"/>
@@ -31030,7 +31061,7 @@
       <c r="BL465" s="4"/>
       <c r="BM465" s="34"/>
     </row>
-    <row r="466" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="466" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS466" s="29"/>
       <c r="AT466" s="18"/>
       <c r="AU466" s="30"/>
@@ -31052,7 +31083,7 @@
       <c r="BL466" s="4"/>
       <c r="BM466" s="34"/>
     </row>
-    <row r="467" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="467" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS467" s="29"/>
       <c r="AT467" s="18"/>
       <c r="AU467" s="30"/>
@@ -31074,7 +31105,7 @@
       <c r="BL467" s="4"/>
       <c r="BM467" s="34"/>
     </row>
-    <row r="468" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="468" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS468" s="29"/>
       <c r="AT468" s="18"/>
       <c r="AU468" s="30"/>
@@ -31096,7 +31127,7 @@
       <c r="BL468" s="4"/>
       <c r="BM468" s="34"/>
     </row>
-    <row r="469" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="469" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS469" s="29"/>
       <c r="AT469" s="18"/>
       <c r="AU469" s="30"/>
@@ -31118,7 +31149,7 @@
       <c r="BL469" s="4"/>
       <c r="BM469" s="34"/>
     </row>
-    <row r="470" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="470" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS470" s="29"/>
       <c r="AT470" s="18"/>
       <c r="AU470" s="30"/>
@@ -31140,7 +31171,7 @@
       <c r="BL470" s="4"/>
       <c r="BM470" s="34"/>
     </row>
-    <row r="471" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="471" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS471" s="29"/>
       <c r="AT471" s="18"/>
       <c r="AU471" s="30"/>
@@ -31162,7 +31193,7 @@
       <c r="BL471" s="4"/>
       <c r="BM471" s="34"/>
     </row>
-    <row r="472" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="472" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS472" s="29"/>
       <c r="AT472" s="18"/>
       <c r="AU472" s="30"/>
@@ -31184,7 +31215,7 @@
       <c r="BL472" s="4"/>
       <c r="BM472" s="34"/>
     </row>
-    <row r="473" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="473" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS473" s="29"/>
       <c r="AT473" s="18"/>
       <c r="AU473" s="30"/>
@@ -31206,7 +31237,7 @@
       <c r="BL473" s="4"/>
       <c r="BM473" s="34"/>
     </row>
-    <row r="474" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="474" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS474" s="29"/>
       <c r="AT474" s="18"/>
       <c r="AU474" s="30"/>
@@ -31228,7 +31259,7 @@
       <c r="BL474" s="4"/>
       <c r="BM474" s="34"/>
     </row>
-    <row r="475" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="475" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS475" s="29"/>
       <c r="AT475" s="18"/>
       <c r="AU475" s="30"/>
@@ -31250,7 +31281,7 @@
       <c r="BL475" s="4"/>
       <c r="BM475" s="34"/>
     </row>
-    <row r="476" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="476" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS476" s="29"/>
       <c r="AT476" s="18"/>
       <c r="AU476" s="30"/>
@@ -31272,7 +31303,7 @@
       <c r="BL476" s="4"/>
       <c r="BM476" s="34"/>
     </row>
-    <row r="477" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="477" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS477" s="29"/>
       <c r="AT477" s="18"/>
       <c r="AU477" s="30"/>
@@ -31294,7 +31325,7 @@
       <c r="BL477" s="4"/>
       <c r="BM477" s="34"/>
     </row>
-    <row r="478" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="478" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS478" s="29"/>
       <c r="AT478" s="18"/>
       <c r="AU478" s="30"/>
@@ -31316,7 +31347,7 @@
       <c r="BL478" s="4"/>
       <c r="BM478" s="34"/>
     </row>
-    <row r="479" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="479" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS479" s="29"/>
       <c r="AT479" s="18"/>
       <c r="AU479" s="30"/>
@@ -31338,7 +31369,7 @@
       <c r="BL479" s="4"/>
       <c r="BM479" s="34"/>
     </row>
-    <row r="480" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="480" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS480" s="29"/>
       <c r="AT480" s="18"/>
       <c r="AU480" s="30"/>
@@ -31360,7 +31391,7 @@
       <c r="BL480" s="4"/>
       <c r="BM480" s="34"/>
     </row>
-    <row r="481" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="481" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS481" s="29"/>
       <c r="AT481" s="18"/>
       <c r="AU481" s="30"/>
@@ -31382,7 +31413,7 @@
       <c r="BL481" s="4"/>
       <c r="BM481" s="34"/>
     </row>
-    <row r="482" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="482" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS482" s="29"/>
       <c r="AT482" s="18"/>
       <c r="AU482" s="30"/>
@@ -31404,7 +31435,7 @@
       <c r="BL482" s="4"/>
       <c r="BM482" s="34"/>
     </row>
-    <row r="483" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="483" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS483" s="29"/>
       <c r="AT483" s="18"/>
       <c r="AU483" s="30"/>
@@ -31426,7 +31457,7 @@
       <c r="BL483" s="4"/>
       <c r="BM483" s="34"/>
     </row>
-    <row r="484" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="484" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS484" s="29"/>
       <c r="AT484" s="18"/>
       <c r="AU484" s="30"/>
@@ -31448,7 +31479,7 @@
       <c r="BL484" s="4"/>
       <c r="BM484" s="34"/>
     </row>
-    <row r="485" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="485" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS485" s="29"/>
       <c r="AT485" s="18"/>
       <c r="AU485" s="30"/>
@@ -31470,7 +31501,7 @@
       <c r="BL485" s="4"/>
       <c r="BM485" s="34"/>
     </row>
-    <row r="486" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="486" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS486" s="29"/>
       <c r="AT486" s="18"/>
       <c r="AU486" s="30"/>
@@ -31492,7 +31523,7 @@
       <c r="BL486" s="4"/>
       <c r="BM486" s="34"/>
     </row>
-    <row r="487" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="487" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS487" s="29"/>
       <c r="AT487" s="18"/>
       <c r="AU487" s="30"/>
@@ -31514,7 +31545,7 @@
       <c r="BL487" s="4"/>
       <c r="BM487" s="34"/>
     </row>
-    <row r="488" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="488" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS488" s="29"/>
       <c r="AT488" s="18"/>
       <c r="AU488" s="30"/>
@@ -31536,7 +31567,7 @@
       <c r="BL488" s="4"/>
       <c r="BM488" s="34"/>
     </row>
-    <row r="489" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="489" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS489" s="29"/>
       <c r="AT489" s="18"/>
       <c r="AU489" s="30"/>
@@ -31558,7 +31589,7 @@
       <c r="BL489" s="4"/>
       <c r="BM489" s="34"/>
     </row>
-    <row r="490" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="490" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS490" s="29"/>
       <c r="AT490" s="18"/>
       <c r="AU490" s="30"/>
@@ -31580,7 +31611,7 @@
       <c r="BL490" s="4"/>
       <c r="BM490" s="34"/>
     </row>
-    <row r="491" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="491" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS491" s="29"/>
       <c r="AT491" s="18"/>
       <c r="AU491" s="30"/>
@@ -31602,7 +31633,7 @@
       <c r="BL491" s="4"/>
       <c r="BM491" s="34"/>
     </row>
-    <row r="492" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="492" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS492" s="29"/>
       <c r="AT492" s="18"/>
       <c r="AU492" s="30"/>
@@ -31624,7 +31655,7 @@
       <c r="BL492" s="4"/>
       <c r="BM492" s="34"/>
     </row>
-    <row r="493" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="493" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS493" s="29"/>
       <c r="AT493" s="18"/>
       <c r="AU493" s="30"/>
@@ -31646,7 +31677,7 @@
       <c r="BL493" s="4"/>
       <c r="BM493" s="34"/>
     </row>
-    <row r="494" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="494" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS494" s="29"/>
       <c r="AT494" s="18"/>
       <c r="AU494" s="30"/>
@@ -31668,7 +31699,7 @@
       <c r="BL494" s="4"/>
       <c r="BM494" s="34"/>
     </row>
-    <row r="495" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="495" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS495" s="29"/>
       <c r="AT495" s="18"/>
       <c r="AU495" s="30"/>
@@ -31690,7 +31721,7 @@
       <c r="BL495" s="4"/>
       <c r="BM495" s="34"/>
     </row>
-    <row r="496" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="496" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS496" s="29"/>
       <c r="AT496" s="18"/>
       <c r="AU496" s="30"/>
@@ -31712,7 +31743,7 @@
       <c r="BL496" s="4"/>
       <c r="BM496" s="34"/>
     </row>
-    <row r="497" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="497" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS497" s="29"/>
       <c r="AT497" s="18"/>
       <c r="AU497" s="30"/>
@@ -31734,7 +31765,7 @@
       <c r="BL497" s="4"/>
       <c r="BM497" s="34"/>
     </row>
-    <row r="498" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="498" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS498" s="29"/>
       <c r="AT498" s="18"/>
       <c r="AU498" s="30"/>
@@ -31756,7 +31787,7 @@
       <c r="BL498" s="4"/>
       <c r="BM498" s="34"/>
     </row>
-    <row r="499" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="499" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS499" s="29"/>
       <c r="AT499" s="18"/>
       <c r="AU499" s="30"/>
@@ -31778,7 +31809,7 @@
       <c r="BL499" s="4"/>
       <c r="BM499" s="34"/>
     </row>
-    <row r="500" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="500" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS500" s="29"/>
       <c r="AT500" s="18"/>
       <c r="AU500" s="30"/>
@@ -31800,7 +31831,7 @@
       <c r="BL500" s="4"/>
       <c r="BM500" s="34"/>
     </row>
-    <row r="501" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="501" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS501" s="29"/>
       <c r="AT501" s="18"/>
       <c r="AU501" s="30"/>
@@ -31822,7 +31853,7 @@
       <c r="BL501" s="4"/>
       <c r="BM501" s="34"/>
     </row>
-    <row r="502" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="502" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS502" s="29"/>
       <c r="AT502" s="18"/>
       <c r="AU502" s="30"/>
@@ -31844,7 +31875,7 @@
       <c r="BL502" s="4"/>
       <c r="BM502" s="34"/>
     </row>
-    <row r="503" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="503" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS503" s="29"/>
       <c r="AT503" s="18"/>
       <c r="AU503" s="30"/>
@@ -31866,7 +31897,7 @@
       <c r="BL503" s="4"/>
       <c r="BM503" s="34"/>
     </row>
-    <row r="504" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="504" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS504" s="29"/>
       <c r="AT504" s="18"/>
       <c r="AU504" s="30"/>
@@ -31888,7 +31919,7 @@
       <c r="BL504" s="4"/>
       <c r="BM504" s="34"/>
     </row>
-    <row r="505" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="505" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS505" s="29"/>
       <c r="AT505" s="18"/>
       <c r="AU505" s="30"/>
@@ -31910,7 +31941,7 @@
       <c r="BL505" s="4"/>
       <c r="BM505" s="34"/>
     </row>
-    <row r="506" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="506" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS506" s="29"/>
       <c r="AT506" s="18"/>
       <c r="AU506" s="30"/>
@@ -31932,7 +31963,7 @@
       <c r="BL506" s="4"/>
       <c r="BM506" s="34"/>
     </row>
-    <row r="507" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="507" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS507" s="29"/>
       <c r="AT507" s="18"/>
       <c r="AU507" s="30"/>
@@ -31954,7 +31985,7 @@
       <c r="BL507" s="4"/>
       <c r="BM507" s="34"/>
     </row>
-    <row r="508" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="508" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS508" s="29"/>
       <c r="AT508" s="18"/>
       <c r="AU508" s="30"/>
@@ -31976,7 +32007,7 @@
       <c r="BL508" s="4"/>
       <c r="BM508" s="34"/>
     </row>
-    <row r="509" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="509" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS509" s="29"/>
       <c r="AT509" s="18"/>
       <c r="AU509" s="30"/>
@@ -31998,7 +32029,7 @@
       <c r="BL509" s="4"/>
       <c r="BM509" s="34"/>
     </row>
-    <row r="510" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="510" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS510" s="29"/>
       <c r="AT510" s="18"/>
       <c r="AU510" s="30"/>
@@ -32020,7 +32051,7 @@
       <c r="BL510" s="4"/>
       <c r="BM510" s="34"/>
     </row>
-    <row r="511" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="511" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS511" s="29"/>
       <c r="AT511" s="18"/>
       <c r="AU511" s="30"/>
@@ -32042,7 +32073,7 @@
       <c r="BL511" s="4"/>
       <c r="BM511" s="34"/>
     </row>
-    <row r="512" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="512" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS512" s="29"/>
       <c r="AT512" s="18"/>
       <c r="AU512" s="30"/>
@@ -32064,7 +32095,7 @@
       <c r="BL512" s="4"/>
       <c r="BM512" s="34"/>
     </row>
-    <row r="513" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="513" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS513" s="29"/>
       <c r="AT513" s="18"/>
       <c r="AU513" s="30"/>
@@ -32086,7 +32117,7 @@
       <c r="BL513" s="4"/>
       <c r="BM513" s="34"/>
     </row>
-    <row r="514" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="514" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS514" s="29"/>
       <c r="AT514" s="18"/>
       <c r="AU514" s="30"/>
@@ -32108,7 +32139,7 @@
       <c r="BL514" s="4"/>
       <c r="BM514" s="34"/>
     </row>
-    <row r="515" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="515" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS515" s="29"/>
       <c r="AT515" s="18"/>
       <c r="AU515" s="30"/>
@@ -32130,7 +32161,7 @@
       <c r="BL515" s="4"/>
       <c r="BM515" s="34"/>
     </row>
-    <row r="516" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="516" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS516" s="29"/>
       <c r="AT516" s="18"/>
       <c r="AU516" s="30"/>
@@ -32152,7 +32183,7 @@
       <c r="BL516" s="4"/>
       <c r="BM516" s="34"/>
     </row>
-    <row r="517" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="517" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS517" s="29"/>
       <c r="AT517" s="18"/>
       <c r="AU517" s="30"/>
@@ -32174,7 +32205,7 @@
       <c r="BL517" s="4"/>
       <c r="BM517" s="34"/>
     </row>
-    <row r="518" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="518" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS518" s="29"/>
       <c r="AT518" s="18"/>
       <c r="AU518" s="30"/>
@@ -32196,7 +32227,7 @@
       <c r="BL518" s="4"/>
       <c r="BM518" s="34"/>
     </row>
-    <row r="519" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="519" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS519" s="29"/>
       <c r="AT519" s="18"/>
       <c r="AU519" s="30"/>
@@ -32218,7 +32249,7 @@
       <c r="BL519" s="4"/>
       <c r="BM519" s="34"/>
     </row>
-    <row r="520" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="520" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS520" s="29"/>
       <c r="AT520" s="18"/>
       <c r="AU520" s="30"/>
@@ -32240,7 +32271,7 @@
       <c r="BL520" s="4"/>
       <c r="BM520" s="34"/>
     </row>
-    <row r="521" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="521" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS521" s="29"/>
       <c r="AT521" s="18"/>
       <c r="AU521" s="30"/>
@@ -32262,7 +32293,7 @@
       <c r="BL521" s="4"/>
       <c r="BM521" s="34"/>
     </row>
-    <row r="522" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="522" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS522" s="29"/>
       <c r="AT522" s="18"/>
       <c r="AU522" s="30"/>
@@ -32284,7 +32315,7 @@
       <c r="BL522" s="4"/>
       <c r="BM522" s="34"/>
     </row>
-    <row r="523" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="523" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS523" s="29"/>
       <c r="AT523" s="18"/>
       <c r="AU523" s="30"/>
@@ -32306,7 +32337,7 @@
       <c r="BL523" s="4"/>
       <c r="BM523" s="34"/>
     </row>
-    <row r="524" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="524" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS524" s="29"/>
       <c r="AT524" s="18"/>
       <c r="AU524" s="30"/>
@@ -32328,7 +32359,7 @@
       <c r="BL524" s="4"/>
       <c r="BM524" s="34"/>
     </row>
-    <row r="525" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="525" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS525" s="29"/>
       <c r="AT525" s="18"/>
       <c r="AU525" s="30"/>
@@ -32350,7 +32381,7 @@
       <c r="BL525" s="4"/>
       <c r="BM525" s="34"/>
     </row>
-    <row r="526" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="526" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS526" s="29"/>
       <c r="AT526" s="18"/>
       <c r="AU526" s="30"/>
@@ -32372,7 +32403,7 @@
       <c r="BL526" s="4"/>
       <c r="BM526" s="34"/>
     </row>
-    <row r="527" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="527" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS527" s="29"/>
       <c r="AT527" s="18"/>
       <c r="AU527" s="30"/>
@@ -32394,7 +32425,7 @@
       <c r="BL527" s="4"/>
       <c r="BM527" s="34"/>
     </row>
-    <row r="528" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="528" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS528" s="29"/>
       <c r="AT528" s="18"/>
       <c r="AU528" s="30"/>
@@ -32416,7 +32447,7 @@
       <c r="BL528" s="4"/>
       <c r="BM528" s="34"/>
     </row>
-    <row r="529" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="529" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS529" s="29"/>
       <c r="AT529" s="18"/>
       <c r="AU529" s="30"/>
@@ -32438,7 +32469,7 @@
       <c r="BL529" s="4"/>
       <c r="BM529" s="34"/>
     </row>
-    <row r="530" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="530" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS530" s="29"/>
       <c r="AT530" s="18"/>
       <c r="AU530" s="30"/>
@@ -32460,7 +32491,7 @@
       <c r="BL530" s="4"/>
       <c r="BM530" s="34"/>
     </row>
-    <row r="531" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="531" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS531" s="29"/>
       <c r="AT531" s="18"/>
       <c r="AU531" s="30"/>
@@ -32482,7 +32513,7 @@
       <c r="BL531" s="4"/>
       <c r="BM531" s="34"/>
     </row>
-    <row r="532" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="532" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS532" s="29"/>
       <c r="AT532" s="18"/>
       <c r="AU532" s="30"/>
@@ -32504,7 +32535,7 @@
       <c r="BL532" s="4"/>
       <c r="BM532" s="34"/>
     </row>
-    <row r="533" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="533" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS533" s="29"/>
       <c r="AT533" s="18"/>
       <c r="AU533" s="30"/>
@@ -32526,7 +32557,7 @@
       <c r="BL533" s="4"/>
       <c r="BM533" s="34"/>
     </row>
-    <row r="534" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="534" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS534" s="29"/>
       <c r="AT534" s="18"/>
       <c r="AU534" s="30"/>
@@ -32548,7 +32579,7 @@
       <c r="BL534" s="4"/>
       <c r="BM534" s="34"/>
     </row>
-    <row r="535" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="535" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS535" s="29"/>
       <c r="AT535" s="18"/>
       <c r="AU535" s="30"/>
@@ -32570,7 +32601,7 @@
       <c r="BL535" s="4"/>
       <c r="BM535" s="34"/>
     </row>
-    <row r="536" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="536" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS536" s="29"/>
       <c r="AT536" s="18"/>
       <c r="AU536" s="30"/>
@@ -32592,7 +32623,7 @@
       <c r="BL536" s="4"/>
       <c r="BM536" s="34"/>
     </row>
-    <row r="537" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="537" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS537" s="29"/>
       <c r="AT537" s="18"/>
       <c r="AU537" s="30"/>
@@ -32614,7 +32645,7 @@
       <c r="BL537" s="4"/>
       <c r="BM537" s="34"/>
     </row>
-    <row r="538" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="538" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS538" s="29"/>
       <c r="AT538" s="18"/>
       <c r="AU538" s="30"/>
@@ -32636,7 +32667,7 @@
       <c r="BL538" s="4"/>
       <c r="BM538" s="34"/>
     </row>
-    <row r="539" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="539" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS539" s="29"/>
       <c r="AT539" s="18"/>
       <c r="AU539" s="30"/>
@@ -32658,7 +32689,7 @@
       <c r="BL539" s="4"/>
       <c r="BM539" s="34"/>
     </row>
-    <row r="540" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="540" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS540" s="29"/>
       <c r="AT540" s="18"/>
       <c r="AU540" s="30"/>
@@ -32680,7 +32711,7 @@
       <c r="BL540" s="4"/>
       <c r="BM540" s="34"/>
     </row>
-    <row r="541" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="541" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS541" s="29"/>
       <c r="AT541" s="18"/>
       <c r="AU541" s="30"/>
@@ -32702,7 +32733,7 @@
       <c r="BL541" s="4"/>
       <c r="BM541" s="34"/>
     </row>
-    <row r="542" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="542" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS542" s="29"/>
       <c r="AT542" s="18"/>
       <c r="AU542" s="30"/>
@@ -32724,7 +32755,7 @@
       <c r="BL542" s="4"/>
       <c r="BM542" s="34"/>
     </row>
-    <row r="543" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="543" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS543" s="29"/>
       <c r="AT543" s="18"/>
       <c r="AU543" s="30"/>
@@ -32746,7 +32777,7 @@
       <c r="BL543" s="4"/>
       <c r="BM543" s="34"/>
     </row>
-    <row r="544" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="544" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS544" s="29"/>
       <c r="AT544" s="18"/>
       <c r="AU544" s="30"/>
@@ -32768,7 +32799,7 @@
       <c r="BL544" s="4"/>
       <c r="BM544" s="34"/>
     </row>
-    <row r="545" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="545" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS545" s="29"/>
       <c r="AT545" s="18"/>
       <c r="AU545" s="30"/>
@@ -32790,7 +32821,7 @@
       <c r="BL545" s="4"/>
       <c r="BM545" s="34"/>
     </row>
-    <row r="546" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="546" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS546" s="29"/>
       <c r="AT546" s="18"/>
       <c r="AU546" s="30"/>
@@ -32812,7 +32843,7 @@
       <c r="BL546" s="4"/>
       <c r="BM546" s="34"/>
     </row>
-    <row r="547" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="547" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS547" s="29"/>
       <c r="AT547" s="18"/>
       <c r="AU547" s="30"/>
@@ -32834,7 +32865,7 @@
       <c r="BL547" s="4"/>
       <c r="BM547" s="34"/>
     </row>
-    <row r="548" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="548" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS548" s="29"/>
       <c r="AT548" s="18"/>
       <c r="AU548" s="30"/>
@@ -32856,7 +32887,7 @@
       <c r="BL548" s="4"/>
       <c r="BM548" s="34"/>
     </row>
-    <row r="549" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="549" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS549" s="29"/>
       <c r="AT549" s="18"/>
       <c r="AU549" s="30"/>
@@ -32878,7 +32909,7 @@
       <c r="BL549" s="4"/>
       <c r="BM549" s="34"/>
     </row>
-    <row r="550" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="550" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS550" s="29"/>
       <c r="AT550" s="18"/>
       <c r="AU550" s="30"/>
@@ -32900,7 +32931,7 @@
       <c r="BL550" s="4"/>
       <c r="BM550" s="34"/>
     </row>
-    <row r="551" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="551" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS551" s="29"/>
       <c r="AT551" s="18"/>
       <c r="AU551" s="30"/>
@@ -32922,7 +32953,7 @@
       <c r="BL551" s="4"/>
       <c r="BM551" s="34"/>
     </row>
-    <row r="552" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="552" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS552" s="29"/>
       <c r="AT552" s="18"/>
       <c r="AU552" s="30"/>
@@ -32944,7 +32975,7 @@
       <c r="BL552" s="4"/>
       <c r="BM552" s="34"/>
     </row>
-    <row r="553" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="553" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS553" s="29"/>
       <c r="AT553" s="18"/>
       <c r="AU553" s="30"/>
@@ -32966,7 +32997,7 @@
       <c r="BL553" s="4"/>
       <c r="BM553" s="34"/>
     </row>
-    <row r="554" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="554" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS554" s="29"/>
       <c r="AT554" s="18"/>
       <c r="AU554" s="30"/>
@@ -32988,7 +33019,7 @@
       <c r="BL554" s="4"/>
       <c r="BM554" s="34"/>
     </row>
-    <row r="555" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="555" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS555" s="29"/>
       <c r="AT555" s="18"/>
       <c r="AU555" s="30"/>
@@ -33010,7 +33041,7 @@
       <c r="BL555" s="4"/>
       <c r="BM555" s="34"/>
     </row>
-    <row r="556" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="556" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS556" s="29"/>
       <c r="AT556" s="18"/>
       <c r="AU556" s="30"/>
@@ -33032,7 +33063,7 @@
       <c r="BL556" s="4"/>
       <c r="BM556" s="34"/>
     </row>
-    <row r="557" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="557" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS557" s="29"/>
       <c r="AT557" s="18"/>
       <c r="AU557" s="30"/>
@@ -33054,7 +33085,7 @@
       <c r="BL557" s="4"/>
       <c r="BM557" s="34"/>
     </row>
-    <row r="558" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="558" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS558" s="29"/>
       <c r="AT558" s="18"/>
       <c r="AU558" s="30"/>
@@ -33076,7 +33107,7 @@
       <c r="BL558" s="4"/>
       <c r="BM558" s="34"/>
     </row>
-    <row r="559" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="559" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS559" s="29"/>
       <c r="AT559" s="18"/>
       <c r="AU559" s="30"/>
@@ -33098,7 +33129,7 @@
       <c r="BL559" s="4"/>
       <c r="BM559" s="34"/>
     </row>
-    <row r="560" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="560" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS560" s="29"/>
       <c r="AT560" s="18"/>
       <c r="AU560" s="30"/>
@@ -33120,7 +33151,7 @@
       <c r="BL560" s="4"/>
       <c r="BM560" s="34"/>
     </row>
-    <row r="561" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="561" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS561" s="29"/>
       <c r="AT561" s="18"/>
       <c r="AU561" s="30"/>
@@ -33142,7 +33173,7 @@
       <c r="BL561" s="4"/>
       <c r="BM561" s="34"/>
     </row>
-    <row r="562" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="562" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS562" s="29"/>
       <c r="AT562" s="18"/>
       <c r="AU562" s="30"/>
@@ -33164,7 +33195,7 @@
       <c r="BL562" s="4"/>
       <c r="BM562" s="34"/>
     </row>
-    <row r="563" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="563" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS563" s="29"/>
       <c r="AT563" s="18"/>
       <c r="AU563" s="30"/>
@@ -33186,7 +33217,7 @@
       <c r="BL563" s="4"/>
       <c r="BM563" s="34"/>
     </row>
-    <row r="564" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="564" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS564" s="29"/>
       <c r="AT564" s="18"/>
       <c r="AU564" s="30"/>
@@ -33208,7 +33239,7 @@
       <c r="BL564" s="4"/>
       <c r="BM564" s="34"/>
     </row>
-    <row r="565" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="565" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS565" s="29"/>
       <c r="AT565" s="18"/>
       <c r="AU565" s="30"/>
@@ -33230,7 +33261,7 @@
       <c r="BL565" s="4"/>
       <c r="BM565" s="34"/>
     </row>
-    <row r="566" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="566" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS566" s="29"/>
       <c r="AT566" s="18"/>
       <c r="AU566" s="30"/>
@@ -33252,7 +33283,7 @@
       <c r="BL566" s="4"/>
       <c r="BM566" s="34"/>
     </row>
-    <row r="567" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="567" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS567" s="29"/>
       <c r="AT567" s="18"/>
       <c r="AU567" s="30"/>
@@ -33274,7 +33305,7 @@
       <c r="BL567" s="4"/>
       <c r="BM567" s="34"/>
     </row>
-    <row r="568" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="568" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS568" s="29"/>
       <c r="AT568" s="18"/>
       <c r="AU568" s="30"/>
@@ -33296,7 +33327,7 @@
       <c r="BL568" s="4"/>
       <c r="BM568" s="34"/>
     </row>
-    <row r="569" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="569" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS569" s="29"/>
       <c r="AT569" s="18"/>
       <c r="AU569" s="30"/>
@@ -33318,7 +33349,7 @@
       <c r="BL569" s="4"/>
       <c r="BM569" s="34"/>
     </row>
-    <row r="570" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="570" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS570" s="29"/>
       <c r="AT570" s="18"/>
       <c r="AU570" s="30"/>
@@ -33340,7 +33371,7 @@
       <c r="BL570" s="4"/>
       <c r="BM570" s="34"/>
     </row>
-    <row r="571" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="571" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS571" s="29"/>
       <c r="AT571" s="18"/>
       <c r="AU571" s="30"/>
@@ -33362,7 +33393,7 @@
       <c r="BL571" s="4"/>
       <c r="BM571" s="34"/>
     </row>
-    <row r="572" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="572" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS572" s="29"/>
       <c r="AT572" s="18"/>
       <c r="AU572" s="30"/>
@@ -33384,7 +33415,7 @@
       <c r="BL572" s="4"/>
       <c r="BM572" s="34"/>
     </row>
-    <row r="573" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="573" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS573" s="29"/>
       <c r="AT573" s="18"/>
       <c r="AU573" s="30"/>
@@ -33406,7 +33437,7 @@
       <c r="BL573" s="4"/>
       <c r="BM573" s="34"/>
     </row>
-    <row r="574" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="574" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS574" s="29"/>
       <c r="AT574" s="18"/>
       <c r="AU574" s="30"/>
@@ -33428,7 +33459,7 @@
       <c r="BL574" s="4"/>
       <c r="BM574" s="34"/>
     </row>
-    <row r="575" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="575" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS575" s="29"/>
       <c r="AT575" s="18"/>
       <c r="AU575" s="30"/>
@@ -33450,7 +33481,7 @@
       <c r="BL575" s="4"/>
       <c r="BM575" s="34"/>
     </row>
-    <row r="576" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="576" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS576" s="29"/>
       <c r="AT576" s="18"/>
       <c r="AU576" s="30"/>
@@ -33472,7 +33503,7 @@
       <c r="BL576" s="4"/>
       <c r="BM576" s="34"/>
     </row>
-    <row r="577" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="577" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS577" s="29"/>
       <c r="AT577" s="18"/>
       <c r="AU577" s="30"/>
@@ -33494,7 +33525,7 @@
       <c r="BL577" s="4"/>
       <c r="BM577" s="34"/>
     </row>
-    <row r="578" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="578" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS578" s="29"/>
       <c r="AT578" s="18"/>
       <c r="AU578" s="30"/>
@@ -33516,7 +33547,7 @@
       <c r="BL578" s="4"/>
       <c r="BM578" s="34"/>
     </row>
-    <row r="579" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="579" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS579" s="29"/>
       <c r="AT579" s="18"/>
       <c r="AU579" s="30"/>
@@ -33538,7 +33569,7 @@
       <c r="BL579" s="4"/>
       <c r="BM579" s="34"/>
     </row>
-    <row r="580" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="580" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS580" s="29"/>
       <c r="AT580" s="18"/>
       <c r="AU580" s="30"/>
@@ -33560,7 +33591,7 @@
       <c r="BL580" s="4"/>
       <c r="BM580" s="34"/>
     </row>
-    <row r="581" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="581" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS581" s="29"/>
       <c r="AT581" s="18"/>
       <c r="AU581" s="30"/>
@@ -33582,7 +33613,7 @@
       <c r="BL581" s="4"/>
       <c r="BM581" s="34"/>
     </row>
-    <row r="582" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="582" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS582" s="29"/>
       <c r="AT582" s="18"/>
       <c r="AU582" s="30"/>
@@ -33604,7 +33635,7 @@
       <c r="BL582" s="4"/>
       <c r="BM582" s="34"/>
     </row>
-    <row r="583" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="583" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS583" s="29"/>
       <c r="AT583" s="18"/>
       <c r="AU583" s="30"/>
@@ -33626,7 +33657,7 @@
       <c r="BL583" s="4"/>
       <c r="BM583" s="34"/>
     </row>
-    <row r="584" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="584" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS584" s="29"/>
       <c r="AT584" s="18"/>
       <c r="AU584" s="30"/>
@@ -33648,7 +33679,7 @@
       <c r="BL584" s="4"/>
       <c r="BM584" s="34"/>
     </row>
-    <row r="585" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="585" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS585" s="29"/>
       <c r="AT585" s="18"/>
       <c r="AU585" s="30"/>
@@ -33670,7 +33701,7 @@
       <c r="BL585" s="4"/>
       <c r="BM585" s="34"/>
     </row>
-    <row r="586" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="586" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS586" s="29"/>
       <c r="AT586" s="18"/>
       <c r="AU586" s="30"/>
@@ -33692,7 +33723,7 @@
       <c r="BL586" s="4"/>
       <c r="BM586" s="34"/>
     </row>
-    <row r="587" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="587" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS587" s="29"/>
       <c r="AT587" s="18"/>
       <c r="AU587" s="30"/>
@@ -33714,7 +33745,7 @@
       <c r="BL587" s="4"/>
       <c r="BM587" s="34"/>
     </row>
-    <row r="588" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="588" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS588" s="29"/>
       <c r="AT588" s="18"/>
       <c r="AU588" s="30"/>
@@ -33736,7 +33767,7 @@
       <c r="BL588" s="4"/>
       <c r="BM588" s="34"/>
     </row>
-    <row r="589" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="589" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS589" s="29"/>
       <c r="AT589" s="18"/>
       <c r="AU589" s="30"/>
@@ -33758,7 +33789,7 @@
       <c r="BL589" s="4"/>
       <c r="BM589" s="34"/>
     </row>
-    <row r="590" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="590" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS590" s="29"/>
       <c r="AT590" s="18"/>
       <c r="AU590" s="30"/>
@@ -33780,7 +33811,7 @@
       <c r="BL590" s="4"/>
       <c r="BM590" s="34"/>
     </row>
-    <row r="591" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="591" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS591" s="29"/>
       <c r="AT591" s="18"/>
       <c r="AU591" s="30"/>
@@ -33802,7 +33833,7 @@
       <c r="BL591" s="4"/>
       <c r="BM591" s="34"/>
     </row>
-    <row r="592" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="592" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS592" s="29"/>
       <c r="AT592" s="18"/>
       <c r="AU592" s="30"/>
@@ -33824,7 +33855,7 @@
       <c r="BL592" s="4"/>
       <c r="BM592" s="34"/>
     </row>
-    <row r="593" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="593" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS593" s="29"/>
       <c r="AT593" s="18"/>
       <c r="AU593" s="30"/>
@@ -33846,7 +33877,7 @@
       <c r="BL593" s="4"/>
       <c r="BM593" s="34"/>
     </row>
-    <row r="594" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="594" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS594" s="29"/>
       <c r="AT594" s="18"/>
       <c r="AU594" s="30"/>
@@ -33868,7 +33899,7 @@
       <c r="BL594" s="4"/>
       <c r="BM594" s="34"/>
     </row>
-    <row r="595" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="595" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS595" s="29"/>
       <c r="AT595" s="18"/>
       <c r="AU595" s="30"/>
@@ -33890,7 +33921,7 @@
       <c r="BL595" s="4"/>
       <c r="BM595" s="34"/>
     </row>
-    <row r="596" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="596" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS596" s="29"/>
       <c r="AT596" s="18"/>
       <c r="AU596" s="30"/>
@@ -33912,7 +33943,7 @@
       <c r="BL596" s="4"/>
       <c r="BM596" s="34"/>
     </row>
-    <row r="597" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="597" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS597" s="29"/>
       <c r="AT597" s="18"/>
       <c r="AU597" s="30"/>
@@ -33934,7 +33965,7 @@
       <c r="BL597" s="4"/>
       <c r="BM597" s="34"/>
     </row>
-    <row r="598" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="598" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS598" s="29"/>
       <c r="AT598" s="18"/>
       <c r="AU598" s="30"/>
@@ -33956,7 +33987,7 @@
       <c r="BL598" s="4"/>
       <c r="BM598" s="34"/>
     </row>
-    <row r="599" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="599" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS599" s="29"/>
       <c r="AT599" s="18"/>
       <c r="AU599" s="30"/>
@@ -33978,7 +34009,7 @@
       <c r="BL599" s="4"/>
       <c r="BM599" s="34"/>
     </row>
-    <row r="600" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="600" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS600" s="29"/>
       <c r="AT600" s="18"/>
       <c r="AU600" s="30"/>
@@ -34000,7 +34031,7 @@
       <c r="BL600" s="4"/>
       <c r="BM600" s="34"/>
     </row>
-    <row r="601" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="601" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS601" s="29"/>
       <c r="AT601" s="18"/>
       <c r="AU601" s="30"/>
@@ -34022,7 +34053,7 @@
       <c r="BL601" s="4"/>
       <c r="BM601" s="34"/>
     </row>
-    <row r="602" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="602" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS602" s="29"/>
       <c r="AT602" s="18"/>
       <c r="AU602" s="30"/>
@@ -34044,7 +34075,7 @@
       <c r="BL602" s="4"/>
       <c r="BM602" s="34"/>
     </row>
-    <row r="603" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="603" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS603" s="29"/>
       <c r="AT603" s="18"/>
       <c r="AU603" s="30"/>
@@ -34066,7 +34097,7 @@
       <c r="BL603" s="4"/>
       <c r="BM603" s="34"/>
     </row>
-    <row r="604" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="604" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS604" s="29"/>
       <c r="AT604" s="18"/>
       <c r="AU604" s="30"/>
@@ -34088,7 +34119,7 @@
       <c r="BL604" s="4"/>
       <c r="BM604" s="34"/>
     </row>
-    <row r="605" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="605" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS605" s="29"/>
       <c r="AT605" s="18"/>
       <c r="AU605" s="30"/>
@@ -34110,7 +34141,7 @@
       <c r="BL605" s="4"/>
       <c r="BM605" s="34"/>
     </row>
-    <row r="606" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="606" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS606" s="29"/>
       <c r="AT606" s="18"/>
       <c r="AU606" s="30"/>
@@ -34132,7 +34163,7 @@
       <c r="BL606" s="4"/>
       <c r="BM606" s="34"/>
     </row>
-    <row r="607" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="607" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS607" s="29"/>
       <c r="AT607" s="18"/>
       <c r="AU607" s="30"/>
@@ -34154,7 +34185,7 @@
       <c r="BL607" s="4"/>
       <c r="BM607" s="34"/>
     </row>
-    <row r="608" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="608" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS608" s="29"/>
       <c r="AT608" s="18"/>
       <c r="AU608" s="30"/>
@@ -34176,7 +34207,7 @@
       <c r="BL608" s="4"/>
       <c r="BM608" s="34"/>
     </row>
-    <row r="609" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="609" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS609" s="29"/>
       <c r="AT609" s="18"/>
       <c r="AU609" s="30"/>
@@ -34198,7 +34229,7 @@
       <c r="BL609" s="4"/>
       <c r="BM609" s="34"/>
     </row>
-    <row r="610" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="610" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS610" s="29"/>
       <c r="AT610" s="18"/>
       <c r="AU610" s="30"/>
@@ -34220,7 +34251,7 @@
       <c r="BL610" s="4"/>
       <c r="BM610" s="34"/>
     </row>
-    <row r="611" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="611" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS611" s="29"/>
       <c r="AT611" s="18"/>
       <c r="AU611" s="30"/>
@@ -34242,7 +34273,7 @@
       <c r="BL611" s="4"/>
       <c r="BM611" s="34"/>
     </row>
-    <row r="612" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="612" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS612" s="29"/>
       <c r="AT612" s="18"/>
       <c r="AU612" s="30"/>
@@ -34264,7 +34295,7 @@
       <c r="BL612" s="4"/>
       <c r="BM612" s="34"/>
     </row>
-    <row r="613" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="613" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS613" s="29"/>
       <c r="AT613" s="18"/>
       <c r="AU613" s="30"/>
@@ -34286,7 +34317,7 @@
       <c r="BL613" s="4"/>
       <c r="BM613" s="34"/>
     </row>
-    <row r="614" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="614" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS614" s="29"/>
       <c r="AT614" s="18"/>
       <c r="AU614" s="30"/>
@@ -34308,7 +34339,7 @@
       <c r="BL614" s="4"/>
       <c r="BM614" s="34"/>
     </row>
-    <row r="615" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="615" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS615" s="29"/>
       <c r="AT615" s="18"/>
       <c r="AU615" s="30"/>
@@ -34330,7 +34361,7 @@
       <c r="BL615" s="4"/>
       <c r="BM615" s="34"/>
     </row>
-    <row r="616" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="616" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS616" s="29"/>
       <c r="AT616" s="18"/>
       <c r="AU616" s="30"/>
@@ -34352,7 +34383,7 @@
       <c r="BL616" s="4"/>
       <c r="BM616" s="34"/>
     </row>
-    <row r="617" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="617" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS617" s="29"/>
       <c r="AT617" s="18"/>
       <c r="AU617" s="30"/>
@@ -34374,7 +34405,7 @@
       <c r="BL617" s="4"/>
       <c r="BM617" s="34"/>
     </row>
-    <row r="618" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="618" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS618" s="29"/>
       <c r="AT618" s="18"/>
       <c r="AU618" s="30"/>
@@ -34396,7 +34427,7 @@
       <c r="BL618" s="4"/>
       <c r="BM618" s="34"/>
     </row>
-    <row r="619" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="619" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS619" s="29"/>
       <c r="AT619" s="18"/>
       <c r="AU619" s="30"/>
@@ -34418,7 +34449,7 @@
       <c r="BL619" s="4"/>
       <c r="BM619" s="34"/>
     </row>
-    <row r="620" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="620" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS620" s="29"/>
       <c r="AT620" s="18"/>
       <c r="AU620" s="30"/>
@@ -34440,7 +34471,7 @@
       <c r="BL620" s="4"/>
       <c r="BM620" s="34"/>
     </row>
-    <row r="621" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="621" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS621" s="29"/>
       <c r="AT621" s="18"/>
       <c r="AU621" s="30"/>
@@ -34462,7 +34493,7 @@
       <c r="BL621" s="4"/>
       <c r="BM621" s="34"/>
     </row>
-    <row r="622" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="622" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS622" s="29"/>
       <c r="AT622" s="18"/>
       <c r="AU622" s="30"/>
@@ -34484,7 +34515,7 @@
       <c r="BL622" s="4"/>
       <c r="BM622" s="34"/>
     </row>
-    <row r="623" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="623" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS623" s="29"/>
       <c r="AT623" s="18"/>
       <c r="AU623" s="30"/>
@@ -34506,7 +34537,7 @@
       <c r="BL623" s="4"/>
       <c r="BM623" s="34"/>
     </row>
-    <row r="624" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="624" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS624" s="29"/>
       <c r="AT624" s="18"/>
       <c r="AU624" s="30"/>
@@ -34528,7 +34559,7 @@
       <c r="BL624" s="4"/>
       <c r="BM624" s="34"/>
     </row>
-    <row r="625" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="625" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS625" s="29"/>
       <c r="AT625" s="18"/>
       <c r="AU625" s="30"/>
@@ -34550,7 +34581,7 @@
       <c r="BL625" s="4"/>
       <c r="BM625" s="34"/>
     </row>
-    <row r="626" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="626" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS626" s="29"/>
       <c r="AT626" s="18"/>
       <c r="AU626" s="30"/>
@@ -34572,7 +34603,7 @@
       <c r="BL626" s="4"/>
       <c r="BM626" s="34"/>
     </row>
-    <row r="627" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="627" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS627" s="29"/>
       <c r="AT627" s="18"/>
       <c r="AU627" s="30"/>
@@ -34594,7 +34625,7 @@
       <c r="BL627" s="4"/>
       <c r="BM627" s="34"/>
     </row>
-    <row r="628" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="628" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS628" s="29"/>
       <c r="AT628" s="18"/>
       <c r="AU628" s="30"/>
@@ -34616,7 +34647,7 @@
       <c r="BL628" s="4"/>
       <c r="BM628" s="34"/>
     </row>
-    <row r="629" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="629" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS629" s="29"/>
       <c r="AT629" s="18"/>
       <c r="AU629" s="30"/>
@@ -34638,7 +34669,7 @@
       <c r="BL629" s="4"/>
       <c r="BM629" s="34"/>
     </row>
-    <row r="630" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="630" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS630" s="29"/>
       <c r="AT630" s="18"/>
       <c r="AU630" s="30"/>
@@ -34660,7 +34691,7 @@
       <c r="BL630" s="4"/>
       <c r="BM630" s="34"/>
     </row>
-    <row r="631" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="631" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS631" s="29"/>
       <c r="AT631" s="18"/>
       <c r="AU631" s="30"/>
@@ -34682,7 +34713,7 @@
       <c r="BL631" s="4"/>
       <c r="BM631" s="34"/>
     </row>
-    <row r="632" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="632" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS632" s="29"/>
       <c r="AT632" s="18"/>
       <c r="AU632" s="30"/>
@@ -34704,7 +34735,7 @@
       <c r="BL632" s="4"/>
       <c r="BM632" s="34"/>
     </row>
-    <row r="633" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="633" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS633" s="29"/>
       <c r="AT633" s="18"/>
       <c r="AU633" s="30"/>
@@ -34726,7 +34757,7 @@
       <c r="BL633" s="4"/>
       <c r="BM633" s="34"/>
     </row>
-    <row r="634" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="634" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS634" s="29"/>
       <c r="AT634" s="18"/>
       <c r="AU634" s="30"/>
@@ -34748,7 +34779,7 @@
       <c r="BL634" s="4"/>
       <c r="BM634" s="34"/>
     </row>
-    <row r="635" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="635" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS635" s="29"/>
       <c r="AT635" s="18"/>
       <c r="AU635" s="30"/>
@@ -34770,7 +34801,7 @@
       <c r="BL635" s="4"/>
       <c r="BM635" s="34"/>
     </row>
-    <row r="636" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="636" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS636" s="29"/>
       <c r="AT636" s="18"/>
       <c r="AU636" s="30"/>
@@ -34792,7 +34823,7 @@
       <c r="BL636" s="4"/>
       <c r="BM636" s="34"/>
     </row>
-    <row r="637" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="637" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS637" s="29"/>
       <c r="AT637" s="18"/>
       <c r="AU637" s="30"/>
@@ -34814,7 +34845,7 @@
       <c r="BL637" s="4"/>
       <c r="BM637" s="34"/>
     </row>
-    <row r="638" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="638" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS638" s="29"/>
       <c r="AT638" s="18"/>
       <c r="AU638" s="30"/>
@@ -34836,7 +34867,7 @@
       <c r="BL638" s="4"/>
       <c r="BM638" s="34"/>
     </row>
-    <row r="639" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="639" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS639" s="29"/>
       <c r="AT639" s="18"/>
       <c r="AU639" s="30"/>
@@ -34858,7 +34889,7 @@
       <c r="BL639" s="4"/>
       <c r="BM639" s="34"/>
     </row>
-    <row r="640" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="640" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS640" s="29"/>
       <c r="AT640" s="18"/>
       <c r="AU640" s="30"/>
@@ -34880,7 +34911,7 @@
       <c r="BL640" s="4"/>
       <c r="BM640" s="34"/>
     </row>
-    <row r="641" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="641" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS641" s="29"/>
       <c r="AT641" s="18"/>
       <c r="AU641" s="30"/>
@@ -34902,7 +34933,7 @@
       <c r="BL641" s="4"/>
       <c r="BM641" s="34"/>
     </row>
-    <row r="642" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="642" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS642" s="29"/>
       <c r="AT642" s="18"/>
       <c r="AU642" s="30"/>
@@ -34924,7 +34955,7 @@
       <c r="BL642" s="4"/>
       <c r="BM642" s="34"/>
     </row>
-    <row r="643" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="643" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS643" s="29"/>
       <c r="AT643" s="18"/>
       <c r="AU643" s="30"/>
@@ -34946,7 +34977,7 @@
       <c r="BL643" s="4"/>
       <c r="BM643" s="34"/>
     </row>
-    <row r="644" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="644" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS644" s="29"/>
       <c r="AT644" s="18"/>
       <c r="AU644" s="30"/>
@@ -34968,7 +34999,7 @@
       <c r="BL644" s="4"/>
       <c r="BM644" s="34"/>
     </row>
-    <row r="645" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="645" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS645" s="29"/>
       <c r="AT645" s="18"/>
       <c r="AU645" s="30"/>
@@ -34990,7 +35021,7 @@
       <c r="BL645" s="4"/>
       <c r="BM645" s="34"/>
     </row>
-    <row r="646" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="646" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS646" s="29"/>
       <c r="AT646" s="18"/>
       <c r="AU646" s="30"/>
@@ -35012,7 +35043,7 @@
       <c r="BL646" s="4"/>
       <c r="BM646" s="34"/>
     </row>
-    <row r="647" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="647" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS647" s="29"/>
       <c r="AT647" s="18"/>
       <c r="AU647" s="30"/>
@@ -35034,7 +35065,7 @@
       <c r="BL647" s="4"/>
       <c r="BM647" s="34"/>
     </row>
-    <row r="648" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="648" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS648" s="29"/>
       <c r="AT648" s="18"/>
       <c r="AU648" s="30"/>
@@ -35056,7 +35087,7 @@
       <c r="BL648" s="4"/>
       <c r="BM648" s="34"/>
     </row>
-    <row r="649" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="649" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS649" s="29"/>
       <c r="AT649" s="18"/>
       <c r="AU649" s="30"/>
@@ -35078,7 +35109,7 @@
       <c r="BL649" s="4"/>
       <c r="BM649" s="34"/>
     </row>
-    <row r="650" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="650" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS650" s="29"/>
       <c r="AT650" s="18"/>
       <c r="AU650" s="30"/>
@@ -35100,7 +35131,7 @@
       <c r="BL650" s="4"/>
       <c r="BM650" s="34"/>
     </row>
-    <row r="651" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="651" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS651" s="29"/>
       <c r="AT651" s="18"/>
       <c r="AU651" s="30"/>
@@ -35122,7 +35153,7 @@
       <c r="BL651" s="4"/>
       <c r="BM651" s="34"/>
     </row>
-    <row r="652" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="652" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS652" s="29"/>
       <c r="AT652" s="18"/>
       <c r="AU652" s="30"/>
@@ -35144,7 +35175,7 @@
       <c r="BL652" s="4"/>
       <c r="BM652" s="34"/>
     </row>
-    <row r="653" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="653" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS653" s="29"/>
       <c r="AT653" s="18"/>
       <c r="AU653" s="30"/>
@@ -35166,7 +35197,7 @@
       <c r="BL653" s="4"/>
       <c r="BM653" s="34"/>
     </row>
-    <row r="654" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="654" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS654" s="29"/>
       <c r="AT654" s="18"/>
       <c r="AU654" s="30"/>
@@ -35188,7 +35219,7 @@
       <c r="BL654" s="4"/>
       <c r="BM654" s="34"/>
     </row>
-    <row r="655" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="655" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS655" s="29"/>
       <c r="AT655" s="18"/>
       <c r="AU655" s="30"/>
@@ -35210,7 +35241,7 @@
       <c r="BL655" s="4"/>
       <c r="BM655" s="34"/>
     </row>
-    <row r="656" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="656" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS656" s="29"/>
       <c r="AT656" s="18"/>
       <c r="AU656" s="30"/>
@@ -35232,7 +35263,7 @@
       <c r="BL656" s="4"/>
       <c r="BM656" s="34"/>
     </row>
-    <row r="657" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="657" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS657" s="29"/>
       <c r="AT657" s="18"/>
       <c r="AU657" s="30"/>
@@ -35254,7 +35285,7 @@
       <c r="BL657" s="4"/>
       <c r="BM657" s="34"/>
     </row>
-    <row r="658" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="658" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS658" s="29"/>
       <c r="AT658" s="18"/>
       <c r="AU658" s="30"/>
@@ -35276,7 +35307,7 @@
       <c r="BL658" s="4"/>
       <c r="BM658" s="34"/>
     </row>
-    <row r="659" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="659" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS659" s="29"/>
       <c r="AT659" s="18"/>
       <c r="AU659" s="30"/>
@@ -35298,7 +35329,7 @@
       <c r="BL659" s="4"/>
       <c r="BM659" s="34"/>
     </row>
-    <row r="660" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="660" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS660" s="29"/>
       <c r="AT660" s="18"/>
       <c r="AU660" s="30"/>
@@ -35320,7 +35351,7 @@
       <c r="BL660" s="4"/>
       <c r="BM660" s="34"/>
     </row>
-    <row r="661" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="661" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS661" s="29"/>
       <c r="AT661" s="18"/>
       <c r="AU661" s="30"/>
@@ -35342,7 +35373,7 @@
       <c r="BL661" s="4"/>
       <c r="BM661" s="34"/>
     </row>
-    <row r="662" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="662" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS662" s="29"/>
       <c r="AT662" s="18"/>
       <c r="AU662" s="30"/>
@@ -35364,7 +35395,7 @@
       <c r="BL662" s="4"/>
       <c r="BM662" s="34"/>
     </row>
-    <row r="663" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="663" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS663" s="29"/>
       <c r="AT663" s="18"/>
       <c r="AU663" s="30"/>
@@ -35386,7 +35417,7 @@
       <c r="BL663" s="4"/>
       <c r="BM663" s="34"/>
     </row>
-    <row r="664" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="664" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS664" s="29"/>
       <c r="AT664" s="18"/>
       <c r="AU664" s="30"/>
@@ -35408,7 +35439,7 @@
       <c r="BL664" s="4"/>
       <c r="BM664" s="34"/>
     </row>
-    <row r="665" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="665" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS665" s="29"/>
       <c r="AT665" s="18"/>
       <c r="AU665" s="30"/>
@@ -35430,7 +35461,7 @@
       <c r="BL665" s="4"/>
       <c r="BM665" s="34"/>
     </row>
-    <row r="666" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="666" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS666" s="29"/>
       <c r="AT666" s="18"/>
       <c r="AU666" s="30"/>
@@ -35452,7 +35483,7 @@
       <c r="BL666" s="4"/>
       <c r="BM666" s="34"/>
     </row>
-    <row r="667" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="667" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS667" s="29"/>
       <c r="AT667" s="18"/>
       <c r="AU667" s="30"/>
@@ -35474,7 +35505,7 @@
       <c r="BL667" s="4"/>
       <c r="BM667" s="34"/>
     </row>
-    <row r="668" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="668" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS668" s="29"/>
       <c r="AT668" s="18"/>
       <c r="AU668" s="30"/>
@@ -35496,7 +35527,7 @@
       <c r="BL668" s="4"/>
       <c r="BM668" s="34"/>
     </row>
-    <row r="669" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="669" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS669" s="29"/>
       <c r="AT669" s="18"/>
       <c r="AU669" s="30"/>
@@ -35518,7 +35549,7 @@
       <c r="BL669" s="4"/>
       <c r="BM669" s="34"/>
     </row>
-    <row r="670" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="670" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS670" s="29"/>
       <c r="AT670" s="18"/>
       <c r="AU670" s="30"/>
@@ -35540,7 +35571,7 @@
       <c r="BL670" s="4"/>
       <c r="BM670" s="34"/>
     </row>
-    <row r="671" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="671" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS671" s="29"/>
       <c r="AT671" s="18"/>
       <c r="AU671" s="30"/>
@@ -35562,7 +35593,7 @@
       <c r="BL671" s="4"/>
       <c r="BM671" s="34"/>
     </row>
-    <row r="672" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="672" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS672" s="29"/>
       <c r="AT672" s="18"/>
       <c r="AU672" s="30"/>
@@ -35584,7 +35615,7 @@
       <c r="BL672" s="4"/>
       <c r="BM672" s="34"/>
     </row>
-    <row r="673" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="673" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS673" s="29"/>
       <c r="AT673" s="18"/>
       <c r="AU673" s="30"/>
@@ -35606,7 +35637,7 @@
       <c r="BL673" s="4"/>
       <c r="BM673" s="34"/>
     </row>
-    <row r="674" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="674" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS674" s="29"/>
       <c r="AT674" s="18"/>
       <c r="AU674" s="30"/>
@@ -35628,7 +35659,7 @@
       <c r="BL674" s="4"/>
       <c r="BM674" s="34"/>
     </row>
-    <row r="675" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="675" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS675" s="29"/>
       <c r="AT675" s="18"/>
       <c r="AU675" s="30"/>
@@ -35650,7 +35681,7 @@
       <c r="BL675" s="4"/>
       <c r="BM675" s="34"/>
     </row>
-    <row r="676" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="676" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS676" s="29"/>
       <c r="AT676" s="18"/>
       <c r="AU676" s="30"/>
@@ -35672,7 +35703,7 @@
       <c r="BL676" s="4"/>
       <c r="BM676" s="34"/>
     </row>
-    <row r="677" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="677" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS677" s="29"/>
       <c r="AT677" s="18"/>
       <c r="AU677" s="30"/>
@@ -35694,7 +35725,7 @@
       <c r="BL677" s="4"/>
       <c r="BM677" s="34"/>
     </row>
-    <row r="678" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="678" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS678" s="29"/>
       <c r="AT678" s="18"/>
       <c r="AU678" s="30"/>
@@ -35716,7 +35747,7 @@
       <c r="BL678" s="4"/>
       <c r="BM678" s="34"/>
     </row>
-    <row r="679" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="679" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS679" s="29"/>
       <c r="AT679" s="18"/>
       <c r="AU679" s="30"/>
@@ -35738,7 +35769,7 @@
       <c r="BL679" s="4"/>
       <c r="BM679" s="34"/>
     </row>
-    <row r="680" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="680" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS680" s="29"/>
       <c r="AT680" s="18"/>
       <c r="AU680" s="30"/>
@@ -35760,7 +35791,7 @@
       <c r="BL680" s="4"/>
       <c r="BM680" s="34"/>
     </row>
-    <row r="681" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="681" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS681" s="29"/>
       <c r="AT681" s="18"/>
       <c r="AU681" s="30"/>
@@ -35782,7 +35813,7 @@
       <c r="BL681" s="4"/>
       <c r="BM681" s="34"/>
     </row>
-    <row r="682" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="682" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS682" s="29"/>
       <c r="AT682" s="18"/>
       <c r="AU682" s="30"/>
@@ -35804,7 +35835,7 @@
       <c r="BL682" s="4"/>
       <c r="BM682" s="34"/>
     </row>
-    <row r="683" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="683" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS683" s="29"/>
       <c r="AT683" s="18"/>
       <c r="AU683" s="30"/>
@@ -35826,7 +35857,7 @@
       <c r="BL683" s="4"/>
       <c r="BM683" s="34"/>
     </row>
-    <row r="684" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="684" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS684" s="29"/>
       <c r="AT684" s="18"/>
       <c r="AU684" s="30"/>
@@ -35848,7 +35879,7 @@
       <c r="BL684" s="4"/>
       <c r="BM684" s="34"/>
     </row>
-    <row r="685" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="685" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS685" s="29"/>
       <c r="AT685" s="18"/>
       <c r="AU685" s="30"/>
@@ -35870,7 +35901,7 @@
       <c r="BL685" s="4"/>
       <c r="BM685" s="34"/>
     </row>
-    <row r="686" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="686" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS686" s="29"/>
       <c r="AT686" s="18"/>
       <c r="AU686" s="30"/>
@@ -35892,7 +35923,7 @@
       <c r="BL686" s="4"/>
       <c r="BM686" s="34"/>
     </row>
-    <row r="687" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="687" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS687" s="29"/>
       <c r="AT687" s="18"/>
       <c r="AU687" s="30"/>
@@ -35914,7 +35945,7 @@
       <c r="BL687" s="4"/>
       <c r="BM687" s="34"/>
     </row>
-    <row r="688" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="688" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS688" s="29"/>
       <c r="AT688" s="18"/>
       <c r="AU688" s="30"/>
@@ -35936,7 +35967,7 @@
       <c r="BL688" s="4"/>
       <c r="BM688" s="34"/>
     </row>
-    <row r="689" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="689" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS689" s="29"/>
       <c r="AT689" s="18"/>
       <c r="AU689" s="30"/>
@@ -35958,7 +35989,7 @@
       <c r="BL689" s="4"/>
       <c r="BM689" s="34"/>
     </row>
-    <row r="690" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="690" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS690" s="29"/>
       <c r="AT690" s="18"/>
       <c r="AU690" s="30"/>
@@ -35980,7 +36011,7 @@
       <c r="BL690" s="4"/>
       <c r="BM690" s="34"/>
     </row>
-    <row r="691" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="691" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS691" s="29"/>
       <c r="AT691" s="18"/>
       <c r="AU691" s="30"/>
@@ -36002,7 +36033,7 @@
       <c r="BL691" s="4"/>
       <c r="BM691" s="34"/>
     </row>
-    <row r="692" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="692" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS692" s="29"/>
       <c r="AT692" s="18"/>
       <c r="AU692" s="30"/>
@@ -36024,7 +36055,7 @@
       <c r="BL692" s="4"/>
       <c r="BM692" s="34"/>
     </row>
-    <row r="693" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="693" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS693" s="29"/>
       <c r="AT693" s="18"/>
       <c r="AU693" s="30"/>
@@ -36046,7 +36077,7 @@
       <c r="BL693" s="4"/>
       <c r="BM693" s="34"/>
     </row>
-    <row r="694" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="694" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS694" s="29"/>
       <c r="AT694" s="18"/>
       <c r="AU694" s="30"/>
@@ -36068,7 +36099,7 @@
       <c r="BL694" s="4"/>
       <c r="BM694" s="34"/>
     </row>
-    <row r="695" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="695" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS695" s="29"/>
       <c r="AT695" s="18"/>
       <c r="AU695" s="30"/>
@@ -36090,7 +36121,7 @@
       <c r="BL695" s="4"/>
       <c r="BM695" s="34"/>
     </row>
-    <row r="696" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="696" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS696" s="29"/>
       <c r="AT696" s="18"/>
       <c r="AU696" s="30"/>
@@ -36112,7 +36143,7 @@
       <c r="BL696" s="4"/>
       <c r="BM696" s="34"/>
     </row>
-    <row r="697" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="697" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS697" s="29"/>
       <c r="AT697" s="18"/>
       <c r="AU697" s="30"/>
@@ -36134,7 +36165,7 @@
       <c r="BL697" s="4"/>
       <c r="BM697" s="34"/>
     </row>
-    <row r="698" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="698" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS698" s="29"/>
       <c r="AT698" s="18"/>
       <c r="AU698" s="30"/>
@@ -36156,7 +36187,7 @@
       <c r="BL698" s="4"/>
       <c r="BM698" s="34"/>
     </row>
-    <row r="699" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="699" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS699" s="29"/>
       <c r="AT699" s="18"/>
       <c r="AU699" s="30"/>
@@ -36178,7 +36209,7 @@
       <c r="BL699" s="4"/>
       <c r="BM699" s="34"/>
     </row>
-    <row r="700" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="700" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS700" s="29"/>
       <c r="AT700" s="18"/>
       <c r="AU700" s="30"/>
@@ -36200,7 +36231,7 @@
       <c r="BL700" s="4"/>
       <c r="BM700" s="34"/>
     </row>
-    <row r="701" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="701" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS701" s="29"/>
       <c r="AT701" s="18"/>
       <c r="AU701" s="30"/>
@@ -36222,7 +36253,7 @@
       <c r="BL701" s="4"/>
       <c r="BM701" s="34"/>
     </row>
-    <row r="702" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="702" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS702" s="29"/>
       <c r="AT702" s="18"/>
       <c r="AU702" s="30"/>
@@ -36244,7 +36275,7 @@
       <c r="BL702" s="4"/>
       <c r="BM702" s="34"/>
     </row>
-    <row r="703" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="703" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS703" s="29"/>
       <c r="AT703" s="18"/>
       <c r="AU703" s="30"/>
@@ -36266,7 +36297,7 @@
       <c r="BL703" s="4"/>
       <c r="BM703" s="34"/>
     </row>
-    <row r="704" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="704" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS704" s="29"/>
       <c r="AT704" s="18"/>
       <c r="AU704" s="30"/>
@@ -36288,7 +36319,7 @@
       <c r="BL704" s="4"/>
       <c r="BM704" s="34"/>
     </row>
-    <row r="705" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="705" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS705" s="29"/>
       <c r="AT705" s="18"/>
       <c r="AU705" s="30"/>
@@ -36310,7 +36341,7 @@
       <c r="BL705" s="4"/>
       <c r="BM705" s="34"/>
     </row>
-    <row r="706" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="706" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS706" s="29"/>
       <c r="AT706" s="18"/>
       <c r="AU706" s="30"/>
@@ -36332,7 +36363,7 @@
       <c r="BL706" s="4"/>
       <c r="BM706" s="34"/>
     </row>
-    <row r="707" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="707" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS707" s="29"/>
       <c r="AT707" s="18"/>
       <c r="AU707" s="30"/>
@@ -36354,7 +36385,7 @@
       <c r="BL707" s="4"/>
       <c r="BM707" s="34"/>
     </row>
-    <row r="708" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="708" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS708" s="29"/>
       <c r="AT708" s="18"/>
       <c r="AU708" s="30"/>
@@ -36376,7 +36407,7 @@
       <c r="BL708" s="4"/>
       <c r="BM708" s="34"/>
     </row>
-    <row r="709" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="709" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS709" s="29"/>
       <c r="AT709" s="18"/>
       <c r="AU709" s="30"/>
@@ -36398,7 +36429,7 @@
       <c r="BL709" s="4"/>
       <c r="BM709" s="34"/>
     </row>
-    <row r="710" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="710" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS710" s="29"/>
       <c r="AT710" s="18"/>
       <c r="AU710" s="30"/>
@@ -36420,7 +36451,7 @@
       <c r="BL710" s="4"/>
       <c r="BM710" s="34"/>
     </row>
-    <row r="711" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="711" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS711" s="29"/>
       <c r="AT711" s="18"/>
       <c r="AU711" s="30"/>
@@ -36442,7 +36473,7 @@
       <c r="BL711" s="4"/>
       <c r="BM711" s="34"/>
     </row>
-    <row r="712" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="712" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS712" s="29"/>
       <c r="AT712" s="18"/>
       <c r="AU712" s="30"/>
@@ -36464,7 +36495,7 @@
       <c r="BL712" s="4"/>
       <c r="BM712" s="34"/>
     </row>
-    <row r="713" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="713" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS713" s="29"/>
       <c r="AT713" s="18"/>
       <c r="AU713" s="30"/>
@@ -36486,7 +36517,7 @@
       <c r="BL713" s="4"/>
       <c r="BM713" s="34"/>
     </row>
-    <row r="714" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="714" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS714" s="29"/>
       <c r="AT714" s="18"/>
       <c r="AU714" s="30"/>
@@ -36508,7 +36539,7 @@
       <c r="BL714" s="4"/>
       <c r="BM714" s="34"/>
     </row>
-    <row r="715" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="715" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS715" s="29"/>
       <c r="AT715" s="18"/>
       <c r="AU715" s="30"/>
@@ -36530,7 +36561,7 @@
       <c r="BL715" s="4"/>
       <c r="BM715" s="34"/>
     </row>
-    <row r="716" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="716" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS716" s="29"/>
       <c r="AT716" s="18"/>
       <c r="AU716" s="30"/>
@@ -36552,7 +36583,7 @@
       <c r="BL716" s="4"/>
       <c r="BM716" s="34"/>
     </row>
-    <row r="717" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="717" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS717" s="29"/>
       <c r="AT717" s="18"/>
       <c r="AU717" s="30"/>
@@ -36574,7 +36605,7 @@
       <c r="BL717" s="4"/>
       <c r="BM717" s="34"/>
     </row>
-    <row r="718" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="718" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS718" s="29"/>
       <c r="AT718" s="18"/>
       <c r="AU718" s="30"/>
@@ -36596,7 +36627,7 @@
       <c r="BL718" s="4"/>
       <c r="BM718" s="34"/>
     </row>
-    <row r="719" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="719" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS719" s="29"/>
       <c r="AT719" s="18"/>
       <c r="AU719" s="30"/>
@@ -36618,7 +36649,7 @@
       <c r="BL719" s="4"/>
       <c r="BM719" s="34"/>
     </row>
-    <row r="720" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="720" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS720" s="29"/>
       <c r="AT720" s="18"/>
       <c r="AU720" s="30"/>
@@ -36640,7 +36671,7 @@
       <c r="BL720" s="4"/>
       <c r="BM720" s="34"/>
     </row>
-    <row r="721" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="721" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS721" s="29"/>
       <c r="AT721" s="18"/>
       <c r="AU721" s="30"/>
@@ -36662,7 +36693,7 @@
       <c r="BL721" s="4"/>
       <c r="BM721" s="34"/>
     </row>
-    <row r="722" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="722" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS722" s="29"/>
       <c r="AT722" s="18"/>
       <c r="AU722" s="30"/>
@@ -36684,7 +36715,7 @@
       <c r="BL722" s="4"/>
       <c r="BM722" s="34"/>
     </row>
-    <row r="723" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="723" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS723" s="29"/>
       <c r="AT723" s="18"/>
       <c r="AU723" s="30"/>
@@ -36706,7 +36737,7 @@
       <c r="BL723" s="4"/>
       <c r="BM723" s="34"/>
     </row>
-    <row r="724" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="724" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS724" s="29"/>
       <c r="AT724" s="18"/>
       <c r="AU724" s="30"/>
@@ -36728,7 +36759,7 @@
       <c r="BL724" s="4"/>
       <c r="BM724" s="34"/>
     </row>
-    <row r="725" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="725" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS725" s="29"/>
       <c r="AT725" s="18"/>
       <c r="AU725" s="30"/>
@@ -36750,7 +36781,7 @@
       <c r="BL725" s="4"/>
       <c r="BM725" s="34"/>
     </row>
-    <row r="726" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="726" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS726" s="29"/>
       <c r="AT726" s="18"/>
       <c r="AU726" s="30"/>
@@ -36772,7 +36803,7 @@
       <c r="BL726" s="4"/>
       <c r="BM726" s="34"/>
     </row>
-    <row r="727" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="727" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS727" s="29"/>
       <c r="AT727" s="18"/>
       <c r="AU727" s="30"/>
@@ -36794,7 +36825,7 @@
       <c r="BL727" s="4"/>
       <c r="BM727" s="34"/>
     </row>
-    <row r="728" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="728" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS728" s="29"/>
       <c r="AT728" s="18"/>
       <c r="AU728" s="30"/>
@@ -36816,7 +36847,7 @@
       <c r="BL728" s="4"/>
       <c r="BM728" s="34"/>
     </row>
-    <row r="729" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="729" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS729" s="29"/>
       <c r="AT729" s="18"/>
       <c r="AU729" s="30"/>
@@ -36838,7 +36869,7 @@
       <c r="BL729" s="4"/>
       <c r="BM729" s="34"/>
     </row>
-    <row r="730" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="730" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS730" s="29"/>
       <c r="AT730" s="18"/>
       <c r="AU730" s="30"/>
@@ -36860,7 +36891,7 @@
       <c r="BL730" s="4"/>
       <c r="BM730" s="34"/>
     </row>
-    <row r="731" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="731" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS731" s="29"/>
       <c r="AT731" s="18"/>
       <c r="AU731" s="30"/>
@@ -36882,7 +36913,7 @@
       <c r="BL731" s="4"/>
       <c r="BM731" s="34"/>
     </row>
-    <row r="732" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="732" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS732" s="29"/>
       <c r="AT732" s="18"/>
       <c r="AU732" s="30"/>
@@ -36904,7 +36935,7 @@
       <c r="BL732" s="4"/>
       <c r="BM732" s="34"/>
     </row>
-    <row r="733" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="733" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS733" s="29"/>
       <c r="AT733" s="18"/>
       <c r="AU733" s="30"/>
@@ -36926,7 +36957,7 @@
       <c r="BL733" s="4"/>
       <c r="BM733" s="34"/>
     </row>
-    <row r="734" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="734" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS734" s="29"/>
       <c r="AT734" s="18"/>
       <c r="AU734" s="30"/>
@@ -36948,7 +36979,7 @@
       <c r="BL734" s="4"/>
       <c r="BM734" s="34"/>
     </row>
-    <row r="735" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="735" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS735" s="29"/>
       <c r="AT735" s="18"/>
       <c r="AU735" s="30"/>
@@ -36970,7 +37001,7 @@
       <c r="BL735" s="4"/>
       <c r="BM735" s="34"/>
     </row>
-    <row r="736" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="736" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS736" s="29"/>
       <c r="AT736" s="18"/>
       <c r="AU736" s="30"/>
@@ -36992,7 +37023,7 @@
       <c r="BL736" s="4"/>
       <c r="BM736" s="34"/>
     </row>
-    <row r="737" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="737" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS737" s="29"/>
       <c r="AT737" s="18"/>
       <c r="AU737" s="30"/>
@@ -37014,7 +37045,7 @@
       <c r="BL737" s="4"/>
       <c r="BM737" s="34"/>
     </row>
-    <row r="738" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="738" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS738" s="29"/>
       <c r="AT738" s="18"/>
       <c r="AU738" s="30"/>
@@ -37036,7 +37067,7 @@
       <c r="BL738" s="4"/>
       <c r="BM738" s="34"/>
     </row>
-    <row r="739" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="739" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS739" s="29"/>
       <c r="AT739" s="18"/>
       <c r="AU739" s="30"/>
@@ -37058,7 +37089,7 @@
       <c r="BL739" s="4"/>
       <c r="BM739" s="34"/>
     </row>
-    <row r="740" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="740" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS740" s="29"/>
       <c r="AT740" s="18"/>
       <c r="AU740" s="30"/>
@@ -37080,7 +37111,7 @@
       <c r="BL740" s="4"/>
       <c r="BM740" s="34"/>
     </row>
-    <row r="741" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="741" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS741" s="29"/>
       <c r="AT741" s="18"/>
       <c r="AU741" s="30"/>
@@ -37102,7 +37133,7 @@
       <c r="BL741" s="4"/>
       <c r="BM741" s="34"/>
     </row>
-    <row r="742" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="742" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS742" s="29"/>
       <c r="AT742" s="18"/>
       <c r="AU742" s="30"/>
@@ -37124,7 +37155,7 @@
       <c r="BL742" s="4"/>
       <c r="BM742" s="34"/>
     </row>
-    <row r="743" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="743" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS743" s="29"/>
       <c r="AT743" s="18"/>
       <c r="AU743" s="30"/>
@@ -37146,7 +37177,7 @@
       <c r="BL743" s="4"/>
       <c r="BM743" s="34"/>
     </row>
-    <row r="744" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="744" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS744" s="29"/>
       <c r="AT744" s="18"/>
       <c r="AU744" s="30"/>
@@ -37168,7 +37199,7 @@
       <c r="BL744" s="4"/>
       <c r="BM744" s="34"/>
     </row>
-    <row r="745" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="745" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS745" s="29"/>
       <c r="AT745" s="18"/>
       <c r="AU745" s="30"/>
@@ -37190,7 +37221,7 @@
       <c r="BL745" s="4"/>
       <c r="BM745" s="34"/>
     </row>
-    <row r="746" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="746" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS746" s="29"/>
       <c r="AT746" s="18"/>
       <c r="AU746" s="30"/>
@@ -37212,7 +37243,7 @@
       <c r="BL746" s="4"/>
       <c r="BM746" s="34"/>
     </row>
-    <row r="747" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="747" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS747" s="29"/>
       <c r="AT747" s="18"/>
       <c r="AU747" s="30"/>
@@ -37234,7 +37265,7 @@
       <c r="BL747" s="4"/>
       <c r="BM747" s="34"/>
     </row>
-    <row r="748" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="748" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS748" s="29"/>
       <c r="AT748" s="18"/>
       <c r="AU748" s="30"/>
@@ -37256,7 +37287,7 @@
       <c r="BL748" s="4"/>
       <c r="BM748" s="34"/>
     </row>
-    <row r="749" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="749" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS749" s="29"/>
       <c r="AT749" s="18"/>
       <c r="AU749" s="30"/>
@@ -37278,7 +37309,7 @@
       <c r="BL749" s="4"/>
       <c r="BM749" s="34"/>
     </row>
-    <row r="750" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="750" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS750" s="29"/>
       <c r="AT750" s="18"/>
       <c r="AU750" s="30"/>
@@ -37300,7 +37331,7 @@
       <c r="BL750" s="4"/>
       <c r="BM750" s="34"/>
     </row>
-    <row r="751" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="751" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS751" s="29"/>
       <c r="AT751" s="18"/>
       <c r="AU751" s="30"/>
@@ -37322,7 +37353,7 @@
       <c r="BL751" s="4"/>
       <c r="BM751" s="34"/>
     </row>
-    <row r="752" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="752" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS752" s="29"/>
       <c r="AT752" s="18"/>
       <c r="AU752" s="30"/>
@@ -37344,7 +37375,7 @@
       <c r="BL752" s="4"/>
       <c r="BM752" s="34"/>
     </row>
-    <row r="753" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="753" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS753" s="29"/>
       <c r="AT753" s="18"/>
       <c r="AU753" s="30"/>
@@ -37366,7 +37397,7 @@
       <c r="BL753" s="4"/>
       <c r="BM753" s="34"/>
     </row>
-    <row r="754" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="754" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS754" s="29"/>
       <c r="AT754" s="18"/>
       <c r="AU754" s="30"/>
@@ -37388,7 +37419,7 @@
       <c r="BL754" s="4"/>
       <c r="BM754" s="34"/>
     </row>
-    <row r="755" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="755" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS755" s="29"/>
       <c r="AT755" s="18"/>
       <c r="AU755" s="30"/>
@@ -37410,7 +37441,7 @@
       <c r="BL755" s="4"/>
       <c r="BM755" s="34"/>
     </row>
-    <row r="756" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="756" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS756" s="29"/>
       <c r="AT756" s="18"/>
       <c r="AU756" s="30"/>
@@ -37432,7 +37463,7 @@
       <c r="BL756" s="4"/>
       <c r="BM756" s="34"/>
     </row>
-    <row r="757" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="757" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS757" s="29"/>
       <c r="AT757" s="18"/>
       <c r="AU757" s="30"/>
@@ -37454,7 +37485,7 @@
       <c r="BL757" s="4"/>
       <c r="BM757" s="34"/>
     </row>
-    <row r="758" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="758" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS758" s="29"/>
       <c r="AT758" s="18"/>
       <c r="AU758" s="30"/>
@@ -37476,7 +37507,7 @@
       <c r="BL758" s="4"/>
       <c r="BM758" s="34"/>
     </row>
-    <row r="759" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="759" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS759" s="29"/>
       <c r="AT759" s="18"/>
       <c r="AU759" s="30"/>
@@ -37498,7 +37529,7 @@
       <c r="BL759" s="4"/>
       <c r="BM759" s="34"/>
     </row>
-    <row r="760" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="760" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS760" s="29"/>
       <c r="AT760" s="18"/>
       <c r="AU760" s="30"/>
@@ -37520,7 +37551,7 @@
       <c r="BL760" s="4"/>
       <c r="BM760" s="34"/>
     </row>
-    <row r="761" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="761" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS761" s="29"/>
       <c r="AT761" s="18"/>
       <c r="AU761" s="30"/>
@@ -37542,7 +37573,7 @@
       <c r="BL761" s="4"/>
       <c r="BM761" s="34"/>
     </row>
-    <row r="762" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="762" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS762" s="29"/>
       <c r="AT762" s="18"/>
       <c r="AU762" s="30"/>
@@ -37564,7 +37595,7 @@
       <c r="BL762" s="4"/>
       <c r="BM762" s="34"/>
     </row>
-    <row r="763" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="763" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS763" s="29"/>
       <c r="AT763" s="18"/>
       <c r="AU763" s="30"/>
@@ -37586,7 +37617,7 @@
       <c r="BL763" s="4"/>
       <c r="BM763" s="34"/>
     </row>
-    <row r="764" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="764" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS764" s="29"/>
       <c r="AT764" s="18"/>
       <c r="AU764" s="30"/>
@@ -37608,7 +37639,7 @@
       <c r="BL764" s="4"/>
       <c r="BM764" s="34"/>
     </row>
-    <row r="765" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="765" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS765" s="29"/>
       <c r="AT765" s="18"/>
       <c r="AU765" s="30"/>
@@ -37630,7 +37661,7 @@
       <c r="BL765" s="4"/>
       <c r="BM765" s="34"/>
     </row>
-    <row r="766" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="766" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS766" s="29"/>
       <c r="AT766" s="18"/>
       <c r="AU766" s="30"/>
@@ -37652,7 +37683,7 @@
       <c r="BL766" s="4"/>
       <c r="BM766" s="34"/>
     </row>
-    <row r="767" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="767" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS767" s="29"/>
       <c r="AT767" s="18"/>
       <c r="AU767" s="30"/>
@@ -37674,7 +37705,7 @@
       <c r="BL767" s="4"/>
       <c r="BM767" s="34"/>
     </row>
-    <row r="768" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="768" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS768" s="29"/>
       <c r="AT768" s="18"/>
       <c r="AU768" s="30"/>
@@ -37696,7 +37727,7 @@
       <c r="BL768" s="4"/>
       <c r="BM768" s="34"/>
     </row>
-    <row r="769" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="769" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS769" s="29"/>
       <c r="AT769" s="18"/>
       <c r="AU769" s="30"/>
@@ -37718,7 +37749,7 @@
       <c r="BL769" s="4"/>
       <c r="BM769" s="34"/>
     </row>
-    <row r="770" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="770" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS770" s="29"/>
       <c r="AT770" s="18"/>
       <c r="AU770" s="30"/>
@@ -37740,7 +37771,7 @@
       <c r="BL770" s="4"/>
       <c r="BM770" s="34"/>
     </row>
-    <row r="771" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="771" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS771" s="29"/>
       <c r="AT771" s="18"/>
       <c r="AU771" s="30"/>
@@ -37762,7 +37793,7 @@
       <c r="BL771" s="4"/>
       <c r="BM771" s="34"/>
     </row>
-    <row r="772" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="772" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS772" s="29"/>
       <c r="AT772" s="18"/>
       <c r="AU772" s="30"/>
@@ -37784,7 +37815,7 @@
       <c r="BL772" s="4"/>
       <c r="BM772" s="34"/>
     </row>
-    <row r="773" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="773" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS773" s="29"/>
       <c r="AT773" s="18"/>
       <c r="AU773" s="30"/>
@@ -37806,7 +37837,7 @@
       <c r="BL773" s="4"/>
       <c r="BM773" s="34"/>
     </row>
-    <row r="774" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="774" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS774" s="29"/>
       <c r="AT774" s="18"/>
       <c r="AU774" s="30"/>
@@ -37828,7 +37859,7 @@
       <c r="BL774" s="4"/>
       <c r="BM774" s="34"/>
     </row>
-    <row r="775" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="775" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS775" s="29"/>
       <c r="AT775" s="18"/>
       <c r="AU775" s="30"/>
@@ -37850,7 +37881,7 @@
       <c r="BL775" s="4"/>
       <c r="BM775" s="34"/>
     </row>
-    <row r="776" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="776" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS776" s="29"/>
       <c r="AT776" s="18"/>
       <c r="AU776" s="30"/>
@@ -37872,7 +37903,7 @@
       <c r="BL776" s="4"/>
       <c r="BM776" s="34"/>
     </row>
-    <row r="777" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="777" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS777" s="29"/>
       <c r="AT777" s="18"/>
       <c r="AU777" s="30"/>
@@ -37894,7 +37925,7 @@
       <c r="BL777" s="4"/>
       <c r="BM777" s="34"/>
     </row>
-    <row r="778" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="778" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS778" s="29"/>
       <c r="AT778" s="18"/>
       <c r="AU778" s="30"/>
@@ -37916,7 +37947,7 @@
       <c r="BL778" s="4"/>
       <c r="BM778" s="34"/>
     </row>
-    <row r="779" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="779" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS779" s="29"/>
       <c r="AT779" s="18"/>
       <c r="AU779" s="30"/>
@@ -37938,7 +37969,7 @@
       <c r="BL779" s="4"/>
       <c r="BM779" s="34"/>
     </row>
-    <row r="780" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="780" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS780" s="29"/>
       <c r="AT780" s="18"/>
       <c r="AU780" s="30"/>
@@ -37960,7 +37991,7 @@
       <c r="BL780" s="4"/>
       <c r="BM780" s="34"/>
     </row>
-    <row r="781" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="781" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS781" s="29"/>
       <c r="AT781" s="18"/>
       <c r="AU781" s="30"/>
@@ -37982,7 +38013,7 @@
       <c r="BL781" s="4"/>
       <c r="BM781" s="34"/>
     </row>
-    <row r="782" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="782" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS782" s="29"/>
       <c r="AT782" s="18"/>
       <c r="AU782" s="30"/>
@@ -38004,7 +38035,7 @@
       <c r="BL782" s="4"/>
       <c r="BM782" s="34"/>
     </row>
-    <row r="783" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="783" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS783" s="29"/>
       <c r="AT783" s="18"/>
       <c r="AU783" s="30"/>
@@ -38026,7 +38057,7 @@
       <c r="BL783" s="4"/>
       <c r="BM783" s="34"/>
     </row>
-    <row r="784" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="784" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS784" s="29"/>
       <c r="AT784" s="18"/>
       <c r="AU784" s="30"/>
@@ -38048,7 +38079,7 @@
       <c r="BL784" s="4"/>
       <c r="BM784" s="34"/>
     </row>
-    <row r="785" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="785" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS785" s="29"/>
       <c r="AT785" s="18"/>
       <c r="AU785" s="30"/>
@@ -38070,7 +38101,7 @@
       <c r="BL785" s="4"/>
       <c r="BM785" s="34"/>
     </row>
-    <row r="786" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="786" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS786" s="29"/>
       <c r="AT786" s="18"/>
       <c r="AU786" s="30"/>
@@ -38092,7 +38123,7 @@
       <c r="BL786" s="4"/>
       <c r="BM786" s="34"/>
     </row>
-    <row r="787" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="787" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS787" s="29"/>
       <c r="AT787" s="18"/>
       <c r="AU787" s="30"/>
@@ -38114,7 +38145,7 @@
       <c r="BL787" s="4"/>
       <c r="BM787" s="34"/>
     </row>
-    <row r="788" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="788" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS788" s="29"/>
       <c r="AT788" s="18"/>
       <c r="AU788" s="30"/>
@@ -38136,7 +38167,7 @@
       <c r="BL788" s="4"/>
       <c r="BM788" s="34"/>
     </row>
-    <row r="789" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="789" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS789" s="29"/>
       <c r="AT789" s="18"/>
       <c r="AU789" s="30"/>
@@ -38158,7 +38189,7 @@
       <c r="BL789" s="4"/>
       <c r="BM789" s="34"/>
     </row>
-    <row r="790" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="790" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS790" s="29"/>
       <c r="AT790" s="18"/>
       <c r="AU790" s="30"/>
@@ -38180,7 +38211,7 @@
       <c r="BL790" s="4"/>
       <c r="BM790" s="34"/>
     </row>
-    <row r="791" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="791" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS791" s="29"/>
       <c r="AT791" s="18"/>
       <c r="AU791" s="30"/>
@@ -38202,7 +38233,7 @@
       <c r="BL791" s="4"/>
       <c r="BM791" s="34"/>
     </row>
-    <row r="792" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="792" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS792" s="29"/>
       <c r="AT792" s="18"/>
       <c r="AU792" s="30"/>
@@ -38224,7 +38255,7 @@
       <c r="BL792" s="4"/>
       <c r="BM792" s="34"/>
     </row>
-    <row r="793" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="793" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS793" s="29"/>
       <c r="AT793" s="18"/>
       <c r="AU793" s="30"/>
@@ -38246,7 +38277,7 @@
       <c r="BL793" s="4"/>
       <c r="BM793" s="34"/>
     </row>
-    <row r="794" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="794" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS794" s="29"/>
       <c r="AT794" s="18"/>
       <c r="AU794" s="30"/>
@@ -38268,7 +38299,7 @@
       <c r="BL794" s="4"/>
       <c r="BM794" s="34"/>
     </row>
-    <row r="795" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="795" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS795" s="29"/>
       <c r="AT795" s="18"/>
       <c r="AU795" s="30"/>
@@ -38290,7 +38321,7 @@
       <c r="BL795" s="4"/>
       <c r="BM795" s="34"/>
     </row>
-    <row r="796" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="796" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS796" s="29"/>
       <c r="AT796" s="18"/>
       <c r="AU796" s="30"/>
@@ -38312,7 +38343,7 @@
       <c r="BL796" s="4"/>
       <c r="BM796" s="34"/>
     </row>
-    <row r="797" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="797" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS797" s="29"/>
       <c r="AT797" s="18"/>
       <c r="AU797" s="30"/>
@@ -38334,7 +38365,7 @@
       <c r="BL797" s="4"/>
       <c r="BM797" s="34"/>
     </row>
-    <row r="798" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="798" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS798" s="29"/>
       <c r="AT798" s="18"/>
       <c r="AU798" s="30"/>
@@ -38356,7 +38387,7 @@
       <c r="BL798" s="4"/>
       <c r="BM798" s="34"/>
     </row>
-    <row r="799" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="799" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS799" s="29"/>
       <c r="AT799" s="18"/>
       <c r="AU799" s="30"/>
@@ -38378,7 +38409,7 @@
       <c r="BL799" s="4"/>
       <c r="BM799" s="34"/>
     </row>
-    <row r="800" spans="45:65" x14ac:dyDescent="0.3">
+    <row r="800" spans="45:65" x14ac:dyDescent="0.25">
       <c r="AS800" s="31"/>
       <c r="AT800" s="32"/>
       <c r="AU800" s="33"/>
